--- a/Pin100.xlsx
+++ b/Pin100.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="199">
   <si>
     <t>Pin</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1551,7 +1551,7 @@
         <v>108</v>
       </c>
       <c r="B4" s="22">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>5</v>

--- a/Pin100.xlsx
+++ b/Pin100.xlsx
@@ -341,7 +341,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1887" uniqueCount="204">
   <si>
     <t>Pin</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1106,12 +1106,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;In2&gt;CAN0RX/INTP0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>High_Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;In1&gt;RIIC0SDA</t>
+  </si>
+  <si>
+    <t>&lt;In1&gt;TAUD0I7</t>
+  </si>
+  <si>
+    <t>&lt;In1&gt;INTP1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;In1&gt;CSIH3RYI</t>
   </si>
 </sst>
 </file>
@@ -1839,16 +1848,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P2" sqref="P2"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.875" customWidth="1"/>
-    <col min="4" max="4" width="16.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="2" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="9.75" customWidth="1"/>
     <col min="7" max="7" width="14.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="1" customWidth="1"/>
@@ -1944,7 +1953,7 @@
         <v>120</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>121</v>
+        <v>201</v>
       </c>
       <c r="I2" s="24" t="s">
         <v>128</v>
@@ -1991,7 +2000,7 @@
         <v>196</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G3" s="25" t="s">
         <v>120</v>
@@ -2030,7 +2039,7 @@
         <v>106</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G4" s="25" t="s">
         <v>120</v>
@@ -2071,12 +2080,14 @@
         <v>106</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G5" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="H5" s="25"/>
+      <c r="H5" s="25" t="s">
+        <v>203</v>
+      </c>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
       <c r="K5" s="25"/>
@@ -2110,12 +2121,14 @@
         <v>106</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G6" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="H6" s="25"/>
+      <c r="H6" s="25" t="s">
+        <v>121</v>
+      </c>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
       <c r="K6" s="25"/>
@@ -2206,13 +2219,13 @@
         <v>106</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G8" s="25" t="s">
         <v>112</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>199</v>
+        <v>121</v>
       </c>
       <c r="I8" s="25" t="s">
         <v>128</v>
@@ -2263,7 +2276,7 @@
         <v>106</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G9" s="25" t="s">
         <v>120</v>
@@ -2277,7 +2290,7 @@
       <c r="N9" s="25"/>
       <c r="O9" s="25"/>
       <c r="P9" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R9" s="6" t="s">
         <v>149</v>
@@ -2304,7 +2317,7 @@
         <v>106</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
@@ -2400,7 +2413,7 @@
         <v>106</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G12" s="25" t="s">
         <v>120</v>
@@ -2439,7 +2452,7 @@
         <v>106</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G13" s="25" t="s">
         <v>120</v>
@@ -2484,7 +2497,7 @@
         <v>106</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
@@ -2521,11 +2534,11 @@
         <v>106</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="25" t="s">
-        <v>121</v>
+        <v>200</v>
       </c>
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
@@ -2562,7 +2575,7 @@
         <v>106</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
@@ -2599,7 +2612,7 @@
         <v>106</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="25" t="s">
@@ -2642,7 +2655,7 @@
         <v>106</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
@@ -3041,7 +3054,9 @@
         <v>108</v>
       </c>
       <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
+      <c r="H28" s="25" t="s">
+        <v>202</v>
+      </c>
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
@@ -3875,7 +3890,9 @@
         <v>108</v>
       </c>
       <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
+      <c r="H47" s="25" t="s">
+        <v>121</v>
+      </c>
       <c r="I47" s="25"/>
       <c r="J47" s="25"/>
       <c r="K47" s="25"/>
@@ -4721,7 +4738,9 @@
       <c r="G71" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="H71" s="25"/>
+      <c r="H71" s="25" t="s">
+        <v>121</v>
+      </c>
       <c r="I71" s="25"/>
       <c r="J71" s="25"/>
       <c r="K71" s="25"/>
@@ -12746,7 +12765,7 @@
     <mergeCell ref="R27:R28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="69">
+  <dataValidations count="70">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G99:G110 G20:G29 G12:G18 G43:G51 G81:G96 G2:G10 G38:G41 G70:G76 G199:G210 G120:G129 G112:G118 G143:G151 G181:G196 G138:G141 G170:G176 G299:G301 G220:G229 G212:G218 G243:G251 G281:G296 G238:G241 G270:G276">
       <formula1>"GPIO,ALT"</formula1>
     </dataValidation>
@@ -12759,7 +12778,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P20:P29 P12:P18 P54:P76 P81:P96 P99:P110 P2:P10 P38:P41 P43:P51 P120:P129 P112:P118 P154:P176 P181:P196 P199:P210 P138:P141 P143:P151 P220:P229 P212:P218 P254:P276 P281:P296 P299:P301 P238:P241 P243:P251">
       <formula1>"Low-Level,High_Level"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F81:F96 F2:F18 F99:F118 F54:F76 F20:F29 F38:F41 F43:F51 F181:F196 F199:F218 F154:F176 F120:F129 F138:F141 F143:F151 F281:F296 F299:F301 F243:F251 F220:F229 F238:F241 F254:F276">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F81:F96 F254:F276 F99:F118 F54:F76 F20:F29 F38:F41 F43:F51 F181:F196 F199:F218 F154:F176 F120:F129 F138:F141 F143:F151 F281:F296 F299:F301 F243:F251 F220:F229 F238:F241 F2:F18">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7 H107 H207">
@@ -12822,7 +12841,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H46 H146 H246">
       <formula1>"NONE,&lt;In1&gt;TAUJ0I2,&lt;Out1&gt;TAUJ0O2,&lt;In2&gt;DPIN4,&lt;Out2&gt;CSIH0CSS2,&lt;In3&gt;INTP8,&lt;Out3&gt;PWGA36O"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H47 H147 H247">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H247 H147">
       <formula1>"NONE&lt;In1&gt;TAUJ0I3,&lt;Out1&gt;TAUJ0O3,&lt;Out2&gt;CSIH0CSS3,&lt;Out3&gt;PWGA37O"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H48 H148 H248">
@@ -12954,6 +12973,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I299:I301 I281:I296 I254:I276 I243:I251 I238:I241 I220:I229 I212:I218 I199:I210 I181:I196 I154:I176 I143:I151 I138:I141 I120:I129 I112:I118 I99:I110 I81:I96 I54:I76 I43:I51 I38:I41 I20:I29 I2:I10 I12:I18">
       <formula1>"IN,OUT"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H47">
+      <formula1>"NONE,&lt;In1&gt;TAUJ0I3,&lt;Out1&gt;TAUJ0O3,&lt;Out2&gt;CSIH0CSS3,&lt;Out3&gt;PWGA37O"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Pin100.xlsx
+++ b/Pin100.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\McuCode\GEN_RH850_F1L\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\GEN_RH850_F1L\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -341,7 +341,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1887" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1887" uniqueCount="205">
   <si>
     <t>Pin</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1113,14 +1113,17 @@
     <t>&lt;In1&gt;RIIC0SDA</t>
   </si>
   <si>
-    <t>&lt;In1&gt;TAUD0I7</t>
-  </si>
-  <si>
     <t>&lt;In1&gt;INTP1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;In1&gt;CSIH3RYI</t>
+  </si>
+  <si>
+    <t>&lt;Out1&gt;TAUD0O7</t>
+  </si>
+  <si>
+    <t>&lt;Out1&gt;TAUD0O4</t>
   </si>
 </sst>
 </file>
@@ -1512,13 +1515,19 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1535,12 +1544,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1850,7 +1853,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1924,11 +1927,11 @@
       <c r="P1" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="R1" s="43" t="s">
+      <c r="R1" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="26">
@@ -1953,10 +1956,10 @@
         <v>120</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="J2" s="24" t="s">
         <v>129</v>
@@ -1979,9 +1982,9 @@
       <c r="P2" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
     </row>
     <row r="3" spans="1:20" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A3" s="27">
@@ -2017,10 +2020,10 @@
       <c r="R3" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="S3" s="44" t="s">
+      <c r="S3" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="T3" s="44"/>
+      <c r="T3" s="37"/>
     </row>
     <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="27">
@@ -2053,7 +2056,7 @@
       <c r="N4" s="25"/>
       <c r="O4" s="25"/>
       <c r="P4" s="25"/>
-      <c r="R4" s="36" t="s">
+      <c r="R4" s="38" t="s">
         <v>138</v>
       </c>
       <c r="S4" s="4" t="s">
@@ -2086,7 +2089,7 @@
         <v>120</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
@@ -2096,7 +2099,7 @@
       <c r="N5" s="25"/>
       <c r="O5" s="25"/>
       <c r="P5" s="25"/>
-      <c r="R5" s="36"/>
+      <c r="R5" s="38"/>
       <c r="S5" s="5" t="s">
         <v>141</v>
       </c>
@@ -2140,10 +2143,10 @@
       <c r="R6" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="S6" s="37" t="s">
+      <c r="S6" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="T6" s="37"/>
+      <c r="T6" s="35"/>
     </row>
     <row r="7" spans="1:20" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A7" s="27">
@@ -2197,10 +2200,10 @@
       <c r="R7" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="S7" s="37" t="s">
+      <c r="S7" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="T7" s="37"/>
+      <c r="T7" s="35"/>
     </row>
     <row r="8" spans="1:20" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A8" s="27">
@@ -2225,10 +2228,10 @@
         <v>112</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>121</v>
+        <v>204</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="J8" s="25" t="s">
         <v>122</v>
@@ -2254,10 +2257,10 @@
       <c r="R8" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="S8" s="37" t="s">
+      <c r="S8" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="T8" s="37"/>
+      <c r="T8" s="35"/>
     </row>
     <row r="9" spans="1:20" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A9" s="27">
@@ -2295,10 +2298,10 @@
       <c r="R9" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="S9" s="37" t="s">
+      <c r="S9" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="T9" s="37"/>
+      <c r="T9" s="35"/>
     </row>
     <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="27">
@@ -2329,7 +2332,7 @@
       <c r="N10" s="25"/>
       <c r="O10" s="25"/>
       <c r="P10" s="25"/>
-      <c r="R10" s="36" t="s">
+      <c r="R10" s="38" t="s">
         <v>151</v>
       </c>
       <c r="S10" s="5" t="s">
@@ -2388,7 +2391,7 @@
       <c r="P11" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="R11" s="36"/>
+      <c r="R11" s="38"/>
       <c r="S11" s="5" t="s">
         <v>153</v>
       </c>
@@ -2430,10 +2433,10 @@
       <c r="R12" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="S12" s="38" t="s">
+      <c r="S12" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="T12" s="38"/>
+      <c r="T12" s="40"/>
     </row>
     <row r="13" spans="1:20" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A13" s="27">
@@ -2548,7 +2551,7 @@
       <c r="N15" s="25"/>
       <c r="O15" s="25"/>
       <c r="P15" s="25"/>
-      <c r="R15" s="36" t="s">
+      <c r="R15" s="38" t="s">
         <v>162</v>
       </c>
       <c r="S15" s="5" t="s">
@@ -2587,7 +2590,7 @@
       <c r="N16" s="25"/>
       <c r="O16" s="25"/>
       <c r="P16" s="25"/>
-      <c r="R16" s="36"/>
+      <c r="R16" s="38"/>
       <c r="S16" s="5" t="s">
         <v>165</v>
       </c>
@@ -2628,7 +2631,7 @@
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
       <c r="P17" s="25"/>
-      <c r="R17" s="36" t="s">
+      <c r="R17" s="38" t="s">
         <v>167</v>
       </c>
       <c r="S17" s="5" t="s">
@@ -2667,7 +2670,7 @@
       <c r="N18" s="25"/>
       <c r="O18" s="25"/>
       <c r="P18" s="25"/>
-      <c r="R18" s="36"/>
+      <c r="R18" s="38"/>
       <c r="S18" s="5" t="s">
         <v>165</v>
       </c>
@@ -2724,7 +2727,7 @@
       <c r="P19" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="R19" s="36" t="s">
+      <c r="R19" s="38" t="s">
         <v>170</v>
       </c>
       <c r="S19" s="5" t="s">
@@ -2765,7 +2768,7 @@
       <c r="N20" s="25"/>
       <c r="O20" s="25"/>
       <c r="P20" s="25"/>
-      <c r="R20" s="36"/>
+      <c r="R20" s="38"/>
       <c r="S20" s="5" t="s">
         <v>165</v>
       </c>
@@ -2802,7 +2805,7 @@
       <c r="N21" s="25"/>
       <c r="O21" s="25"/>
       <c r="P21" s="25"/>
-      <c r="R21" s="36" t="s">
+      <c r="R21" s="38" t="s">
         <v>174</v>
       </c>
       <c r="S21" s="5" t="s">
@@ -2841,7 +2844,7 @@
       <c r="N22" s="25"/>
       <c r="O22" s="25"/>
       <c r="P22" s="25"/>
-      <c r="R22" s="39"/>
+      <c r="R22" s="41"/>
       <c r="S22" s="7" t="s">
         <v>165</v>
       </c>
@@ -2878,10 +2881,10 @@
       <c r="N23" s="25"/>
       <c r="O23" s="25"/>
       <c r="P23" s="25"/>
-      <c r="R23" s="39" t="s">
+      <c r="R23" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="S23" s="42" t="s">
+      <c r="S23" s="44" t="s">
         <v>163</v>
       </c>
       <c r="T23" s="8" t="s">
@@ -2917,8 +2920,8 @@
       <c r="N24" s="25"/>
       <c r="O24" s="25"/>
       <c r="P24" s="25"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="44"/>
       <c r="T24" s="9" t="s">
         <v>179</v>
       </c>
@@ -2952,8 +2955,8 @@
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
       <c r="P25" s="25"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="42" t="s">
+      <c r="R25" s="42"/>
+      <c r="S25" s="44" t="s">
         <v>180</v>
       </c>
       <c r="T25" s="8" t="s">
@@ -2989,8 +2992,8 @@
       <c r="N26" s="25"/>
       <c r="O26" s="25"/>
       <c r="P26" s="25"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="42"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="44"/>
       <c r="T26" s="10" t="s">
         <v>182</v>
       </c>
@@ -3024,7 +3027,7 @@
       <c r="N27" s="25"/>
       <c r="O27" s="25"/>
       <c r="P27" s="25"/>
-      <c r="R27" s="36" t="s">
+      <c r="R27" s="38" t="s">
         <v>183</v>
       </c>
       <c r="S27" s="11" t="s">
@@ -3055,7 +3058,7 @@
       </c>
       <c r="G28" s="25"/>
       <c r="H28" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
@@ -3065,7 +3068,7 @@
       <c r="N28" s="25"/>
       <c r="O28" s="25"/>
       <c r="P28" s="25"/>
-      <c r="R28" s="36"/>
+      <c r="R28" s="38"/>
       <c r="S28" s="11" t="s">
         <v>180</v>
       </c>
@@ -3102,7 +3105,7 @@
       <c r="N29" s="25"/>
       <c r="O29" s="25"/>
       <c r="P29" s="25"/>
-      <c r="R29" s="36" t="s">
+      <c r="R29" s="38" t="s">
         <v>187</v>
       </c>
       <c r="S29" s="11" t="s">
@@ -3161,7 +3164,7 @@
       <c r="P30" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="R30" s="36"/>
+      <c r="R30" s="38"/>
       <c r="S30" s="11" t="s">
         <v>180</v>
       </c>
@@ -3268,10 +3271,10 @@
       <c r="P32" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="R32" s="35" t="s">
+      <c r="R32" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="S32" s="36"/>
+      <c r="S32" s="38"/>
       <c r="T32" s="2"/>
     </row>
     <row r="33" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
@@ -12744,12 +12747,6 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A1:P301"/>
   <mergeCells count="19">
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="R1:T2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
     <mergeCell ref="R32:S32"/>
     <mergeCell ref="R29:R30"/>
     <mergeCell ref="S9:T9"/>
@@ -12763,6 +12760,12 @@
     <mergeCell ref="S23:S24"/>
     <mergeCell ref="S25:S26"/>
     <mergeCell ref="R27:R28"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="R1:T2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="70">

--- a/Pin100.xlsx
+++ b/Pin100.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\GEN_RH850_F1L\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\McuCode\GEN_RH850_F1L\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$301</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -341,7 +341,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1887" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="208">
   <si>
     <t>Pin</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1120,10 +1120,19 @@
     <t>&lt;In1&gt;CSIH3RYI</t>
   </si>
   <si>
-    <t>&lt;Out1&gt;TAUD0O7</t>
-  </si>
-  <si>
     <t>&lt;Out1&gt;TAUD0O4</t>
+  </si>
+  <si>
+    <t>&lt;In1&gt;TAUD0I2</t>
+  </si>
+  <si>
+    <t>&lt;Out3&gt;PWGA3O</t>
+  </si>
+  <si>
+    <t>&lt;In1&gt;INTP2</t>
+  </si>
+  <si>
+    <t>&lt;In1&gt;CAN2RX/INTP2</t>
   </si>
 </sst>
 </file>
@@ -1515,19 +1524,13 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1544,6 +1547,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1851,9 +1860,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1927,11 +1936,11 @@
       <c r="P1" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="R1" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="26">
@@ -1956,7 +1965,7 @@
         <v>120</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I2" s="24" t="s">
         <v>132</v>
@@ -1982,9 +1991,9 @@
       <c r="P2" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
     </row>
     <row r="3" spans="1:20" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A3" s="27">
@@ -2020,10 +2029,10 @@
       <c r="R3" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="S3" s="37" t="s">
+      <c r="S3" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="T3" s="37"/>
+      <c r="T3" s="44"/>
     </row>
     <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="27">
@@ -2056,7 +2065,7 @@
       <c r="N4" s="25"/>
       <c r="O4" s="25"/>
       <c r="P4" s="25"/>
-      <c r="R4" s="38" t="s">
+      <c r="R4" s="36" t="s">
         <v>138</v>
       </c>
       <c r="S4" s="4" t="s">
@@ -2099,7 +2108,7 @@
       <c r="N5" s="25"/>
       <c r="O5" s="25"/>
       <c r="P5" s="25"/>
-      <c r="R5" s="38"/>
+      <c r="R5" s="36"/>
       <c r="S5" s="5" t="s">
         <v>141</v>
       </c>
@@ -2143,10 +2152,10 @@
       <c r="R6" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="S6" s="35" t="s">
+      <c r="S6" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="T6" s="35"/>
+      <c r="T6" s="37"/>
     </row>
     <row r="7" spans="1:20" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A7" s="27">
@@ -2171,7 +2180,7 @@
         <v>120</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>121</v>
+        <v>204</v>
       </c>
       <c r="I7" s="25" t="s">
         <v>128</v>
@@ -2200,10 +2209,10 @@
       <c r="R7" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="S7" s="35" t="s">
+      <c r="S7" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="T7" s="35"/>
+      <c r="T7" s="37"/>
     </row>
     <row r="8" spans="1:20" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A8" s="27">
@@ -2228,7 +2237,7 @@
         <v>112</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I8" s="25" t="s">
         <v>132</v>
@@ -2257,10 +2266,10 @@
       <c r="R8" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="S8" s="35" t="s">
+      <c r="S8" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="T8" s="35"/>
+      <c r="T8" s="37"/>
     </row>
     <row r="9" spans="1:20" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A9" s="27">
@@ -2298,10 +2307,10 @@
       <c r="R9" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="S9" s="35" t="s">
+      <c r="S9" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="T9" s="35"/>
+      <c r="T9" s="37"/>
     </row>
     <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="27">
@@ -2332,7 +2341,7 @@
       <c r="N10" s="25"/>
       <c r="O10" s="25"/>
       <c r="P10" s="25"/>
-      <c r="R10" s="38" t="s">
+      <c r="R10" s="36" t="s">
         <v>151</v>
       </c>
       <c r="S10" s="5" t="s">
@@ -2391,7 +2400,7 @@
       <c r="P11" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="R11" s="38"/>
+      <c r="R11" s="36"/>
       <c r="S11" s="5" t="s">
         <v>153</v>
       </c>
@@ -2433,10 +2442,10 @@
       <c r="R12" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="S12" s="40" t="s">
+      <c r="S12" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="T12" s="40"/>
+      <c r="T12" s="38"/>
     </row>
     <row r="13" spans="1:20" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A13" s="27">
@@ -2461,7 +2470,7 @@
         <v>120</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>121</v>
+        <v>207</v>
       </c>
       <c r="I13" s="25" t="s">
         <v>128</v>
@@ -2503,8 +2512,12 @@
         <v>119</v>
       </c>
       <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
+      <c r="H14" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>128</v>
+      </c>
       <c r="J14" s="25"/>
       <c r="K14" s="25"/>
       <c r="L14" s="25"/>
@@ -2551,7 +2564,7 @@
       <c r="N15" s="25"/>
       <c r="O15" s="25"/>
       <c r="P15" s="25"/>
-      <c r="R15" s="38" t="s">
+      <c r="R15" s="36" t="s">
         <v>162</v>
       </c>
       <c r="S15" s="5" t="s">
@@ -2583,14 +2596,16 @@
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
+      <c r="J16" s="25" t="s">
+        <v>129</v>
+      </c>
       <c r="K16" s="25"/>
       <c r="L16" s="25"/>
       <c r="M16" s="25"/>
       <c r="N16" s="25"/>
       <c r="O16" s="25"/>
       <c r="P16" s="25"/>
-      <c r="R16" s="38"/>
+      <c r="R16" s="36"/>
       <c r="S16" s="5" t="s">
         <v>165</v>
       </c>
@@ -2631,7 +2646,7 @@
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
       <c r="P17" s="25"/>
-      <c r="R17" s="38" t="s">
+      <c r="R17" s="36" t="s">
         <v>167</v>
       </c>
       <c r="S17" s="5" t="s">
@@ -2670,7 +2685,7 @@
       <c r="N18" s="25"/>
       <c r="O18" s="25"/>
       <c r="P18" s="25"/>
-      <c r="R18" s="38"/>
+      <c r="R18" s="36"/>
       <c r="S18" s="5" t="s">
         <v>165</v>
       </c>
@@ -2727,7 +2742,7 @@
       <c r="P19" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="R19" s="38" t="s">
+      <c r="R19" s="36" t="s">
         <v>170</v>
       </c>
       <c r="S19" s="5" t="s">
@@ -2768,7 +2783,7 @@
       <c r="N20" s="25"/>
       <c r="O20" s="25"/>
       <c r="P20" s="25"/>
-      <c r="R20" s="38"/>
+      <c r="R20" s="36"/>
       <c r="S20" s="5" t="s">
         <v>165</v>
       </c>
@@ -2805,7 +2820,7 @@
       <c r="N21" s="25"/>
       <c r="O21" s="25"/>
       <c r="P21" s="25"/>
-      <c r="R21" s="38" t="s">
+      <c r="R21" s="36" t="s">
         <v>174</v>
       </c>
       <c r="S21" s="5" t="s">
@@ -2844,7 +2859,7 @@
       <c r="N22" s="25"/>
       <c r="O22" s="25"/>
       <c r="P22" s="25"/>
-      <c r="R22" s="41"/>
+      <c r="R22" s="39"/>
       <c r="S22" s="7" t="s">
         <v>165</v>
       </c>
@@ -2881,10 +2896,10 @@
       <c r="N23" s="25"/>
       <c r="O23" s="25"/>
       <c r="P23" s="25"/>
-      <c r="R23" s="41" t="s">
+      <c r="R23" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="S23" s="44" t="s">
+      <c r="S23" s="42" t="s">
         <v>163</v>
       </c>
       <c r="T23" s="8" t="s">
@@ -2920,8 +2935,8 @@
       <c r="N24" s="25"/>
       <c r="O24" s="25"/>
       <c r="P24" s="25"/>
-      <c r="R24" s="42"/>
-      <c r="S24" s="44"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="42"/>
       <c r="T24" s="9" t="s">
         <v>179</v>
       </c>
@@ -2955,8 +2970,8 @@
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
       <c r="P25" s="25"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="44" t="s">
+      <c r="R25" s="40"/>
+      <c r="S25" s="42" t="s">
         <v>180</v>
       </c>
       <c r="T25" s="8" t="s">
@@ -2992,8 +3007,8 @@
       <c r="N26" s="25"/>
       <c r="O26" s="25"/>
       <c r="P26" s="25"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="44"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="42"/>
       <c r="T26" s="10" t="s">
         <v>182</v>
       </c>
@@ -3027,7 +3042,7 @@
       <c r="N27" s="25"/>
       <c r="O27" s="25"/>
       <c r="P27" s="25"/>
-      <c r="R27" s="38" t="s">
+      <c r="R27" s="36" t="s">
         <v>183</v>
       </c>
       <c r="S27" s="11" t="s">
@@ -3068,7 +3083,7 @@
       <c r="N28" s="25"/>
       <c r="O28" s="25"/>
       <c r="P28" s="25"/>
-      <c r="R28" s="38"/>
+      <c r="R28" s="36"/>
       <c r="S28" s="11" t="s">
         <v>180</v>
       </c>
@@ -3105,7 +3120,7 @@
       <c r="N29" s="25"/>
       <c r="O29" s="25"/>
       <c r="P29" s="25"/>
-      <c r="R29" s="38" t="s">
+      <c r="R29" s="36" t="s">
         <v>187</v>
       </c>
       <c r="S29" s="11" t="s">
@@ -3164,7 +3179,7 @@
       <c r="P30" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="R30" s="38"/>
+      <c r="R30" s="36"/>
       <c r="S30" s="11" t="s">
         <v>180</v>
       </c>
@@ -3271,10 +3286,10 @@
       <c r="P32" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="R32" s="39" t="s">
+      <c r="R32" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="S32" s="38"/>
+      <c r="S32" s="36"/>
       <c r="T32" s="2"/>
     </row>
     <row r="33" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
@@ -12747,6 +12762,12 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A1:P301"/>
   <mergeCells count="19">
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="R1:T2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
     <mergeCell ref="R32:S32"/>
     <mergeCell ref="R29:R30"/>
     <mergeCell ref="S9:T9"/>
@@ -12760,12 +12781,6 @@
     <mergeCell ref="S23:S24"/>
     <mergeCell ref="S25:S26"/>
     <mergeCell ref="R27:R28"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="R1:T2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="70">

--- a/Pin100.xlsx
+++ b/Pin100.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\GEN_RH850_F1L\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\McuCode\GEN_RH850_F1L\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="14970" windowHeight="7515"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="14970" windowHeight="7515" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="pinmux配置" sheetId="1" r:id="rId1"/>
@@ -455,7 +455,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2286" uniqueCount="568">
   <si>
     <t>Pin</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3279,44 +3279,8 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3342,18 +3306,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3423,28 +3375,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3453,38 +3384,17 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -3498,6 +3408,93 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3507,6 +3504,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3514,15 +3520,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3543,20 +3540,23 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3905,9 +3905,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T302"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K95" sqref="K95"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H84" sqref="H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3934,62 +3934,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="49.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="M1" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="N1" s="49" t="s">
+      <c r="N1" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="O1" s="49" t="s">
+      <c r="O1" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="P1" s="52" t="s">
+      <c r="P1" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="R1" s="64" t="s">
+      <c r="R1" s="66" t="s">
         <v>563</v>
       </c>
-      <c r="S1" s="65"/>
-      <c r="T1" s="66"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="68"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="53">
+      <c r="A2" s="37">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -4034,15 +4034,15 @@
       <c r="O2" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="P2" s="54" t="s">
+      <c r="P2" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="R2" s="67"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="68"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="71"/>
     </row>
     <row r="3" spans="1:20" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="36">
+      <c r="A3" s="24">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -4071,17 +4071,17 @@
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
-      <c r="P3" s="55"/>
-      <c r="R3" s="69" t="s">
+      <c r="P3" s="39"/>
+      <c r="R3" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="S3" s="22" t="s">
+      <c r="S3" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="T3" s="70"/>
+      <c r="T3" s="73"/>
     </row>
     <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="36">
+      <c r="A4" s="24">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -4110,19 +4110,19 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
-      <c r="P4" s="55"/>
-      <c r="R4" s="71" t="s">
+      <c r="P4" s="39"/>
+      <c r="R4" s="74" t="s">
         <v>137</v>
       </c>
       <c r="S4" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="T4" s="72" t="s">
+      <c r="T4" s="49" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="36">
+      <c r="A5" s="24">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -4153,17 +4153,17 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
-      <c r="P5" s="55"/>
-      <c r="R5" s="71"/>
+      <c r="P5" s="39"/>
+      <c r="R5" s="74"/>
       <c r="S5" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="T5" s="72" t="s">
+      <c r="T5" s="49" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="36">
+      <c r="A6" s="24">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -4194,17 +4194,17 @@
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
-      <c r="P6" s="55"/>
-      <c r="R6" s="73" t="s">
+      <c r="P6" s="39"/>
+      <c r="R6" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="S6" s="19" t="s">
+      <c r="S6" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="T6" s="74"/>
+      <c r="T6" s="65"/>
     </row>
     <row r="7" spans="1:20" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="36">
+      <c r="A7" s="24">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -4249,19 +4249,19 @@
       <c r="O7" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="P7" s="55" t="s">
+      <c r="P7" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="R7" s="73" t="s">
+      <c r="R7" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="S7" s="19" t="s">
+      <c r="S7" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="T7" s="74"/>
+      <c r="T7" s="65"/>
     </row>
     <row r="8" spans="1:20" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="36">
+      <c r="A8" s="24">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -4306,19 +4306,19 @@
       <c r="O8" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="P8" s="55" t="s">
+      <c r="P8" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="R8" s="73" t="s">
+      <c r="R8" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="S8" s="19" t="s">
+      <c r="S8" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="T8" s="74"/>
+      <c r="T8" s="65"/>
     </row>
     <row r="9" spans="1:20" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="36">
+      <c r="A9" s="24">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -4347,19 +4347,19 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
-      <c r="P9" s="55" t="s">
+      <c r="P9" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="R9" s="73" t="s">
+      <c r="R9" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="S9" s="19" t="s">
+      <c r="S9" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="T9" s="74"/>
+      <c r="T9" s="65"/>
     </row>
     <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="36">
+      <c r="A10" s="24">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -4386,19 +4386,19 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
-      <c r="P10" s="55"/>
-      <c r="R10" s="71" t="s">
+      <c r="P10" s="39"/>
+      <c r="R10" s="74" t="s">
         <v>149</v>
       </c>
       <c r="S10" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="T10" s="72" t="s">
+      <c r="T10" s="49" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="39">
+      <c r="A11" s="27">
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -4443,19 +4443,19 @@
       <c r="O11" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P11" s="56" t="s">
-        <v>194</v>
-      </c>
-      <c r="R11" s="71"/>
+      <c r="P11" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="R11" s="74"/>
       <c r="S11" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="T11" s="72" t="s">
+      <c r="T11" s="49" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="36">
+      <c r="A12" s="24">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -4486,17 +4486,17 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
-      <c r="P12" s="55"/>
-      <c r="R12" s="73" t="s">
+      <c r="P12" s="39"/>
+      <c r="R12" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="S12" s="19" t="s">
+      <c r="S12" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="T12" s="74"/>
+      <c r="T12" s="65"/>
     </row>
     <row r="13" spans="1:20" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="36">
+      <c r="A13" s="24">
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -4529,19 +4529,19 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
-      <c r="P13" s="55"/>
-      <c r="R13" s="73" t="s">
+      <c r="P13" s="39"/>
+      <c r="R13" s="50" t="s">
         <v>155</v>
       </c>
       <c r="S13" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="T13" s="72" t="s">
+      <c r="T13" s="49" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="36">
+      <c r="A14" s="24">
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -4572,17 +4572,17 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
-      <c r="P14" s="55"/>
-      <c r="R14" s="73"/>
+      <c r="P14" s="39"/>
+      <c r="R14" s="50"/>
       <c r="S14" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="T14" s="72" t="s">
+      <c r="T14" s="49" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="36">
+      <c r="A15" s="24">
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -4611,19 +4611,19 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
-      <c r="P15" s="55"/>
-      <c r="R15" s="71" t="s">
+      <c r="P15" s="39"/>
+      <c r="R15" s="74" t="s">
         <v>160</v>
       </c>
       <c r="S15" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="T15" s="72" t="s">
+      <c r="T15" s="49" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="36">
+      <c r="A16" s="24">
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -4652,17 +4652,17 @@
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
-      <c r="P16" s="55"/>
-      <c r="R16" s="71"/>
+      <c r="P16" s="39"/>
+      <c r="R16" s="74"/>
       <c r="S16" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="T16" s="72" t="s">
+      <c r="T16" s="49" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="36">
+      <c r="A17" s="24">
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -4693,19 +4693,19 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
-      <c r="P17" s="55"/>
-      <c r="R17" s="71" t="s">
+      <c r="P17" s="39"/>
+      <c r="R17" s="74" t="s">
         <v>165</v>
       </c>
       <c r="S17" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="T17" s="72" t="s">
+      <c r="T17" s="49" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="36">
+      <c r="A18" s="24">
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -4732,17 +4732,17 @@
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
-      <c r="P18" s="55"/>
-      <c r="R18" s="71"/>
+      <c r="P18" s="39"/>
+      <c r="R18" s="74"/>
       <c r="S18" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="T18" s="72" t="s">
+      <c r="T18" s="49" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="39">
+      <c r="A19" s="27">
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
@@ -4787,21 +4787,21 @@
       <c r="O19" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P19" s="56" t="s">
-        <v>194</v>
-      </c>
-      <c r="R19" s="71" t="s">
+      <c r="P19" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="R19" s="74" t="s">
         <v>168</v>
       </c>
       <c r="S19" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="T19" s="72" t="s">
+      <c r="T19" s="49" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="36">
+      <c r="A20" s="24">
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -4830,17 +4830,17 @@
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
-      <c r="P20" s="55"/>
-      <c r="R20" s="71"/>
+      <c r="P20" s="39"/>
+      <c r="R20" s="74"/>
       <c r="S20" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="T20" s="72" t="s">
+      <c r="T20" s="49" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="36">
+      <c r="A21" s="24">
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -4867,19 +4867,19 @@
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
-      <c r="P21" s="55"/>
-      <c r="R21" s="71" t="s">
+      <c r="P21" s="39"/>
+      <c r="R21" s="74" t="s">
         <v>172</v>
       </c>
       <c r="S21" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="T21" s="72" t="s">
+      <c r="T21" s="49" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="36">
+      <c r="A22" s="24">
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -4906,17 +4906,17 @@
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
-      <c r="P22" s="55"/>
-      <c r="R22" s="75"/>
+      <c r="P22" s="39"/>
+      <c r="R22" s="78"/>
       <c r="S22" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="T22" s="76" t="s">
+      <c r="T22" s="51" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="36">
+      <c r="A23" s="24">
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -4943,19 +4943,19 @@
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
-      <c r="P23" s="55"/>
-      <c r="R23" s="75" t="s">
+      <c r="P23" s="39"/>
+      <c r="R23" s="78" t="s">
         <v>175</v>
       </c>
-      <c r="S23" s="20" t="s">
+      <c r="S23" s="81" t="s">
         <v>161</v>
       </c>
-      <c r="T23" s="76" t="s">
+      <c r="T23" s="51" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="36">
+      <c r="A24" s="24">
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -4982,15 +4982,15 @@
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
-      <c r="P24" s="55"/>
-      <c r="R24" s="77"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="78" t="s">
+      <c r="P24" s="39"/>
+      <c r="R24" s="79"/>
+      <c r="S24" s="81"/>
+      <c r="T24" s="52" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="36">
+      <c r="A25" s="24">
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -5017,17 +5017,17 @@
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
-      <c r="P25" s="55"/>
-      <c r="R25" s="77"/>
-      <c r="S25" s="20" t="s">
+      <c r="P25" s="39"/>
+      <c r="R25" s="79"/>
+      <c r="S25" s="81" t="s">
         <v>178</v>
       </c>
-      <c r="T25" s="76" t="s">
+      <c r="T25" s="51" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="36">
+      <c r="A26" s="24">
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -5054,15 +5054,15 @@
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
-      <c r="P26" s="55"/>
-      <c r="R26" s="79"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="78" t="s">
+      <c r="P26" s="39"/>
+      <c r="R26" s="80"/>
+      <c r="S26" s="81"/>
+      <c r="T26" s="52" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="33" x14ac:dyDescent="0.15">
-      <c r="A27" s="36">
+      <c r="A27" s="24">
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -5089,19 +5089,19 @@
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
-      <c r="P27" s="55"/>
-      <c r="R27" s="71" t="s">
+      <c r="P27" s="39"/>
+      <c r="R27" s="74" t="s">
         <v>181</v>
       </c>
       <c r="S27" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="T27" s="72" t="s">
+      <c r="T27" s="49" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="36">
+      <c r="A28" s="24">
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
@@ -5130,17 +5130,17 @@
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
-      <c r="P28" s="55"/>
-      <c r="R28" s="71"/>
+      <c r="P28" s="39"/>
+      <c r="R28" s="74"/>
       <c r="S28" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="T28" s="72" t="s">
+      <c r="T28" s="49" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="36">
+      <c r="A29" s="24">
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
@@ -5167,19 +5167,19 @@
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
-      <c r="P29" s="55"/>
-      <c r="R29" s="71" t="s">
+      <c r="P29" s="39"/>
+      <c r="R29" s="74" t="s">
         <v>185</v>
       </c>
       <c r="S29" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="T29" s="72" t="s">
+      <c r="T29" s="49" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="39">
+      <c r="A30" s="27">
         <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
@@ -5224,19 +5224,19 @@
       <c r="O30" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P30" s="56" t="s">
-        <v>194</v>
-      </c>
-      <c r="R30" s="80"/>
-      <c r="S30" s="81" t="s">
+      <c r="P30" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="R30" s="77"/>
+      <c r="S30" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="T30" s="82" t="s">
+      <c r="T30" s="54" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="39">
+      <c r="A31" s="27">
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
@@ -5281,12 +5281,12 @@
       <c r="O31" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P31" s="56" t="s">
+      <c r="P31" s="40" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="39">
+      <c r="A32" s="27">
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
@@ -5331,16 +5331,16 @@
       <c r="O32" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P32" s="56" t="s">
-        <v>194</v>
-      </c>
-      <c r="R32" s="83" t="s">
+      <c r="P32" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="R32" s="75" t="s">
         <v>192</v>
       </c>
-      <c r="S32" s="84"/>
+      <c r="S32" s="76"/>
     </row>
     <row r="33" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="39">
+      <c r="A33" s="27">
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
@@ -5385,16 +5385,16 @@
       <c r="O33" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P33" s="56" t="s">
-        <v>194</v>
-      </c>
-      <c r="R33" s="85"/>
-      <c r="S33" s="86" t="s">
+      <c r="P33" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="R33" s="55"/>
+      <c r="S33" s="56" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="39">
+      <c r="A34" s="27">
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
@@ -5439,16 +5439,16 @@
       <c r="O34" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P34" s="56" t="s">
-        <v>194</v>
-      </c>
-      <c r="R34" s="87"/>
-      <c r="S34" s="86" t="s">
+      <c r="P34" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="R34" s="57"/>
+      <c r="S34" s="56" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="33" x14ac:dyDescent="0.15">
-      <c r="A35" s="39">
+      <c r="A35" s="27">
         <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
@@ -5493,16 +5493,16 @@
       <c r="O35" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P35" s="56" t="s">
-        <v>194</v>
-      </c>
-      <c r="R35" s="88"/>
-      <c r="S35" s="86" t="s">
+      <c r="P35" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="R35" s="58"/>
+      <c r="S35" s="56" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="39">
+      <c r="A36" s="27">
         <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
@@ -5547,16 +5547,16 @@
       <c r="O36" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P36" s="56" t="s">
-        <v>194</v>
-      </c>
-      <c r="R36" s="104"/>
-      <c r="S36" s="86" t="s">
+      <c r="P36" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="R36" s="59"/>
+      <c r="S36" s="56" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="39">
+      <c r="A37" s="27">
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
@@ -5601,16 +5601,16 @@
       <c r="O37" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P37" s="56" t="s">
-        <v>194</v>
-      </c>
-      <c r="R37" s="105" t="s">
+      <c r="P37" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="R37" s="60" t="s">
         <v>565</v>
       </c>
-      <c r="S37" s="106"/>
+      <c r="S37" s="61"/>
     </row>
     <row r="38" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="36">
+      <c r="A38" s="24">
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
@@ -5637,12 +5637,12 @@
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
-      <c r="P38" s="55"/>
-      <c r="R38" s="107"/>
-      <c r="S38" s="108"/>
+      <c r="P38" s="39"/>
+      <c r="R38" s="62"/>
+      <c r="S38" s="63"/>
     </row>
     <row r="39" spans="1:19" ht="17.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="36">
+      <c r="A39" s="24">
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -5669,10 +5669,10 @@
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
-      <c r="P39" s="55"/>
+      <c r="P39" s="39"/>
     </row>
     <row r="40" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="36">
+      <c r="A40" s="24">
         <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
@@ -5699,10 +5699,10 @@
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
-      <c r="P40" s="55"/>
+      <c r="P40" s="39"/>
     </row>
     <row r="41" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="36">
+      <c r="A41" s="24">
         <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
@@ -5729,10 +5729,10 @@
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>
-      <c r="P41" s="55"/>
+      <c r="P41" s="39"/>
     </row>
     <row r="42" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="39">
+      <c r="A42" s="27">
         <v>41</v>
       </c>
       <c r="B42" s="9" t="s">
@@ -5777,12 +5777,12 @@
       <c r="O42" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="P42" s="57" t="s">
+      <c r="P42" s="41" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="36">
+      <c r="A43" s="24">
         <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
@@ -5827,12 +5827,12 @@
       <c r="O43" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="P43" s="55" t="s">
+      <c r="P43" s="39" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="36">
+      <c r="A44" s="24">
         <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
@@ -5859,10 +5859,10 @@
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
       <c r="O44" s="6"/>
-      <c r="P44" s="55"/>
+      <c r="P44" s="39"/>
     </row>
     <row r="45" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A45" s="36">
+      <c r="A45" s="24">
         <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
@@ -5907,12 +5907,12 @@
       <c r="O45" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="P45" s="55" t="s">
+      <c r="P45" s="39" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="36">
+      <c r="A46" s="24">
         <v>45</v>
       </c>
       <c r="B46" s="8" t="s">
@@ -5939,10 +5939,10 @@
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
       <c r="O46" s="6"/>
-      <c r="P46" s="55"/>
+      <c r="P46" s="39"/>
     </row>
     <row r="47" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A47" s="36">
+      <c r="A47" s="24">
         <v>46</v>
       </c>
       <c r="B47" s="8" t="s">
@@ -5971,10 +5971,10 @@
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
       <c r="O47" s="6"/>
-      <c r="P47" s="55"/>
+      <c r="P47" s="39"/>
     </row>
     <row r="48" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A48" s="36">
+      <c r="A48" s="24">
         <v>47</v>
       </c>
       <c r="B48" s="8" t="s">
@@ -6001,10 +6001,10 @@
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
       <c r="O48" s="6"/>
-      <c r="P48" s="55"/>
+      <c r="P48" s="39"/>
     </row>
     <row r="49" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A49" s="36">
+      <c r="A49" s="24">
         <v>48</v>
       </c>
       <c r="B49" s="8" t="s">
@@ -6031,10 +6031,10 @@
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
       <c r="O49" s="6"/>
-      <c r="P49" s="55"/>
+      <c r="P49" s="39"/>
     </row>
     <row r="50" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A50" s="36">
+      <c r="A50" s="24">
         <v>49</v>
       </c>
       <c r="B50" s="8" t="s">
@@ -6061,10 +6061,10 @@
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
       <c r="O50" s="6"/>
-      <c r="P50" s="55"/>
+      <c r="P50" s="39"/>
     </row>
     <row r="51" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A51" s="36">
+      <c r="A51" s="24">
         <v>50</v>
       </c>
       <c r="B51" s="8" t="s">
@@ -6091,10 +6091,10 @@
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
       <c r="O51" s="6"/>
-      <c r="P51" s="55"/>
+      <c r="P51" s="39"/>
     </row>
     <row r="52" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A52" s="39">
+      <c r="A52" s="27">
         <v>51</v>
       </c>
       <c r="B52" s="9" t="s">
@@ -6139,12 +6139,12 @@
       <c r="O52" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P52" s="56" t="s">
+      <c r="P52" s="40" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A53" s="39">
+      <c r="A53" s="27">
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
@@ -6189,12 +6189,12 @@
       <c r="O53" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P53" s="56" t="s">
+      <c r="P53" s="40" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A54" s="36">
+      <c r="A54" s="24">
         <v>53</v>
       </c>
       <c r="B54" s="8" t="s">
@@ -6225,10 +6225,10 @@
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
-      <c r="P54" s="55"/>
+      <c r="P54" s="39"/>
     </row>
     <row r="55" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="36">
+      <c r="A55" s="24">
         <v>54</v>
       </c>
       <c r="B55" s="8" t="s">
@@ -6259,10 +6259,10 @@
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
       <c r="O55" s="6"/>
-      <c r="P55" s="55"/>
+      <c r="P55" s="39"/>
     </row>
     <row r="56" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A56" s="36">
+      <c r="A56" s="24">
         <v>55</v>
       </c>
       <c r="B56" s="8" t="s">
@@ -6293,10 +6293,10 @@
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
       <c r="O56" s="6"/>
-      <c r="P56" s="55"/>
+      <c r="P56" s="39"/>
     </row>
     <row r="57" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A57" s="36">
+      <c r="A57" s="24">
         <v>56</v>
       </c>
       <c r="B57" s="8" t="s">
@@ -6327,10 +6327,10 @@
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
-      <c r="P57" s="55"/>
+      <c r="P57" s="39"/>
     </row>
     <row r="58" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A58" s="36">
+      <c r="A58" s="24">
         <v>57</v>
       </c>
       <c r="B58" s="8" t="s">
@@ -6361,10 +6361,10 @@
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
       <c r="O58" s="6"/>
-      <c r="P58" s="55"/>
+      <c r="P58" s="39"/>
     </row>
     <row r="59" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A59" s="36">
+      <c r="A59" s="24">
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
@@ -6395,10 +6395,10 @@
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
       <c r="O59" s="6"/>
-      <c r="P59" s="55"/>
+      <c r="P59" s="39"/>
     </row>
     <row r="60" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A60" s="36">
+      <c r="A60" s="24">
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
@@ -6429,10 +6429,10 @@
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
       <c r="O60" s="6"/>
-      <c r="P60" s="55"/>
+      <c r="P60" s="39"/>
     </row>
     <row r="61" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A61" s="36">
+      <c r="A61" s="24">
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
@@ -6463,10 +6463,10 @@
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
       <c r="O61" s="6"/>
-      <c r="P61" s="55"/>
+      <c r="P61" s="39"/>
     </row>
     <row r="62" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A62" s="36">
+      <c r="A62" s="24">
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
@@ -6497,10 +6497,10 @@
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
       <c r="O62" s="6"/>
-      <c r="P62" s="55"/>
+      <c r="P62" s="39"/>
     </row>
     <row r="63" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A63" s="36">
+      <c r="A63" s="24">
         <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
@@ -6531,10 +6531,10 @@
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
       <c r="O63" s="6"/>
-      <c r="P63" s="55"/>
+      <c r="P63" s="39"/>
     </row>
     <row r="64" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="36">
+      <c r="A64" s="24">
         <v>63</v>
       </c>
       <c r="B64" s="8" t="s">
@@ -6565,10 +6565,10 @@
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
       <c r="O64" s="6"/>
-      <c r="P64" s="55"/>
+      <c r="P64" s="39"/>
     </row>
     <row r="65" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="36">
+      <c r="A65" s="24">
         <v>64</v>
       </c>
       <c r="B65" s="8" t="s">
@@ -6599,10 +6599,10 @@
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
       <c r="O65" s="6"/>
-      <c r="P65" s="55"/>
+      <c r="P65" s="39"/>
     </row>
     <row r="66" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A66" s="36">
+      <c r="A66" s="24">
         <v>65</v>
       </c>
       <c r="B66" s="8" t="s">
@@ -6633,10 +6633,10 @@
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
       <c r="O66" s="6"/>
-      <c r="P66" s="55"/>
+      <c r="P66" s="39"/>
     </row>
     <row r="67" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A67" s="36">
+      <c r="A67" s="24">
         <v>66</v>
       </c>
       <c r="B67" s="8" t="s">
@@ -6667,10 +6667,10 @@
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
       <c r="O67" s="6"/>
-      <c r="P67" s="55"/>
+      <c r="P67" s="39"/>
     </row>
     <row r="68" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A68" s="36">
+      <c r="A68" s="24">
         <v>67</v>
       </c>
       <c r="B68" s="8" t="s">
@@ -6701,10 +6701,10 @@
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
       <c r="O68" s="6"/>
-      <c r="P68" s="55"/>
+      <c r="P68" s="39"/>
     </row>
     <row r="69" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A69" s="36">
+      <c r="A69" s="24">
         <v>68</v>
       </c>
       <c r="B69" s="8" t="s">
@@ -6735,10 +6735,10 @@
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
       <c r="O69" s="6"/>
-      <c r="P69" s="55"/>
+      <c r="P69" s="39"/>
     </row>
     <row r="70" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A70" s="36">
+      <c r="A70" s="24">
         <v>69</v>
       </c>
       <c r="B70" s="8" t="s">
@@ -6783,12 +6783,12 @@
       <c r="O70" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="P70" s="55" t="s">
+      <c r="P70" s="39" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A71" s="36">
+      <c r="A71" s="24">
         <v>70</v>
       </c>
       <c r="B71" s="8" t="s">
@@ -6819,10 +6819,10 @@
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
       <c r="O71" s="6"/>
-      <c r="P71" s="55"/>
+      <c r="P71" s="39"/>
     </row>
     <row r="72" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A72" s="36">
+      <c r="A72" s="24">
         <v>71</v>
       </c>
       <c r="B72" s="8" t="s">
@@ -6851,10 +6851,10 @@
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
       <c r="O72" s="6"/>
-      <c r="P72" s="55"/>
+      <c r="P72" s="39"/>
     </row>
     <row r="73" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="36">
+      <c r="A73" s="24">
         <v>72</v>
       </c>
       <c r="B73" s="8" t="s">
@@ -6881,10 +6881,10 @@
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
       <c r="O73" s="6"/>
-      <c r="P73" s="55"/>
+      <c r="P73" s="39"/>
     </row>
     <row r="74" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A74" s="36">
+      <c r="A74" s="24">
         <v>73</v>
       </c>
       <c r="B74" s="8" t="s">
@@ -6911,10 +6911,10 @@
       <c r="M74" s="6"/>
       <c r="N74" s="6"/>
       <c r="O74" s="6"/>
-      <c r="P74" s="55"/>
+      <c r="P74" s="39"/>
     </row>
     <row r="75" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A75" s="36">
+      <c r="A75" s="24">
         <v>74</v>
       </c>
       <c r="B75" s="8" t="s">
@@ -6941,10 +6941,10 @@
       <c r="M75" s="6"/>
       <c r="N75" s="6"/>
       <c r="O75" s="6"/>
-      <c r="P75" s="55"/>
+      <c r="P75" s="39"/>
     </row>
     <row r="76" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A76" s="36">
+      <c r="A76" s="24">
         <v>75</v>
       </c>
       <c r="B76" s="8" t="s">
@@ -6971,10 +6971,10 @@
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
       <c r="O76" s="6"/>
-      <c r="P76" s="55"/>
+      <c r="P76" s="39"/>
     </row>
     <row r="77" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A77" s="39">
+      <c r="A77" s="27">
         <v>76</v>
       </c>
       <c r="B77" s="9" t="s">
@@ -7019,12 +7019,12 @@
       <c r="O77" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P77" s="56" t="s">
+      <c r="P77" s="40" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="78" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A78" s="39">
+      <c r="A78" s="27">
         <v>77</v>
       </c>
       <c r="B78" s="9" t="s">
@@ -7069,12 +7069,12 @@
       <c r="O78" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P78" s="56" t="s">
+      <c r="P78" s="40" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="79" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A79" s="39">
+      <c r="A79" s="27">
         <v>78</v>
       </c>
       <c r="B79" s="9" t="s">
@@ -7119,12 +7119,12 @@
       <c r="O79" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P79" s="56" t="s">
+      <c r="P79" s="40" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="80" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A80" s="39">
+      <c r="A80" s="27">
         <v>79</v>
       </c>
       <c r="B80" s="9" t="s">
@@ -7169,12 +7169,12 @@
       <c r="O80" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P80" s="56" t="s">
+      <c r="P80" s="40" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="81" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A81" s="36">
+      <c r="A81" s="24">
         <v>80</v>
       </c>
       <c r="B81" s="8" t="s">
@@ -7193,7 +7193,9 @@
         <v>108</v>
       </c>
       <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
+      <c r="H81" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
@@ -7201,10 +7203,10 @@
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
       <c r="O81" s="6"/>
-      <c r="P81" s="55"/>
+      <c r="P81" s="39"/>
     </row>
     <row r="82" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="36">
+      <c r="A82" s="24">
         <v>81</v>
       </c>
       <c r="B82" s="8" t="s">
@@ -7231,10 +7233,10 @@
       <c r="M82" s="6"/>
       <c r="N82" s="6"/>
       <c r="O82" s="6"/>
-      <c r="P82" s="55"/>
+      <c r="P82" s="39"/>
     </row>
     <row r="83" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A83" s="36">
+      <c r="A83" s="24">
         <v>82</v>
       </c>
       <c r="B83" s="8" t="s">
@@ -7261,10 +7263,10 @@
       <c r="M83" s="6"/>
       <c r="N83" s="6"/>
       <c r="O83" s="6"/>
-      <c r="P83" s="55"/>
+      <c r="P83" s="39"/>
     </row>
     <row r="84" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A84" s="36">
+      <c r="A84" s="24">
         <v>83</v>
       </c>
       <c r="B84" s="8" t="s">
@@ -7291,10 +7293,10 @@
       <c r="M84" s="6"/>
       <c r="N84" s="6"/>
       <c r="O84" s="6"/>
-      <c r="P84" s="55"/>
+      <c r="P84" s="39"/>
     </row>
     <row r="85" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A85" s="36">
+      <c r="A85" s="24">
         <v>84</v>
       </c>
       <c r="B85" s="8" t="s">
@@ -7321,10 +7323,10 @@
       <c r="M85" s="6"/>
       <c r="N85" s="6"/>
       <c r="O85" s="6"/>
-      <c r="P85" s="55"/>
+      <c r="P85" s="39"/>
     </row>
     <row r="86" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A86" s="36">
+      <c r="A86" s="24">
         <v>85</v>
       </c>
       <c r="B86" s="8" t="s">
@@ -7351,10 +7353,10 @@
       <c r="M86" s="6"/>
       <c r="N86" s="6"/>
       <c r="O86" s="6"/>
-      <c r="P86" s="55"/>
+      <c r="P86" s="39"/>
     </row>
     <row r="87" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A87" s="36">
+      <c r="A87" s="24">
         <v>86</v>
       </c>
       <c r="B87" s="8" t="s">
@@ -7381,10 +7383,10 @@
       <c r="M87" s="6"/>
       <c r="N87" s="6"/>
       <c r="O87" s="6"/>
-      <c r="P87" s="55"/>
+      <c r="P87" s="39"/>
     </row>
     <row r="88" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A88" s="36">
+      <c r="A88" s="24">
         <v>87</v>
       </c>
       <c r="B88" s="8" t="s">
@@ -7411,10 +7413,10 @@
       <c r="M88" s="6"/>
       <c r="N88" s="6"/>
       <c r="O88" s="6"/>
-      <c r="P88" s="55"/>
+      <c r="P88" s="39"/>
     </row>
     <row r="89" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A89" s="36">
+      <c r="A89" s="24">
         <v>88</v>
       </c>
       <c r="B89" s="8" t="s">
@@ -7441,10 +7443,10 @@
       <c r="M89" s="6"/>
       <c r="N89" s="6"/>
       <c r="O89" s="6"/>
-      <c r="P89" s="55"/>
+      <c r="P89" s="39"/>
     </row>
     <row r="90" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A90" s="36">
+      <c r="A90" s="24">
         <v>89</v>
       </c>
       <c r="B90" s="8" t="s">
@@ -7471,10 +7473,10 @@
       <c r="M90" s="6"/>
       <c r="N90" s="6"/>
       <c r="O90" s="6"/>
-      <c r="P90" s="55"/>
+      <c r="P90" s="39"/>
     </row>
     <row r="91" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="36">
+      <c r="A91" s="24">
         <v>90</v>
       </c>
       <c r="B91" s="8" t="s">
@@ -7501,10 +7503,10 @@
       <c r="M91" s="6"/>
       <c r="N91" s="6"/>
       <c r="O91" s="6"/>
-      <c r="P91" s="55"/>
+      <c r="P91" s="39"/>
     </row>
     <row r="92" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A92" s="36">
+      <c r="A92" s="24">
         <v>91</v>
       </c>
       <c r="B92" s="8" t="s">
@@ -7531,10 +7533,10 @@
       <c r="M92" s="6"/>
       <c r="N92" s="6"/>
       <c r="O92" s="6"/>
-      <c r="P92" s="55"/>
+      <c r="P92" s="39"/>
     </row>
     <row r="93" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A93" s="36">
+      <c r="A93" s="24">
         <v>92</v>
       </c>
       <c r="B93" s="8" t="s">
@@ -7561,10 +7563,10 @@
       <c r="M93" s="6"/>
       <c r="N93" s="6"/>
       <c r="O93" s="6"/>
-      <c r="P93" s="55"/>
+      <c r="P93" s="39"/>
     </row>
     <row r="94" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A94" s="36">
+      <c r="A94" s="24">
         <v>93</v>
       </c>
       <c r="B94" s="8" t="s">
@@ -7593,10 +7595,10 @@
       <c r="M94" s="6"/>
       <c r="N94" s="6"/>
       <c r="O94" s="6"/>
-      <c r="P94" s="55"/>
+      <c r="P94" s="39"/>
     </row>
     <row r="95" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A95" s="36">
+      <c r="A95" s="24">
         <v>94</v>
       </c>
       <c r="B95" s="8" t="s">
@@ -7623,10 +7625,10 @@
       <c r="M95" s="6"/>
       <c r="N95" s="6"/>
       <c r="O95" s="6"/>
-      <c r="P95" s="55"/>
+      <c r="P95" s="39"/>
     </row>
     <row r="96" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A96" s="36">
+      <c r="A96" s="24">
         <v>95</v>
       </c>
       <c r="B96" s="8" t="s">
@@ -7653,10 +7655,10 @@
       <c r="M96" s="6"/>
       <c r="N96" s="6"/>
       <c r="O96" s="6"/>
-      <c r="P96" s="55"/>
+      <c r="P96" s="39"/>
     </row>
     <row r="97" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A97" s="39">
+      <c r="A97" s="27">
         <v>96</v>
       </c>
       <c r="B97" s="9" t="s">
@@ -7701,12 +7703,12 @@
       <c r="O97" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P97" s="56" t="s">
+      <c r="P97" s="40" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="98" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A98" s="39">
+      <c r="A98" s="27">
         <v>97</v>
       </c>
       <c r="B98" s="9" t="s">
@@ -7751,12 +7753,12 @@
       <c r="O98" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P98" s="56" t="s">
+      <c r="P98" s="40" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="99" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A99" s="36">
+      <c r="A99" s="24">
         <v>98</v>
       </c>
       <c r="B99" s="8" t="s">
@@ -7801,12 +7803,12 @@
       <c r="O99" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="P99" s="55" t="s">
+      <c r="P99" s="39" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="100" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A100" s="36">
+      <c r="A100" s="24">
         <v>99</v>
       </c>
       <c r="B100" s="8" t="s">
@@ -7833,10 +7835,10 @@
       <c r="M100" s="6"/>
       <c r="N100" s="6"/>
       <c r="O100" s="6"/>
-      <c r="P100" s="55"/>
+      <c r="P100" s="39"/>
     </row>
     <row r="101" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A101" s="36">
+      <c r="A101" s="24">
         <v>100</v>
       </c>
       <c r="B101" s="8" t="s">
@@ -7863,10 +7865,10 @@
       <c r="M101" s="6"/>
       <c r="N101" s="6"/>
       <c r="O101" s="6"/>
-      <c r="P101" s="55"/>
+      <c r="P101" s="39"/>
     </row>
     <row r="102" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A102" s="58">
+      <c r="A102" s="42">
         <v>1</v>
       </c>
       <c r="B102" s="10" t="s">
@@ -7893,10 +7895,10 @@
       <c r="M102" s="6"/>
       <c r="N102" s="6"/>
       <c r="O102" s="6"/>
-      <c r="P102" s="55"/>
+      <c r="P102" s="39"/>
     </row>
     <row r="103" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A103" s="58">
+      <c r="A103" s="42">
         <v>2</v>
       </c>
       <c r="B103" s="10" t="s">
@@ -7923,10 +7925,10 @@
       <c r="M103" s="6"/>
       <c r="N103" s="6"/>
       <c r="O103" s="6"/>
-      <c r="P103" s="55"/>
+      <c r="P103" s="39"/>
     </row>
     <row r="104" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A104" s="58">
+      <c r="A104" s="42">
         <v>3</v>
       </c>
       <c r="B104" s="10" t="s">
@@ -7953,10 +7955,10 @@
       <c r="M104" s="6"/>
       <c r="N104" s="6"/>
       <c r="O104" s="6"/>
-      <c r="P104" s="55"/>
+      <c r="P104" s="39"/>
     </row>
     <row r="105" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A105" s="58">
+      <c r="A105" s="42">
         <v>4</v>
       </c>
       <c r="B105" s="10" t="s">
@@ -7983,10 +7985,10 @@
       <c r="M105" s="6"/>
       <c r="N105" s="6"/>
       <c r="O105" s="6"/>
-      <c r="P105" s="55"/>
+      <c r="P105" s="39"/>
     </row>
     <row r="106" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A106" s="58">
+      <c r="A106" s="42">
         <v>5</v>
       </c>
       <c r="B106" s="10" t="s">
@@ -8013,10 +8015,10 @@
       <c r="M106" s="6"/>
       <c r="N106" s="6"/>
       <c r="O106" s="6"/>
-      <c r="P106" s="55"/>
+      <c r="P106" s="39"/>
     </row>
     <row r="107" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A107" s="58">
+      <c r="A107" s="42">
         <v>6</v>
       </c>
       <c r="B107" s="10" t="s">
@@ -8043,10 +8045,10 @@
       <c r="M107" s="6"/>
       <c r="N107" s="6"/>
       <c r="O107" s="6"/>
-      <c r="P107" s="55"/>
+      <c r="P107" s="39"/>
     </row>
     <row r="108" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A108" s="58">
+      <c r="A108" s="42">
         <v>7</v>
       </c>
       <c r="B108" s="10" t="s">
@@ -8075,10 +8077,10 @@
       <c r="O108" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="P108" s="55"/>
+      <c r="P108" s="39"/>
     </row>
     <row r="109" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A109" s="58">
+      <c r="A109" s="42">
         <v>8</v>
       </c>
       <c r="B109" s="10" t="s">
@@ -8105,10 +8107,10 @@
       <c r="M109" s="6"/>
       <c r="N109" s="6"/>
       <c r="O109" s="6"/>
-      <c r="P109" s="55"/>
+      <c r="P109" s="39"/>
     </row>
     <row r="110" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A110" s="58">
+      <c r="A110" s="42">
         <v>9</v>
       </c>
       <c r="B110" s="10" t="s">
@@ -8135,10 +8137,10 @@
       <c r="M110" s="6"/>
       <c r="N110" s="6"/>
       <c r="O110" s="6"/>
-      <c r="P110" s="55"/>
+      <c r="P110" s="39"/>
     </row>
     <row r="111" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A111" s="39">
+      <c r="A111" s="27">
         <v>10</v>
       </c>
       <c r="B111" s="9" t="s">
@@ -8183,12 +8185,12 @@
       <c r="O111" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="P111" s="57" t="s">
+      <c r="P111" s="41" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="112" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A112" s="58">
+      <c r="A112" s="42">
         <v>11</v>
       </c>
       <c r="B112" s="10" t="s">
@@ -8215,10 +8217,10 @@
       <c r="M112" s="6"/>
       <c r="N112" s="6"/>
       <c r="O112" s="6"/>
-      <c r="P112" s="55"/>
+      <c r="P112" s="39"/>
     </row>
     <row r="113" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A113" s="58">
+      <c r="A113" s="42">
         <v>12</v>
       </c>
       <c r="B113" s="10" t="s">
@@ -8245,10 +8247,10 @@
       <c r="M113" s="6"/>
       <c r="N113" s="6"/>
       <c r="O113" s="6"/>
-      <c r="P113" s="55"/>
+      <c r="P113" s="39"/>
     </row>
     <row r="114" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A114" s="58">
+      <c r="A114" s="42">
         <v>13</v>
       </c>
       <c r="B114" s="10" t="s">
@@ -8275,10 +8277,10 @@
       <c r="M114" s="6"/>
       <c r="N114" s="6"/>
       <c r="O114" s="6"/>
-      <c r="P114" s="55"/>
+      <c r="P114" s="39"/>
     </row>
     <row r="115" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A115" s="58">
+      <c r="A115" s="42">
         <v>14</v>
       </c>
       <c r="B115" s="10" t="s">
@@ -8305,10 +8307,10 @@
       <c r="M115" s="6"/>
       <c r="N115" s="6"/>
       <c r="O115" s="6"/>
-      <c r="P115" s="55"/>
+      <c r="P115" s="39"/>
     </row>
     <row r="116" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A116" s="58">
+      <c r="A116" s="42">
         <v>15</v>
       </c>
       <c r="B116" s="10" t="s">
@@ -8335,10 +8337,10 @@
       <c r="M116" s="6"/>
       <c r="N116" s="6"/>
       <c r="O116" s="6"/>
-      <c r="P116" s="55"/>
+      <c r="P116" s="39"/>
     </row>
     <row r="117" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A117" s="58">
+      <c r="A117" s="42">
         <v>16</v>
       </c>
       <c r="B117" s="10" t="s">
@@ -8365,10 +8367,10 @@
       <c r="M117" s="6"/>
       <c r="N117" s="6"/>
       <c r="O117" s="6"/>
-      <c r="P117" s="55"/>
+      <c r="P117" s="39"/>
     </row>
     <row r="118" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A118" s="58">
+      <c r="A118" s="42">
         <v>17</v>
       </c>
       <c r="B118" s="10" t="s">
@@ -8395,10 +8397,10 @@
       <c r="M118" s="6"/>
       <c r="N118" s="6"/>
       <c r="O118" s="6"/>
-      <c r="P118" s="55"/>
+      <c r="P118" s="39"/>
     </row>
     <row r="119" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A119" s="39">
+      <c r="A119" s="27">
         <v>18</v>
       </c>
       <c r="B119" s="9" t="s">
@@ -8443,12 +8445,12 @@
       <c r="O119" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="P119" s="57" t="s">
+      <c r="P119" s="41" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="120" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A120" s="58">
+      <c r="A120" s="42">
         <v>19</v>
       </c>
       <c r="B120" s="10" t="s">
@@ -8475,10 +8477,10 @@
       <c r="M120" s="6"/>
       <c r="N120" s="6"/>
       <c r="O120" s="6"/>
-      <c r="P120" s="55"/>
+      <c r="P120" s="39"/>
     </row>
     <row r="121" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A121" s="58">
+      <c r="A121" s="42">
         <v>20</v>
       </c>
       <c r="B121" s="10" t="s">
@@ -8505,10 +8507,10 @@
       <c r="M121" s="6"/>
       <c r="N121" s="6"/>
       <c r="O121" s="6"/>
-      <c r="P121" s="55"/>
+      <c r="P121" s="39"/>
     </row>
     <row r="122" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A122" s="58">
+      <c r="A122" s="42">
         <v>21</v>
       </c>
       <c r="B122" s="10" t="s">
@@ -8535,10 +8537,10 @@
       <c r="M122" s="6"/>
       <c r="N122" s="6"/>
       <c r="O122" s="6"/>
-      <c r="P122" s="55"/>
+      <c r="P122" s="39"/>
     </row>
     <row r="123" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A123" s="58">
+      <c r="A123" s="42">
         <v>22</v>
       </c>
       <c r="B123" s="10" t="s">
@@ -8565,10 +8567,10 @@
       <c r="M123" s="6"/>
       <c r="N123" s="6"/>
       <c r="O123" s="6"/>
-      <c r="P123" s="55"/>
+      <c r="P123" s="39"/>
     </row>
     <row r="124" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A124" s="58">
+      <c r="A124" s="42">
         <v>23</v>
       </c>
       <c r="B124" s="10" t="s">
@@ -8595,10 +8597,10 @@
       <c r="M124" s="6"/>
       <c r="N124" s="6"/>
       <c r="O124" s="6"/>
-      <c r="P124" s="55"/>
+      <c r="P124" s="39"/>
     </row>
     <row r="125" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A125" s="58">
+      <c r="A125" s="42">
         <v>24</v>
       </c>
       <c r="B125" s="10" t="s">
@@ -8625,10 +8627,10 @@
       <c r="M125" s="6"/>
       <c r="N125" s="6"/>
       <c r="O125" s="6"/>
-      <c r="P125" s="55"/>
+      <c r="P125" s="39"/>
     </row>
     <row r="126" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A126" s="58">
+      <c r="A126" s="42">
         <v>25</v>
       </c>
       <c r="B126" s="10" t="s">
@@ -8655,10 +8657,10 @@
       <c r="M126" s="6"/>
       <c r="N126" s="6"/>
       <c r="O126" s="6"/>
-      <c r="P126" s="55"/>
+      <c r="P126" s="39"/>
     </row>
     <row r="127" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A127" s="58">
+      <c r="A127" s="42">
         <v>26</v>
       </c>
       <c r="B127" s="10" t="s">
@@ -8685,10 +8687,10 @@
       <c r="M127" s="6"/>
       <c r="N127" s="6"/>
       <c r="O127" s="6"/>
-      <c r="P127" s="55"/>
+      <c r="P127" s="39"/>
     </row>
     <row r="128" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A128" s="58">
+      <c r="A128" s="42">
         <v>27</v>
       </c>
       <c r="B128" s="10" t="s">
@@ -8715,10 +8717,10 @@
       <c r="M128" s="6"/>
       <c r="N128" s="6"/>
       <c r="O128" s="6"/>
-      <c r="P128" s="55"/>
+      <c r="P128" s="39"/>
     </row>
     <row r="129" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A129" s="58">
+      <c r="A129" s="42">
         <v>28</v>
       </c>
       <c r="B129" s="10" t="s">
@@ -8745,10 +8747,10 @@
       <c r="M129" s="6"/>
       <c r="N129" s="6"/>
       <c r="O129" s="6"/>
-      <c r="P129" s="55"/>
+      <c r="P129" s="39"/>
     </row>
     <row r="130" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A130" s="39">
+      <c r="A130" s="27">
         <v>29</v>
       </c>
       <c r="B130" s="9" t="s">
@@ -8793,12 +8795,12 @@
       <c r="O130" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P130" s="56" t="s">
+      <c r="P130" s="40" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="131" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A131" s="39">
+      <c r="A131" s="27">
         <v>30</v>
       </c>
       <c r="B131" s="9" t="s">
@@ -8843,12 +8845,12 @@
       <c r="O131" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P131" s="56" t="s">
+      <c r="P131" s="40" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="132" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A132" s="39">
+      <c r="A132" s="27">
         <v>31</v>
       </c>
       <c r="B132" s="9" t="s">
@@ -8893,12 +8895,12 @@
       <c r="O132" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P132" s="56" t="s">
+      <c r="P132" s="40" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="133" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A133" s="39">
+      <c r="A133" s="27">
         <v>32</v>
       </c>
       <c r="B133" s="9" t="s">
@@ -8943,12 +8945,12 @@
       <c r="O133" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P133" s="56" t="s">
+      <c r="P133" s="40" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="134" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A134" s="39">
+      <c r="A134" s="27">
         <v>33</v>
       </c>
       <c r="B134" s="9" t="s">
@@ -8993,12 +8995,12 @@
       <c r="O134" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P134" s="56" t="s">
+      <c r="P134" s="40" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="135" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A135" s="39">
+      <c r="A135" s="27">
         <v>34</v>
       </c>
       <c r="B135" s="9" t="s">
@@ -9043,12 +9045,12 @@
       <c r="O135" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P135" s="56" t="s">
+      <c r="P135" s="40" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="136" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A136" s="39">
+      <c r="A136" s="27">
         <v>35</v>
       </c>
       <c r="B136" s="9" t="s">
@@ -9093,12 +9095,12 @@
       <c r="O136" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P136" s="56" t="s">
+      <c r="P136" s="40" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="137" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A137" s="39">
+      <c r="A137" s="27">
         <v>36</v>
       </c>
       <c r="B137" s="9" t="s">
@@ -9143,12 +9145,12 @@
       <c r="O137" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P137" s="56" t="s">
+      <c r="P137" s="40" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="138" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A138" s="58">
+      <c r="A138" s="42">
         <v>37</v>
       </c>
       <c r="B138" s="10" t="s">
@@ -9175,10 +9177,10 @@
       <c r="M138" s="6"/>
       <c r="N138" s="6"/>
       <c r="O138" s="6"/>
-      <c r="P138" s="55"/>
+      <c r="P138" s="39"/>
     </row>
     <row r="139" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A139" s="58">
+      <c r="A139" s="42">
         <v>38</v>
       </c>
       <c r="B139" s="10" t="s">
@@ -9205,10 +9207,10 @@
       <c r="M139" s="6"/>
       <c r="N139" s="6"/>
       <c r="O139" s="6"/>
-      <c r="P139" s="55"/>
+      <c r="P139" s="39"/>
     </row>
     <row r="140" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A140" s="58">
+      <c r="A140" s="42">
         <v>39</v>
       </c>
       <c r="B140" s="10" t="s">
@@ -9235,10 +9237,10 @@
       <c r="M140" s="6"/>
       <c r="N140" s="6"/>
       <c r="O140" s="6"/>
-      <c r="P140" s="55"/>
+      <c r="P140" s="39"/>
     </row>
     <row r="141" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A141" s="58">
+      <c r="A141" s="42">
         <v>40</v>
       </c>
       <c r="B141" s="10" t="s">
@@ -9265,10 +9267,10 @@
       <c r="M141" s="6"/>
       <c r="N141" s="6"/>
       <c r="O141" s="6"/>
-      <c r="P141" s="55"/>
+      <c r="P141" s="39"/>
     </row>
     <row r="142" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A142" s="39">
+      <c r="A142" s="27">
         <v>41</v>
       </c>
       <c r="B142" s="9" t="s">
@@ -9313,12 +9315,12 @@
       <c r="O142" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P142" s="56" t="s">
+      <c r="P142" s="40" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="143" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A143" s="58">
+      <c r="A143" s="42">
         <v>42</v>
       </c>
       <c r="B143" s="10" t="s">
@@ -9363,12 +9365,12 @@
       <c r="O143" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="P143" s="55" t="s">
+      <c r="P143" s="39" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="144" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A144" s="58">
+      <c r="A144" s="42">
         <v>43</v>
       </c>
       <c r="B144" s="10" t="s">
@@ -9395,10 +9397,10 @@
       <c r="M144" s="6"/>
       <c r="N144" s="6"/>
       <c r="O144" s="6"/>
-      <c r="P144" s="55"/>
+      <c r="P144" s="39"/>
     </row>
     <row r="145" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A145" s="58">
+      <c r="A145" s="42">
         <v>44</v>
       </c>
       <c r="B145" s="10" t="s">
@@ -9425,10 +9427,10 @@
       <c r="M145" s="6"/>
       <c r="N145" s="6"/>
       <c r="O145" s="6"/>
-      <c r="P145" s="55"/>
+      <c r="P145" s="39"/>
     </row>
     <row r="146" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A146" s="58">
+      <c r="A146" s="42">
         <v>45</v>
       </c>
       <c r="B146" s="10" t="s">
@@ -9455,10 +9457,10 @@
       <c r="M146" s="6"/>
       <c r="N146" s="6"/>
       <c r="O146" s="6"/>
-      <c r="P146" s="55"/>
+      <c r="P146" s="39"/>
     </row>
     <row r="147" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A147" s="58">
+      <c r="A147" s="42">
         <v>46</v>
       </c>
       <c r="B147" s="10" t="s">
@@ -9485,10 +9487,10 @@
       <c r="M147" s="6"/>
       <c r="N147" s="6"/>
       <c r="O147" s="6"/>
-      <c r="P147" s="55"/>
+      <c r="P147" s="39"/>
     </row>
     <row r="148" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A148" s="58">
+      <c r="A148" s="42">
         <v>47</v>
       </c>
       <c r="B148" s="10" t="s">
@@ -9515,10 +9517,10 @@
       <c r="M148" s="6"/>
       <c r="N148" s="6"/>
       <c r="O148" s="6"/>
-      <c r="P148" s="55"/>
+      <c r="P148" s="39"/>
     </row>
     <row r="149" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A149" s="58">
+      <c r="A149" s="42">
         <v>48</v>
       </c>
       <c r="B149" s="10" t="s">
@@ -9545,10 +9547,10 @@
       <c r="M149" s="6"/>
       <c r="N149" s="6"/>
       <c r="O149" s="6"/>
-      <c r="P149" s="55"/>
+      <c r="P149" s="39"/>
     </row>
     <row r="150" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A150" s="58">
+      <c r="A150" s="42">
         <v>49</v>
       </c>
       <c r="B150" s="10" t="s">
@@ -9575,10 +9577,10 @@
       <c r="M150" s="6"/>
       <c r="N150" s="6"/>
       <c r="O150" s="6"/>
-      <c r="P150" s="55"/>
+      <c r="P150" s="39"/>
     </row>
     <row r="151" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A151" s="58">
+      <c r="A151" s="42">
         <v>50</v>
       </c>
       <c r="B151" s="10" t="s">
@@ -9605,10 +9607,10 @@
       <c r="M151" s="6"/>
       <c r="N151" s="6"/>
       <c r="O151" s="6"/>
-      <c r="P151" s="55"/>
+      <c r="P151" s="39"/>
     </row>
     <row r="152" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A152" s="39">
+      <c r="A152" s="27">
         <v>51</v>
       </c>
       <c r="B152" s="9" t="s">
@@ -9653,12 +9655,12 @@
       <c r="O152" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P152" s="56" t="s">
+      <c r="P152" s="40" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="153" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A153" s="39">
+      <c r="A153" s="27">
         <v>52</v>
       </c>
       <c r="B153" s="9" t="s">
@@ -9703,12 +9705,12 @@
       <c r="O153" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P153" s="56" t="s">
+      <c r="P153" s="40" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="154" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A154" s="58">
+      <c r="A154" s="42">
         <v>53</v>
       </c>
       <c r="B154" s="10" t="s">
@@ -9739,10 +9741,10 @@
       <c r="M154" s="6"/>
       <c r="N154" s="6"/>
       <c r="O154" s="6"/>
-      <c r="P154" s="55"/>
+      <c r="P154" s="39"/>
     </row>
     <row r="155" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A155" s="58">
+      <c r="A155" s="42">
         <v>54</v>
       </c>
       <c r="B155" s="10" t="s">
@@ -9773,10 +9775,10 @@
       <c r="M155" s="6"/>
       <c r="N155" s="6"/>
       <c r="O155" s="6"/>
-      <c r="P155" s="55"/>
+      <c r="P155" s="39"/>
     </row>
     <row r="156" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A156" s="58">
+      <c r="A156" s="42">
         <v>55</v>
       </c>
       <c r="B156" s="10" t="s">
@@ -9807,10 +9809,10 @@
       <c r="M156" s="6"/>
       <c r="N156" s="6"/>
       <c r="O156" s="6"/>
-      <c r="P156" s="55"/>
+      <c r="P156" s="39"/>
     </row>
     <row r="157" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A157" s="58">
+      <c r="A157" s="42">
         <v>56</v>
       </c>
       <c r="B157" s="10" t="s">
@@ -9841,10 +9843,10 @@
       <c r="M157" s="6"/>
       <c r="N157" s="6"/>
       <c r="O157" s="6"/>
-      <c r="P157" s="55"/>
+      <c r="P157" s="39"/>
     </row>
     <row r="158" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A158" s="58">
+      <c r="A158" s="42">
         <v>57</v>
       </c>
       <c r="B158" s="10" t="s">
@@ -9875,10 +9877,10 @@
       <c r="M158" s="6"/>
       <c r="N158" s="6"/>
       <c r="O158" s="6"/>
-      <c r="P158" s="55"/>
+      <c r="P158" s="39"/>
     </row>
     <row r="159" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A159" s="58">
+      <c r="A159" s="42">
         <v>58</v>
       </c>
       <c r="B159" s="10" t="s">
@@ -9909,10 +9911,10 @@
       <c r="M159" s="6"/>
       <c r="N159" s="6"/>
       <c r="O159" s="6"/>
-      <c r="P159" s="55"/>
+      <c r="P159" s="39"/>
     </row>
     <row r="160" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A160" s="58">
+      <c r="A160" s="42">
         <v>59</v>
       </c>
       <c r="B160" s="10" t="s">
@@ -9943,10 +9945,10 @@
       <c r="M160" s="6"/>
       <c r="N160" s="6"/>
       <c r="O160" s="6"/>
-      <c r="P160" s="55"/>
+      <c r="P160" s="39"/>
     </row>
     <row r="161" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A161" s="58">
+      <c r="A161" s="42">
         <v>60</v>
       </c>
       <c r="B161" s="10" t="s">
@@ -9977,10 +9979,10 @@
       <c r="M161" s="6"/>
       <c r="N161" s="6"/>
       <c r="O161" s="6"/>
-      <c r="P161" s="55"/>
+      <c r="P161" s="39"/>
     </row>
     <row r="162" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A162" s="58">
+      <c r="A162" s="42">
         <v>61</v>
       </c>
       <c r="B162" s="10" t="s">
@@ -10011,10 +10013,10 @@
       <c r="M162" s="6"/>
       <c r="N162" s="6"/>
       <c r="O162" s="6"/>
-      <c r="P162" s="55"/>
+      <c r="P162" s="39"/>
     </row>
     <row r="163" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A163" s="58">
+      <c r="A163" s="42">
         <v>62</v>
       </c>
       <c r="B163" s="10" t="s">
@@ -10045,10 +10047,10 @@
       <c r="M163" s="6"/>
       <c r="N163" s="6"/>
       <c r="O163" s="6"/>
-      <c r="P163" s="55"/>
+      <c r="P163" s="39"/>
     </row>
     <row r="164" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A164" s="58">
+      <c r="A164" s="42">
         <v>63</v>
       </c>
       <c r="B164" s="10" t="s">
@@ -10079,10 +10081,10 @@
       <c r="M164" s="6"/>
       <c r="N164" s="6"/>
       <c r="O164" s="6"/>
-      <c r="P164" s="55"/>
+      <c r="P164" s="39"/>
     </row>
     <row r="165" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A165" s="58">
+      <c r="A165" s="42">
         <v>64</v>
       </c>
       <c r="B165" s="10" t="s">
@@ -10113,10 +10115,10 @@
       <c r="M165" s="6"/>
       <c r="N165" s="6"/>
       <c r="O165" s="6"/>
-      <c r="P165" s="55"/>
+      <c r="P165" s="39"/>
     </row>
     <row r="166" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A166" s="58">
+      <c r="A166" s="42">
         <v>65</v>
       </c>
       <c r="B166" s="10" t="s">
@@ -10147,10 +10149,10 @@
       <c r="M166" s="6"/>
       <c r="N166" s="6"/>
       <c r="O166" s="6"/>
-      <c r="P166" s="55"/>
+      <c r="P166" s="39"/>
     </row>
     <row r="167" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A167" s="58">
+      <c r="A167" s="42">
         <v>66</v>
       </c>
       <c r="B167" s="10" t="s">
@@ -10181,10 +10183,10 @@
       <c r="M167" s="6"/>
       <c r="N167" s="6"/>
       <c r="O167" s="6"/>
-      <c r="P167" s="55"/>
+      <c r="P167" s="39"/>
     </row>
     <row r="168" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A168" s="58">
+      <c r="A168" s="42">
         <v>67</v>
       </c>
       <c r="B168" s="10" t="s">
@@ -10215,10 +10217,10 @@
       <c r="M168" s="6"/>
       <c r="N168" s="6"/>
       <c r="O168" s="6"/>
-      <c r="P168" s="55"/>
+      <c r="P168" s="39"/>
     </row>
     <row r="169" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A169" s="58">
+      <c r="A169" s="42">
         <v>68</v>
       </c>
       <c r="B169" s="10" t="s">
@@ -10249,10 +10251,10 @@
       <c r="M169" s="6"/>
       <c r="N169" s="6"/>
       <c r="O169" s="6"/>
-      <c r="P169" s="55"/>
+      <c r="P169" s="39"/>
     </row>
     <row r="170" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A170" s="58">
+      <c r="A170" s="42">
         <v>69</v>
       </c>
       <c r="B170" s="10" t="s">
@@ -10297,12 +10299,12 @@
       <c r="O170" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="P170" s="55" t="s">
+      <c r="P170" s="39" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="171" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A171" s="58">
+      <c r="A171" s="42">
         <v>70</v>
       </c>
       <c r="B171" s="10" t="s">
@@ -10329,10 +10331,10 @@
       <c r="M171" s="6"/>
       <c r="N171" s="6"/>
       <c r="O171" s="6"/>
-      <c r="P171" s="55"/>
+      <c r="P171" s="39"/>
     </row>
     <row r="172" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A172" s="58">
+      <c r="A172" s="42">
         <v>71</v>
       </c>
       <c r="B172" s="10" t="s">
@@ -10359,10 +10361,10 @@
       <c r="M172" s="6"/>
       <c r="N172" s="6"/>
       <c r="O172" s="6"/>
-      <c r="P172" s="55"/>
+      <c r="P172" s="39"/>
     </row>
     <row r="173" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A173" s="58">
+      <c r="A173" s="42">
         <v>72</v>
       </c>
       <c r="B173" s="10" t="s">
@@ -10389,10 +10391,10 @@
       <c r="M173" s="6"/>
       <c r="N173" s="6"/>
       <c r="O173" s="6"/>
-      <c r="P173" s="55"/>
+      <c r="P173" s="39"/>
     </row>
     <row r="174" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A174" s="58">
+      <c r="A174" s="42">
         <v>73</v>
       </c>
       <c r="B174" s="10" t="s">
@@ -10419,10 +10421,10 @@
       <c r="M174" s="6"/>
       <c r="N174" s="6"/>
       <c r="O174" s="6"/>
-      <c r="P174" s="55"/>
+      <c r="P174" s="39"/>
     </row>
     <row r="175" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A175" s="58">
+      <c r="A175" s="42">
         <v>74</v>
       </c>
       <c r="B175" s="10" t="s">
@@ -10449,10 +10451,10 @@
       <c r="M175" s="6"/>
       <c r="N175" s="6"/>
       <c r="O175" s="6"/>
-      <c r="P175" s="55"/>
+      <c r="P175" s="39"/>
     </row>
     <row r="176" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A176" s="58">
+      <c r="A176" s="42">
         <v>75</v>
       </c>
       <c r="B176" s="10" t="s">
@@ -10479,10 +10481,10 @@
       <c r="M176" s="6"/>
       <c r="N176" s="6"/>
       <c r="O176" s="6"/>
-      <c r="P176" s="55"/>
+      <c r="P176" s="39"/>
     </row>
     <row r="177" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A177" s="39">
+      <c r="A177" s="27">
         <v>76</v>
       </c>
       <c r="B177" s="9" t="s">
@@ -10527,12 +10529,12 @@
       <c r="O177" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P177" s="56" t="s">
+      <c r="P177" s="40" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="178" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A178" s="39">
+      <c r="A178" s="27">
         <v>77</v>
       </c>
       <c r="B178" s="9" t="s">
@@ -10577,12 +10579,12 @@
       <c r="O178" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P178" s="56" t="s">
+      <c r="P178" s="40" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="179" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A179" s="39">
+      <c r="A179" s="27">
         <v>78</v>
       </c>
       <c r="B179" s="9" t="s">
@@ -10627,12 +10629,12 @@
       <c r="O179" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P179" s="56" t="s">
+      <c r="P179" s="40" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="180" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A180" s="39">
+      <c r="A180" s="27">
         <v>79</v>
       </c>
       <c r="B180" s="9" t="s">
@@ -10677,12 +10679,12 @@
       <c r="O180" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P180" s="56" t="s">
+      <c r="P180" s="40" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="181" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A181" s="58">
+      <c r="A181" s="42">
         <v>80</v>
       </c>
       <c r="B181" s="10" t="s">
@@ -10709,10 +10711,10 @@
       <c r="M181" s="6"/>
       <c r="N181" s="6"/>
       <c r="O181" s="6"/>
-      <c r="P181" s="55"/>
+      <c r="P181" s="39"/>
     </row>
     <row r="182" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A182" s="58">
+      <c r="A182" s="42">
         <v>81</v>
       </c>
       <c r="B182" s="10" t="s">
@@ -10739,10 +10741,10 @@
       <c r="M182" s="6"/>
       <c r="N182" s="6"/>
       <c r="O182" s="6"/>
-      <c r="P182" s="55"/>
+      <c r="P182" s="39"/>
     </row>
     <row r="183" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A183" s="58">
+      <c r="A183" s="42">
         <v>82</v>
       </c>
       <c r="B183" s="10" t="s">
@@ -10769,10 +10771,10 @@
       <c r="M183" s="6"/>
       <c r="N183" s="6"/>
       <c r="O183" s="6"/>
-      <c r="P183" s="55"/>
+      <c r="P183" s="39"/>
     </row>
     <row r="184" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A184" s="58">
+      <c r="A184" s="42">
         <v>83</v>
       </c>
       <c r="B184" s="10" t="s">
@@ -10799,10 +10801,10 @@
       <c r="M184" s="6"/>
       <c r="N184" s="6"/>
       <c r="O184" s="6"/>
-      <c r="P184" s="55"/>
+      <c r="P184" s="39"/>
     </row>
     <row r="185" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A185" s="58">
+      <c r="A185" s="42">
         <v>84</v>
       </c>
       <c r="B185" s="10" t="s">
@@ -10829,10 +10831,10 @@
       <c r="M185" s="6"/>
       <c r="N185" s="6"/>
       <c r="O185" s="6"/>
-      <c r="P185" s="55"/>
+      <c r="P185" s="39"/>
     </row>
     <row r="186" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A186" s="58">
+      <c r="A186" s="42">
         <v>85</v>
       </c>
       <c r="B186" s="10" t="s">
@@ -10859,10 +10861,10 @@
       <c r="M186" s="6"/>
       <c r="N186" s="6"/>
       <c r="O186" s="6"/>
-      <c r="P186" s="55"/>
+      <c r="P186" s="39"/>
     </row>
     <row r="187" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A187" s="58">
+      <c r="A187" s="42">
         <v>86</v>
       </c>
       <c r="B187" s="10" t="s">
@@ -10889,10 +10891,10 @@
       <c r="M187" s="6"/>
       <c r="N187" s="6"/>
       <c r="O187" s="6"/>
-      <c r="P187" s="55"/>
+      <c r="P187" s="39"/>
     </row>
     <row r="188" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A188" s="58">
+      <c r="A188" s="42">
         <v>87</v>
       </c>
       <c r="B188" s="10" t="s">
@@ -10919,10 +10921,10 @@
       <c r="M188" s="6"/>
       <c r="N188" s="6"/>
       <c r="O188" s="6"/>
-      <c r="P188" s="55"/>
+      <c r="P188" s="39"/>
     </row>
     <row r="189" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A189" s="58">
+      <c r="A189" s="42">
         <v>88</v>
       </c>
       <c r="B189" s="10" t="s">
@@ -10949,10 +10951,10 @@
       <c r="M189" s="6"/>
       <c r="N189" s="6"/>
       <c r="O189" s="6"/>
-      <c r="P189" s="55"/>
+      <c r="P189" s="39"/>
     </row>
     <row r="190" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A190" s="58">
+      <c r="A190" s="42">
         <v>89</v>
       </c>
       <c r="B190" s="10" t="s">
@@ -10979,10 +10981,10 @@
       <c r="M190" s="6"/>
       <c r="N190" s="6"/>
       <c r="O190" s="6"/>
-      <c r="P190" s="55"/>
+      <c r="P190" s="39"/>
     </row>
     <row r="191" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A191" s="58">
+      <c r="A191" s="42">
         <v>90</v>
       </c>
       <c r="B191" s="10" t="s">
@@ -11009,10 +11011,10 @@
       <c r="M191" s="6"/>
       <c r="N191" s="6"/>
       <c r="O191" s="6"/>
-      <c r="P191" s="55"/>
+      <c r="P191" s="39"/>
     </row>
     <row r="192" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A192" s="58">
+      <c r="A192" s="42">
         <v>91</v>
       </c>
       <c r="B192" s="10" t="s">
@@ -11039,10 +11041,10 @@
       <c r="M192" s="6"/>
       <c r="N192" s="6"/>
       <c r="O192" s="6"/>
-      <c r="P192" s="55"/>
+      <c r="P192" s="39"/>
     </row>
     <row r="193" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A193" s="58">
+      <c r="A193" s="42">
         <v>92</v>
       </c>
       <c r="B193" s="10" t="s">
@@ -11069,10 +11071,10 @@
       <c r="M193" s="6"/>
       <c r="N193" s="6"/>
       <c r="O193" s="6"/>
-      <c r="P193" s="55"/>
+      <c r="P193" s="39"/>
     </row>
     <row r="194" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A194" s="58">
+      <c r="A194" s="42">
         <v>93</v>
       </c>
       <c r="B194" s="10" t="s">
@@ -11099,10 +11101,10 @@
       <c r="M194" s="6"/>
       <c r="N194" s="6"/>
       <c r="O194" s="6"/>
-      <c r="P194" s="55"/>
+      <c r="P194" s="39"/>
     </row>
     <row r="195" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A195" s="58">
+      <c r="A195" s="42">
         <v>94</v>
       </c>
       <c r="B195" s="10" t="s">
@@ -11129,10 +11131,10 @@
       <c r="M195" s="6"/>
       <c r="N195" s="6"/>
       <c r="O195" s="6"/>
-      <c r="P195" s="55"/>
+      <c r="P195" s="39"/>
     </row>
     <row r="196" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A196" s="58">
+      <c r="A196" s="42">
         <v>95</v>
       </c>
       <c r="B196" s="10" t="s">
@@ -11159,10 +11161,10 @@
       <c r="M196" s="6"/>
       <c r="N196" s="6"/>
       <c r="O196" s="6"/>
-      <c r="P196" s="55"/>
+      <c r="P196" s="39"/>
     </row>
     <row r="197" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A197" s="39">
+      <c r="A197" s="27">
         <v>96</v>
       </c>
       <c r="B197" s="9" t="s">
@@ -11207,12 +11209,12 @@
       <c r="O197" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P197" s="56" t="s">
+      <c r="P197" s="40" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="198" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A198" s="39">
+      <c r="A198" s="27">
         <v>97</v>
       </c>
       <c r="B198" s="9" t="s">
@@ -11257,12 +11259,12 @@
       <c r="O198" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P198" s="56" t="s">
+      <c r="P198" s="40" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="199" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A199" s="58">
+      <c r="A199" s="42">
         <v>98</v>
       </c>
       <c r="B199" s="10" t="s">
@@ -11289,10 +11291,10 @@
       <c r="M199" s="6"/>
       <c r="N199" s="6"/>
       <c r="O199" s="6"/>
-      <c r="P199" s="55"/>
+      <c r="P199" s="39"/>
     </row>
     <row r="200" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A200" s="58">
+      <c r="A200" s="42">
         <v>99</v>
       </c>
       <c r="B200" s="10" t="s">
@@ -11319,10 +11321,10 @@
       <c r="M200" s="6"/>
       <c r="N200" s="6"/>
       <c r="O200" s="6"/>
-      <c r="P200" s="55"/>
+      <c r="P200" s="39"/>
     </row>
     <row r="201" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A201" s="58">
+      <c r="A201" s="42">
         <v>100</v>
       </c>
       <c r="B201" s="10" t="s">
@@ -11349,10 +11351,10 @@
       <c r="M201" s="6"/>
       <c r="N201" s="6"/>
       <c r="O201" s="6"/>
-      <c r="P201" s="55"/>
+      <c r="P201" s="39"/>
     </row>
     <row r="202" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A202" s="59">
+      <c r="A202" s="43">
         <v>1</v>
       </c>
       <c r="B202" s="11" t="s">
@@ -11379,10 +11381,10 @@
       <c r="M202" s="6"/>
       <c r="N202" s="6"/>
       <c r="O202" s="6"/>
-      <c r="P202" s="55"/>
+      <c r="P202" s="39"/>
     </row>
     <row r="203" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A203" s="59">
+      <c r="A203" s="43">
         <v>2</v>
       </c>
       <c r="B203" s="11" t="s">
@@ -11409,10 +11411,10 @@
       <c r="M203" s="6"/>
       <c r="N203" s="6"/>
       <c r="O203" s="6"/>
-      <c r="P203" s="55"/>
+      <c r="P203" s="39"/>
     </row>
     <row r="204" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A204" s="59">
+      <c r="A204" s="43">
         <v>3</v>
       </c>
       <c r="B204" s="11" t="s">
@@ -11439,10 +11441,10 @@
       <c r="M204" s="6"/>
       <c r="N204" s="6"/>
       <c r="O204" s="6"/>
-      <c r="P204" s="55"/>
+      <c r="P204" s="39"/>
     </row>
     <row r="205" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A205" s="59">
+      <c r="A205" s="43">
         <v>4</v>
       </c>
       <c r="B205" s="11" t="s">
@@ -11469,10 +11471,10 @@
       <c r="M205" s="6"/>
       <c r="N205" s="6"/>
       <c r="O205" s="6"/>
-      <c r="P205" s="55"/>
+      <c r="P205" s="39"/>
     </row>
     <row r="206" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A206" s="59">
+      <c r="A206" s="43">
         <v>5</v>
       </c>
       <c r="B206" s="11" t="s">
@@ -11499,10 +11501,10 @@
       <c r="M206" s="6"/>
       <c r="N206" s="6"/>
       <c r="O206" s="6"/>
-      <c r="P206" s="55"/>
+      <c r="P206" s="39"/>
     </row>
     <row r="207" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A207" s="59">
+      <c r="A207" s="43">
         <v>6</v>
       </c>
       <c r="B207" s="11" t="s">
@@ -11529,10 +11531,10 @@
       <c r="M207" s="6"/>
       <c r="N207" s="6"/>
       <c r="O207" s="6"/>
-      <c r="P207" s="55"/>
+      <c r="P207" s="39"/>
     </row>
     <row r="208" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A208" s="59">
+      <c r="A208" s="43">
         <v>7</v>
       </c>
       <c r="B208" s="11" t="s">
@@ -11559,10 +11561,10 @@
       <c r="M208" s="6"/>
       <c r="N208" s="6"/>
       <c r="O208" s="6"/>
-      <c r="P208" s="55"/>
+      <c r="P208" s="39"/>
     </row>
     <row r="209" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A209" s="59">
+      <c r="A209" s="43">
         <v>8</v>
       </c>
       <c r="B209" s="11" t="s">
@@ -11589,10 +11591,10 @@
       <c r="M209" s="6"/>
       <c r="N209" s="6"/>
       <c r="O209" s="6"/>
-      <c r="P209" s="55"/>
+      <c r="P209" s="39"/>
     </row>
     <row r="210" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A210" s="59">
+      <c r="A210" s="43">
         <v>9</v>
       </c>
       <c r="B210" s="11" t="s">
@@ -11619,10 +11621,10 @@
       <c r="M210" s="6"/>
       <c r="N210" s="6"/>
       <c r="O210" s="6"/>
-      <c r="P210" s="55"/>
+      <c r="P210" s="39"/>
     </row>
     <row r="211" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A211" s="39">
+      <c r="A211" s="27">
         <v>10</v>
       </c>
       <c r="B211" s="9" t="s">
@@ -11667,12 +11669,12 @@
       <c r="O211" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P211" s="56" t="s">
+      <c r="P211" s="40" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="212" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A212" s="59">
+      <c r="A212" s="43">
         <v>11</v>
       </c>
       <c r="B212" s="11" t="s">
@@ -11699,10 +11701,10 @@
       <c r="M212" s="6"/>
       <c r="N212" s="6"/>
       <c r="O212" s="6"/>
-      <c r="P212" s="55"/>
+      <c r="P212" s="39"/>
     </row>
     <row r="213" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A213" s="59">
+      <c r="A213" s="43">
         <v>12</v>
       </c>
       <c r="B213" s="11" t="s">
@@ -11729,10 +11731,10 @@
       <c r="M213" s="6"/>
       <c r="N213" s="6"/>
       <c r="O213" s="6"/>
-      <c r="P213" s="55"/>
+      <c r="P213" s="39"/>
     </row>
     <row r="214" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A214" s="59">
+      <c r="A214" s="43">
         <v>13</v>
       </c>
       <c r="B214" s="11" t="s">
@@ -11759,10 +11761,10 @@
       <c r="M214" s="6"/>
       <c r="N214" s="6"/>
       <c r="O214" s="6"/>
-      <c r="P214" s="55"/>
+      <c r="P214" s="39"/>
     </row>
     <row r="215" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A215" s="59">
+      <c r="A215" s="43">
         <v>14</v>
       </c>
       <c r="B215" s="11" t="s">
@@ -11789,10 +11791,10 @@
       <c r="M215" s="6"/>
       <c r="N215" s="6"/>
       <c r="O215" s="6"/>
-      <c r="P215" s="55"/>
+      <c r="P215" s="39"/>
     </row>
     <row r="216" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A216" s="59">
+      <c r="A216" s="43">
         <v>15</v>
       </c>
       <c r="B216" s="11" t="s">
@@ -11819,10 +11821,10 @@
       <c r="M216" s="6"/>
       <c r="N216" s="6"/>
       <c r="O216" s="6"/>
-      <c r="P216" s="55"/>
+      <c r="P216" s="39"/>
     </row>
     <row r="217" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A217" s="59">
+      <c r="A217" s="43">
         <v>16</v>
       </c>
       <c r="B217" s="11" t="s">
@@ -11849,10 +11851,10 @@
       <c r="M217" s="6"/>
       <c r="N217" s="6"/>
       <c r="O217" s="6"/>
-      <c r="P217" s="55"/>
+      <c r="P217" s="39"/>
     </row>
     <row r="218" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A218" s="59">
+      <c r="A218" s="43">
         <v>17</v>
       </c>
       <c r="B218" s="11" t="s">
@@ -11879,10 +11881,10 @@
       <c r="M218" s="6"/>
       <c r="N218" s="6"/>
       <c r="O218" s="6"/>
-      <c r="P218" s="55"/>
+      <c r="P218" s="39"/>
     </row>
     <row r="219" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A219" s="39">
+      <c r="A219" s="27">
         <v>18</v>
       </c>
       <c r="B219" s="9" t="s">
@@ -11927,12 +11929,12 @@
       <c r="O219" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P219" s="56" t="s">
+      <c r="P219" s="40" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="220" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A220" s="59">
+      <c r="A220" s="43">
         <v>19</v>
       </c>
       <c r="B220" s="11" t="s">
@@ -11959,10 +11961,10 @@
       <c r="M220" s="6"/>
       <c r="N220" s="6"/>
       <c r="O220" s="6"/>
-      <c r="P220" s="55"/>
+      <c r="P220" s="39"/>
     </row>
     <row r="221" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A221" s="59">
+      <c r="A221" s="43">
         <v>20</v>
       </c>
       <c r="B221" s="11" t="s">
@@ -11989,10 +11991,10 @@
       <c r="M221" s="6"/>
       <c r="N221" s="6"/>
       <c r="O221" s="6"/>
-      <c r="P221" s="55"/>
+      <c r="P221" s="39"/>
     </row>
     <row r="222" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A222" s="59">
+      <c r="A222" s="43">
         <v>21</v>
       </c>
       <c r="B222" s="11" t="s">
@@ -12019,10 +12021,10 @@
       <c r="M222" s="6"/>
       <c r="N222" s="6"/>
       <c r="O222" s="6"/>
-      <c r="P222" s="55"/>
+      <c r="P222" s="39"/>
     </row>
     <row r="223" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A223" s="59">
+      <c r="A223" s="43">
         <v>22</v>
       </c>
       <c r="B223" s="11" t="s">
@@ -12049,10 +12051,10 @@
       <c r="M223" s="6"/>
       <c r="N223" s="6"/>
       <c r="O223" s="6"/>
-      <c r="P223" s="55"/>
+      <c r="P223" s="39"/>
     </row>
     <row r="224" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A224" s="59">
+      <c r="A224" s="43">
         <v>23</v>
       </c>
       <c r="B224" s="11" t="s">
@@ -12079,10 +12081,10 @@
       <c r="M224" s="6"/>
       <c r="N224" s="6"/>
       <c r="O224" s="6"/>
-      <c r="P224" s="55"/>
+      <c r="P224" s="39"/>
     </row>
     <row r="225" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A225" s="59">
+      <c r="A225" s="43">
         <v>24</v>
       </c>
       <c r="B225" s="11" t="s">
@@ -12109,10 +12111,10 @@
       <c r="M225" s="6"/>
       <c r="N225" s="6"/>
       <c r="O225" s="6"/>
-      <c r="P225" s="55"/>
+      <c r="P225" s="39"/>
     </row>
     <row r="226" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A226" s="59">
+      <c r="A226" s="43">
         <v>25</v>
       </c>
       <c r="B226" s="11" t="s">
@@ -12139,10 +12141,10 @@
       <c r="M226" s="6"/>
       <c r="N226" s="6"/>
       <c r="O226" s="6"/>
-      <c r="P226" s="55"/>
+      <c r="P226" s="39"/>
     </row>
     <row r="227" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A227" s="59">
+      <c r="A227" s="43">
         <v>26</v>
       </c>
       <c r="B227" s="11" t="s">
@@ -12169,10 +12171,10 @@
       <c r="M227" s="6"/>
       <c r="N227" s="6"/>
       <c r="O227" s="6"/>
-      <c r="P227" s="55"/>
+      <c r="P227" s="39"/>
     </row>
     <row r="228" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A228" s="59">
+      <c r="A228" s="43">
         <v>27</v>
       </c>
       <c r="B228" s="11" t="s">
@@ -12199,10 +12201,10 @@
       <c r="M228" s="6"/>
       <c r="N228" s="6"/>
       <c r="O228" s="6"/>
-      <c r="P228" s="55"/>
+      <c r="P228" s="39"/>
     </row>
     <row r="229" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A229" s="59">
+      <c r="A229" s="43">
         <v>28</v>
       </c>
       <c r="B229" s="11" t="s">
@@ -12229,10 +12231,10 @@
       <c r="M229" s="6"/>
       <c r="N229" s="6"/>
       <c r="O229" s="6"/>
-      <c r="P229" s="55"/>
+      <c r="P229" s="39"/>
     </row>
     <row r="230" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A230" s="39">
+      <c r="A230" s="27">
         <v>29</v>
       </c>
       <c r="B230" s="9" t="s">
@@ -12277,12 +12279,12 @@
       <c r="O230" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P230" s="56" t="s">
+      <c r="P230" s="40" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="231" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A231" s="39">
+      <c r="A231" s="27">
         <v>30</v>
       </c>
       <c r="B231" s="9" t="s">
@@ -12327,12 +12329,12 @@
       <c r="O231" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P231" s="56" t="s">
+      <c r="P231" s="40" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="232" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A232" s="39">
+      <c r="A232" s="27">
         <v>31</v>
       </c>
       <c r="B232" s="9" t="s">
@@ -12377,12 +12379,12 @@
       <c r="O232" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P232" s="56" t="s">
+      <c r="P232" s="40" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="233" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A233" s="39">
+      <c r="A233" s="27">
         <v>32</v>
       </c>
       <c r="B233" s="9" t="s">
@@ -12427,12 +12429,12 @@
       <c r="O233" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P233" s="56" t="s">
+      <c r="P233" s="40" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="234" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A234" s="39">
+      <c r="A234" s="27">
         <v>33</v>
       </c>
       <c r="B234" s="9" t="s">
@@ -12477,12 +12479,12 @@
       <c r="O234" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P234" s="56" t="s">
+      <c r="P234" s="40" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="235" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A235" s="39">
+      <c r="A235" s="27">
         <v>34</v>
       </c>
       <c r="B235" s="9" t="s">
@@ -12527,12 +12529,12 @@
       <c r="O235" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P235" s="56" t="s">
+      <c r="P235" s="40" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="236" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A236" s="39">
+      <c r="A236" s="27">
         <v>35</v>
       </c>
       <c r="B236" s="9" t="s">
@@ -12577,12 +12579,12 @@
       <c r="O236" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P236" s="56" t="s">
+      <c r="P236" s="40" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="237" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A237" s="39">
+      <c r="A237" s="27">
         <v>36</v>
       </c>
       <c r="B237" s="9" t="s">
@@ -12627,12 +12629,12 @@
       <c r="O237" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P237" s="56" t="s">
+      <c r="P237" s="40" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="238" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A238" s="59">
+      <c r="A238" s="43">
         <v>37</v>
       </c>
       <c r="B238" s="11" t="s">
@@ -12659,10 +12661,10 @@
       <c r="M238" s="6"/>
       <c r="N238" s="6"/>
       <c r="O238" s="6"/>
-      <c r="P238" s="55"/>
+      <c r="P238" s="39"/>
     </row>
     <row r="239" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A239" s="59">
+      <c r="A239" s="43">
         <v>38</v>
       </c>
       <c r="B239" s="11" t="s">
@@ -12689,10 +12691,10 @@
       <c r="M239" s="6"/>
       <c r="N239" s="6"/>
       <c r="O239" s="6"/>
-      <c r="P239" s="55"/>
+      <c r="P239" s="39"/>
     </row>
     <row r="240" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A240" s="59">
+      <c r="A240" s="43">
         <v>39</v>
       </c>
       <c r="B240" s="11" t="s">
@@ -12719,10 +12721,10 @@
       <c r="M240" s="6"/>
       <c r="N240" s="6"/>
       <c r="O240" s="6"/>
-      <c r="P240" s="55"/>
+      <c r="P240" s="39"/>
     </row>
     <row r="241" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A241" s="59">
+      <c r="A241" s="43">
         <v>40</v>
       </c>
       <c r="B241" s="11" t="s">
@@ -12749,10 +12751,10 @@
       <c r="M241" s="6"/>
       <c r="N241" s="6"/>
       <c r="O241" s="6"/>
-      <c r="P241" s="55"/>
+      <c r="P241" s="39"/>
     </row>
     <row r="242" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A242" s="39">
+      <c r="A242" s="27">
         <v>41</v>
       </c>
       <c r="B242" s="9" t="s">
@@ -12797,12 +12799,12 @@
       <c r="O242" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P242" s="56" t="s">
+      <c r="P242" s="40" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="243" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A243" s="59">
+      <c r="A243" s="43">
         <v>42</v>
       </c>
       <c r="B243" s="11" t="s">
@@ -12829,10 +12831,10 @@
       <c r="M243" s="6"/>
       <c r="N243" s="6"/>
       <c r="O243" s="6"/>
-      <c r="P243" s="55"/>
+      <c r="P243" s="39"/>
     </row>
     <row r="244" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A244" s="59">
+      <c r="A244" s="43">
         <v>43</v>
       </c>
       <c r="B244" s="11" t="s">
@@ -12859,10 +12861,10 @@
       <c r="M244" s="6"/>
       <c r="N244" s="6"/>
       <c r="O244" s="6"/>
-      <c r="P244" s="55"/>
+      <c r="P244" s="39"/>
     </row>
     <row r="245" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A245" s="59">
+      <c r="A245" s="43">
         <v>44</v>
       </c>
       <c r="B245" s="11" t="s">
@@ -12889,10 +12891,10 @@
       <c r="M245" s="6"/>
       <c r="N245" s="6"/>
       <c r="O245" s="6"/>
-      <c r="P245" s="55"/>
+      <c r="P245" s="39"/>
     </row>
     <row r="246" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A246" s="59">
+      <c r="A246" s="43">
         <v>45</v>
       </c>
       <c r="B246" s="11" t="s">
@@ -12919,10 +12921,10 @@
       <c r="M246" s="6"/>
       <c r="N246" s="6"/>
       <c r="O246" s="6"/>
-      <c r="P246" s="55"/>
+      <c r="P246" s="39"/>
     </row>
     <row r="247" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A247" s="59">
+      <c r="A247" s="43">
         <v>46</v>
       </c>
       <c r="B247" s="11" t="s">
@@ -12949,10 +12951,10 @@
       <c r="M247" s="6"/>
       <c r="N247" s="6"/>
       <c r="O247" s="6"/>
-      <c r="P247" s="55"/>
+      <c r="P247" s="39"/>
     </row>
     <row r="248" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A248" s="59">
+      <c r="A248" s="43">
         <v>47</v>
       </c>
       <c r="B248" s="11" t="s">
@@ -12979,10 +12981,10 @@
       <c r="M248" s="6"/>
       <c r="N248" s="6"/>
       <c r="O248" s="6"/>
-      <c r="P248" s="55"/>
+      <c r="P248" s="39"/>
     </row>
     <row r="249" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A249" s="59">
+      <c r="A249" s="43">
         <v>48</v>
       </c>
       <c r="B249" s="11" t="s">
@@ -13009,10 +13011,10 @@
       <c r="M249" s="6"/>
       <c r="N249" s="6"/>
       <c r="O249" s="6"/>
-      <c r="P249" s="55"/>
+      <c r="P249" s="39"/>
     </row>
     <row r="250" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A250" s="59">
+      <c r="A250" s="43">
         <v>49</v>
       </c>
       <c r="B250" s="11" t="s">
@@ -13039,10 +13041,10 @@
       <c r="M250" s="6"/>
       <c r="N250" s="6"/>
       <c r="O250" s="6"/>
-      <c r="P250" s="55"/>
+      <c r="P250" s="39"/>
     </row>
     <row r="251" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A251" s="59">
+      <c r="A251" s="43">
         <v>50</v>
       </c>
       <c r="B251" s="11" t="s">
@@ -13069,10 +13071,10 @@
       <c r="M251" s="6"/>
       <c r="N251" s="6"/>
       <c r="O251" s="6"/>
-      <c r="P251" s="55"/>
+      <c r="P251" s="39"/>
     </row>
     <row r="252" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A252" s="39">
+      <c r="A252" s="27">
         <v>51</v>
       </c>
       <c r="B252" s="9" t="s">
@@ -13117,12 +13119,12 @@
       <c r="O252" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P252" s="56" t="s">
+      <c r="P252" s="40" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="253" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A253" s="39">
+      <c r="A253" s="27">
         <v>52</v>
       </c>
       <c r="B253" s="9" t="s">
@@ -13167,12 +13169,12 @@
       <c r="O253" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P253" s="56" t="s">
+      <c r="P253" s="40" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="254" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A254" s="59">
+      <c r="A254" s="43">
         <v>53</v>
       </c>
       <c r="B254" s="11" t="s">
@@ -13203,10 +13205,10 @@
       <c r="M254" s="6"/>
       <c r="N254" s="6"/>
       <c r="O254" s="6"/>
-      <c r="P254" s="55"/>
+      <c r="P254" s="39"/>
     </row>
     <row r="255" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A255" s="59">
+      <c r="A255" s="43">
         <v>54</v>
       </c>
       <c r="B255" s="11" t="s">
@@ -13237,10 +13239,10 @@
       <c r="M255" s="6"/>
       <c r="N255" s="6"/>
       <c r="O255" s="6"/>
-      <c r="P255" s="55"/>
+      <c r="P255" s="39"/>
     </row>
     <row r="256" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A256" s="59">
+      <c r="A256" s="43">
         <v>55</v>
       </c>
       <c r="B256" s="11" t="s">
@@ -13271,10 +13273,10 @@
       <c r="M256" s="6"/>
       <c r="N256" s="6"/>
       <c r="O256" s="6"/>
-      <c r="P256" s="55"/>
+      <c r="P256" s="39"/>
     </row>
     <row r="257" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A257" s="59">
+      <c r="A257" s="43">
         <v>56</v>
       </c>
       <c r="B257" s="11" t="s">
@@ -13305,10 +13307,10 @@
       <c r="M257" s="6"/>
       <c r="N257" s="6"/>
       <c r="O257" s="6"/>
-      <c r="P257" s="55"/>
+      <c r="P257" s="39"/>
     </row>
     <row r="258" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A258" s="59">
+      <c r="A258" s="43">
         <v>57</v>
       </c>
       <c r="B258" s="11" t="s">
@@ -13339,10 +13341,10 @@
       <c r="M258" s="6"/>
       <c r="N258" s="6"/>
       <c r="O258" s="6"/>
-      <c r="P258" s="55"/>
+      <c r="P258" s="39"/>
     </row>
     <row r="259" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A259" s="59">
+      <c r="A259" s="43">
         <v>58</v>
       </c>
       <c r="B259" s="11" t="s">
@@ -13373,10 +13375,10 @@
       <c r="M259" s="6"/>
       <c r="N259" s="6"/>
       <c r="O259" s="6"/>
-      <c r="P259" s="55"/>
+      <c r="P259" s="39"/>
     </row>
     <row r="260" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A260" s="59">
+      <c r="A260" s="43">
         <v>59</v>
       </c>
       <c r="B260" s="11" t="s">
@@ -13407,10 +13409,10 @@
       <c r="M260" s="6"/>
       <c r="N260" s="6"/>
       <c r="O260" s="6"/>
-      <c r="P260" s="55"/>
+      <c r="P260" s="39"/>
     </row>
     <row r="261" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A261" s="59">
+      <c r="A261" s="43">
         <v>60</v>
       </c>
       <c r="B261" s="11" t="s">
@@ -13441,10 +13443,10 @@
       <c r="M261" s="6"/>
       <c r="N261" s="6"/>
       <c r="O261" s="6"/>
-      <c r="P261" s="55"/>
+      <c r="P261" s="39"/>
     </row>
     <row r="262" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A262" s="59">
+      <c r="A262" s="43">
         <v>61</v>
       </c>
       <c r="B262" s="11" t="s">
@@ -13475,10 +13477,10 @@
       <c r="M262" s="6"/>
       <c r="N262" s="6"/>
       <c r="O262" s="6"/>
-      <c r="P262" s="55"/>
+      <c r="P262" s="39"/>
     </row>
     <row r="263" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A263" s="59">
+      <c r="A263" s="43">
         <v>62</v>
       </c>
       <c r="B263" s="11" t="s">
@@ -13509,10 +13511,10 @@
       <c r="M263" s="6"/>
       <c r="N263" s="6"/>
       <c r="O263" s="6"/>
-      <c r="P263" s="55"/>
+      <c r="P263" s="39"/>
     </row>
     <row r="264" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A264" s="59">
+      <c r="A264" s="43">
         <v>63</v>
       </c>
       <c r="B264" s="11" t="s">
@@ -13543,10 +13545,10 @@
       <c r="M264" s="6"/>
       <c r="N264" s="6"/>
       <c r="O264" s="6"/>
-      <c r="P264" s="55"/>
+      <c r="P264" s="39"/>
     </row>
     <row r="265" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A265" s="59">
+      <c r="A265" s="43">
         <v>64</v>
       </c>
       <c r="B265" s="11" t="s">
@@ -13577,10 +13579,10 @@
       <c r="M265" s="6"/>
       <c r="N265" s="6"/>
       <c r="O265" s="6"/>
-      <c r="P265" s="55"/>
+      <c r="P265" s="39"/>
     </row>
     <row r="266" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A266" s="59">
+      <c r="A266" s="43">
         <v>65</v>
       </c>
       <c r="B266" s="11" t="s">
@@ -13611,10 +13613,10 @@
       <c r="M266" s="6"/>
       <c r="N266" s="6"/>
       <c r="O266" s="6"/>
-      <c r="P266" s="55"/>
+      <c r="P266" s="39"/>
     </row>
     <row r="267" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A267" s="59">
+      <c r="A267" s="43">
         <v>66</v>
       </c>
       <c r="B267" s="11" t="s">
@@ -13645,10 +13647,10 @@
       <c r="M267" s="6"/>
       <c r="N267" s="6"/>
       <c r="O267" s="6"/>
-      <c r="P267" s="55"/>
+      <c r="P267" s="39"/>
     </row>
     <row r="268" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A268" s="59">
+      <c r="A268" s="43">
         <v>67</v>
       </c>
       <c r="B268" s="11" t="s">
@@ -13679,10 +13681,10 @@
       <c r="M268" s="6"/>
       <c r="N268" s="6"/>
       <c r="O268" s="6"/>
-      <c r="P268" s="55"/>
+      <c r="P268" s="39"/>
     </row>
     <row r="269" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A269" s="59">
+      <c r="A269" s="43">
         <v>68</v>
       </c>
       <c r="B269" s="11" t="s">
@@ -13713,10 +13715,10 @@
       <c r="M269" s="6"/>
       <c r="N269" s="6"/>
       <c r="O269" s="6"/>
-      <c r="P269" s="55"/>
+      <c r="P269" s="39"/>
     </row>
     <row r="270" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A270" s="59">
+      <c r="A270" s="43">
         <v>69</v>
       </c>
       <c r="B270" s="11" t="s">
@@ -13761,12 +13763,12 @@
       <c r="O270" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="P270" s="55" t="s">
+      <c r="P270" s="39" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="271" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A271" s="59">
+      <c r="A271" s="43">
         <v>70</v>
       </c>
       <c r="B271" s="11" t="s">
@@ -13793,10 +13795,10 @@
       <c r="M271" s="6"/>
       <c r="N271" s="6"/>
       <c r="O271" s="6"/>
-      <c r="P271" s="55"/>
+      <c r="P271" s="39"/>
     </row>
     <row r="272" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A272" s="59">
+      <c r="A272" s="43">
         <v>71</v>
       </c>
       <c r="B272" s="11" t="s">
@@ -13823,10 +13825,10 @@
       <c r="M272" s="6"/>
       <c r="N272" s="6"/>
       <c r="O272" s="6"/>
-      <c r="P272" s="55"/>
+      <c r="P272" s="39"/>
     </row>
     <row r="273" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A273" s="59">
+      <c r="A273" s="43">
         <v>72</v>
       </c>
       <c r="B273" s="11" t="s">
@@ -13853,10 +13855,10 @@
       <c r="M273" s="6"/>
       <c r="N273" s="6"/>
       <c r="O273" s="6"/>
-      <c r="P273" s="55"/>
+      <c r="P273" s="39"/>
     </row>
     <row r="274" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A274" s="59">
+      <c r="A274" s="43">
         <v>73</v>
       </c>
       <c r="B274" s="11" t="s">
@@ -13883,10 +13885,10 @@
       <c r="M274" s="6"/>
       <c r="N274" s="6"/>
       <c r="O274" s="6"/>
-      <c r="P274" s="55"/>
+      <c r="P274" s="39"/>
     </row>
     <row r="275" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A275" s="59">
+      <c r="A275" s="43">
         <v>74</v>
       </c>
       <c r="B275" s="11" t="s">
@@ -13913,10 +13915,10 @@
       <c r="M275" s="6"/>
       <c r="N275" s="6"/>
       <c r="O275" s="6"/>
-      <c r="P275" s="55"/>
+      <c r="P275" s="39"/>
     </row>
     <row r="276" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A276" s="59">
+      <c r="A276" s="43">
         <v>75</v>
       </c>
       <c r="B276" s="11" t="s">
@@ -13943,10 +13945,10 @@
       <c r="M276" s="6"/>
       <c r="N276" s="6"/>
       <c r="O276" s="6"/>
-      <c r="P276" s="55"/>
+      <c r="P276" s="39"/>
     </row>
     <row r="277" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A277" s="39">
+      <c r="A277" s="27">
         <v>76</v>
       </c>
       <c r="B277" s="9" t="s">
@@ -13991,12 +13993,12 @@
       <c r="O277" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P277" s="56" t="s">
+      <c r="P277" s="40" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="278" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A278" s="39">
+      <c r="A278" s="27">
         <v>77</v>
       </c>
       <c r="B278" s="9" t="s">
@@ -14041,12 +14043,12 @@
       <c r="O278" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P278" s="56" t="s">
+      <c r="P278" s="40" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="279" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A279" s="39">
+      <c r="A279" s="27">
         <v>78</v>
       </c>
       <c r="B279" s="9" t="s">
@@ -14091,12 +14093,12 @@
       <c r="O279" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P279" s="56" t="s">
+      <c r="P279" s="40" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="280" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A280" s="39">
+      <c r="A280" s="27">
         <v>79</v>
       </c>
       <c r="B280" s="9" t="s">
@@ -14141,12 +14143,12 @@
       <c r="O280" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P280" s="56" t="s">
+      <c r="P280" s="40" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="281" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A281" s="59">
+      <c r="A281" s="43">
         <v>80</v>
       </c>
       <c r="B281" s="11" t="s">
@@ -14173,10 +14175,10 @@
       <c r="M281" s="6"/>
       <c r="N281" s="6"/>
       <c r="O281" s="6"/>
-      <c r="P281" s="55"/>
+      <c r="P281" s="39"/>
     </row>
     <row r="282" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A282" s="59">
+      <c r="A282" s="43">
         <v>81</v>
       </c>
       <c r="B282" s="11" t="s">
@@ -14203,10 +14205,10 @@
       <c r="M282" s="6"/>
       <c r="N282" s="6"/>
       <c r="O282" s="6"/>
-      <c r="P282" s="55"/>
+      <c r="P282" s="39"/>
     </row>
     <row r="283" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A283" s="59">
+      <c r="A283" s="43">
         <v>82</v>
       </c>
       <c r="B283" s="11" t="s">
@@ -14233,10 +14235,10 @@
       <c r="M283" s="6"/>
       <c r="N283" s="6"/>
       <c r="O283" s="6"/>
-      <c r="P283" s="55"/>
+      <c r="P283" s="39"/>
     </row>
     <row r="284" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A284" s="59">
+      <c r="A284" s="43">
         <v>83</v>
       </c>
       <c r="B284" s="11" t="s">
@@ -14263,10 +14265,10 @@
       <c r="M284" s="6"/>
       <c r="N284" s="6"/>
       <c r="O284" s="6"/>
-      <c r="P284" s="55"/>
+      <c r="P284" s="39"/>
     </row>
     <row r="285" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A285" s="59">
+      <c r="A285" s="43">
         <v>84</v>
       </c>
       <c r="B285" s="11" t="s">
@@ -14293,10 +14295,10 @@
       <c r="M285" s="6"/>
       <c r="N285" s="6"/>
       <c r="O285" s="6"/>
-      <c r="P285" s="55"/>
+      <c r="P285" s="39"/>
     </row>
     <row r="286" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A286" s="59">
+      <c r="A286" s="43">
         <v>85</v>
       </c>
       <c r="B286" s="11" t="s">
@@ -14323,10 +14325,10 @@
       <c r="M286" s="6"/>
       <c r="N286" s="6"/>
       <c r="O286" s="6"/>
-      <c r="P286" s="55"/>
+      <c r="P286" s="39"/>
     </row>
     <row r="287" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A287" s="59">
+      <c r="A287" s="43">
         <v>86</v>
       </c>
       <c r="B287" s="11" t="s">
@@ -14353,10 +14355,10 @@
       <c r="M287" s="6"/>
       <c r="N287" s="6"/>
       <c r="O287" s="6"/>
-      <c r="P287" s="55"/>
+      <c r="P287" s="39"/>
     </row>
     <row r="288" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A288" s="59">
+      <c r="A288" s="43">
         <v>87</v>
       </c>
       <c r="B288" s="11" t="s">
@@ -14383,10 +14385,10 @@
       <c r="M288" s="6"/>
       <c r="N288" s="6"/>
       <c r="O288" s="6"/>
-      <c r="P288" s="55"/>
+      <c r="P288" s="39"/>
     </row>
     <row r="289" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A289" s="59">
+      <c r="A289" s="43">
         <v>88</v>
       </c>
       <c r="B289" s="11" t="s">
@@ -14413,10 +14415,10 @@
       <c r="M289" s="6"/>
       <c r="N289" s="6"/>
       <c r="O289" s="6"/>
-      <c r="P289" s="55"/>
+      <c r="P289" s="39"/>
     </row>
     <row r="290" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A290" s="59">
+      <c r="A290" s="43">
         <v>89</v>
       </c>
       <c r="B290" s="11" t="s">
@@ -14443,10 +14445,10 @@
       <c r="M290" s="6"/>
       <c r="N290" s="6"/>
       <c r="O290" s="6"/>
-      <c r="P290" s="55"/>
+      <c r="P290" s="39"/>
     </row>
     <row r="291" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A291" s="59">
+      <c r="A291" s="43">
         <v>90</v>
       </c>
       <c r="B291" s="11" t="s">
@@ -14473,10 +14475,10 @@
       <c r="M291" s="6"/>
       <c r="N291" s="6"/>
       <c r="O291" s="6"/>
-      <c r="P291" s="55"/>
+      <c r="P291" s="39"/>
     </row>
     <row r="292" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A292" s="59">
+      <c r="A292" s="43">
         <v>91</v>
       </c>
       <c r="B292" s="11" t="s">
@@ -14503,10 +14505,10 @@
       <c r="M292" s="6"/>
       <c r="N292" s="6"/>
       <c r="O292" s="6"/>
-      <c r="P292" s="55"/>
+      <c r="P292" s="39"/>
     </row>
     <row r="293" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A293" s="59">
+      <c r="A293" s="43">
         <v>92</v>
       </c>
       <c r="B293" s="11" t="s">
@@ -14533,10 +14535,10 @@
       <c r="M293" s="6"/>
       <c r="N293" s="6"/>
       <c r="O293" s="6"/>
-      <c r="P293" s="55"/>
+      <c r="P293" s="39"/>
     </row>
     <row r="294" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A294" s="59">
+      <c r="A294" s="43">
         <v>93</v>
       </c>
       <c r="B294" s="11" t="s">
@@ -14563,10 +14565,10 @@
       <c r="M294" s="6"/>
       <c r="N294" s="6"/>
       <c r="O294" s="6"/>
-      <c r="P294" s="55"/>
+      <c r="P294" s="39"/>
     </row>
     <row r="295" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A295" s="59">
+      <c r="A295" s="43">
         <v>94</v>
       </c>
       <c r="B295" s="11" t="s">
@@ -14593,10 +14595,10 @@
       <c r="M295" s="6"/>
       <c r="N295" s="6"/>
       <c r="O295" s="6"/>
-      <c r="P295" s="55"/>
+      <c r="P295" s="39"/>
     </row>
     <row r="296" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A296" s="59">
+      <c r="A296" s="43">
         <v>95</v>
       </c>
       <c r="B296" s="11" t="s">
@@ -14623,10 +14625,10 @@
       <c r="M296" s="6"/>
       <c r="N296" s="6"/>
       <c r="O296" s="6"/>
-      <c r="P296" s="55"/>
+      <c r="P296" s="39"/>
     </row>
     <row r="297" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A297" s="39">
+      <c r="A297" s="27">
         <v>96</v>
       </c>
       <c r="B297" s="9" t="s">
@@ -14671,12 +14673,12 @@
       <c r="O297" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P297" s="56" t="s">
+      <c r="P297" s="40" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="298" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A298" s="39">
+      <c r="A298" s="27">
         <v>97</v>
       </c>
       <c r="B298" s="9" t="s">
@@ -14721,12 +14723,12 @@
       <c r="O298" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="P298" s="56" t="s">
+      <c r="P298" s="40" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="299" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A299" s="59">
+      <c r="A299" s="43">
         <v>98</v>
       </c>
       <c r="B299" s="11" t="s">
@@ -14753,10 +14755,10 @@
       <c r="M299" s="6"/>
       <c r="N299" s="6"/>
       <c r="O299" s="6"/>
-      <c r="P299" s="55"/>
+      <c r="P299" s="39"/>
     </row>
     <row r="300" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A300" s="59">
+      <c r="A300" s="43">
         <v>99</v>
       </c>
       <c r="B300" s="11" t="s">
@@ -14783,43 +14785,47 @@
       <c r="M300" s="6"/>
       <c r="N300" s="6"/>
       <c r="O300" s="6"/>
-      <c r="P300" s="55"/>
+      <c r="P300" s="39"/>
     </row>
     <row r="301" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A301" s="60">
+      <c r="A301" s="44">
         <v>100</v>
       </c>
-      <c r="B301" s="61" t="s">
+      <c r="B301" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="C301" s="61">
+      <c r="C301" s="45">
         <v>10</v>
       </c>
-      <c r="D301" s="61">
+      <c r="D301" s="45">
         <v>2</v>
       </c>
-      <c r="E301" s="61" t="s">
+      <c r="E301" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="F301" s="62" t="s">
-        <v>108</v>
-      </c>
-      <c r="G301" s="62"/>
-      <c r="H301" s="62"/>
-      <c r="I301" s="62"/>
-      <c r="J301" s="62"/>
-      <c r="K301" s="62"/>
-      <c r="L301" s="62"/>
-      <c r="M301" s="62"/>
-      <c r="N301" s="62"/>
-      <c r="O301" s="62"/>
-      <c r="P301" s="63"/>
+      <c r="F301" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="G301" s="46"/>
+      <c r="H301" s="46"/>
+      <c r="I301" s="46"/>
+      <c r="J301" s="46"/>
+      <c r="K301" s="46"/>
+      <c r="L301" s="46"/>
+      <c r="M301" s="46"/>
+      <c r="N301" s="46"/>
+      <c r="O301" s="46"/>
+      <c r="P301" s="47"/>
     </row>
     <row r="302" spans="1:16" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="9iKcavKJ7bXa2VAXjnQktA7bMIa0L+ozlYV01ValeWFg/EGf+5wj1snCiPjUkrGoeuoMsiLxPW4Cunz4U5jV4A==" saltValue="ziT6rR81fzZhA4TygKZN8w==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A1:P301"/>
   <mergeCells count="20">
+    <mergeCell ref="R23:R26"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="R27:R28"/>
     <mergeCell ref="R37:S38"/>
     <mergeCell ref="S8:T8"/>
     <mergeCell ref="R1:T2"/>
@@ -14836,10 +14842,6 @@
     <mergeCell ref="R17:R18"/>
     <mergeCell ref="R19:R20"/>
     <mergeCell ref="R21:R22"/>
-    <mergeCell ref="R23:R26"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="R27:R28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="70">
@@ -15064,9 +15066,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I226"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -15079,2592 +15081,2602 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="49.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="22" t="s">
         <v>366</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="F1" s="88" t="s">
         <v>560</v>
       </c>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="91"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="90"/>
     </row>
     <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36">
+      <c r="A2" s="24">
         <v>0</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="19" t="s">
         <v>365</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="F2" s="95" t="s">
+      <c r="F2" s="91" t="s">
         <v>561</v>
       </c>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="97"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="93"/>
     </row>
     <row r="3" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="36">
+      <c r="A3" s="24">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="19" t="s">
         <v>208</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="25" t="s">
         <v>392</v>
       </c>
-      <c r="F3" s="92" t="s">
+      <c r="F3" s="94" t="s">
         <v>562</v>
       </c>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="94"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="96"/>
     </row>
     <row r="4" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="36">
+      <c r="A4" s="24">
         <v>2</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="19" t="s">
         <v>209</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="25" t="s">
         <v>394</v>
       </c>
-      <c r="F4" s="98" t="s">
+      <c r="F4" s="97" t="s">
         <v>564</v>
       </c>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="100"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="99"/>
     </row>
     <row r="5" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36">
+      <c r="A5" s="24">
         <v>3</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="19" t="s">
         <v>210</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="25" t="s">
         <v>395</v>
       </c>
-      <c r="F5" s="101"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="103"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="102"/>
     </row>
     <row r="6" spans="1:9" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="36">
+      <c r="A6" s="24">
         <v>4</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="19" t="s">
         <v>211</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="25" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="36">
+      <c r="A7" s="24">
         <v>5</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="37" t="s">
+      <c r="C7" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="25" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="36">
+      <c r="A8" s="24">
         <v>6</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="19" t="s">
         <v>213</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="25" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="36">
+      <c r="A9" s="24">
         <v>7</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="19" t="s">
         <v>214</v>
       </c>
       <c r="C9" s="18"/>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="25" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="36">
+      <c r="A10" s="24">
         <v>8</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="19" t="s">
         <v>215</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="25" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="36">
+      <c r="A11" s="24">
         <v>9</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="19" t="s">
         <v>370</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="25" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="36">
+      <c r="A12" s="24">
         <v>10</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="19" t="s">
         <v>216</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="25" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="36">
+      <c r="A13" s="24">
         <v>11</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="19" t="s">
         <v>217</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="25" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="36">
+      <c r="A14" s="24">
         <v>12</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="19" t="s">
         <v>218</v>
       </c>
       <c r="C14" s="18"/>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="25" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="36">
+      <c r="A15" s="24">
         <v>13</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="19" t="s">
         <v>371</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="26" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="36">
+      <c r="A16" s="24">
         <v>14</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="38" t="s">
+      <c r="C16" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="26" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="36">
+      <c r="A17" s="24">
         <v>15</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="19" t="s">
         <v>220</v>
       </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="26" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="36">
+      <c r="A18" s="24">
         <v>16</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="19" t="s">
         <v>221</v>
       </c>
       <c r="C18" s="18"/>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="26" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="36">
+      <c r="A19" s="24">
         <v>17</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="19" t="s">
         <v>222</v>
       </c>
       <c r="C19" s="18"/>
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="26" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="36">
+      <c r="A20" s="24">
         <v>18</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="37" t="s">
+      <c r="C20" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="25" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="36">
+      <c r="A21" s="24">
         <v>19</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="38" t="s">
+      <c r="C21" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="26" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="36">
+      <c r="A22" s="24">
         <v>20</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="19" t="s">
         <v>225</v>
       </c>
       <c r="C22" s="18"/>
-      <c r="D22" s="38" t="s">
+      <c r="D22" s="26" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="36">
+      <c r="A23" s="24">
         <v>21</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="19" t="s">
         <v>226</v>
       </c>
       <c r="C23" s="18"/>
-      <c r="D23" s="38" t="s">
+      <c r="D23" s="26" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="36">
+      <c r="A24" s="24">
         <v>22</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="19" t="s">
         <v>372</v>
       </c>
       <c r="C24" s="18"/>
-      <c r="D24" s="38" t="s">
+      <c r="D24" s="26" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="36">
+      <c r="A25" s="24">
         <v>23</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="19" t="s">
         <v>227</v>
       </c>
       <c r="C25" s="18"/>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="26" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="36">
+      <c r="A26" s="24">
         <v>24</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="19" t="s">
         <v>228</v>
       </c>
       <c r="C26" s="18"/>
-      <c r="D26" s="38" t="s">
+      <c r="D26" s="26" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="36">
+      <c r="A27" s="24">
         <v>25</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="19" t="s">
         <v>229</v>
       </c>
       <c r="C27" s="18"/>
-      <c r="D27" s="38" t="s">
+      <c r="D27" s="26" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="36">
+      <c r="A28" s="24">
         <v>26</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="19" t="s">
         <v>230</v>
       </c>
       <c r="C28" s="18"/>
-      <c r="D28" s="38" t="s">
+      <c r="D28" s="26" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="36">
+      <c r="A29" s="24">
         <v>27</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="19" t="s">
         <v>231</v>
       </c>
       <c r="C29" s="18"/>
-      <c r="D29" s="38" t="s">
+      <c r="D29" s="26" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="36">
+      <c r="A30" s="24">
         <v>28</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="19" t="s">
         <v>232</v>
       </c>
       <c r="C30" s="18"/>
-      <c r="D30" s="38" t="s">
+      <c r="D30" s="26" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="36">
+      <c r="A31" s="24">
         <v>29</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="19" t="s">
         <v>233</v>
       </c>
       <c r="C31" s="18"/>
-      <c r="D31" s="38" t="s">
+      <c r="D31" s="26" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="36">
+      <c r="A32" s="24">
         <v>30</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="19" t="s">
         <v>234</v>
       </c>
       <c r="C32" s="18"/>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="25" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="36">
+      <c r="A33" s="24">
         <v>31</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="19" t="s">
         <v>373</v>
       </c>
       <c r="C33" s="18"/>
-      <c r="D33" s="37" t="s">
+      <c r="D33" s="25" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="36">
+      <c r="A34" s="24">
         <v>32</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="19" t="s">
         <v>235</v>
       </c>
       <c r="C34" s="18"/>
-      <c r="D34" s="37" t="s">
+      <c r="D34" s="25" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="36">
+      <c r="A35" s="24">
         <v>33</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="19" t="s">
         <v>236</v>
       </c>
       <c r="C35" s="18"/>
-      <c r="D35" s="37" t="s">
+      <c r="D35" s="25" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="36">
+      <c r="A36" s="24">
         <v>34</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="19" t="s">
         <v>237</v>
       </c>
       <c r="C36" s="18"/>
-      <c r="D36" s="37" t="s">
+      <c r="D36" s="25" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="36">
+      <c r="A37" s="24">
         <v>35</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="19" t="s">
         <v>238</v>
       </c>
       <c r="C37" s="18"/>
-      <c r="D37" s="37" t="s">
+      <c r="D37" s="25" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="36">
+      <c r="A38" s="24">
         <v>36</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="19" t="s">
         <v>239</v>
       </c>
       <c r="C38" s="18"/>
-      <c r="D38" s="37" t="s">
+      <c r="D38" s="25" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="36">
+      <c r="A39" s="24">
         <v>37</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="19" t="s">
         <v>240</v>
       </c>
       <c r="C39" s="18"/>
-      <c r="D39" s="37" t="s">
+      <c r="D39" s="25" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="36">
+      <c r="A40" s="24">
         <v>38</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="19" t="s">
         <v>241</v>
       </c>
       <c r="C40" s="18"/>
-      <c r="D40" s="37" t="s">
+      <c r="D40" s="25" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="36">
+      <c r="A41" s="24">
         <v>39</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="19" t="s">
         <v>242</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D41" s="37" t="s">
+      <c r="D41" s="25" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="36">
+      <c r="A42" s="24">
         <v>40</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="19" t="s">
         <v>374</v>
       </c>
       <c r="C42" s="18"/>
-      <c r="D42" s="37" t="s">
+      <c r="D42" s="25" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="36">
+      <c r="A43" s="24">
         <v>41</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="19" t="s">
         <v>243</v>
       </c>
       <c r="C43" s="18"/>
-      <c r="D43" s="37" t="s">
+      <c r="D43" s="25" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="36">
+      <c r="A44" s="24">
         <v>42</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="19" t="s">
         <v>244</v>
       </c>
       <c r="C44" s="18"/>
-      <c r="D44" s="37" t="s">
+      <c r="D44" s="25" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="36">
+      <c r="A45" s="24">
         <v>43</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="19" t="s">
         <v>245</v>
       </c>
       <c r="C45" s="18"/>
-      <c r="D45" s="37" t="s">
+      <c r="D45" s="25" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="36">
+      <c r="A46" s="24">
         <v>44</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="19" t="s">
         <v>246</v>
       </c>
       <c r="C46" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D46" s="37" t="s">
+      <c r="D46" s="25" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="36">
+      <c r="A47" s="24">
         <v>45</v>
       </c>
-      <c r="B47" s="23" t="s">
+      <c r="B47" s="19" t="s">
         <v>247</v>
       </c>
       <c r="C47" s="18"/>
-      <c r="D47" s="37" t="s">
+      <c r="D47" s="25" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="36">
+      <c r="A48" s="24">
         <v>46</v>
       </c>
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="19" t="s">
         <v>248</v>
       </c>
       <c r="C48" s="18"/>
-      <c r="D48" s="37" t="s">
+      <c r="D48" s="25" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="36">
+      <c r="A49" s="24">
         <v>47</v>
       </c>
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="19" t="s">
         <v>249</v>
       </c>
       <c r="C49" s="18"/>
-      <c r="D49" s="37" t="s">
+      <c r="D49" s="25" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="39">
+      <c r="A50" s="27">
         <v>48</v>
       </c>
-      <c r="B50" s="30" t="s">
+      <c r="B50" s="106" t="s">
         <v>433</v>
       </c>
-      <c r="C50" s="31"/>
-      <c r="D50" s="40"/>
+      <c r="C50" s="107"/>
+      <c r="D50" s="108"/>
     </row>
     <row r="51" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="36">
+      <c r="A51" s="24">
         <v>49</v>
       </c>
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="19" t="s">
         <v>375</v>
       </c>
       <c r="C51" s="18"/>
-      <c r="D51" s="37" t="s">
+      <c r="D51" s="25" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="36">
+      <c r="A52" s="24">
         <v>50</v>
       </c>
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="19" t="s">
         <v>250</v>
       </c>
       <c r="C52" s="18"/>
-      <c r="D52" s="37" t="s">
+      <c r="D52" s="25" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="36">
+      <c r="A53" s="24">
         <v>51</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="19" t="s">
         <v>251</v>
       </c>
       <c r="C53" s="18"/>
-      <c r="D53" s="37" t="s">
+      <c r="D53" s="25" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="36">
+      <c r="A54" s="24">
         <v>52</v>
       </c>
-      <c r="B54" s="23" t="s">
+      <c r="B54" s="19" t="s">
         <v>252</v>
       </c>
       <c r="C54" s="18"/>
-      <c r="D54" s="37" t="s">
+      <c r="D54" s="25" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="36">
+      <c r="A55" s="24">
         <v>53</v>
       </c>
-      <c r="B55" s="23" t="s">
+      <c r="B55" s="19" t="s">
         <v>253</v>
       </c>
       <c r="C55" s="18"/>
-      <c r="D55" s="37" t="s">
+      <c r="D55" s="25" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="36">
+      <c r="A56" s="24">
         <v>54</v>
       </c>
-      <c r="B56" s="23" t="s">
+      <c r="B56" s="19" t="s">
         <v>254</v>
       </c>
       <c r="C56" s="18"/>
-      <c r="D56" s="37" t="s">
+      <c r="D56" s="25" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="36">
+      <c r="A57" s="24">
         <v>55</v>
       </c>
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="19" t="s">
         <v>255</v>
       </c>
       <c r="C57" s="18"/>
-      <c r="D57" s="37" t="s">
+      <c r="D57" s="25" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="36">
+      <c r="A58" s="24">
         <v>56</v>
       </c>
-      <c r="B58" s="23" t="s">
+      <c r="B58" s="19" t="s">
         <v>256</v>
       </c>
       <c r="C58" s="18"/>
-      <c r="D58" s="37" t="s">
+      <c r="D58" s="25" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="36">
+      <c r="A59" s="24">
         <v>57</v>
       </c>
-      <c r="B59" s="23" t="s">
+      <c r="B59" s="19" t="s">
         <v>257</v>
       </c>
       <c r="C59" s="18"/>
-      <c r="D59" s="37" t="s">
+      <c r="D59" s="25" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="36">
+      <c r="A60" s="24">
         <v>58</v>
       </c>
-      <c r="B60" s="23" t="s">
+      <c r="B60" s="19" t="s">
         <v>376</v>
       </c>
       <c r="C60" s="18"/>
-      <c r="D60" s="37" t="s">
+      <c r="D60" s="25" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="36">
+      <c r="A61" s="24">
         <v>59</v>
       </c>
-      <c r="B61" s="23" t="s">
+      <c r="B61" s="19" t="s">
         <v>258</v>
       </c>
       <c r="C61" s="18"/>
-      <c r="D61" s="37" t="s">
+      <c r="D61" s="25" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="36">
+      <c r="A62" s="24">
         <v>60</v>
       </c>
-      <c r="B62" s="23" t="s">
+      <c r="B62" s="19" t="s">
         <v>259</v>
       </c>
       <c r="C62" s="18"/>
-      <c r="D62" s="37" t="s">
+      <c r="D62" s="25" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="36">
+      <c r="A63" s="24">
         <v>61</v>
       </c>
-      <c r="B63" s="23" t="s">
+      <c r="B63" s="19" t="s">
         <v>260</v>
       </c>
       <c r="C63" s="18"/>
-      <c r="D63" s="37" t="s">
+      <c r="D63" s="25" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="36">
+      <c r="A64" s="24">
         <v>62</v>
       </c>
-      <c r="B64" s="23" t="s">
+      <c r="B64" s="19" t="s">
         <v>261</v>
       </c>
       <c r="C64" s="18"/>
-      <c r="D64" s="37" t="s">
+      <c r="D64" s="25" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="36">
+      <c r="A65" s="24">
         <v>63</v>
       </c>
-      <c r="B65" s="23" t="s">
+      <c r="B65" s="19" t="s">
         <v>262</v>
       </c>
       <c r="C65" s="18" t="s">
         <v>567</v>
       </c>
-      <c r="D65" s="37" t="s">
+      <c r="D65" s="25" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="36">
+      <c r="A66" s="24">
         <v>64</v>
       </c>
-      <c r="B66" s="23" t="s">
+      <c r="B66" s="19" t="s">
         <v>263</v>
       </c>
       <c r="C66" s="18"/>
-      <c r="D66" s="37" t="s">
+      <c r="D66" s="25" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="36">
+      <c r="A67" s="24">
         <v>65</v>
       </c>
-      <c r="B67" s="23" t="s">
+      <c r="B67" s="19" t="s">
         <v>264</v>
       </c>
       <c r="C67" s="18"/>
-      <c r="D67" s="37" t="s">
+      <c r="D67" s="25" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="36">
+      <c r="A68" s="24">
         <v>66</v>
       </c>
-      <c r="B68" s="23" t="s">
+      <c r="B68" s="19" t="s">
         <v>265</v>
       </c>
       <c r="C68" s="18"/>
-      <c r="D68" s="37" t="s">
+      <c r="D68" s="25" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="36">
+      <c r="A69" s="24">
         <v>67</v>
       </c>
-      <c r="B69" s="23" t="s">
+      <c r="B69" s="19" t="s">
         <v>377</v>
       </c>
       <c r="C69" s="18"/>
-      <c r="D69" s="37" t="s">
+      <c r="D69" s="25" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="36">
+      <c r="A70" s="24">
         <v>68</v>
       </c>
-      <c r="B70" s="23" t="s">
+      <c r="B70" s="19" t="s">
         <v>266</v>
       </c>
       <c r="C70" s="18"/>
-      <c r="D70" s="37" t="s">
+      <c r="D70" s="25" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="36">
+      <c r="A71" s="24">
         <v>69</v>
       </c>
-      <c r="B71" s="23" t="s">
+      <c r="B71" s="19" t="s">
         <v>267</v>
       </c>
       <c r="C71" s="18"/>
-      <c r="D71" s="37" t="s">
+      <c r="D71" s="25" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="36">
+      <c r="A72" s="24">
         <v>70</v>
       </c>
-      <c r="B72" s="23" t="s">
+      <c r="B72" s="19" t="s">
         <v>268</v>
       </c>
       <c r="C72" s="18"/>
-      <c r="D72" s="37" t="s">
+      <c r="D72" s="25" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="36">
+      <c r="A73" s="24">
         <v>71</v>
       </c>
-      <c r="B73" s="23" t="s">
+      <c r="B73" s="19" t="s">
         <v>269</v>
       </c>
       <c r="C73" s="18"/>
-      <c r="D73" s="37" t="s">
+      <c r="D73" s="25" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="36">
+      <c r="A74" s="24">
         <v>72</v>
       </c>
-      <c r="B74" s="23" t="s">
+      <c r="B74" s="19" t="s">
         <v>270</v>
       </c>
       <c r="C74" s="18"/>
-      <c r="D74" s="37" t="s">
+      <c r="D74" s="25" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="36">
+      <c r="A75" s="24">
         <v>73</v>
       </c>
-      <c r="B75" s="23" t="s">
+      <c r="B75" s="19" t="s">
         <v>271</v>
       </c>
       <c r="C75" s="18"/>
-      <c r="D75" s="37" t="s">
+      <c r="D75" s="25" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="36">
+      <c r="A76" s="24">
         <v>74</v>
       </c>
-      <c r="B76" s="23" t="s">
+      <c r="B76" s="19" t="s">
         <v>272</v>
       </c>
       <c r="C76" s="18"/>
-      <c r="D76" s="37" t="s">
+      <c r="D76" s="25" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="36">
+      <c r="A77" s="24">
         <v>75</v>
       </c>
-      <c r="B77" s="23" t="s">
+      <c r="B77" s="19" t="s">
         <v>273</v>
       </c>
       <c r="C77" s="18"/>
-      <c r="D77" s="37" t="s">
+      <c r="D77" s="25" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="36">
+      <c r="A78" s="24">
         <v>76</v>
       </c>
-      <c r="B78" s="23" t="s">
+      <c r="B78" s="19" t="s">
         <v>378</v>
       </c>
       <c r="C78" s="18"/>
-      <c r="D78" s="37" t="s">
+      <c r="D78" s="25" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="36">
+      <c r="A79" s="24">
         <v>77</v>
       </c>
-      <c r="B79" s="23" t="s">
+      <c r="B79" s="19" t="s">
         <v>274</v>
       </c>
       <c r="C79" s="18"/>
-      <c r="D79" s="37" t="s">
+      <c r="D79" s="25" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="36">
+      <c r="A80" s="24">
         <v>78</v>
       </c>
-      <c r="B80" s="23" t="s">
+      <c r="B80" s="19" t="s">
         <v>275</v>
       </c>
       <c r="C80" s="18"/>
-      <c r="D80" s="37" t="s">
+      <c r="D80" s="25" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="36">
+      <c r="A81" s="24">
         <v>79</v>
       </c>
-      <c r="B81" s="23" t="s">
+      <c r="B81" s="19" t="s">
         <v>276</v>
       </c>
       <c r="C81" s="18"/>
-      <c r="D81" s="38" t="s">
+      <c r="D81" s="26" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="36">
+      <c r="A82" s="24">
         <v>80</v>
       </c>
-      <c r="B82" s="23" t="s">
+      <c r="B82" s="19" t="s">
         <v>277</v>
       </c>
       <c r="C82" s="18"/>
-      <c r="D82" s="38" t="s">
+      <c r="D82" s="26" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="36">
+      <c r="A83" s="24">
         <v>81</v>
       </c>
-      <c r="B83" s="23" t="s">
+      <c r="B83" s="19" t="s">
         <v>278</v>
       </c>
       <c r="C83" s="18"/>
-      <c r="D83" s="38" t="s">
+      <c r="D83" s="26" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="36">
+      <c r="A84" s="24">
         <v>82</v>
       </c>
-      <c r="B84" s="23" t="s">
+      <c r="B84" s="19" t="s">
         <v>279</v>
       </c>
       <c r="C84" s="18"/>
-      <c r="D84" s="38" t="s">
+      <c r="D84" s="26" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="36">
+      <c r="A85" s="24">
         <v>83</v>
       </c>
-      <c r="B85" s="23" t="s">
+      <c r="B85" s="19" t="s">
         <v>280</v>
       </c>
       <c r="C85" s="18"/>
-      <c r="D85" s="38" t="s">
+      <c r="D85" s="26" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="36">
+      <c r="A86" s="24">
         <v>84</v>
       </c>
-      <c r="B86" s="23" t="s">
+      <c r="B86" s="19" t="s">
         <v>281</v>
       </c>
       <c r="C86" s="18"/>
-      <c r="D86" s="38" t="s">
+      <c r="D86" s="26" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="36">
+      <c r="A87" s="24">
         <v>85</v>
       </c>
-      <c r="B87" s="23" t="s">
+      <c r="B87" s="19" t="s">
         <v>379</v>
       </c>
       <c r="C87" s="18"/>
-      <c r="D87" s="38" t="s">
+      <c r="D87" s="26" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="36">
+      <c r="A88" s="24">
         <v>86</v>
       </c>
-      <c r="B88" s="23" t="s">
+      <c r="B88" s="19" t="s">
         <v>282</v>
       </c>
       <c r="C88" s="18"/>
-      <c r="D88" s="38" t="s">
+      <c r="D88" s="26" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="36">
+      <c r="A89" s="24">
         <v>87</v>
       </c>
-      <c r="B89" s="23" t="s">
+      <c r="B89" s="19" t="s">
         <v>283</v>
       </c>
       <c r="C89" s="18"/>
-      <c r="D89" s="38" t="s">
+      <c r="D89" s="26" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="36">
+      <c r="A90" s="24">
         <v>88</v>
       </c>
-      <c r="B90" s="23" t="s">
+      <c r="B90" s="19" t="s">
         <v>284</v>
       </c>
       <c r="C90" s="18"/>
-      <c r="D90" s="38" t="s">
+      <c r="D90" s="26" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="36">
+      <c r="A91" s="24">
         <v>89</v>
       </c>
-      <c r="B91" s="23" t="s">
+      <c r="B91" s="19" t="s">
         <v>285</v>
       </c>
       <c r="C91" s="18"/>
-      <c r="D91" s="38" t="s">
+      <c r="D91" s="26" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="36">
+      <c r="A92" s="24">
         <v>90</v>
       </c>
-      <c r="B92" s="23" t="s">
+      <c r="B92" s="19" t="s">
         <v>286</v>
       </c>
       <c r="C92" s="18"/>
-      <c r="D92" s="38" t="s">
+      <c r="D92" s="26" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="36">
+      <c r="A93" s="24">
         <v>91</v>
       </c>
-      <c r="B93" s="23" t="s">
+      <c r="B93" s="19" t="s">
         <v>287</v>
       </c>
       <c r="C93" s="18"/>
-      <c r="D93" s="38" t="s">
+      <c r="D93" s="26" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="36">
+      <c r="A94" s="24">
         <v>92</v>
       </c>
-      <c r="B94" s="23" t="s">
+      <c r="B94" s="19" t="s">
         <v>288</v>
       </c>
       <c r="C94" s="18"/>
-      <c r="D94" s="38" t="s">
+      <c r="D94" s="26" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="36">
+      <c r="A95" s="24">
         <v>93</v>
       </c>
-      <c r="B95" s="23" t="s">
+      <c r="B95" s="19" t="s">
         <v>289</v>
       </c>
       <c r="C95" s="18"/>
-      <c r="D95" s="38" t="s">
+      <c r="D95" s="26" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="36">
+      <c r="A96" s="24">
         <v>94</v>
       </c>
-      <c r="B96" s="23" t="s">
+      <c r="B96" s="19" t="s">
         <v>380</v>
       </c>
       <c r="C96" s="18"/>
-      <c r="D96" s="38" t="s">
+      <c r="D96" s="26" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="36">
+      <c r="A97" s="24">
         <v>95</v>
       </c>
-      <c r="B97" s="23" t="s">
+      <c r="B97" s="19" t="s">
         <v>290</v>
       </c>
       <c r="C97" s="18"/>
-      <c r="D97" s="38" t="s">
+      <c r="D97" s="26" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="39">
+      <c r="A98" s="27">
         <v>96</v>
       </c>
-      <c r="B98" s="24" t="s">
+      <c r="B98" s="82" t="s">
         <v>433</v>
       </c>
-      <c r="C98" s="25"/>
-      <c r="D98" s="41"/>
+      <c r="C98" s="83"/>
+      <c r="D98" s="84"/>
     </row>
     <row r="99" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="39">
+      <c r="A99" s="27">
         <v>97</v>
       </c>
-      <c r="B99" s="26"/>
-      <c r="C99" s="27"/>
-      <c r="D99" s="42"/>
+      <c r="B99" s="85"/>
+      <c r="C99" s="86"/>
+      <c r="D99" s="87"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="39">
+      <c r="A100" s="27">
         <v>98</v>
       </c>
-      <c r="B100" s="26"/>
-      <c r="C100" s="27"/>
-      <c r="D100" s="42"/>
+      <c r="B100" s="85"/>
+      <c r="C100" s="86"/>
+      <c r="D100" s="87"/>
     </row>
     <row r="101" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="39">
+      <c r="A101" s="27">
         <v>99</v>
       </c>
-      <c r="B101" s="26"/>
-      <c r="C101" s="27"/>
-      <c r="D101" s="42"/>
+      <c r="B101" s="85"/>
+      <c r="C101" s="86"/>
+      <c r="D101" s="87"/>
     </row>
     <row r="102" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="39">
+      <c r="A102" s="27">
         <v>100</v>
       </c>
-      <c r="B102" s="26"/>
-      <c r="C102" s="27"/>
-      <c r="D102" s="42"/>
+      <c r="B102" s="85"/>
+      <c r="C102" s="86"/>
+      <c r="D102" s="87"/>
     </row>
     <row r="103" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="39">
+      <c r="A103" s="27">
         <v>101</v>
       </c>
-      <c r="B103" s="28"/>
-      <c r="C103" s="29"/>
-      <c r="D103" s="43"/>
+      <c r="B103" s="103"/>
+      <c r="C103" s="104"/>
+      <c r="D103" s="105"/>
     </row>
     <row r="104" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="36">
+      <c r="A104" s="24">
         <v>102</v>
       </c>
-      <c r="B104" s="23" t="s">
+      <c r="B104" s="19" t="s">
         <v>291</v>
       </c>
       <c r="C104" s="18"/>
-      <c r="D104" s="38" t="s">
+      <c r="D104" s="26" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="36">
+      <c r="A105" s="24">
         <v>103</v>
       </c>
-      <c r="B105" s="23" t="s">
+      <c r="B105" s="19" t="s">
         <v>381</v>
       </c>
       <c r="C105" s="18"/>
-      <c r="D105" s="38" t="s">
+      <c r="D105" s="26" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="36">
+      <c r="A106" s="24">
         <v>104</v>
       </c>
-      <c r="B106" s="23" t="s">
+      <c r="B106" s="19" t="s">
         <v>292</v>
       </c>
       <c r="C106" s="18"/>
-      <c r="D106" s="38" t="s">
+      <c r="D106" s="26" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="36">
+      <c r="A107" s="24">
         <v>105</v>
       </c>
-      <c r="B107" s="23" t="s">
+      <c r="B107" s="19" t="s">
         <v>293</v>
       </c>
       <c r="C107" s="18"/>
-      <c r="D107" s="38" t="s">
+      <c r="D107" s="26" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="36">
+      <c r="A108" s="24">
         <v>106</v>
       </c>
-      <c r="B108" s="23" t="s">
+      <c r="B108" s="19" t="s">
         <v>294</v>
       </c>
       <c r="C108" s="18"/>
-      <c r="D108" s="38" t="s">
+      <c r="D108" s="26" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="36">
+      <c r="A109" s="24">
         <v>107</v>
       </c>
-      <c r="B109" s="23" t="s">
+      <c r="B109" s="19" t="s">
         <v>295</v>
       </c>
       <c r="C109" s="18"/>
-      <c r="D109" s="37" t="s">
+      <c r="D109" s="25" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="36">
-        <v>108</v>
-      </c>
-      <c r="B110" s="23" t="s">
+      <c r="A110" s="24">
+        <v>108</v>
+      </c>
+      <c r="B110" s="19" t="s">
         <v>296</v>
       </c>
       <c r="C110" s="18"/>
-      <c r="D110" s="37" t="s">
+      <c r="D110" s="25" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="36">
+      <c r="A111" s="24">
         <v>109</v>
       </c>
-      <c r="B111" s="23" t="s">
+      <c r="B111" s="19" t="s">
         <v>297</v>
       </c>
       <c r="C111" s="18"/>
-      <c r="D111" s="37" t="s">
+      <c r="D111" s="25" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="36">
+      <c r="A112" s="24">
         <v>110</v>
       </c>
-      <c r="B112" s="23" t="s">
+      <c r="B112" s="19" t="s">
         <v>298</v>
       </c>
       <c r="C112" s="18"/>
-      <c r="D112" s="37" t="s">
+      <c r="D112" s="25" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="36">
+      <c r="A113" s="24">
         <v>111</v>
       </c>
-      <c r="B113" s="23" t="s">
+      <c r="B113" s="19" t="s">
         <v>299</v>
       </c>
       <c r="C113" s="18"/>
-      <c r="D113" s="37" t="s">
+      <c r="D113" s="25" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="36">
+      <c r="A114" s="24">
         <v>112</v>
       </c>
-      <c r="B114" s="23" t="s">
+      <c r="B114" s="19" t="s">
         <v>382</v>
       </c>
       <c r="C114" s="18"/>
-      <c r="D114" s="37" t="s">
+      <c r="D114" s="25" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="36">
+      <c r="A115" s="24">
         <v>113</v>
       </c>
-      <c r="B115" s="23" t="s">
+      <c r="B115" s="19" t="s">
         <v>300</v>
       </c>
       <c r="C115" s="18"/>
-      <c r="D115" s="37" t="s">
+      <c r="D115" s="25" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="36">
+      <c r="A116" s="24">
         <v>114</v>
       </c>
-      <c r="B116" s="23" t="s">
+      <c r="B116" s="19" t="s">
         <v>301</v>
       </c>
       <c r="C116" s="18"/>
-      <c r="D116" s="37" t="s">
+      <c r="D116" s="25" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="36">
+      <c r="A117" s="24">
         <v>115</v>
       </c>
-      <c r="B117" s="23" t="s">
+      <c r="B117" s="19" t="s">
         <v>302</v>
       </c>
       <c r="C117" s="18"/>
-      <c r="D117" s="37" t="s">
+      <c r="D117" s="25" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="36">
+      <c r="A118" s="24">
         <v>116</v>
       </c>
-      <c r="B118" s="23" t="s">
+      <c r="B118" s="19" t="s">
         <v>303</v>
       </c>
       <c r="C118" s="18"/>
-      <c r="D118" s="37" t="s">
+      <c r="D118" s="25" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="36">
+      <c r="A119" s="24">
         <v>117</v>
       </c>
-      <c r="B119" s="23" t="s">
+      <c r="B119" s="19" t="s">
         <v>304</v>
       </c>
       <c r="C119" s="18"/>
-      <c r="D119" s="37" t="s">
+      <c r="D119" s="25" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="36">
+      <c r="A120" s="24">
         <v>118</v>
       </c>
-      <c r="B120" s="23" t="s">
+      <c r="B120" s="19" t="s">
         <v>305</v>
       </c>
       <c r="C120" s="18"/>
-      <c r="D120" s="37" t="s">
+      <c r="D120" s="25" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="36">
+      <c r="A121" s="24">
         <v>119</v>
       </c>
-      <c r="B121" s="23" t="s">
+      <c r="B121" s="19" t="s">
         <v>306</v>
       </c>
       <c r="C121" s="18"/>
-      <c r="D121" s="37" t="s">
+      <c r="D121" s="25" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="36">
+      <c r="A122" s="24">
         <v>120</v>
       </c>
-      <c r="B122" s="23" t="s">
+      <c r="B122" s="19" t="s">
         <v>307</v>
       </c>
       <c r="C122" s="18"/>
-      <c r="D122" s="37" t="s">
+      <c r="D122" s="25" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="36">
+      <c r="A123" s="24">
         <v>121</v>
       </c>
-      <c r="B123" s="23" t="s">
+      <c r="B123" s="19" t="s">
         <v>383</v>
       </c>
       <c r="C123" s="18"/>
-      <c r="D123" s="37" t="s">
+      <c r="D123" s="25" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="36">
+      <c r="A124" s="24">
         <v>122</v>
       </c>
-      <c r="B124" s="23" t="s">
+      <c r="B124" s="19" t="s">
         <v>308</v>
       </c>
       <c r="C124" s="18"/>
-      <c r="D124" s="37" t="s">
+      <c r="D124" s="25" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="36">
+      <c r="A125" s="24">
         <v>123</v>
       </c>
-      <c r="B125" s="23" t="s">
+      <c r="B125" s="19" t="s">
         <v>309</v>
       </c>
       <c r="C125" s="18"/>
-      <c r="D125" s="37" t="s">
+      <c r="D125" s="25" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="36">
+      <c r="A126" s="24">
         <v>124</v>
       </c>
-      <c r="B126" s="23" t="s">
+      <c r="B126" s="19" t="s">
         <v>310</v>
       </c>
       <c r="C126" s="18"/>
-      <c r="D126" s="37" t="s">
+      <c r="D126" s="25" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="36">
+      <c r="A127" s="24">
         <v>125</v>
       </c>
-      <c r="B127" s="23" t="s">
+      <c r="B127" s="19" t="s">
         <v>311</v>
       </c>
       <c r="C127" s="18"/>
-      <c r="D127" s="37" t="s">
+      <c r="D127" s="25" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="36">
+      <c r="A128" s="24">
         <v>126</v>
       </c>
-      <c r="B128" s="23" t="s">
+      <c r="B128" s="19" t="s">
         <v>312</v>
       </c>
       <c r="C128" s="18"/>
-      <c r="D128" s="37" t="s">
+      <c r="D128" s="25" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="36">
+      <c r="A129" s="24">
         <v>127</v>
       </c>
-      <c r="B129" s="23" t="s">
+      <c r="B129" s="19" t="s">
         <v>313</v>
       </c>
       <c r="C129" s="18"/>
-      <c r="D129" s="37" t="s">
+      <c r="D129" s="25" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="39">
+      <c r="A130" s="27">
         <v>128</v>
       </c>
-      <c r="B130" s="24" t="s">
+      <c r="B130" s="82" t="s">
         <v>433</v>
       </c>
-      <c r="C130" s="25"/>
-      <c r="D130" s="41"/>
+      <c r="C130" s="83"/>
+      <c r="D130" s="84"/>
     </row>
     <row r="131" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="39">
+      <c r="A131" s="27">
         <v>129</v>
       </c>
-      <c r="B131" s="26"/>
-      <c r="C131" s="27"/>
-      <c r="D131" s="42"/>
+      <c r="B131" s="85"/>
+      <c r="C131" s="86"/>
+      <c r="D131" s="87"/>
     </row>
     <row r="132" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="39">
+      <c r="A132" s="27">
         <v>130</v>
       </c>
-      <c r="B132" s="26"/>
-      <c r="C132" s="27"/>
-      <c r="D132" s="42"/>
+      <c r="B132" s="85"/>
+      <c r="C132" s="86"/>
+      <c r="D132" s="87"/>
     </row>
     <row r="133" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="39">
+      <c r="A133" s="27">
         <v>131</v>
       </c>
-      <c r="B133" s="26"/>
-      <c r="C133" s="27"/>
-      <c r="D133" s="42"/>
+      <c r="B133" s="85"/>
+      <c r="C133" s="86"/>
+      <c r="D133" s="87"/>
     </row>
     <row r="134" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="39">
+      <c r="A134" s="27">
         <v>132</v>
       </c>
-      <c r="B134" s="26"/>
-      <c r="C134" s="27"/>
-      <c r="D134" s="42"/>
+      <c r="B134" s="85"/>
+      <c r="C134" s="86"/>
+      <c r="D134" s="87"/>
     </row>
     <row r="135" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="39">
+      <c r="A135" s="27">
         <v>133</v>
       </c>
-      <c r="B135" s="28"/>
-      <c r="C135" s="29"/>
-      <c r="D135" s="43"/>
+      <c r="B135" s="103"/>
+      <c r="C135" s="104"/>
+      <c r="D135" s="105"/>
     </row>
     <row r="136" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="36">
+      <c r="A136" s="24">
         <v>134</v>
       </c>
-      <c r="B136" s="23" t="s">
+      <c r="B136" s="19" t="s">
         <v>314</v>
       </c>
       <c r="C136" s="18"/>
-      <c r="D136" s="37" t="s">
+      <c r="D136" s="25" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="36">
+      <c r="A137" s="24">
         <v>135</v>
       </c>
-      <c r="B137" s="23" t="s">
+      <c r="B137" s="19" t="s">
         <v>315</v>
       </c>
       <c r="C137" s="18"/>
-      <c r="D137" s="37" t="s">
+      <c r="D137" s="25" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="36">
+      <c r="A138" s="24">
         <v>136</v>
       </c>
-      <c r="B138" s="23" t="s">
+      <c r="B138" s="19" t="s">
         <v>316</v>
       </c>
       <c r="C138" s="18"/>
-      <c r="D138" s="37" t="s">
+      <c r="D138" s="25" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="36">
+      <c r="A139" s="24">
         <v>137</v>
       </c>
-      <c r="B139" s="23" t="s">
+      <c r="B139" s="19" t="s">
         <v>317</v>
       </c>
       <c r="C139" s="18"/>
-      <c r="D139" s="37" t="s">
+      <c r="D139" s="25" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="36">
+      <c r="A140" s="24">
         <v>138</v>
       </c>
-      <c r="B140" s="23" t="s">
+      <c r="B140" s="19" t="s">
         <v>318</v>
       </c>
       <c r="C140" s="18"/>
-      <c r="D140" s="37" t="s">
+      <c r="D140" s="25" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="36">
+      <c r="A141" s="24">
         <v>139</v>
       </c>
-      <c r="B141" s="23" t="s">
+      <c r="B141" s="19" t="s">
         <v>384</v>
       </c>
       <c r="C141" s="18"/>
-      <c r="D141" s="37" t="s">
+      <c r="D141" s="25" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="36">
+      <c r="A142" s="24">
         <v>140</v>
       </c>
-      <c r="B142" s="23" t="s">
+      <c r="B142" s="19" t="s">
         <v>319</v>
       </c>
       <c r="C142" s="18"/>
-      <c r="D142" s="37" t="s">
+      <c r="D142" s="25" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="36">
+      <c r="A143" s="24">
         <v>141</v>
       </c>
-      <c r="B143" s="23" t="s">
+      <c r="B143" s="19" t="s">
         <v>320</v>
       </c>
       <c r="C143" s="18"/>
-      <c r="D143" s="37" t="s">
+      <c r="D143" s="25" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="36">
+      <c r="A144" s="24">
         <v>142</v>
       </c>
-      <c r="B144" s="23" t="s">
+      <c r="B144" s="19" t="s">
         <v>321</v>
       </c>
       <c r="C144" s="18"/>
-      <c r="D144" s="37" t="s">
+      <c r="D144" s="25" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="36">
+      <c r="A145" s="24">
         <v>143</v>
       </c>
-      <c r="B145" s="23" t="s">
+      <c r="B145" s="19" t="s">
         <v>322</v>
       </c>
       <c r="C145" s="18"/>
-      <c r="D145" s="37" t="s">
+      <c r="D145" s="25" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="36">
+      <c r="A146" s="24">
         <v>144</v>
       </c>
-      <c r="B146" s="23" t="s">
+      <c r="B146" s="19" t="s">
         <v>323</v>
       </c>
       <c r="C146" s="18"/>
-      <c r="D146" s="37" t="s">
+      <c r="D146" s="25" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="36">
+      <c r="A147" s="24">
         <v>145</v>
       </c>
-      <c r="B147" s="23" t="s">
+      <c r="B147" s="19" t="s">
         <v>324</v>
       </c>
       <c r="C147" s="18"/>
-      <c r="D147" s="37" t="s">
+      <c r="D147" s="25" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="36">
+      <c r="A148" s="24">
         <v>146</v>
       </c>
-      <c r="B148" s="23" t="s">
+      <c r="B148" s="19" t="s">
         <v>325</v>
       </c>
       <c r="C148" s="18"/>
-      <c r="D148" s="37" t="s">
+      <c r="D148" s="25" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="36">
+      <c r="A149" s="24">
         <v>147</v>
       </c>
-      <c r="B149" s="23" t="s">
+      <c r="B149" s="19" t="s">
         <v>326</v>
       </c>
       <c r="C149" s="18"/>
-      <c r="D149" s="37" t="s">
+      <c r="D149" s="25" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="36">
+      <c r="A150" s="24">
         <v>148</v>
       </c>
-      <c r="B150" s="23" t="s">
+      <c r="B150" s="19" t="s">
         <v>385</v>
       </c>
       <c r="C150" s="18"/>
-      <c r="D150" s="37" t="s">
+      <c r="D150" s="25" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="36">
+      <c r="A151" s="24">
         <v>149</v>
       </c>
-      <c r="B151" s="23" t="s">
+      <c r="B151" s="19" t="s">
         <v>327</v>
       </c>
       <c r="C151" s="18"/>
-      <c r="D151" s="37" t="s">
+      <c r="D151" s="25" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A152" s="36">
+      <c r="A152" s="24">
         <v>150</v>
       </c>
-      <c r="B152" s="23" t="s">
+      <c r="B152" s="19" t="s">
         <v>328</v>
       </c>
       <c r="C152" s="18"/>
-      <c r="D152" s="37" t="s">
+      <c r="D152" s="25" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A153" s="36">
+      <c r="A153" s="24">
         <v>151</v>
       </c>
-      <c r="B153" s="23" t="s">
+      <c r="B153" s="19" t="s">
         <v>329</v>
       </c>
       <c r="C153" s="18"/>
-      <c r="D153" s="37" t="s">
+      <c r="D153" s="25" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A154" s="36">
+      <c r="A154" s="24">
         <v>152</v>
       </c>
-      <c r="B154" s="23" t="s">
+      <c r="B154" s="19" t="s">
         <v>330</v>
       </c>
       <c r="C154" s="18"/>
-      <c r="D154" s="37" t="s">
+      <c r="D154" s="25" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="36">
+      <c r="A155" s="24">
         <v>153</v>
       </c>
-      <c r="B155" s="23" t="s">
+      <c r="B155" s="19" t="s">
         <v>331</v>
       </c>
       <c r="C155" s="18"/>
-      <c r="D155" s="37" t="s">
+      <c r="D155" s="25" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A156" s="36">
+      <c r="A156" s="24">
         <v>154</v>
       </c>
-      <c r="B156" s="23" t="s">
+      <c r="B156" s="19" t="s">
         <v>332</v>
       </c>
       <c r="C156" s="18"/>
-      <c r="D156" s="37" t="s">
+      <c r="D156" s="25" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A157" s="39">
+      <c r="A157" s="27">
         <v>155</v>
       </c>
-      <c r="B157" s="30" t="s">
+      <c r="B157" s="106" t="s">
         <v>433</v>
       </c>
-      <c r="C157" s="31"/>
-      <c r="D157" s="40"/>
+      <c r="C157" s="107"/>
+      <c r="D157" s="108"/>
     </row>
     <row r="158" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="36">
+      <c r="A158" s="24">
         <v>156</v>
       </c>
-      <c r="B158" s="23" t="s">
+      <c r="B158" s="19" t="s">
         <v>333</v>
       </c>
       <c r="C158" s="18"/>
-      <c r="D158" s="37" t="s">
+      <c r="D158" s="25" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A159" s="36">
+      <c r="A159" s="24">
         <v>157</v>
       </c>
-      <c r="B159" s="23" t="s">
+      <c r="B159" s="19" t="s">
         <v>386</v>
       </c>
       <c r="C159" s="18"/>
-      <c r="D159" s="37" t="s">
+      <c r="D159" s="25" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="36">
+      <c r="A160" s="24">
         <v>158</v>
       </c>
-      <c r="B160" s="23" t="s">
+      <c r="B160" s="19" t="s">
         <v>334</v>
       </c>
       <c r="C160" s="18"/>
-      <c r="D160" s="37" t="s">
+      <c r="D160" s="25" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="36">
+      <c r="A161" s="24">
         <v>159</v>
       </c>
-      <c r="B161" s="23" t="s">
+      <c r="B161" s="19" t="s">
         <v>335</v>
       </c>
       <c r="C161" s="18"/>
-      <c r="D161" s="37" t="s">
+      <c r="D161" s="25" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="36">
+      <c r="A162" s="24">
         <v>160</v>
       </c>
-      <c r="B162" s="23" t="s">
+      <c r="B162" s="19" t="s">
         <v>336</v>
       </c>
       <c r="C162" s="18"/>
-      <c r="D162" s="37" t="s">
+      <c r="D162" s="25" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="36">
+      <c r="A163" s="24">
         <v>161</v>
       </c>
-      <c r="B163" s="23" t="s">
+      <c r="B163" s="19" t="s">
         <v>337</v>
       </c>
       <c r="C163" s="18"/>
-      <c r="D163" s="37" t="s">
+      <c r="D163" s="25" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="36">
+      <c r="A164" s="24">
         <v>162</v>
       </c>
-      <c r="B164" s="23" t="s">
+      <c r="B164" s="19" t="s">
         <v>338</v>
       </c>
       <c r="C164" s="18"/>
-      <c r="D164" s="37" t="s">
+      <c r="D164" s="25" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="36">
+      <c r="A165" s="24">
         <v>163</v>
       </c>
-      <c r="B165" s="23" t="s">
+      <c r="B165" s="19" t="s">
         <v>339</v>
       </c>
       <c r="C165" s="18"/>
-      <c r="D165" s="37" t="s">
+      <c r="D165" s="25" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="39">
+      <c r="A166" s="27">
         <v>164</v>
       </c>
-      <c r="B166" s="24" t="s">
+      <c r="B166" s="82" t="s">
         <v>433</v>
       </c>
-      <c r="C166" s="25"/>
-      <c r="D166" s="41"/>
+      <c r="C166" s="83"/>
+      <c r="D166" s="84"/>
     </row>
     <row r="167" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="39">
+      <c r="A167" s="27">
         <v>165</v>
       </c>
-      <c r="B167" s="26"/>
-      <c r="C167" s="27"/>
-      <c r="D167" s="42"/>
+      <c r="B167" s="85"/>
+      <c r="C167" s="86"/>
+      <c r="D167" s="87"/>
     </row>
     <row r="168" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="39">
+      <c r="A168" s="27">
         <v>166</v>
       </c>
-      <c r="B168" s="26"/>
-      <c r="C168" s="27"/>
-      <c r="D168" s="42"/>
+      <c r="B168" s="85"/>
+      <c r="C168" s="86"/>
+      <c r="D168" s="87"/>
     </row>
     <row r="169" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="39">
+      <c r="A169" s="27">
         <v>167</v>
       </c>
-      <c r="B169" s="26"/>
-      <c r="C169" s="27"/>
-      <c r="D169" s="42"/>
+      <c r="B169" s="85"/>
+      <c r="C169" s="86"/>
+      <c r="D169" s="87"/>
     </row>
     <row r="170" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A170" s="39">
+      <c r="A170" s="27">
         <v>168</v>
       </c>
-      <c r="B170" s="26"/>
-      <c r="C170" s="27"/>
-      <c r="D170" s="42"/>
+      <c r="B170" s="85"/>
+      <c r="C170" s="86"/>
+      <c r="D170" s="87"/>
     </row>
     <row r="171" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A171" s="39">
+      <c r="A171" s="27">
         <v>169</v>
       </c>
-      <c r="B171" s="26"/>
-      <c r="C171" s="27"/>
-      <c r="D171" s="42"/>
+      <c r="B171" s="85"/>
+      <c r="C171" s="86"/>
+      <c r="D171" s="87"/>
     </row>
     <row r="172" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A172" s="39">
+      <c r="A172" s="27">
         <v>170</v>
       </c>
-      <c r="B172" s="26"/>
-      <c r="C172" s="27"/>
-      <c r="D172" s="42"/>
+      <c r="B172" s="85"/>
+      <c r="C172" s="86"/>
+      <c r="D172" s="87"/>
     </row>
     <row r="173" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A173" s="39">
+      <c r="A173" s="27">
         <v>171</v>
       </c>
-      <c r="B173" s="26"/>
-      <c r="C173" s="27"/>
-      <c r="D173" s="42"/>
+      <c r="B173" s="85"/>
+      <c r="C173" s="86"/>
+      <c r="D173" s="87"/>
     </row>
     <row r="174" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A174" s="39">
+      <c r="A174" s="27">
         <v>172</v>
       </c>
-      <c r="B174" s="26"/>
-      <c r="C174" s="27"/>
-      <c r="D174" s="42"/>
+      <c r="B174" s="85"/>
+      <c r="C174" s="86"/>
+      <c r="D174" s="87"/>
     </row>
     <row r="175" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A175" s="39">
+      <c r="A175" s="27">
         <v>173</v>
       </c>
-      <c r="B175" s="26"/>
-      <c r="C175" s="27"/>
-      <c r="D175" s="42"/>
+      <c r="B175" s="85"/>
+      <c r="C175" s="86"/>
+      <c r="D175" s="87"/>
     </row>
     <row r="176" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A176" s="39">
+      <c r="A176" s="27">
         <v>174</v>
       </c>
-      <c r="B176" s="26"/>
-      <c r="C176" s="27"/>
-      <c r="D176" s="42"/>
+      <c r="B176" s="85"/>
+      <c r="C176" s="86"/>
+      <c r="D176" s="87"/>
     </row>
     <row r="177" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="39">
+      <c r="A177" s="27">
         <v>175</v>
       </c>
-      <c r="B177" s="28"/>
-      <c r="C177" s="29"/>
-      <c r="D177" s="43"/>
+      <c r="B177" s="103"/>
+      <c r="C177" s="104"/>
+      <c r="D177" s="105"/>
     </row>
     <row r="178" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A178" s="36">
+      <c r="A178" s="24">
         <v>176</v>
       </c>
-      <c r="B178" s="23" t="s">
+      <c r="B178" s="19" t="s">
         <v>340</v>
       </c>
       <c r="C178" s="18"/>
-      <c r="D178" s="37" t="s">
+      <c r="D178" s="25" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A179" s="36">
+      <c r="A179" s="24">
         <v>177</v>
       </c>
-      <c r="B179" s="23" t="s">
+      <c r="B179" s="19" t="s">
         <v>341</v>
       </c>
       <c r="C179" s="18"/>
-      <c r="D179" s="37" t="s">
+      <c r="D179" s="25" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A180" s="36">
+      <c r="A180" s="24">
         <v>178</v>
       </c>
-      <c r="B180" s="23" t="s">
+      <c r="B180" s="19" t="s">
         <v>342</v>
       </c>
       <c r="C180" s="18"/>
-      <c r="D180" s="37" t="s">
+      <c r="D180" s="25" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A181" s="36">
+      <c r="A181" s="24">
         <v>179</v>
       </c>
-      <c r="B181" s="23" t="s">
+      <c r="B181" s="19" t="s">
         <v>343</v>
       </c>
       <c r="C181" s="18"/>
-      <c r="D181" s="37" t="s">
+      <c r="D181" s="25" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A182" s="36">
+      <c r="A182" s="24">
         <v>180</v>
       </c>
-      <c r="B182" s="23" t="s">
+      <c r="B182" s="19" t="s">
         <v>344</v>
       </c>
       <c r="C182" s="18"/>
-      <c r="D182" s="37" t="s">
+      <c r="D182" s="25" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A183" s="36">
+      <c r="A183" s="24">
         <v>181</v>
       </c>
-      <c r="B183" s="23" t="s">
+      <c r="B183" s="19" t="s">
         <v>345</v>
       </c>
       <c r="C183" s="18"/>
-      <c r="D183" s="37" t="s">
+      <c r="D183" s="25" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A184" s="36">
+      <c r="A184" s="24">
         <v>182</v>
       </c>
-      <c r="B184" s="23" t="s">
+      <c r="B184" s="19" t="s">
         <v>346</v>
       </c>
       <c r="C184" s="18"/>
-      <c r="D184" s="37" t="s">
+      <c r="D184" s="25" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A185" s="36">
+      <c r="A185" s="24">
         <v>183</v>
       </c>
-      <c r="B185" s="23" t="s">
+      <c r="B185" s="19" t="s">
         <v>347</v>
       </c>
       <c r="C185" s="18"/>
-      <c r="D185" s="37" t="s">
+      <c r="D185" s="25" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A186" s="36">
+      <c r="A186" s="24">
         <v>184</v>
       </c>
-      <c r="B186" s="23" t="s">
+      <c r="B186" s="19" t="s">
         <v>387</v>
       </c>
       <c r="C186" s="18"/>
-      <c r="D186" s="37" t="s">
+      <c r="D186" s="25" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A187" s="36">
+      <c r="A187" s="24">
         <v>185</v>
       </c>
-      <c r="B187" s="23" t="s">
+      <c r="B187" s="19" t="s">
         <v>348</v>
       </c>
       <c r="C187" s="18"/>
-      <c r="D187" s="37" t="s">
+      <c r="D187" s="25" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="36">
+      <c r="A188" s="24">
         <v>186</v>
       </c>
-      <c r="B188" s="23" t="s">
+      <c r="B188" s="19" t="s">
         <v>349</v>
       </c>
       <c r="C188" s="18"/>
-      <c r="D188" s="37" t="s">
+      <c r="D188" s="25" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A189" s="36">
+      <c r="A189" s="24">
         <v>187</v>
       </c>
-      <c r="B189" s="23" t="s">
+      <c r="B189" s="19" t="s">
         <v>350</v>
       </c>
       <c r="C189" s="18"/>
-      <c r="D189" s="37" t="s">
+      <c r="D189" s="25" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A190" s="36">
+      <c r="A190" s="24">
         <v>188</v>
       </c>
-      <c r="B190" s="23" t="s">
+      <c r="B190" s="19" t="s">
         <v>351</v>
       </c>
       <c r="C190" s="18"/>
-      <c r="D190" s="37" t="s">
+      <c r="D190" s="25" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A191" s="36">
+      <c r="A191" s="24">
         <v>189</v>
       </c>
-      <c r="B191" s="23" t="s">
+      <c r="B191" s="19" t="s">
         <v>352</v>
       </c>
       <c r="C191" s="18"/>
-      <c r="D191" s="37" t="s">
+      <c r="D191" s="25" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A192" s="36">
+      <c r="A192" s="24">
         <v>190</v>
       </c>
-      <c r="B192" s="23" t="s">
+      <c r="B192" s="19" t="s">
         <v>353</v>
       </c>
       <c r="C192" s="18"/>
-      <c r="D192" s="37" t="s">
+      <c r="D192" s="25" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A193" s="36">
+      <c r="A193" s="24">
         <v>191</v>
       </c>
-      <c r="B193" s="23" t="s">
+      <c r="B193" s="19" t="s">
         <v>354</v>
       </c>
       <c r="C193" s="18"/>
-      <c r="D193" s="37" t="s">
+      <c r="D193" s="25" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A194" s="36">
+      <c r="A194" s="24">
         <v>192</v>
       </c>
-      <c r="B194" s="23" t="s">
+      <c r="B194" s="19" t="s">
         <v>355</v>
       </c>
       <c r="C194" s="18"/>
-      <c r="D194" s="37" t="s">
+      <c r="D194" s="25" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A195" s="36">
+      <c r="A195" s="24">
         <v>193</v>
       </c>
-      <c r="B195" s="23" t="s">
+      <c r="B195" s="19" t="s">
         <v>388</v>
       </c>
       <c r="C195" s="18"/>
-      <c r="D195" s="37" t="s">
+      <c r="D195" s="25" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A196" s="36">
-        <v>194</v>
-      </c>
-      <c r="B196" s="23" t="s">
+      <c r="A196" s="24">
+        <v>194</v>
+      </c>
+      <c r="B196" s="19" t="s">
         <v>356</v>
       </c>
       <c r="C196" s="18"/>
-      <c r="D196" s="37" t="s">
+      <c r="D196" s="25" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A197" s="36">
+      <c r="A197" s="24">
         <v>195</v>
       </c>
-      <c r="B197" s="23" t="s">
+      <c r="B197" s="19" t="s">
         <v>357</v>
       </c>
       <c r="C197" s="18"/>
-      <c r="D197" s="37" t="s">
+      <c r="D197" s="25" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A198" s="36">
+      <c r="A198" s="24">
         <v>196</v>
       </c>
-      <c r="B198" s="23" t="s">
+      <c r="B198" s="19" t="s">
         <v>358</v>
       </c>
       <c r="C198" s="18"/>
-      <c r="D198" s="37" t="s">
+      <c r="D198" s="25" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A199" s="39">
+      <c r="A199" s="27">
         <v>197</v>
       </c>
       <c r="B199" s="9"/>
       <c r="C199" s="18"/>
-      <c r="D199" s="37"/>
+      <c r="D199" s="25"/>
     </row>
     <row r="200" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A200" s="36">
+      <c r="A200" s="24">
         <v>198</v>
       </c>
-      <c r="B200" s="23" t="s">
+      <c r="B200" s="19" t="s">
         <v>359</v>
       </c>
       <c r="C200" s="18"/>
-      <c r="D200" s="37" t="s">
+      <c r="D200" s="25" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A201" s="39">
+      <c r="A201" s="27">
         <v>199</v>
       </c>
-      <c r="B201" s="24" t="s">
+      <c r="B201" s="82" t="s">
         <v>552</v>
       </c>
-      <c r="C201" s="25"/>
-      <c r="D201" s="41"/>
+      <c r="C201" s="83"/>
+      <c r="D201" s="84"/>
     </row>
     <row r="202" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A202" s="39">
+      <c r="A202" s="27">
         <v>200</v>
       </c>
-      <c r="B202" s="26"/>
-      <c r="C202" s="27"/>
-      <c r="D202" s="42"/>
+      <c r="B202" s="85"/>
+      <c r="C202" s="86"/>
+      <c r="D202" s="87"/>
     </row>
     <row r="203" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A203" s="39">
+      <c r="A203" s="27">
         <v>201</v>
       </c>
-      <c r="B203" s="26"/>
-      <c r="C203" s="27"/>
-      <c r="D203" s="42"/>
+      <c r="B203" s="85"/>
+      <c r="C203" s="86"/>
+      <c r="D203" s="87"/>
     </row>
     <row r="204" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A204" s="39">
+      <c r="A204" s="27">
         <v>202</v>
       </c>
-      <c r="B204" s="26"/>
-      <c r="C204" s="27"/>
-      <c r="D204" s="42"/>
+      <c r="B204" s="85"/>
+      <c r="C204" s="86"/>
+      <c r="D204" s="87"/>
     </row>
     <row r="205" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A205" s="39">
+      <c r="A205" s="27">
         <v>203</v>
       </c>
-      <c r="B205" s="26"/>
-      <c r="C205" s="27"/>
-      <c r="D205" s="42"/>
+      <c r="B205" s="85"/>
+      <c r="C205" s="86"/>
+      <c r="D205" s="87"/>
     </row>
     <row r="206" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A206" s="39">
+      <c r="A206" s="27">
         <v>204</v>
       </c>
-      <c r="B206" s="26"/>
-      <c r="C206" s="27"/>
-      <c r="D206" s="42"/>
+      <c r="B206" s="85"/>
+      <c r="C206" s="86"/>
+      <c r="D206" s="87"/>
     </row>
     <row r="207" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A207" s="39">
+      <c r="A207" s="27">
         <v>205</v>
       </c>
-      <c r="B207" s="26"/>
-      <c r="C207" s="27"/>
-      <c r="D207" s="42"/>
+      <c r="B207" s="85"/>
+      <c r="C207" s="86"/>
+      <c r="D207" s="87"/>
     </row>
     <row r="208" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A208" s="39">
+      <c r="A208" s="27">
         <v>206</v>
       </c>
-      <c r="B208" s="26"/>
-      <c r="C208" s="27"/>
-      <c r="D208" s="42"/>
+      <c r="B208" s="85"/>
+      <c r="C208" s="86"/>
+      <c r="D208" s="87"/>
     </row>
     <row r="209" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A209" s="39">
+      <c r="A209" s="27">
         <v>207</v>
       </c>
-      <c r="B209" s="26"/>
-      <c r="C209" s="27"/>
-      <c r="D209" s="42"/>
+      <c r="B209" s="85"/>
+      <c r="C209" s="86"/>
+      <c r="D209" s="87"/>
     </row>
     <row r="210" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A210" s="39">
+      <c r="A210" s="27">
         <v>208</v>
       </c>
-      <c r="B210" s="28"/>
-      <c r="C210" s="29"/>
-      <c r="D210" s="43"/>
+      <c r="B210" s="103"/>
+      <c r="C210" s="104"/>
+      <c r="D210" s="105"/>
     </row>
     <row r="211" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A211" s="36">
+      <c r="A211" s="24">
         <v>209</v>
       </c>
-      <c r="B211" s="23" t="s">
+      <c r="B211" s="19" t="s">
         <v>360</v>
       </c>
       <c r="C211" s="18"/>
-      <c r="D211" s="37" t="s">
+      <c r="D211" s="25" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A212" s="36">
+      <c r="A212" s="24">
         <v>210</v>
       </c>
-      <c r="B212" s="23" t="s">
+      <c r="B212" s="19" t="s">
         <v>361</v>
       </c>
       <c r="C212" s="18"/>
-      <c r="D212" s="37" t="s">
+      <c r="D212" s="25" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A213" s="36">
+      <c r="A213" s="24">
         <v>211</v>
       </c>
-      <c r="B213" s="23" t="s">
+      <c r="B213" s="19" t="s">
         <v>389</v>
       </c>
       <c r="C213" s="18"/>
-      <c r="D213" s="37" t="s">
+      <c r="D213" s="25" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A214" s="39">
+      <c r="A214" s="27">
         <v>212</v>
       </c>
-      <c r="B214" s="24" t="s">
+      <c r="B214" s="82" t="s">
         <v>552</v>
       </c>
-      <c r="C214" s="25"/>
-      <c r="D214" s="41"/>
+      <c r="C214" s="83"/>
+      <c r="D214" s="84"/>
     </row>
     <row r="215" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A215" s="39">
+      <c r="A215" s="27">
         <v>213</v>
       </c>
-      <c r="B215" s="26"/>
-      <c r="C215" s="27"/>
-      <c r="D215" s="42"/>
+      <c r="B215" s="85"/>
+      <c r="C215" s="86"/>
+      <c r="D215" s="87"/>
     </row>
     <row r="216" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A216" s="39">
+      <c r="A216" s="27">
         <v>214</v>
       </c>
-      <c r="B216" s="26"/>
-      <c r="C216" s="27"/>
-      <c r="D216" s="42"/>
+      <c r="B216" s="85"/>
+      <c r="C216" s="86"/>
+      <c r="D216" s="87"/>
     </row>
     <row r="217" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A217" s="39">
+      <c r="A217" s="27">
         <v>215</v>
       </c>
-      <c r="B217" s="26"/>
-      <c r="C217" s="27"/>
-      <c r="D217" s="42"/>
+      <c r="B217" s="85"/>
+      <c r="C217" s="86"/>
+      <c r="D217" s="87"/>
     </row>
     <row r="218" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A218" s="39">
+      <c r="A218" s="27">
         <v>216</v>
       </c>
-      <c r="B218" s="26"/>
-      <c r="C218" s="27"/>
-      <c r="D218" s="42"/>
+      <c r="B218" s="85"/>
+      <c r="C218" s="86"/>
+      <c r="D218" s="87"/>
     </row>
     <row r="219" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A219" s="39">
+      <c r="A219" s="27">
         <v>217</v>
       </c>
-      <c r="B219" s="26"/>
-      <c r="C219" s="27"/>
-      <c r="D219" s="42"/>
+      <c r="B219" s="85"/>
+      <c r="C219" s="86"/>
+      <c r="D219" s="87"/>
     </row>
     <row r="220" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A220" s="39">
+      <c r="A220" s="27">
         <v>218</v>
       </c>
-      <c r="B220" s="26"/>
-      <c r="C220" s="27"/>
-      <c r="D220" s="42"/>
+      <c r="B220" s="85"/>
+      <c r="C220" s="86"/>
+      <c r="D220" s="87"/>
     </row>
     <row r="221" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="39">
+      <c r="A221" s="27">
         <v>219</v>
       </c>
-      <c r="B221" s="26"/>
-      <c r="C221" s="27"/>
-      <c r="D221" s="42"/>
+      <c r="B221" s="85"/>
+      <c r="C221" s="86"/>
+      <c r="D221" s="87"/>
     </row>
     <row r="222" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A222" s="36">
+      <c r="A222" s="24">
         <v>220</v>
       </c>
-      <c r="B222" s="23" t="s">
+      <c r="B222" s="19" t="s">
         <v>390</v>
       </c>
       <c r="C222" s="18"/>
-      <c r="D222" s="37" t="s">
+      <c r="D222" s="25" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A223" s="36">
+      <c r="A223" s="24">
         <v>221</v>
       </c>
-      <c r="B223" s="23" t="s">
+      <c r="B223" s="19" t="s">
         <v>362</v>
       </c>
       <c r="C223" s="18"/>
-      <c r="D223" s="37" t="s">
+      <c r="D223" s="25" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A224" s="36">
+      <c r="A224" s="24">
         <v>222</v>
       </c>
-      <c r="B224" s="23" t="s">
+      <c r="B224" s="19" t="s">
         <v>363</v>
       </c>
       <c r="C224" s="18"/>
-      <c r="D224" s="37" t="s">
+      <c r="D224" s="25" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="44">
+      <c r="A225" s="28">
         <v>223</v>
       </c>
-      <c r="B225" s="45" t="s">
+      <c r="B225" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="C225" s="46"/>
-      <c r="D225" s="47" t="s">
+      <c r="C225" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D225" s="31" t="s">
         <v>559</v>
       </c>
     </row>

--- a/Pin100.xlsx
+++ b/Pin100.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\McuCode\GEN_RH850_F1L\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\GEN_RH850_F1L\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -424,7 +424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -455,7 +455,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2286" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2604" uniqueCount="869">
   <si>
     <t>Pin</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2538,6 +2538,1054 @@
   </si>
   <si>
     <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Reserved </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Reserved </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAUD0I0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAUD0I4</t>
+  </si>
+  <si>
+    <t>TAUD0I6</t>
+  </si>
+  <si>
+    <t>TAUD0I8</t>
+  </si>
+  <si>
+    <t>TAUD0I10</t>
+  </si>
+  <si>
+    <t>TAUD0I12</t>
+  </si>
+  <si>
+    <t>TAUD0I14</t>
+  </si>
+  <si>
+    <t>ADCA0_INTSG1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADCA0_INTSG2</t>
+  </si>
+  <si>
+    <t>ADCA0_INTSG3</t>
+  </si>
+  <si>
+    <t>TAUD0I5</t>
+  </si>
+  <si>
+    <t>TAUD0I7</t>
+  </si>
+  <si>
+    <t>TAUD0I2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT SUPPORT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CANGERR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CANGRECC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAN0ERR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAN0REC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAN0TRX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSIH0IC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSIH0IR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSIH0IRE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART0_Tx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART0_Rx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART0_Error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTP0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTP1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTP2</t>
+  </si>
+  <si>
+    <t>WDTA0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WDTA1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTP3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTP4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTP5</t>
+  </si>
+  <si>
+    <t>INTP10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTP11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAUD0I1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAUD0I3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAUD0I9</t>
+  </si>
+  <si>
+    <t>TAUD0I11</t>
+  </si>
+  <si>
+    <t>TAUD0I13</t>
+  </si>
+  <si>
+    <t>TAUD0I15</t>
+  </si>
+  <si>
+    <t>DMA0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMA2</t>
+  </si>
+  <si>
+    <t>DMA3</t>
+  </si>
+  <si>
+    <t>DMA4</t>
+  </si>
+  <si>
+    <t>DMA5</t>
+  </si>
+  <si>
+    <t>DMA6</t>
+  </si>
+  <si>
+    <t>DMA7</t>
+  </si>
+  <si>
+    <t>DMA8</t>
+  </si>
+  <si>
+    <t>DMA9</t>
+  </si>
+  <si>
+    <t>DMA1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMA10</t>
+  </si>
+  <si>
+    <t>DMA11</t>
+  </si>
+  <si>
+    <t>DMA12</t>
+  </si>
+  <si>
+    <t>DMA13</t>
+  </si>
+  <si>
+    <t>DMA14</t>
+  </si>
+  <si>
+    <t>DMA15</t>
+  </si>
+  <si>
+    <t>IIC0TI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IIC0TEI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IIC0RI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IIC0EE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAUJ0I0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAUJ0I1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAUJ0I2</t>
+  </si>
+  <si>
+    <t>TAUJ0I3</t>
+  </si>
+  <si>
+    <t>OSTM0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWGA0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWGA2</t>
+  </si>
+  <si>
+    <t>PWGA3</t>
+  </si>
+  <si>
+    <t>PWGA8</t>
+  </si>
+  <si>
+    <t>PWGA9</t>
+  </si>
+  <si>
+    <t>PWGA10</t>
+  </si>
+  <si>
+    <t>PWGA11</t>
+  </si>
+  <si>
+    <t>PWGA1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWGA4</t>
+  </si>
+  <si>
+    <t>PWGA5</t>
+  </si>
+  <si>
+    <t>PWGA6</t>
+  </si>
+  <si>
+    <t>PWGA7</t>
+  </si>
+  <si>
+    <t>CAN1ERR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAN1REC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAN1TRX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSIH1IC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSIH1IR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSIH1IRE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART1_Tx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART1_Rx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART1_Error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWGA20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWGA21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWGA22</t>
+  </si>
+  <si>
+    <t>PWGA23</t>
+  </si>
+  <si>
+    <t>INTP6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTP8</t>
+  </si>
+  <si>
+    <t>INTP7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTP12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSIH2IC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSIH2IR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSIH2IRE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAUB0I0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAUB0I2</t>
+  </si>
+  <si>
+    <t>TAUB0I4</t>
+  </si>
+  <si>
+    <t>TAUB0I6</t>
+  </si>
+  <si>
+    <t>TAUB0I8</t>
+  </si>
+  <si>
+    <t>TAUB0I10</t>
+  </si>
+  <si>
+    <t>TAUB0I1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAUB0I3</t>
+  </si>
+  <si>
+    <t>TAUB0I5</t>
+  </si>
+  <si>
+    <t>TAUB0I7</t>
+  </si>
+  <si>
+    <t>TAUB0I9</t>
+  </si>
+  <si>
+    <t>TAUB0I11</t>
+  </si>
+  <si>
+    <t>TAUB0I12</t>
+  </si>
+  <si>
+    <t>TAUB0I13</t>
+  </si>
+  <si>
+    <t>TAUB0I14</t>
+  </si>
+  <si>
+    <t>TAUB0I15</t>
+  </si>
+  <si>
+    <t>CSIH3IC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSIH3IR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSIH3IRE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART2_Tx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART2_Rx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART2_Error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAUJ1I0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAUJ1I1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAUJ1I2</t>
+  </si>
+  <si>
+    <t>TAUJ1I3</t>
+  </si>
+  <si>
+    <t>PWGA24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWGA29</t>
+  </si>
+  <si>
+    <t>PWGA34</t>
+  </si>
+  <si>
+    <t>PWGA35</t>
+  </si>
+  <si>
+    <t>PWGA36</t>
+  </si>
+  <si>
+    <t>PWGA37</t>
+  </si>
+  <si>
+    <t>PWGA25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWGA38</t>
+  </si>
+  <si>
+    <t>PWGA39</t>
+  </si>
+  <si>
+    <t>PWGA40</t>
+  </si>
+  <si>
+    <t>PWGA41</t>
+  </si>
+  <si>
+    <t>PWGA42</t>
+  </si>
+  <si>
+    <t>PWGA43</t>
+  </si>
+  <si>
+    <t>PWGA44</t>
+  </si>
+  <si>
+    <t>PWGA27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWGA28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWGA45</t>
+  </si>
+  <si>
+    <t>PWGA32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWGA33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWGA46</t>
+  </si>
+  <si>
+    <t>PWGA47</t>
+  </si>
+  <si>
+    <t>INTP13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAN2ERR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAN2REC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAN2TRX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART3_Tx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART3_Rx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART3_Error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interrupt Source 
+Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_TAUD0I0func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_TAUD0I4func</t>
+  </si>
+  <si>
+    <t>ISR_TAUD0I6func</t>
+  </si>
+  <si>
+    <t>ISR_TAUD0I8func</t>
+  </si>
+  <si>
+    <t>ISR_TAUD0I10func</t>
+  </si>
+  <si>
+    <t>ISR_TAUD0I14func</t>
+  </si>
+  <si>
+    <t>ISR_TAUD0I2func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_ADCA1_INTSG1func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_ADCA2_INTSG1func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_ADCA1_INTSG2func</t>
+  </si>
+  <si>
+    <t>Interrupt Function Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanIsrGlobalStatusfunc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanIsrRxFifofunc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanIsrStatus_0func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanIsrWakeup_0func</t>
+  </si>
+  <si>
+    <t>CanIsrTx_0func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanIsrWakeup_1func</t>
+  </si>
+  <si>
+    <t>CSIH0_Rx_handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSIH0_Tx_handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSIH0_Error_handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART0_Tx_Handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART0_Rx_Handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART0_Error_Handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_INTP5func</t>
+  </si>
+  <si>
+    <t>ISR_INTP2func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_WDTA0func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_WDTA1func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_INTP3func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_INTP4func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_INTP6func</t>
+  </si>
+  <si>
+    <t>ISR_INTP7func</t>
+  </si>
+  <si>
+    <t>ISR_TAUD0I1func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_TAUD0I5func</t>
+  </si>
+  <si>
+    <t>ISR_TAUD0I7func</t>
+  </si>
+  <si>
+    <t>ISR_TAUD0I9func</t>
+  </si>
+  <si>
+    <t>ISR_TAUD0I11func</t>
+  </si>
+  <si>
+    <t>ISR_TAUD0I13func</t>
+  </si>
+  <si>
+    <t>ISR_TAUD0I15func</t>
+  </si>
+  <si>
+    <t>ISR_TAUD0I3func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_IIC0RIfunc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_IIC0TIfunc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_IIC0TEIfunc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_IIC0EEfunc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_TAUJ0I2func</t>
+  </si>
+  <si>
+    <t>ISR_TAUJ0I3func</t>
+  </si>
+  <si>
+    <t>ISR_TAUJ0I0func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_TAUJ0I1func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_OSTM0func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_PWGA2func</t>
+  </si>
+  <si>
+    <t>ISR_PWGA3func</t>
+  </si>
+  <si>
+    <t>ISR_DMA0func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_DMA1func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_DMA2func</t>
+  </si>
+  <si>
+    <t>ISR_DMA3func</t>
+  </si>
+  <si>
+    <t>ISR_DMA4func</t>
+  </si>
+  <si>
+    <t>ISR_DMA5func</t>
+  </si>
+  <si>
+    <t>ISR_DMA6func</t>
+  </si>
+  <si>
+    <t>ISR_DMA7func</t>
+  </si>
+  <si>
+    <t>ISR_DMA8func</t>
+  </si>
+  <si>
+    <t>ISR_DMA9func</t>
+  </si>
+  <si>
+    <t>ISR_DMA10func</t>
+  </si>
+  <si>
+    <t>ISR_DMA11func</t>
+  </si>
+  <si>
+    <t>ISR_DMA12func</t>
+  </si>
+  <si>
+    <t>ISR_DMA13func</t>
+  </si>
+  <si>
+    <t>ISR_DMA14func</t>
+  </si>
+  <si>
+    <t>ISR_DMA15func</t>
+  </si>
+  <si>
+    <t>ISR_PWGA0func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_PWGA4func</t>
+  </si>
+  <si>
+    <t>ISR_PWGA5func</t>
+  </si>
+  <si>
+    <t>ISR_PWGA1func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_PWGA6func</t>
+  </si>
+  <si>
+    <t>ISR_PWGA7func</t>
+  </si>
+  <si>
+    <t>ISR_PWGA8func</t>
+  </si>
+  <si>
+    <t>ISR_PWGA9func</t>
+  </si>
+  <si>
+    <t>ISR_PWGA10func</t>
+  </si>
+  <si>
+    <t>ISR_PWGA11func</t>
+  </si>
+  <si>
+    <t>ISR_TAUD0I12func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanIsrStatus_1func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanIsrTx_1func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSIH1_Rx_handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSIH1_Tx_handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSIH1_Error_handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART1_Tx_Handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART1_Rx_Handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART1_Error_Handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_PWGA20func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_PWGA22func</t>
+  </si>
+  <si>
+    <t>ISR_PWGA23func</t>
+  </si>
+  <si>
+    <t>ISR_INTP8func</t>
+  </si>
+  <si>
+    <t>ISR_PWGA21func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_INTP6func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_INTP7func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_INTP12func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSIH2_Rx_handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSIH2_Tx_handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSIH2_Error_handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_TAUB0I0func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_TAUB0I2func</t>
+  </si>
+  <si>
+    <t>ISR_TAUB0I3func</t>
+  </si>
+  <si>
+    <t>ISR_TAUB0I4func</t>
+  </si>
+  <si>
+    <t>ISR_TAUB0I5func</t>
+  </si>
+  <si>
+    <t>ISR_TAUB0I6func</t>
+  </si>
+  <si>
+    <t>ISR_TAUB0I7func</t>
+  </si>
+  <si>
+    <t>ISR_TAUB0I8func</t>
+  </si>
+  <si>
+    <t>ISR_TAUB0I9func</t>
+  </si>
+  <si>
+    <t>ISR_TAUB0I10func</t>
+  </si>
+  <si>
+    <t>ISR_TAUB0I11func</t>
+  </si>
+  <si>
+    <t>ISR_TAUB0I1func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_TAUB0I12func</t>
+  </si>
+  <si>
+    <t>ISR_TAUB0I13func</t>
+  </si>
+  <si>
+    <t>ISR_TAUB0I14func</t>
+  </si>
+  <si>
+    <t>ISR_TAUB0I15func</t>
+  </si>
+  <si>
+    <t>CSIH3_Rx_handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSIH3_Tx_handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSIH3_Error_handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART2_Tx_Handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART2_Rx_Handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART2_Error_Handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_TAUJ1I0func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_TAUJ1I1func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_TAUJ1I2func</t>
+  </si>
+  <si>
+    <t>ISR_TAUJ1I3func</t>
+  </si>
+  <si>
+    <t>ISR_PWGA24func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_PWGA27func</t>
+  </si>
+  <si>
+    <t>ISR_PWGA28func</t>
+  </si>
+  <si>
+    <t>ISR_PWGA29func</t>
+  </si>
+  <si>
+    <t>ISR_PWGA32func</t>
+  </si>
+  <si>
+    <t>ISR_PWGA33func</t>
+  </si>
+  <si>
+    <t>ISR_PWGA34func</t>
+  </si>
+  <si>
+    <t>ISR_PWGA35func</t>
+  </si>
+  <si>
+    <t>ISR_PWGA36func</t>
+  </si>
+  <si>
+    <t>ISR_PWGA37func</t>
+  </si>
+  <si>
+    <t>ISR_PWGA38func</t>
+  </si>
+  <si>
+    <t>ISR_PWGA25func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_PWGA26func</t>
+  </si>
+  <si>
+    <t>ISR_PWGA30func</t>
+  </si>
+  <si>
+    <t>ISR_PWGA31func</t>
+  </si>
+  <si>
+    <t>ISR_PWGA39func</t>
+  </si>
+  <si>
+    <t>ISR_PWGA40func</t>
+  </si>
+  <si>
+    <t>ISR_PWGA41func</t>
+  </si>
+  <si>
+    <t>ISR_PWGA42func</t>
+  </si>
+  <si>
+    <t>ISR_PWGA43func</t>
+  </si>
+  <si>
+    <t>ISR_PWGA44func</t>
+  </si>
+  <si>
+    <t>ISR_INTP13func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanIsrStatus_2func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanIsrTx_2func</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2717,7 +3765,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -3211,13 +4259,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3411,6 +4529,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3453,9 +4586,6 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3464,18 +4594,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3558,11 +4676,175 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="1"/>
@@ -3982,11 +5264,11 @@
       <c r="P1" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="R1" s="66" t="s">
+      <c r="R1" s="71" t="s">
         <v>563</v>
       </c>
-      <c r="S1" s="67"/>
-      <c r="T1" s="68"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="73"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="37">
@@ -4037,9 +5319,9 @@
       <c r="P2" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="R2" s="69"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="71"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="76"/>
     </row>
     <row r="3" spans="1:20" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A3" s="24">
@@ -4075,10 +5357,10 @@
       <c r="R3" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="S3" s="72" t="s">
+      <c r="S3" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="T3" s="73"/>
+      <c r="T3" s="78"/>
     </row>
     <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="24">
@@ -4111,7 +5393,7 @@
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="39"/>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="64" t="s">
         <v>137</v>
       </c>
       <c r="S4" s="12" t="s">
@@ -4154,7 +5436,7 @@
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="39"/>
-      <c r="R5" s="74"/>
+      <c r="R5" s="64"/>
       <c r="S5" s="12" t="s">
         <v>139</v>
       </c>
@@ -4198,10 +5480,10 @@
       <c r="R6" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="S6" s="64" t="s">
+      <c r="S6" s="69" t="s">
         <v>142</v>
       </c>
-      <c r="T6" s="65"/>
+      <c r="T6" s="70"/>
     </row>
     <row r="7" spans="1:20" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A7" s="24">
@@ -4255,10 +5537,10 @@
       <c r="R7" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="S7" s="64" t="s">
+      <c r="S7" s="69" t="s">
         <v>144</v>
       </c>
-      <c r="T7" s="65"/>
+      <c r="T7" s="70"/>
     </row>
     <row r="8" spans="1:20" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A8" s="24">
@@ -4312,10 +5594,10 @@
       <c r="R8" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="S8" s="64" t="s">
+      <c r="S8" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="T8" s="65"/>
+      <c r="T8" s="70"/>
     </row>
     <row r="9" spans="1:20" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A9" s="24">
@@ -4353,10 +5635,10 @@
       <c r="R9" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="S9" s="64" t="s">
+      <c r="S9" s="69" t="s">
         <v>148</v>
       </c>
-      <c r="T9" s="65"/>
+      <c r="T9" s="70"/>
     </row>
     <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="24">
@@ -4387,7 +5669,7 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="39"/>
-      <c r="R10" s="74" t="s">
+      <c r="R10" s="64" t="s">
         <v>149</v>
       </c>
       <c r="S10" s="12" t="s">
@@ -4446,7 +5728,7 @@
       <c r="P11" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="R11" s="74"/>
+      <c r="R11" s="64"/>
       <c r="S11" s="12" t="s">
         <v>151</v>
       </c>
@@ -4490,10 +5772,10 @@
       <c r="R12" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="S12" s="64" t="s">
+      <c r="S12" s="69" t="s">
         <v>154</v>
       </c>
-      <c r="T12" s="65"/>
+      <c r="T12" s="70"/>
     </row>
     <row r="13" spans="1:20" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A13" s="24">
@@ -4612,7 +5894,7 @@
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="39"/>
-      <c r="R15" s="74" t="s">
+      <c r="R15" s="64" t="s">
         <v>160</v>
       </c>
       <c r="S15" s="12" t="s">
@@ -4653,7 +5935,7 @@
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="39"/>
-      <c r="R16" s="74"/>
+      <c r="R16" s="64"/>
       <c r="S16" s="12" t="s">
         <v>163</v>
       </c>
@@ -4694,7 +5976,7 @@
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="39"/>
-      <c r="R17" s="74" t="s">
+      <c r="R17" s="64" t="s">
         <v>165</v>
       </c>
       <c r="S17" s="12" t="s">
@@ -4733,7 +6015,7 @@
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="39"/>
-      <c r="R18" s="74"/>
+      <c r="R18" s="64"/>
       <c r="S18" s="12" t="s">
         <v>163</v>
       </c>
@@ -4790,7 +6072,7 @@
       <c r="P19" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="R19" s="74" t="s">
+      <c r="R19" s="64" t="s">
         <v>168</v>
       </c>
       <c r="S19" s="12" t="s">
@@ -4831,7 +6113,7 @@
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="39"/>
-      <c r="R20" s="74"/>
+      <c r="R20" s="64"/>
       <c r="S20" s="12" t="s">
         <v>163</v>
       </c>
@@ -4868,7 +6150,7 @@
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="39"/>
-      <c r="R21" s="74" t="s">
+      <c r="R21" s="64" t="s">
         <v>172</v>
       </c>
       <c r="S21" s="12" t="s">
@@ -4907,7 +6189,7 @@
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="39"/>
-      <c r="R22" s="78"/>
+      <c r="R22" s="60"/>
       <c r="S22" s="13" t="s">
         <v>163</v>
       </c>
@@ -4944,10 +6226,10 @@
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
       <c r="P23" s="39"/>
-      <c r="R23" s="78" t="s">
+      <c r="R23" s="60" t="s">
         <v>175</v>
       </c>
-      <c r="S23" s="81" t="s">
+      <c r="S23" s="63" t="s">
         <v>161</v>
       </c>
       <c r="T23" s="51" t="s">
@@ -4983,8 +6265,8 @@
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
       <c r="P24" s="39"/>
-      <c r="R24" s="79"/>
-      <c r="S24" s="81"/>
+      <c r="R24" s="61"/>
+      <c r="S24" s="63"/>
       <c r="T24" s="52" t="s">
         <v>177</v>
       </c>
@@ -5018,8 +6300,8 @@
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="39"/>
-      <c r="R25" s="79"/>
-      <c r="S25" s="81" t="s">
+      <c r="R25" s="61"/>
+      <c r="S25" s="63" t="s">
         <v>178</v>
       </c>
       <c r="T25" s="51" t="s">
@@ -5055,8 +6337,8 @@
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
       <c r="P26" s="39"/>
-      <c r="R26" s="80"/>
-      <c r="S26" s="81"/>
+      <c r="R26" s="62"/>
+      <c r="S26" s="63"/>
       <c r="T26" s="52" t="s">
         <v>180</v>
       </c>
@@ -5090,7 +6372,7 @@
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="39"/>
-      <c r="R27" s="74" t="s">
+      <c r="R27" s="64" t="s">
         <v>181</v>
       </c>
       <c r="S27" s="14" t="s">
@@ -5131,7 +6413,7 @@
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
       <c r="P28" s="39"/>
-      <c r="R28" s="74"/>
+      <c r="R28" s="64"/>
       <c r="S28" s="14" t="s">
         <v>178</v>
       </c>
@@ -5168,7 +6450,7 @@
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
       <c r="P29" s="39"/>
-      <c r="R29" s="74" t="s">
+      <c r="R29" s="64" t="s">
         <v>185</v>
       </c>
       <c r="S29" s="14" t="s">
@@ -5227,7 +6509,7 @@
       <c r="P30" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="R30" s="77"/>
+      <c r="R30" s="81"/>
       <c r="S30" s="53" t="s">
         <v>178</v>
       </c>
@@ -5334,10 +6616,10 @@
       <c r="P32" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="R32" s="75" t="s">
+      <c r="R32" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="S32" s="76"/>
+      <c r="S32" s="80"/>
     </row>
     <row r="33" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="27">
@@ -5604,10 +6886,10 @@
       <c r="P37" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="R37" s="60" t="s">
+      <c r="R37" s="65" t="s">
         <v>565</v>
       </c>
-      <c r="S37" s="61"/>
+      <c r="S37" s="66"/>
     </row>
     <row r="38" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="24">
@@ -5638,8 +6920,8 @@
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
       <c r="P38" s="39"/>
-      <c r="R38" s="62"/>
-      <c r="S38" s="63"/>
+      <c r="R38" s="67"/>
+      <c r="S38" s="68"/>
     </row>
     <row r="39" spans="1:19" ht="17.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A39" s="24">
@@ -14822,26 +16104,26 @@
   <sheetProtection algorithmName="SHA-512" hashValue="9iKcavKJ7bXa2VAXjnQktA7bMIa0L+ozlYV01ValeWFg/EGf+5wj1snCiPjUkrGoeuoMsiLxPW4Cunz4U5jV4A==" saltValue="ziT6rR81fzZhA4TygKZN8w==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A1:P301"/>
   <mergeCells count="20">
-    <mergeCell ref="R23:R26"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="R37:S38"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="R17:R18"/>
     <mergeCell ref="S8:T8"/>
     <mergeCell ref="R1:T2"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="S7:T7"/>
+    <mergeCell ref="R23:R26"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="R37:S38"/>
     <mergeCell ref="R32:S32"/>
     <mergeCell ref="R29:R30"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="R21:R22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="70">
@@ -15064,23 +16346,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I226"/>
+  <dimension ref="A1:K226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C211" sqref="C211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.25" style="17" customWidth="1"/>
-    <col min="2" max="2" width="26.375" style="16" customWidth="1"/>
+    <col min="1" max="1" width="17.125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="25.25" style="16" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="17" customWidth="1"/>
-    <col min="4" max="4" width="60.5" style="16" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="16"/>
+    <col min="4" max="4" width="20.625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="25.75" style="17" customWidth="1"/>
+    <col min="6" max="6" width="60.5" style="16" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="49.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="49.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
         <v>368</v>
       </c>
@@ -15090,17 +16374,23 @@
       <c r="C1" s="22" t="s">
         <v>366</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="111" t="s">
+        <v>722</v>
+      </c>
+      <c r="E1" s="111" t="s">
+        <v>733</v>
+      </c>
+      <c r="F1" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="F1" s="88" t="s">
+      <c r="H1" s="88" t="s">
         <v>560</v>
       </c>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="90"/>
-    </row>
-    <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="90"/>
+    </row>
+    <row r="2" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="24">
         <v>0</v>
       </c>
@@ -15108,19 +16398,25 @@
         <v>365</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="109" t="s">
+        <v>570</v>
+      </c>
+      <c r="E2" s="109" t="s">
+        <v>723</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="F2" s="91" t="s">
+      <c r="H2" s="91" t="s">
         <v>561</v>
       </c>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="93"/>
-    </row>
-    <row r="3" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="93"/>
+    </row>
+    <row r="3" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="24">
         <v>1</v>
       </c>
@@ -15128,19 +16424,25 @@
         <v>208</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="109" t="s">
+        <v>582</v>
+      </c>
+      <c r="E3" s="109" t="s">
+        <v>729</v>
+      </c>
+      <c r="F3" s="25" t="s">
         <v>392</v>
       </c>
-      <c r="F3" s="94" t="s">
+      <c r="H3" s="94" t="s">
         <v>562</v>
       </c>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="96"/>
-    </row>
-    <row r="4" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="96"/>
+    </row>
+    <row r="4" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="24">
         <v>2</v>
       </c>
@@ -15148,19 +16450,25 @@
         <v>209</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="109" t="s">
+        <v>571</v>
+      </c>
+      <c r="E4" s="109" t="s">
+        <v>724</v>
+      </c>
+      <c r="F4" s="25" t="s">
         <v>394</v>
       </c>
-      <c r="F4" s="97" t="s">
+      <c r="H4" s="97" t="s">
         <v>564</v>
       </c>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="99"/>
-    </row>
-    <row r="5" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="99"/>
+    </row>
+    <row r="5" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="24">
         <v>3</v>
       </c>
@@ -15170,15 +16478,21 @@
       <c r="C5" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="109" t="s">
+        <v>572</v>
+      </c>
+      <c r="E5" s="109" t="s">
+        <v>725</v>
+      </c>
+      <c r="F5" s="25" t="s">
         <v>395</v>
       </c>
-      <c r="F5" s="100"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="102"/>
-    </row>
-    <row r="6" spans="1:9" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="H5" s="100"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="102"/>
+    </row>
+    <row r="6" spans="1:11" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A6" s="24">
         <v>4</v>
       </c>
@@ -15188,11 +16502,17 @@
       <c r="C6" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="109" t="s">
+        <v>573</v>
+      </c>
+      <c r="E6" s="109" t="s">
+        <v>726</v>
+      </c>
+      <c r="F6" s="25" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="24">
         <v>5</v>
       </c>
@@ -15202,11 +16522,17 @@
       <c r="C7" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="109" t="s">
+        <v>574</v>
+      </c>
+      <c r="E7" s="109" t="s">
+        <v>727</v>
+      </c>
+      <c r="F7" s="25" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="24">
         <v>6</v>
       </c>
@@ -15216,51 +16542,67 @@
       <c r="C8" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="109" t="s">
+        <v>575</v>
+      </c>
+      <c r="E8" s="109" t="s">
+        <v>799</v>
+      </c>
+      <c r="F8" s="25" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="24">
         <v>7</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="25" t="s">
+      <c r="C9" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="109" t="s">
+        <v>576</v>
+      </c>
+      <c r="E9" s="109" t="s">
+        <v>728</v>
+      </c>
+      <c r="F9" s="25" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="24">
         <v>8</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="25" t="s">
+      <c r="C10" s="112" t="s">
+        <v>583</v>
+      </c>
+      <c r="D10" s="113"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="25" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="24">
         <v>9</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="25" t="s">
+      <c r="C11" s="115"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="25" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="24">
         <v>10</v>
       </c>
@@ -15270,11 +16612,17 @@
       <c r="C12" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="109" t="s">
+        <v>577</v>
+      </c>
+      <c r="E12" s="109" t="s">
+        <v>730</v>
+      </c>
+      <c r="F12" s="25" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="24">
         <v>11</v>
       </c>
@@ -15284,35 +16632,53 @@
       <c r="C13" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="109" t="s">
+        <v>578</v>
+      </c>
+      <c r="E13" s="109" t="s">
+        <v>731</v>
+      </c>
+      <c r="F13" s="25" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="24">
         <v>12</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="25" t="s">
+      <c r="C14" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="109" t="s">
+        <v>579</v>
+      </c>
+      <c r="E14" s="109" t="s">
+        <v>732</v>
+      </c>
+      <c r="F14" s="25" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="24">
         <v>13</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="26" t="s">
+      <c r="C15" s="118" t="s">
+        <v>583</v>
+      </c>
+      <c r="D15" s="119"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="26" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="24">
         <v>14</v>
       </c>
@@ -15322,47 +16688,75 @@
       <c r="C16" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="109" t="s">
+        <v>584</v>
+      </c>
+      <c r="E16" s="109" t="s">
+        <v>734</v>
+      </c>
+      <c r="F16" s="26" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="24">
         <v>15</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="26" t="s">
+      <c r="C17" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="109" t="s">
+        <v>585</v>
+      </c>
+      <c r="E17" s="109" t="s">
+        <v>735</v>
+      </c>
+      <c r="F17" s="26" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="24">
         <v>16</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="26" t="s">
+      <c r="C18" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="109" t="s">
+        <v>586</v>
+      </c>
+      <c r="E18" s="109" t="s">
+        <v>736</v>
+      </c>
+      <c r="F18" s="26" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="24">
         <v>17</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="26" t="s">
+      <c r="C19" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="109" t="s">
+        <v>587</v>
+      </c>
+      <c r="E19" s="109"/>
+      <c r="F19" s="26" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="24">
         <v>18</v>
       </c>
@@ -15372,37 +16766,47 @@
       <c r="C20" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="109" t="s">
+        <v>588</v>
+      </c>
+      <c r="E20" s="109" t="s">
+        <v>738</v>
+      </c>
+      <c r="F20" s="25" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="24">
         <v>19</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="C21" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="D21" s="26" t="s">
+      <c r="C21" s="112" t="s">
+        <v>583</v>
+      </c>
+      <c r="D21" s="113"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="26" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="24">
         <v>20</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="26" t="s">
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="26" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="24">
         <v>21</v>
       </c>
@@ -15410,11 +16814,17 @@
         <v>226</v>
       </c>
       <c r="C23" s="18"/>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="109" t="s">
+        <v>589</v>
+      </c>
+      <c r="E23" s="109" t="s">
+        <v>740</v>
+      </c>
+      <c r="F23" s="26" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="24">
         <v>22</v>
       </c>
@@ -15422,11 +16832,17 @@
         <v>372</v>
       </c>
       <c r="C24" s="18"/>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="109" t="s">
+        <v>590</v>
+      </c>
+      <c r="E24" s="109" t="s">
+        <v>741</v>
+      </c>
+      <c r="F24" s="26" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="24">
         <v>23</v>
       </c>
@@ -15434,35 +16850,47 @@
         <v>227</v>
       </c>
       <c r="C25" s="18"/>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="109" t="s">
+        <v>591</v>
+      </c>
+      <c r="E25" s="109" t="s">
+        <v>742</v>
+      </c>
+      <c r="F25" s="26" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="24">
         <v>24</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="26" t="s">
+      <c r="C26" s="112" t="s">
+        <v>583</v>
+      </c>
+      <c r="D26" s="113"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="26" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="24">
         <v>25</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="26" t="s">
+      <c r="C27" s="115"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="26" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="24">
         <v>26</v>
       </c>
@@ -15470,11 +16898,17 @@
         <v>230</v>
       </c>
       <c r="C28" s="18"/>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="109" t="s">
+        <v>592</v>
+      </c>
+      <c r="E28" s="109" t="s">
+        <v>743</v>
+      </c>
+      <c r="F28" s="26" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="24">
         <v>27</v>
       </c>
@@ -15482,11 +16916,17 @@
         <v>231</v>
       </c>
       <c r="C29" s="18"/>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="109" t="s">
+        <v>593</v>
+      </c>
+      <c r="E29" s="109" t="s">
+        <v>744</v>
+      </c>
+      <c r="F29" s="26" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="24">
         <v>28</v>
       </c>
@@ -15494,11 +16934,17 @@
         <v>232</v>
       </c>
       <c r="C30" s="18"/>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="109" t="s">
+        <v>594</v>
+      </c>
+      <c r="E30" s="109" t="s">
+        <v>745</v>
+      </c>
+      <c r="F30" s="26" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="24">
         <v>29</v>
       </c>
@@ -15506,11 +16952,17 @@
         <v>233</v>
       </c>
       <c r="C31" s="18"/>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="109" t="s">
+        <v>595</v>
+      </c>
+      <c r="E31" s="109" t="s">
+        <v>737</v>
+      </c>
+      <c r="F31" s="26" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="24">
         <v>30</v>
       </c>
@@ -15518,11 +16970,17 @@
         <v>234</v>
       </c>
       <c r="C32" s="18"/>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="109" t="s">
+        <v>596</v>
+      </c>
+      <c r="E32" s="109" t="s">
+        <v>739</v>
+      </c>
+      <c r="F32" s="25" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="24">
         <v>31</v>
       </c>
@@ -15530,11 +16988,17 @@
         <v>373</v>
       </c>
       <c r="C33" s="18"/>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="109" t="s">
+        <v>597</v>
+      </c>
+      <c r="E33" s="109" t="s">
+        <v>747</v>
+      </c>
+      <c r="F33" s="25" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="24">
         <v>32</v>
       </c>
@@ -15542,11 +17006,17 @@
         <v>235</v>
       </c>
       <c r="C34" s="18"/>
-      <c r="D34" s="25" t="s">
+      <c r="D34" s="109" t="s">
+        <v>598</v>
+      </c>
+      <c r="E34" s="109" t="s">
+        <v>748</v>
+      </c>
+      <c r="F34" s="25" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="24">
         <v>33</v>
       </c>
@@ -15554,11 +17024,17 @@
         <v>236</v>
       </c>
       <c r="C35" s="18"/>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="109" t="s">
+        <v>599</v>
+      </c>
+      <c r="E35" s="109" t="s">
+        <v>749</v>
+      </c>
+      <c r="F35" s="25" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="24">
         <v>34</v>
       </c>
@@ -15566,11 +17042,17 @@
         <v>237</v>
       </c>
       <c r="C36" s="18"/>
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="109" t="s">
+        <v>600</v>
+      </c>
+      <c r="E36" s="109" t="s">
+        <v>750</v>
+      </c>
+      <c r="F36" s="25" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="24">
         <v>35</v>
       </c>
@@ -15578,11 +17060,17 @@
         <v>238</v>
       </c>
       <c r="C37" s="18"/>
-      <c r="D37" s="25" t="s">
+      <c r="D37" s="109" t="s">
+        <v>601</v>
+      </c>
+      <c r="E37" s="109" t="s">
+        <v>751</v>
+      </c>
+      <c r="F37" s="25" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="24">
         <v>36</v>
       </c>
@@ -15590,11 +17078,17 @@
         <v>239</v>
       </c>
       <c r="C38" s="18"/>
-      <c r="D38" s="25" t="s">
+      <c r="D38" s="109" t="s">
+        <v>602</v>
+      </c>
+      <c r="E38" s="109" t="s">
+        <v>746</v>
+      </c>
+      <c r="F38" s="25" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="24">
         <v>37</v>
       </c>
@@ -15602,11 +17096,17 @@
         <v>240</v>
       </c>
       <c r="C39" s="18"/>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="109" t="s">
+        <v>603</v>
+      </c>
+      <c r="E39" s="109" t="s">
+        <v>752</v>
+      </c>
+      <c r="F39" s="25" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="24">
         <v>38</v>
       </c>
@@ -15614,11 +17114,17 @@
         <v>241</v>
       </c>
       <c r="C40" s="18"/>
-      <c r="D40" s="25" t="s">
+      <c r="D40" s="109" t="s">
+        <v>604</v>
+      </c>
+      <c r="E40" s="109" t="s">
+        <v>753</v>
+      </c>
+      <c r="F40" s="25" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="24">
         <v>39</v>
       </c>
@@ -15628,11 +17134,17 @@
       <c r="C41" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D41" s="25" t="s">
+      <c r="D41" s="109" t="s">
+        <v>605</v>
+      </c>
+      <c r="E41" s="109" t="s">
+        <v>754</v>
+      </c>
+      <c r="F41" s="25" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="24">
         <v>40</v>
       </c>
@@ -15640,11 +17152,17 @@
         <v>374</v>
       </c>
       <c r="C42" s="18"/>
-      <c r="D42" s="25" t="s">
+      <c r="D42" s="109" t="s">
+        <v>606</v>
+      </c>
+      <c r="E42" s="109" t="s">
+        <v>761</v>
+      </c>
+      <c r="F42" s="25" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="24">
         <v>41</v>
       </c>
@@ -15652,11 +17170,17 @@
         <v>243</v>
       </c>
       <c r="C43" s="18"/>
-      <c r="D43" s="25" t="s">
+      <c r="D43" s="109" t="s">
+        <v>580</v>
+      </c>
+      <c r="E43" s="109" t="s">
+        <v>755</v>
+      </c>
+      <c r="F43" s="25" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="24">
         <v>42</v>
       </c>
@@ -15664,11 +17188,17 @@
         <v>244</v>
       </c>
       <c r="C44" s="18"/>
-      <c r="D44" s="25" t="s">
+      <c r="D44" s="109" t="s">
+        <v>581</v>
+      </c>
+      <c r="E44" s="109" t="s">
+        <v>756</v>
+      </c>
+      <c r="F44" s="25" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="24">
         <v>43</v>
       </c>
@@ -15676,11 +17206,17 @@
         <v>245</v>
       </c>
       <c r="C45" s="18"/>
-      <c r="D45" s="25" t="s">
+      <c r="D45" s="109" t="s">
+        <v>607</v>
+      </c>
+      <c r="E45" s="109" t="s">
+        <v>757</v>
+      </c>
+      <c r="F45" s="25" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="24">
         <v>44</v>
       </c>
@@ -15690,11 +17226,17 @@
       <c r="C46" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="D46" s="109" t="s">
+        <v>608</v>
+      </c>
+      <c r="E46" s="109" t="s">
+        <v>758</v>
+      </c>
+      <c r="F46" s="25" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="24">
         <v>45</v>
       </c>
@@ -15702,11 +17244,17 @@
         <v>247</v>
       </c>
       <c r="C47" s="18"/>
-      <c r="D47" s="25" t="s">
+      <c r="D47" s="109" t="s">
+        <v>609</v>
+      </c>
+      <c r="E47" s="109" t="s">
+        <v>759</v>
+      </c>
+      <c r="F47" s="25" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="24">
         <v>46</v>
       </c>
@@ -15714,23 +17262,33 @@
         <v>248</v>
       </c>
       <c r="C48" s="18"/>
-      <c r="D48" s="25" t="s">
+      <c r="D48" s="109" t="s">
+        <v>610</v>
+      </c>
+      <c r="E48" s="109" t="s">
+        <v>760</v>
+      </c>
+      <c r="F48" s="25" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="24">
         <v>47</v>
       </c>
       <c r="B49" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="C49" s="18"/>
-      <c r="D49" s="25" t="s">
+      <c r="C49" s="118" t="s">
+        <v>583</v>
+      </c>
+      <c r="D49" s="119"/>
+      <c r="E49" s="120"/>
+      <c r="F49" s="25" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="27">
         <v>48</v>
       </c>
@@ -15738,45 +17296,55 @@
         <v>433</v>
       </c>
       <c r="C50" s="107"/>
-      <c r="D50" s="108"/>
-    </row>
-    <row r="51" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D50" s="107"/>
+      <c r="E50" s="107"/>
+      <c r="F50" s="108"/>
+    </row>
+    <row r="51" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="24">
         <v>49</v>
       </c>
       <c r="B51" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="C51" s="18"/>
-      <c r="D51" s="25" t="s">
+      <c r="C51" s="112" t="s">
+        <v>583</v>
+      </c>
+      <c r="D51" s="113"/>
+      <c r="E51" s="114"/>
+      <c r="F51" s="25" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="24">
         <v>50</v>
       </c>
       <c r="B52" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="C52" s="18"/>
-      <c r="D52" s="25" t="s">
+      <c r="C52" s="121"/>
+      <c r="D52" s="122"/>
+      <c r="E52" s="123"/>
+      <c r="F52" s="25" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="24">
         <v>51</v>
       </c>
       <c r="B53" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="C53" s="18"/>
-      <c r="D53" s="25" t="s">
+      <c r="C53" s="115"/>
+      <c r="D53" s="116"/>
+      <c r="E53" s="117"/>
+      <c r="F53" s="25" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="24">
         <v>52</v>
       </c>
@@ -15784,11 +17352,17 @@
         <v>252</v>
       </c>
       <c r="C54" s="18"/>
-      <c r="D54" s="25" t="s">
+      <c r="D54" s="109" t="s">
+        <v>611</v>
+      </c>
+      <c r="E54" s="109" t="s">
+        <v>773</v>
+      </c>
+      <c r="F54" s="25" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="24">
         <v>53</v>
       </c>
@@ -15796,11 +17370,17 @@
         <v>253</v>
       </c>
       <c r="C55" s="18"/>
-      <c r="D55" s="25" t="s">
+      <c r="D55" s="109" t="s">
+        <v>620</v>
+      </c>
+      <c r="E55" s="109" t="s">
+        <v>774</v>
+      </c>
+      <c r="F55" s="25" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="24">
         <v>54</v>
       </c>
@@ -15808,11 +17388,17 @@
         <v>254</v>
       </c>
       <c r="C56" s="18"/>
-      <c r="D56" s="25" t="s">
+      <c r="D56" s="109" t="s">
+        <v>612</v>
+      </c>
+      <c r="E56" s="109" t="s">
+        <v>775</v>
+      </c>
+      <c r="F56" s="25" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="24">
         <v>55</v>
       </c>
@@ -15820,11 +17406,17 @@
         <v>255</v>
       </c>
       <c r="C57" s="18"/>
-      <c r="D57" s="25" t="s">
+      <c r="D57" s="109" t="s">
+        <v>613</v>
+      </c>
+      <c r="E57" s="109" t="s">
+        <v>776</v>
+      </c>
+      <c r="F57" s="25" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="24">
         <v>56</v>
       </c>
@@ -15832,11 +17424,17 @@
         <v>256</v>
       </c>
       <c r="C58" s="18"/>
-      <c r="D58" s="25" t="s">
+      <c r="D58" s="109" t="s">
+        <v>614</v>
+      </c>
+      <c r="E58" s="109" t="s">
+        <v>777</v>
+      </c>
+      <c r="F58" s="25" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="24">
         <v>57</v>
       </c>
@@ -15844,11 +17442,17 @@
         <v>257</v>
       </c>
       <c r="C59" s="18"/>
-      <c r="D59" s="25" t="s">
+      <c r="D59" s="109" t="s">
+        <v>615</v>
+      </c>
+      <c r="E59" s="109" t="s">
+        <v>778</v>
+      </c>
+      <c r="F59" s="25" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="24">
         <v>58</v>
       </c>
@@ -15856,11 +17460,17 @@
         <v>376</v>
       </c>
       <c r="C60" s="18"/>
-      <c r="D60" s="25" t="s">
+      <c r="D60" s="109" t="s">
+        <v>616</v>
+      </c>
+      <c r="E60" s="109" t="s">
+        <v>779</v>
+      </c>
+      <c r="F60" s="25" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="24">
         <v>59</v>
       </c>
@@ -15868,11 +17478,17 @@
         <v>258</v>
       </c>
       <c r="C61" s="18"/>
-      <c r="D61" s="25" t="s">
+      <c r="D61" s="109" t="s">
+        <v>617</v>
+      </c>
+      <c r="E61" s="109" t="s">
+        <v>780</v>
+      </c>
+      <c r="F61" s="25" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="24">
         <v>60</v>
       </c>
@@ -15880,11 +17496,17 @@
         <v>259</v>
       </c>
       <c r="C62" s="18"/>
-      <c r="D62" s="25" t="s">
+      <c r="D62" s="109" t="s">
+        <v>618</v>
+      </c>
+      <c r="E62" s="109" t="s">
+        <v>781</v>
+      </c>
+      <c r="F62" s="25" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="24">
         <v>61</v>
       </c>
@@ -15892,11 +17514,17 @@
         <v>260</v>
       </c>
       <c r="C63" s="18"/>
-      <c r="D63" s="25" t="s">
+      <c r="D63" s="109" t="s">
+        <v>619</v>
+      </c>
+      <c r="E63" s="109" t="s">
+        <v>782</v>
+      </c>
+      <c r="F63" s="25" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="24">
         <v>62</v>
       </c>
@@ -15904,11 +17532,17 @@
         <v>261</v>
       </c>
       <c r="C64" s="18"/>
-      <c r="D64" s="25" t="s">
+      <c r="D64" s="109" t="s">
+        <v>621</v>
+      </c>
+      <c r="E64" s="109" t="s">
+        <v>783</v>
+      </c>
+      <c r="F64" s="25" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="24">
         <v>63</v>
       </c>
@@ -15918,11 +17552,17 @@
       <c r="C65" s="18" t="s">
         <v>567</v>
       </c>
-      <c r="D65" s="25" t="s">
+      <c r="D65" s="109" t="s">
+        <v>622</v>
+      </c>
+      <c r="E65" s="109" t="s">
+        <v>784</v>
+      </c>
+      <c r="F65" s="25" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="24">
         <v>64</v>
       </c>
@@ -15930,11 +17570,17 @@
         <v>263</v>
       </c>
       <c r="C66" s="18"/>
-      <c r="D66" s="25" t="s">
+      <c r="D66" s="109" t="s">
+        <v>623</v>
+      </c>
+      <c r="E66" s="109" t="s">
+        <v>785</v>
+      </c>
+      <c r="F66" s="25" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="24">
         <v>65</v>
       </c>
@@ -15942,11 +17588,17 @@
         <v>264</v>
       </c>
       <c r="C67" s="18"/>
-      <c r="D67" s="25" t="s">
+      <c r="D67" s="109" t="s">
+        <v>624</v>
+      </c>
+      <c r="E67" s="109" t="s">
+        <v>786</v>
+      </c>
+      <c r="F67" s="25" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="24">
         <v>66</v>
       </c>
@@ -15954,11 +17606,17 @@
         <v>265</v>
       </c>
       <c r="C68" s="18"/>
-      <c r="D68" s="25" t="s">
+      <c r="D68" s="109" t="s">
+        <v>625</v>
+      </c>
+      <c r="E68" s="109" t="s">
+        <v>787</v>
+      </c>
+      <c r="F68" s="25" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="24">
         <v>67</v>
       </c>
@@ -15966,11 +17624,17 @@
         <v>377</v>
       </c>
       <c r="C69" s="18"/>
-      <c r="D69" s="25" t="s">
+      <c r="D69" s="109" t="s">
+        <v>626</v>
+      </c>
+      <c r="E69" s="109" t="s">
+        <v>788</v>
+      </c>
+      <c r="F69" s="25" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="24">
         <v>68</v>
       </c>
@@ -15978,11 +17642,17 @@
         <v>266</v>
       </c>
       <c r="C70" s="18"/>
-      <c r="D70" s="25" t="s">
+      <c r="D70" s="109" t="s">
+        <v>627</v>
+      </c>
+      <c r="E70" s="109" t="s">
+        <v>762</v>
+      </c>
+      <c r="F70" s="25" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="24">
         <v>69</v>
       </c>
@@ -15990,11 +17660,17 @@
         <v>267</v>
       </c>
       <c r="C71" s="18"/>
-      <c r="D71" s="25" t="s">
+      <c r="D71" s="109" t="s">
+        <v>628</v>
+      </c>
+      <c r="E71" s="109" t="s">
+        <v>763</v>
+      </c>
+      <c r="F71" s="25" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="24">
         <v>70</v>
       </c>
@@ -16002,11 +17678,17 @@
         <v>268</v>
       </c>
       <c r="C72" s="18"/>
-      <c r="D72" s="25" t="s">
+      <c r="D72" s="109" t="s">
+        <v>629</v>
+      </c>
+      <c r="E72" s="109" t="s">
+        <v>764</v>
+      </c>
+      <c r="F72" s="25" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="24">
         <v>71</v>
       </c>
@@ -16014,11 +17696,17 @@
         <v>269</v>
       </c>
       <c r="C73" s="18"/>
-      <c r="D73" s="25" t="s">
+      <c r="D73" s="109" t="s">
+        <v>630</v>
+      </c>
+      <c r="E73" s="109" t="s">
+        <v>765</v>
+      </c>
+      <c r="F73" s="25" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="24">
         <v>72</v>
       </c>
@@ -16026,11 +17714,17 @@
         <v>270</v>
       </c>
       <c r="C74" s="18"/>
-      <c r="D74" s="25" t="s">
+      <c r="D74" s="109" t="s">
+        <v>631</v>
+      </c>
+      <c r="E74" s="109" t="s">
+        <v>768</v>
+      </c>
+      <c r="F74" s="25" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="24">
         <v>73</v>
       </c>
@@ -16038,11 +17732,17 @@
         <v>271</v>
       </c>
       <c r="C75" s="18"/>
-      <c r="D75" s="25" t="s">
+      <c r="D75" s="109" t="s">
+        <v>632</v>
+      </c>
+      <c r="E75" s="109" t="s">
+        <v>769</v>
+      </c>
+      <c r="F75" s="25" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="24">
         <v>74</v>
       </c>
@@ -16050,11 +17750,17 @@
         <v>272</v>
       </c>
       <c r="C76" s="18"/>
-      <c r="D76" s="25" t="s">
+      <c r="D76" s="109" t="s">
+        <v>633</v>
+      </c>
+      <c r="E76" s="109" t="s">
+        <v>766</v>
+      </c>
+      <c r="F76" s="25" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="24">
         <v>75</v>
       </c>
@@ -16062,11 +17768,17 @@
         <v>273</v>
       </c>
       <c r="C77" s="18"/>
-      <c r="D77" s="25" t="s">
+      <c r="D77" s="109" t="s">
+        <v>634</v>
+      </c>
+      <c r="E77" s="109" t="s">
+        <v>767</v>
+      </c>
+      <c r="F77" s="25" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="24">
         <v>76</v>
       </c>
@@ -16074,95 +17786,117 @@
         <v>378</v>
       </c>
       <c r="C78" s="18"/>
-      <c r="D78" s="25" t="s">
+      <c r="D78" s="109" t="s">
+        <v>635</v>
+      </c>
+      <c r="E78" s="109" t="s">
+        <v>770</v>
+      </c>
+      <c r="F78" s="25" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="24">
         <v>77</v>
       </c>
       <c r="B79" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="C79" s="18"/>
-      <c r="D79" s="25" t="s">
+      <c r="C79" s="112" t="s">
+        <v>583</v>
+      </c>
+      <c r="D79" s="113"/>
+      <c r="E79" s="114"/>
+      <c r="F79" s="25" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="24">
         <v>78</v>
       </c>
       <c r="B80" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="C80" s="18"/>
-      <c r="D80" s="25" t="s">
+      <c r="C80" s="121"/>
+      <c r="D80" s="122"/>
+      <c r="E80" s="123"/>
+      <c r="F80" s="25" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="24">
         <v>79</v>
       </c>
       <c r="B81" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="C81" s="18"/>
-      <c r="D81" s="26" t="s">
+      <c r="C81" s="121"/>
+      <c r="D81" s="122"/>
+      <c r="E81" s="123"/>
+      <c r="F81" s="26" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="24">
         <v>80</v>
       </c>
       <c r="B82" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="C82" s="18"/>
-      <c r="D82" s="26" t="s">
+      <c r="C82" s="121"/>
+      <c r="D82" s="122"/>
+      <c r="E82" s="123"/>
+      <c r="F82" s="26" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="24">
         <v>81</v>
       </c>
       <c r="B83" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="C83" s="18"/>
-      <c r="D83" s="26" t="s">
+      <c r="C83" s="121"/>
+      <c r="D83" s="122"/>
+      <c r="E83" s="123"/>
+      <c r="F83" s="26" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="24">
         <v>82</v>
       </c>
       <c r="B84" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="C84" s="18"/>
-      <c r="D84" s="26" t="s">
+      <c r="C84" s="121"/>
+      <c r="D84" s="122"/>
+      <c r="E84" s="123"/>
+      <c r="F84" s="26" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="24">
         <v>83</v>
       </c>
       <c r="B85" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="C85" s="18"/>
-      <c r="D85" s="26" t="s">
+      <c r="C85" s="115"/>
+      <c r="D85" s="116"/>
+      <c r="E85" s="117"/>
+      <c r="F85" s="26" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="24">
         <v>84</v>
       </c>
@@ -16170,11 +17904,17 @@
         <v>281</v>
       </c>
       <c r="C86" s="18"/>
-      <c r="D86" s="26" t="s">
+      <c r="D86" s="109" t="s">
+        <v>636</v>
+      </c>
+      <c r="E86" s="109" t="s">
+        <v>789</v>
+      </c>
+      <c r="F86" s="26" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="24">
         <v>85</v>
       </c>
@@ -16182,11 +17922,17 @@
         <v>379</v>
       </c>
       <c r="C87" s="18"/>
-      <c r="D87" s="26" t="s">
+      <c r="D87" s="109" t="s">
+        <v>643</v>
+      </c>
+      <c r="E87" s="109" t="s">
+        <v>792</v>
+      </c>
+      <c r="F87" s="26" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="24">
         <v>86</v>
       </c>
@@ -16194,11 +17940,17 @@
         <v>282</v>
       </c>
       <c r="C88" s="18"/>
-      <c r="D88" s="26" t="s">
+      <c r="D88" s="109" t="s">
+        <v>637</v>
+      </c>
+      <c r="E88" s="109" t="s">
+        <v>771</v>
+      </c>
+      <c r="F88" s="26" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="24">
         <v>87</v>
       </c>
@@ -16206,11 +17958,17 @@
         <v>283</v>
       </c>
       <c r="C89" s="18"/>
-      <c r="D89" s="26" t="s">
+      <c r="D89" s="109" t="s">
+        <v>638</v>
+      </c>
+      <c r="E89" s="109" t="s">
+        <v>772</v>
+      </c>
+      <c r="F89" s="26" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="24">
         <v>88</v>
       </c>
@@ -16218,11 +17976,17 @@
         <v>284</v>
       </c>
       <c r="C90" s="18"/>
-      <c r="D90" s="26" t="s">
+      <c r="D90" s="109" t="s">
+        <v>644</v>
+      </c>
+      <c r="E90" s="109" t="s">
+        <v>790</v>
+      </c>
+      <c r="F90" s="26" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="24">
         <v>89</v>
       </c>
@@ -16230,11 +17994,17 @@
         <v>285</v>
       </c>
       <c r="C91" s="18"/>
-      <c r="D91" s="26" t="s">
+      <c r="D91" s="109" t="s">
+        <v>645</v>
+      </c>
+      <c r="E91" s="109" t="s">
+        <v>791</v>
+      </c>
+      <c r="F91" s="26" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="24">
         <v>90</v>
       </c>
@@ -16242,11 +18012,17 @@
         <v>286</v>
       </c>
       <c r="C92" s="18"/>
-      <c r="D92" s="26" t="s">
+      <c r="D92" s="109" t="s">
+        <v>646</v>
+      </c>
+      <c r="E92" s="109" t="s">
+        <v>793</v>
+      </c>
+      <c r="F92" s="26" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="24">
         <v>91</v>
       </c>
@@ -16254,11 +18030,17 @@
         <v>287</v>
       </c>
       <c r="C93" s="18"/>
-      <c r="D93" s="26" t="s">
+      <c r="D93" s="109" t="s">
+        <v>647</v>
+      </c>
+      <c r="E93" s="109" t="s">
+        <v>794</v>
+      </c>
+      <c r="F93" s="26" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="24">
         <v>92</v>
       </c>
@@ -16266,11 +18048,17 @@
         <v>288</v>
       </c>
       <c r="C94" s="18"/>
-      <c r="D94" s="26" t="s">
+      <c r="D94" s="109" t="s">
+        <v>639</v>
+      </c>
+      <c r="E94" s="109" t="s">
+        <v>795</v>
+      </c>
+      <c r="F94" s="26" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="24">
         <v>93</v>
       </c>
@@ -16278,11 +18066,17 @@
         <v>289</v>
       </c>
       <c r="C95" s="18"/>
-      <c r="D95" s="26" t="s">
+      <c r="D95" s="109" t="s">
+        <v>640</v>
+      </c>
+      <c r="E95" s="109" t="s">
+        <v>796</v>
+      </c>
+      <c r="F95" s="26" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="24">
         <v>94</v>
       </c>
@@ -16290,11 +18084,17 @@
         <v>380</v>
       </c>
       <c r="C96" s="18"/>
-      <c r="D96" s="26" t="s">
+      <c r="D96" s="109" t="s">
+        <v>641</v>
+      </c>
+      <c r="E96" s="109" t="s">
+        <v>797</v>
+      </c>
+      <c r="F96" s="26" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="24">
         <v>95</v>
       </c>
@@ -16302,11 +18102,17 @@
         <v>290</v>
       </c>
       <c r="C97" s="18"/>
-      <c r="D97" s="26" t="s">
+      <c r="D97" s="109" t="s">
+        <v>642</v>
+      </c>
+      <c r="E97" s="109" t="s">
+        <v>798</v>
+      </c>
+      <c r="F97" s="26" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="27">
         <v>96</v>
       </c>
@@ -16314,85 +18120,105 @@
         <v>433</v>
       </c>
       <c r="C98" s="83"/>
-      <c r="D98" s="84"/>
-    </row>
-    <row r="99" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D98" s="83"/>
+      <c r="E98" s="83"/>
+      <c r="F98" s="84"/>
+    </row>
+    <row r="99" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="27">
         <v>97</v>
       </c>
       <c r="B99" s="85"/>
       <c r="C99" s="86"/>
-      <c r="D99" s="87"/>
-    </row>
-    <row r="100" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D99" s="86"/>
+      <c r="E99" s="86"/>
+      <c r="F99" s="87"/>
+    </row>
+    <row r="100" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="27">
         <v>98</v>
       </c>
       <c r="B100" s="85"/>
       <c r="C100" s="86"/>
-      <c r="D100" s="87"/>
-    </row>
-    <row r="101" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D100" s="86"/>
+      <c r="E100" s="86"/>
+      <c r="F100" s="87"/>
+    </row>
+    <row r="101" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="27">
         <v>99</v>
       </c>
       <c r="B101" s="85"/>
       <c r="C101" s="86"/>
-      <c r="D101" s="87"/>
-    </row>
-    <row r="102" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D101" s="86"/>
+      <c r="E101" s="86"/>
+      <c r="F101" s="87"/>
+    </row>
+    <row r="102" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="27">
         <v>100</v>
       </c>
       <c r="B102" s="85"/>
       <c r="C102" s="86"/>
-      <c r="D102" s="87"/>
-    </row>
-    <row r="103" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D102" s="86"/>
+      <c r="E102" s="86"/>
+      <c r="F102" s="87"/>
+    </row>
+    <row r="103" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="27">
         <v>101</v>
       </c>
       <c r="B103" s="103"/>
       <c r="C103" s="104"/>
-      <c r="D103" s="105"/>
-    </row>
-    <row r="104" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D103" s="104"/>
+      <c r="E103" s="104"/>
+      <c r="F103" s="105"/>
+    </row>
+    <row r="104" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="24">
         <v>102</v>
       </c>
       <c r="B104" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="C104" s="18"/>
-      <c r="D104" s="26" t="s">
+      <c r="C104" s="112" t="s">
+        <v>583</v>
+      </c>
+      <c r="D104" s="113"/>
+      <c r="E104" s="114"/>
+      <c r="F104" s="26" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="24">
         <v>103</v>
       </c>
       <c r="B105" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="C105" s="18"/>
-      <c r="D105" s="26" t="s">
+      <c r="C105" s="121"/>
+      <c r="D105" s="122"/>
+      <c r="E105" s="123"/>
+      <c r="F105" s="26" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="24">
         <v>104</v>
       </c>
       <c r="B106" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="C106" s="18"/>
-      <c r="D106" s="26" t="s">
+      <c r="C106" s="115"/>
+      <c r="D106" s="116"/>
+      <c r="E106" s="117"/>
+      <c r="F106" s="26" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="24">
         <v>105</v>
       </c>
@@ -16400,11 +18226,17 @@
         <v>293</v>
       </c>
       <c r="C107" s="18"/>
-      <c r="D107" s="26" t="s">
+      <c r="D107" s="109" t="s">
+        <v>648</v>
+      </c>
+      <c r="E107" s="109" t="s">
+        <v>800</v>
+      </c>
+      <c r="F107" s="26" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="24">
         <v>106</v>
       </c>
@@ -16412,11 +18244,15 @@
         <v>294</v>
       </c>
       <c r="C108" s="18"/>
-      <c r="D108" s="26" t="s">
+      <c r="D108" s="109" t="s">
+        <v>649</v>
+      </c>
+      <c r="E108" s="109"/>
+      <c r="F108" s="26" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="24">
         <v>107</v>
       </c>
@@ -16424,11 +18260,17 @@
         <v>295</v>
       </c>
       <c r="C109" s="18"/>
-      <c r="D109" s="25" t="s">
+      <c r="D109" s="109" t="s">
+        <v>650</v>
+      </c>
+      <c r="E109" s="109" t="s">
+        <v>801</v>
+      </c>
+      <c r="F109" s="25" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="24">
         <v>108</v>
       </c>
@@ -16436,11 +18278,17 @@
         <v>296</v>
       </c>
       <c r="C110" s="18"/>
-      <c r="D110" s="25" t="s">
+      <c r="D110" s="109" t="s">
+        <v>651</v>
+      </c>
+      <c r="E110" s="109" t="s">
+        <v>802</v>
+      </c>
+      <c r="F110" s="25" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="24">
         <v>109</v>
       </c>
@@ -16448,11 +18296,17 @@
         <v>297</v>
       </c>
       <c r="C111" s="18"/>
-      <c r="D111" s="25" t="s">
+      <c r="D111" s="109" t="s">
+        <v>652</v>
+      </c>
+      <c r="E111" s="109" t="s">
+        <v>803</v>
+      </c>
+      <c r="F111" s="25" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="24">
         <v>110</v>
       </c>
@@ -16460,35 +18314,47 @@
         <v>298</v>
       </c>
       <c r="C112" s="18"/>
-      <c r="D112" s="25" t="s">
+      <c r="D112" s="109" t="s">
+        <v>653</v>
+      </c>
+      <c r="E112" s="109" t="s">
+        <v>804</v>
+      </c>
+      <c r="F112" s="25" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="24">
         <v>111</v>
       </c>
       <c r="B113" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="C113" s="18"/>
-      <c r="D113" s="25" t="s">
+      <c r="C113" s="112" t="s">
+        <v>583</v>
+      </c>
+      <c r="D113" s="113"/>
+      <c r="E113" s="114"/>
+      <c r="F113" s="25" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="24">
         <v>112</v>
       </c>
       <c r="B114" s="19" t="s">
         <v>382</v>
       </c>
-      <c r="C114" s="18"/>
-      <c r="D114" s="25" t="s">
+      <c r="C114" s="115"/>
+      <c r="D114" s="116"/>
+      <c r="E114" s="117"/>
+      <c r="F114" s="25" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="24">
         <v>113</v>
       </c>
@@ -16496,11 +18362,17 @@
         <v>300</v>
       </c>
       <c r="C115" s="18"/>
-      <c r="D115" s="25" t="s">
+      <c r="D115" s="109" t="s">
+        <v>654</v>
+      </c>
+      <c r="E115" s="109" t="s">
+        <v>805</v>
+      </c>
+      <c r="F115" s="25" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="24">
         <v>114</v>
       </c>
@@ -16508,11 +18380,17 @@
         <v>301</v>
       </c>
       <c r="C116" s="18"/>
-      <c r="D116" s="25" t="s">
+      <c r="D116" s="109" t="s">
+        <v>655</v>
+      </c>
+      <c r="E116" s="109" t="s">
+        <v>806</v>
+      </c>
+      <c r="F116" s="25" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="24">
         <v>115</v>
       </c>
@@ -16520,11 +18398,17 @@
         <v>302</v>
       </c>
       <c r="C117" s="18"/>
-      <c r="D117" s="25" t="s">
+      <c r="D117" s="109" t="s">
+        <v>656</v>
+      </c>
+      <c r="E117" s="109" t="s">
+        <v>807</v>
+      </c>
+      <c r="F117" s="25" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="24">
         <v>116</v>
       </c>
@@ -16532,11 +18416,17 @@
         <v>303</v>
       </c>
       <c r="C118" s="18"/>
-      <c r="D118" s="25" t="s">
+      <c r="D118" s="109" t="s">
+        <v>657</v>
+      </c>
+      <c r="E118" s="109" t="s">
+        <v>808</v>
+      </c>
+      <c r="F118" s="25" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="24">
         <v>117</v>
       </c>
@@ -16544,11 +18434,17 @@
         <v>304</v>
       </c>
       <c r="C119" s="18"/>
-      <c r="D119" s="25" t="s">
+      <c r="D119" s="109" t="s">
+        <v>658</v>
+      </c>
+      <c r="E119" s="109" t="s">
+        <v>812</v>
+      </c>
+      <c r="F119" s="25" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="24">
         <v>118</v>
       </c>
@@ -16556,11 +18452,17 @@
         <v>305</v>
       </c>
       <c r="C120" s="18"/>
-      <c r="D120" s="25" t="s">
+      <c r="D120" s="109" t="s">
+        <v>659</v>
+      </c>
+      <c r="E120" s="109" t="s">
+        <v>809</v>
+      </c>
+      <c r="F120" s="25" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="24">
         <v>119</v>
       </c>
@@ -16568,11 +18470,17 @@
         <v>306</v>
       </c>
       <c r="C121" s="18"/>
-      <c r="D121" s="25" t="s">
+      <c r="D121" s="109" t="s">
+        <v>660</v>
+      </c>
+      <c r="E121" s="109" t="s">
+        <v>810</v>
+      </c>
+      <c r="F121" s="25" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="24">
         <v>120</v>
       </c>
@@ -16580,11 +18488,17 @@
         <v>307</v>
       </c>
       <c r="C122" s="18"/>
-      <c r="D122" s="25" t="s">
+      <c r="D122" s="109" t="s">
+        <v>661</v>
+      </c>
+      <c r="E122" s="109" t="s">
+        <v>813</v>
+      </c>
+      <c r="F122" s="25" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="24">
         <v>121</v>
       </c>
@@ -16592,11 +18506,17 @@
         <v>383</v>
       </c>
       <c r="C123" s="18"/>
-      <c r="D123" s="25" t="s">
+      <c r="D123" s="109" t="s">
+        <v>663</v>
+      </c>
+      <c r="E123" s="109" t="s">
+        <v>814</v>
+      </c>
+      <c r="F123" s="25" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="24">
         <v>122</v>
       </c>
@@ -16604,11 +18524,17 @@
         <v>308</v>
       </c>
       <c r="C124" s="18"/>
-      <c r="D124" s="25" t="s">
+      <c r="D124" s="109" t="s">
+        <v>662</v>
+      </c>
+      <c r="E124" s="109" t="s">
+        <v>811</v>
+      </c>
+      <c r="F124" s="25" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="24">
         <v>123</v>
       </c>
@@ -16616,11 +18542,17 @@
         <v>309</v>
       </c>
       <c r="C125" s="18"/>
-      <c r="D125" s="25" t="s">
+      <c r="D125" s="109" t="s">
+        <v>664</v>
+      </c>
+      <c r="E125" s="109" t="s">
+        <v>815</v>
+      </c>
+      <c r="F125" s="25" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="24">
         <v>124</v>
       </c>
@@ -16628,11 +18560,17 @@
         <v>310</v>
       </c>
       <c r="C126" s="18"/>
-      <c r="D126" s="25" t="s">
+      <c r="D126" s="109" t="s">
+        <v>665</v>
+      </c>
+      <c r="E126" s="109" t="s">
+        <v>816</v>
+      </c>
+      <c r="F126" s="25" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="24">
         <v>125</v>
       </c>
@@ -16640,11 +18578,17 @@
         <v>311</v>
       </c>
       <c r="C127" s="18"/>
-      <c r="D127" s="25" t="s">
+      <c r="D127" s="109" t="s">
+        <v>666</v>
+      </c>
+      <c r="E127" s="109" t="s">
+        <v>817</v>
+      </c>
+      <c r="F127" s="25" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="24">
         <v>126</v>
       </c>
@@ -16652,23 +18596,33 @@
         <v>312</v>
       </c>
       <c r="C128" s="18"/>
-      <c r="D128" s="25" t="s">
+      <c r="D128" s="109" t="s">
+        <v>667</v>
+      </c>
+      <c r="E128" s="109" t="s">
+        <v>818</v>
+      </c>
+      <c r="F128" s="25" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="24">
         <v>127</v>
       </c>
       <c r="B129" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="C129" s="18"/>
-      <c r="D129" s="25" t="s">
+      <c r="C129" s="118" t="s">
+        <v>583</v>
+      </c>
+      <c r="D129" s="119"/>
+      <c r="E129" s="120"/>
+      <c r="F129" s="25" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="27">
         <v>128</v>
       </c>
@@ -16676,49 +18630,61 @@
         <v>433</v>
       </c>
       <c r="C130" s="83"/>
-      <c r="D130" s="84"/>
-    </row>
-    <row r="131" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D130" s="83"/>
+      <c r="E130" s="83"/>
+      <c r="F130" s="84"/>
+    </row>
+    <row r="131" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="27">
         <v>129</v>
       </c>
       <c r="B131" s="85"/>
       <c r="C131" s="86"/>
-      <c r="D131" s="87"/>
-    </row>
-    <row r="132" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D131" s="86"/>
+      <c r="E131" s="86"/>
+      <c r="F131" s="87"/>
+    </row>
+    <row r="132" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="27">
         <v>130</v>
       </c>
       <c r="B132" s="85"/>
       <c r="C132" s="86"/>
-      <c r="D132" s="87"/>
-    </row>
-    <row r="133" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D132" s="86"/>
+      <c r="E132" s="86"/>
+      <c r="F132" s="87"/>
+    </row>
+    <row r="133" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="27">
         <v>131</v>
       </c>
       <c r="B133" s="85"/>
       <c r="C133" s="86"/>
-      <c r="D133" s="87"/>
-    </row>
-    <row r="134" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D133" s="86"/>
+      <c r="E133" s="86"/>
+      <c r="F133" s="87"/>
+    </row>
+    <row r="134" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="27">
         <v>132</v>
       </c>
       <c r="B134" s="85"/>
       <c r="C134" s="86"/>
-      <c r="D134" s="87"/>
-    </row>
-    <row r="135" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D134" s="86"/>
+      <c r="E134" s="86"/>
+      <c r="F134" s="87"/>
+    </row>
+    <row r="135" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="27">
         <v>133</v>
       </c>
       <c r="B135" s="103"/>
       <c r="C135" s="104"/>
-      <c r="D135" s="105"/>
-    </row>
-    <row r="136" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D135" s="104"/>
+      <c r="E135" s="104"/>
+      <c r="F135" s="105"/>
+    </row>
+    <row r="136" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="24">
         <v>134</v>
       </c>
@@ -16726,11 +18692,17 @@
         <v>314</v>
       </c>
       <c r="C136" s="18"/>
-      <c r="D136" s="25" t="s">
+      <c r="D136" s="109" t="s">
+        <v>668</v>
+      </c>
+      <c r="E136" s="109" t="s">
+        <v>819</v>
+      </c>
+      <c r="F136" s="25" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="24">
         <v>135</v>
       </c>
@@ -16738,11 +18710,17 @@
         <v>315</v>
       </c>
       <c r="C137" s="18"/>
-      <c r="D137" s="25" t="s">
+      <c r="D137" s="109" t="s">
+        <v>674</v>
+      </c>
+      <c r="E137" s="109" t="s">
+        <v>830</v>
+      </c>
+      <c r="F137" s="25" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="24">
         <v>136</v>
       </c>
@@ -16750,11 +18728,17 @@
         <v>316</v>
       </c>
       <c r="C138" s="18"/>
-      <c r="D138" s="25" t="s">
+      <c r="D138" s="109" t="s">
+        <v>669</v>
+      </c>
+      <c r="E138" s="109" t="s">
+        <v>820</v>
+      </c>
+      <c r="F138" s="25" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="24">
         <v>137</v>
       </c>
@@ -16762,11 +18746,17 @@
         <v>317</v>
       </c>
       <c r="C139" s="18"/>
-      <c r="D139" s="25" t="s">
+      <c r="D139" s="109" t="s">
+        <v>675</v>
+      </c>
+      <c r="E139" s="109" t="s">
+        <v>821</v>
+      </c>
+      <c r="F139" s="25" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="24">
         <v>138</v>
       </c>
@@ -16774,11 +18764,17 @@
         <v>318</v>
       </c>
       <c r="C140" s="18"/>
-      <c r="D140" s="25" t="s">
+      <c r="D140" s="109" t="s">
+        <v>670</v>
+      </c>
+      <c r="E140" s="109" t="s">
+        <v>822</v>
+      </c>
+      <c r="F140" s="25" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="24">
         <v>139</v>
       </c>
@@ -16786,11 +18782,17 @@
         <v>384</v>
       </c>
       <c r="C141" s="18"/>
-      <c r="D141" s="25" t="s">
+      <c r="D141" s="109" t="s">
+        <v>676</v>
+      </c>
+      <c r="E141" s="109" t="s">
+        <v>823</v>
+      </c>
+      <c r="F141" s="25" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="24">
         <v>140</v>
       </c>
@@ -16798,11 +18800,17 @@
         <v>319</v>
       </c>
       <c r="C142" s="18"/>
-      <c r="D142" s="25" t="s">
+      <c r="D142" s="109" t="s">
+        <v>671</v>
+      </c>
+      <c r="E142" s="109" t="s">
+        <v>824</v>
+      </c>
+      <c r="F142" s="25" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="24">
         <v>141</v>
       </c>
@@ -16810,11 +18818,17 @@
         <v>320</v>
       </c>
       <c r="C143" s="18"/>
-      <c r="D143" s="25" t="s">
+      <c r="D143" s="109" t="s">
+        <v>677</v>
+      </c>
+      <c r="E143" s="109" t="s">
+        <v>825</v>
+      </c>
+      <c r="F143" s="25" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="24">
         <v>142</v>
       </c>
@@ -16822,11 +18836,17 @@
         <v>321</v>
       </c>
       <c r="C144" s="18"/>
-      <c r="D144" s="25" t="s">
+      <c r="D144" s="109" t="s">
+        <v>672</v>
+      </c>
+      <c r="E144" s="109" t="s">
+        <v>826</v>
+      </c>
+      <c r="F144" s="25" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="24">
         <v>143</v>
       </c>
@@ -16834,11 +18854,17 @@
         <v>322</v>
       </c>
       <c r="C145" s="18"/>
-      <c r="D145" s="25" t="s">
+      <c r="D145" s="109" t="s">
+        <v>678</v>
+      </c>
+      <c r="E145" s="109" t="s">
+        <v>827</v>
+      </c>
+      <c r="F145" s="25" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="24">
         <v>144</v>
       </c>
@@ -16846,11 +18872,17 @@
         <v>323</v>
       </c>
       <c r="C146" s="18"/>
-      <c r="D146" s="25" t="s">
+      <c r="D146" s="109" t="s">
+        <v>673</v>
+      </c>
+      <c r="E146" s="109" t="s">
+        <v>828</v>
+      </c>
+      <c r="F146" s="25" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="24">
         <v>145</v>
       </c>
@@ -16858,11 +18890,17 @@
         <v>324</v>
       </c>
       <c r="C147" s="18"/>
-      <c r="D147" s="25" t="s">
+      <c r="D147" s="109" t="s">
+        <v>679</v>
+      </c>
+      <c r="E147" s="109" t="s">
+        <v>829</v>
+      </c>
+      <c r="F147" s="25" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="24">
         <v>146</v>
       </c>
@@ -16870,11 +18908,17 @@
         <v>325</v>
       </c>
       <c r="C148" s="18"/>
-      <c r="D148" s="25" t="s">
+      <c r="D148" s="109" t="s">
+        <v>680</v>
+      </c>
+      <c r="E148" s="109" t="s">
+        <v>831</v>
+      </c>
+      <c r="F148" s="25" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="24">
         <v>147</v>
       </c>
@@ -16882,11 +18926,17 @@
         <v>326</v>
       </c>
       <c r="C149" s="18"/>
-      <c r="D149" s="25" t="s">
+      <c r="D149" s="109" t="s">
+        <v>681</v>
+      </c>
+      <c r="E149" s="109" t="s">
+        <v>832</v>
+      </c>
+      <c r="F149" s="25" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="24">
         <v>148</v>
       </c>
@@ -16894,11 +18944,17 @@
         <v>385</v>
       </c>
       <c r="C150" s="18"/>
-      <c r="D150" s="25" t="s">
+      <c r="D150" s="109" t="s">
+        <v>682</v>
+      </c>
+      <c r="E150" s="109" t="s">
+        <v>833</v>
+      </c>
+      <c r="F150" s="25" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="24">
         <v>149</v>
       </c>
@@ -16906,11 +18962,17 @@
         <v>327</v>
       </c>
       <c r="C151" s="18"/>
-      <c r="D151" s="25" t="s">
+      <c r="D151" s="109" t="s">
+        <v>683</v>
+      </c>
+      <c r="E151" s="109" t="s">
+        <v>834</v>
+      </c>
+      <c r="F151" s="25" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="24">
         <v>150</v>
       </c>
@@ -16918,11 +18980,17 @@
         <v>328</v>
       </c>
       <c r="C152" s="18"/>
-      <c r="D152" s="25" t="s">
+      <c r="D152" s="109" t="s">
+        <v>684</v>
+      </c>
+      <c r="E152" s="109" t="s">
+        <v>835</v>
+      </c>
+      <c r="F152" s="25" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="24">
         <v>151</v>
       </c>
@@ -16930,11 +18998,17 @@
         <v>329</v>
       </c>
       <c r="C153" s="18"/>
-      <c r="D153" s="25" t="s">
+      <c r="D153" s="109" t="s">
+        <v>685</v>
+      </c>
+      <c r="E153" s="109" t="s">
+        <v>836</v>
+      </c>
+      <c r="F153" s="25" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="24">
         <v>152</v>
       </c>
@@ -16942,35 +19016,47 @@
         <v>330</v>
       </c>
       <c r="C154" s="18"/>
-      <c r="D154" s="25" t="s">
+      <c r="D154" s="109" t="s">
+        <v>686</v>
+      </c>
+      <c r="E154" s="109" t="s">
+        <v>837</v>
+      </c>
+      <c r="F154" s="25" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="24">
         <v>153</v>
       </c>
       <c r="B155" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="C155" s="18"/>
-      <c r="D155" s="25" t="s">
+      <c r="C155" s="112" t="s">
+        <v>583</v>
+      </c>
+      <c r="D155" s="113"/>
+      <c r="E155" s="114"/>
+      <c r="F155" s="25" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="24">
         <v>154</v>
       </c>
       <c r="B156" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="C156" s="18"/>
-      <c r="D156" s="25" t="s">
+      <c r="C156" s="115"/>
+      <c r="D156" s="116"/>
+      <c r="E156" s="117"/>
+      <c r="F156" s="25" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="27">
         <v>155</v>
       </c>
@@ -16978,21 +19064,27 @@
         <v>433</v>
       </c>
       <c r="C157" s="107"/>
-      <c r="D157" s="108"/>
-    </row>
-    <row r="158" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D157" s="107"/>
+      <c r="E157" s="107"/>
+      <c r="F157" s="108"/>
+    </row>
+    <row r="158" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="24">
         <v>156</v>
       </c>
       <c r="B158" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="C158" s="18"/>
-      <c r="D158" s="25" t="s">
+      <c r="C158" s="118" t="s">
+        <v>583</v>
+      </c>
+      <c r="D158" s="119"/>
+      <c r="E158" s="120"/>
+      <c r="F158" s="25" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="24">
         <v>157</v>
       </c>
@@ -17000,11 +19092,17 @@
         <v>386</v>
       </c>
       <c r="C159" s="18"/>
-      <c r="D159" s="25" t="s">
+      <c r="D159" s="109" t="s">
+        <v>687</v>
+      </c>
+      <c r="E159" s="109" t="s">
+        <v>838</v>
+      </c>
+      <c r="F159" s="25" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="24">
         <v>158</v>
       </c>
@@ -17012,11 +19110,17 @@
         <v>334</v>
       </c>
       <c r="C160" s="18"/>
-      <c r="D160" s="25" t="s">
+      <c r="D160" s="109" t="s">
+        <v>688</v>
+      </c>
+      <c r="E160" s="109" t="s">
+        <v>839</v>
+      </c>
+      <c r="F160" s="25" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="24">
         <v>159</v>
       </c>
@@ -17024,11 +19128,17 @@
         <v>335</v>
       </c>
       <c r="C161" s="18"/>
-      <c r="D161" s="25" t="s">
+      <c r="D161" s="109" t="s">
+        <v>689</v>
+      </c>
+      <c r="E161" s="109" t="s">
+        <v>840</v>
+      </c>
+      <c r="F161" s="25" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="24">
         <v>160</v>
       </c>
@@ -17036,11 +19146,17 @@
         <v>336</v>
       </c>
       <c r="C162" s="18"/>
-      <c r="D162" s="25" t="s">
+      <c r="D162" s="109" t="s">
+        <v>690</v>
+      </c>
+      <c r="E162" s="109" t="s">
+        <v>841</v>
+      </c>
+      <c r="F162" s="25" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="24">
         <v>161</v>
       </c>
@@ -17048,11 +19164,17 @@
         <v>337</v>
       </c>
       <c r="C163" s="18"/>
-      <c r="D163" s="25" t="s">
+      <c r="D163" s="109" t="s">
+        <v>691</v>
+      </c>
+      <c r="E163" s="109" t="s">
+        <v>842</v>
+      </c>
+      <c r="F163" s="25" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="24">
         <v>162</v>
       </c>
@@ -17060,11 +19182,17 @@
         <v>338</v>
       </c>
       <c r="C164" s="18"/>
-      <c r="D164" s="25" t="s">
+      <c r="D164" s="109" t="s">
+        <v>692</v>
+      </c>
+      <c r="E164" s="109" t="s">
+        <v>843</v>
+      </c>
+      <c r="F164" s="25" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="24">
         <v>163</v>
       </c>
@@ -17072,11 +19200,17 @@
         <v>339</v>
       </c>
       <c r="C165" s="18"/>
-      <c r="D165" s="25" t="s">
+      <c r="D165" s="109" t="s">
+        <v>693</v>
+      </c>
+      <c r="E165" s="109" t="s">
+        <v>844</v>
+      </c>
+      <c r="F165" s="25" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="27">
         <v>164</v>
       </c>
@@ -17084,97 +19218,121 @@
         <v>433</v>
       </c>
       <c r="C166" s="83"/>
-      <c r="D166" s="84"/>
-    </row>
-    <row r="167" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D166" s="83"/>
+      <c r="E166" s="83"/>
+      <c r="F166" s="84"/>
+    </row>
+    <row r="167" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="27">
         <v>165</v>
       </c>
       <c r="B167" s="85"/>
       <c r="C167" s="86"/>
-      <c r="D167" s="87"/>
-    </row>
-    <row r="168" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D167" s="86"/>
+      <c r="E167" s="86"/>
+      <c r="F167" s="87"/>
+    </row>
+    <row r="168" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="27">
         <v>166</v>
       </c>
       <c r="B168" s="85"/>
       <c r="C168" s="86"/>
-      <c r="D168" s="87"/>
-    </row>
-    <row r="169" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D168" s="86"/>
+      <c r="E168" s="86"/>
+      <c r="F168" s="87"/>
+    </row>
+    <row r="169" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="27">
         <v>167</v>
       </c>
       <c r="B169" s="85"/>
       <c r="C169" s="86"/>
-      <c r="D169" s="87"/>
-    </row>
-    <row r="170" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D169" s="86"/>
+      <c r="E169" s="86"/>
+      <c r="F169" s="87"/>
+    </row>
+    <row r="170" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="27">
         <v>168</v>
       </c>
       <c r="B170" s="85"/>
       <c r="C170" s="86"/>
-      <c r="D170" s="87"/>
-    </row>
-    <row r="171" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D170" s="86"/>
+      <c r="E170" s="86"/>
+      <c r="F170" s="87"/>
+    </row>
+    <row r="171" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="27">
         <v>169</v>
       </c>
       <c r="B171" s="85"/>
       <c r="C171" s="86"/>
-      <c r="D171" s="87"/>
-    </row>
-    <row r="172" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D171" s="86"/>
+      <c r="E171" s="86"/>
+      <c r="F171" s="87"/>
+    </row>
+    <row r="172" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="27">
         <v>170</v>
       </c>
       <c r="B172" s="85"/>
       <c r="C172" s="86"/>
-      <c r="D172" s="87"/>
-    </row>
-    <row r="173" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D172" s="86"/>
+      <c r="E172" s="86"/>
+      <c r="F172" s="87"/>
+    </row>
+    <row r="173" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="27">
         <v>171</v>
       </c>
       <c r="B173" s="85"/>
       <c r="C173" s="86"/>
-      <c r="D173" s="87"/>
-    </row>
-    <row r="174" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D173" s="86"/>
+      <c r="E173" s="86"/>
+      <c r="F173" s="87"/>
+    </row>
+    <row r="174" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="27">
         <v>172</v>
       </c>
       <c r="B174" s="85"/>
       <c r="C174" s="86"/>
-      <c r="D174" s="87"/>
-    </row>
-    <row r="175" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D174" s="86"/>
+      <c r="E174" s="86"/>
+      <c r="F174" s="87"/>
+    </row>
+    <row r="175" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="27">
         <v>173</v>
       </c>
       <c r="B175" s="85"/>
       <c r="C175" s="86"/>
-      <c r="D175" s="87"/>
-    </row>
-    <row r="176" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D175" s="86"/>
+      <c r="E175" s="86"/>
+      <c r="F175" s="87"/>
+    </row>
+    <row r="176" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="27">
         <v>174</v>
       </c>
       <c r="B176" s="85"/>
       <c r="C176" s="86"/>
-      <c r="D176" s="87"/>
-    </row>
-    <row r="177" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D176" s="86"/>
+      <c r="E176" s="86"/>
+      <c r="F176" s="87"/>
+    </row>
+    <row r="177" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="27">
         <v>175</v>
       </c>
       <c r="B177" s="103"/>
       <c r="C177" s="104"/>
-      <c r="D177" s="105"/>
-    </row>
-    <row r="178" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D177" s="104"/>
+      <c r="E177" s="104"/>
+      <c r="F177" s="105"/>
+    </row>
+    <row r="178" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="24">
         <v>176</v>
       </c>
@@ -17182,11 +19340,17 @@
         <v>340</v>
       </c>
       <c r="C178" s="18"/>
-      <c r="D178" s="25" t="s">
+      <c r="D178" s="109" t="s">
+        <v>694</v>
+      </c>
+      <c r="E178" s="109" t="s">
+        <v>845</v>
+      </c>
+      <c r="F178" s="25" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="24">
         <v>177</v>
       </c>
@@ -17194,11 +19358,17 @@
         <v>341</v>
       </c>
       <c r="C179" s="18"/>
-      <c r="D179" s="25" t="s">
+      <c r="D179" s="109" t="s">
+        <v>700</v>
+      </c>
+      <c r="E179" s="109" t="s">
+        <v>856</v>
+      </c>
+      <c r="F179" s="25" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="24">
         <v>178</v>
       </c>
@@ -17206,11 +19376,17 @@
         <v>342</v>
       </c>
       <c r="C180" s="18"/>
-      <c r="D180" s="25" t="s">
+      <c r="D180" s="109" t="s">
+        <v>708</v>
+      </c>
+      <c r="E180" s="109" t="s">
+        <v>857</v>
+      </c>
+      <c r="F180" s="25" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="24">
         <v>179</v>
       </c>
@@ -17218,11 +19394,17 @@
         <v>343</v>
       </c>
       <c r="C181" s="18"/>
-      <c r="D181" s="25" t="s">
+      <c r="D181" s="109" t="s">
+        <v>709</v>
+      </c>
+      <c r="E181" s="109" t="s">
+        <v>846</v>
+      </c>
+      <c r="F181" s="25" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="24">
         <v>180</v>
       </c>
@@ -17230,11 +19412,17 @@
         <v>344</v>
       </c>
       <c r="C182" s="18"/>
-      <c r="D182" s="25" t="s">
+      <c r="D182" s="109" t="s">
+        <v>695</v>
+      </c>
+      <c r="E182" s="109" t="s">
+        <v>847</v>
+      </c>
+      <c r="F182" s="25" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="24">
         <v>181</v>
       </c>
@@ -17242,11 +19430,17 @@
         <v>345</v>
       </c>
       <c r="C183" s="18"/>
-      <c r="D183" s="25" t="s">
+      <c r="D183" s="109" t="s">
+        <v>711</v>
+      </c>
+      <c r="E183" s="109" t="s">
+        <v>848</v>
+      </c>
+      <c r="F183" s="25" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="24">
         <v>182</v>
       </c>
@@ -17254,11 +19448,17 @@
         <v>346</v>
       </c>
       <c r="C184" s="18"/>
-      <c r="D184" s="25" t="s">
+      <c r="D184" s="109" t="s">
+        <v>712</v>
+      </c>
+      <c r="E184" s="109" t="s">
+        <v>858</v>
+      </c>
+      <c r="F184" s="25" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="24">
         <v>183</v>
       </c>
@@ -17266,11 +19466,17 @@
         <v>347</v>
       </c>
       <c r="C185" s="18"/>
-      <c r="D185" s="25" t="s">
+      <c r="D185" s="109" t="s">
+        <v>696</v>
+      </c>
+      <c r="E185" s="109" t="s">
+        <v>859</v>
+      </c>
+      <c r="F185" s="25" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="24">
         <v>184</v>
       </c>
@@ -17278,11 +19484,17 @@
         <v>387</v>
       </c>
       <c r="C186" s="18"/>
-      <c r="D186" s="25" t="s">
+      <c r="D186" s="109" t="s">
+        <v>697</v>
+      </c>
+      <c r="E186" s="109" t="s">
+        <v>849</v>
+      </c>
+      <c r="F186" s="25" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="24">
         <v>185</v>
       </c>
@@ -17290,11 +19502,17 @@
         <v>348</v>
       </c>
       <c r="C187" s="18"/>
-      <c r="D187" s="25" t="s">
+      <c r="D187" s="109" t="s">
+        <v>698</v>
+      </c>
+      <c r="E187" s="109" t="s">
+        <v>850</v>
+      </c>
+      <c r="F187" s="25" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="24">
         <v>186</v>
       </c>
@@ -17302,11 +19520,17 @@
         <v>349</v>
       </c>
       <c r="C188" s="18"/>
-      <c r="D188" s="25" t="s">
+      <c r="D188" s="109" t="s">
+        <v>699</v>
+      </c>
+      <c r="E188" s="109" t="s">
+        <v>851</v>
+      </c>
+      <c r="F188" s="25" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="24">
         <v>187</v>
       </c>
@@ -17314,11 +19538,17 @@
         <v>350</v>
       </c>
       <c r="C189" s="18"/>
-      <c r="D189" s="25" t="s">
+      <c r="D189" s="109" t="s">
+        <v>701</v>
+      </c>
+      <c r="E189" s="109" t="s">
+        <v>852</v>
+      </c>
+      <c r="F189" s="25" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="24">
         <v>188</v>
       </c>
@@ -17326,11 +19556,17 @@
         <v>351</v>
       </c>
       <c r="C190" s="18"/>
-      <c r="D190" s="25" t="s">
+      <c r="D190" s="109" t="s">
+        <v>702</v>
+      </c>
+      <c r="E190" s="109" t="s">
+        <v>853</v>
+      </c>
+      <c r="F190" s="25" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="24">
         <v>189</v>
       </c>
@@ -17338,11 +19574,17 @@
         <v>352</v>
       </c>
       <c r="C191" s="18"/>
-      <c r="D191" s="25" t="s">
+      <c r="D191" s="109" t="s">
+        <v>703</v>
+      </c>
+      <c r="E191" s="109" t="s">
+        <v>854</v>
+      </c>
+      <c r="F191" s="25" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="24">
         <v>190</v>
       </c>
@@ -17350,11 +19592,17 @@
         <v>353</v>
       </c>
       <c r="C192" s="18"/>
-      <c r="D192" s="25" t="s">
+      <c r="D192" s="109" t="s">
+        <v>704</v>
+      </c>
+      <c r="E192" s="109" t="s">
+        <v>855</v>
+      </c>
+      <c r="F192" s="25" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="24">
         <v>191</v>
       </c>
@@ -17362,11 +19610,17 @@
         <v>354</v>
       </c>
       <c r="C193" s="18"/>
-      <c r="D193" s="25" t="s">
+      <c r="D193" s="109" t="s">
+        <v>705</v>
+      </c>
+      <c r="E193" s="109" t="s">
+        <v>860</v>
+      </c>
+      <c r="F193" s="25" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="24">
         <v>192</v>
       </c>
@@ -17374,11 +19628,17 @@
         <v>355</v>
       </c>
       <c r="C194" s="18"/>
-      <c r="D194" s="25" t="s">
+      <c r="D194" s="109" t="s">
+        <v>706</v>
+      </c>
+      <c r="E194" s="109" t="s">
+        <v>861</v>
+      </c>
+      <c r="F194" s="25" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="24">
         <v>193</v>
       </c>
@@ -17386,11 +19646,17 @@
         <v>388</v>
       </c>
       <c r="C195" s="18"/>
-      <c r="D195" s="25" t="s">
+      <c r="D195" s="109" t="s">
+        <v>707</v>
+      </c>
+      <c r="E195" s="109" t="s">
+        <v>862</v>
+      </c>
+      <c r="F195" s="25" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="24">
         <v>194</v>
       </c>
@@ -17398,11 +19664,17 @@
         <v>356</v>
       </c>
       <c r="C196" s="18"/>
-      <c r="D196" s="25" t="s">
+      <c r="D196" s="109" t="s">
+        <v>710</v>
+      </c>
+      <c r="E196" s="109" t="s">
+        <v>863</v>
+      </c>
+      <c r="F196" s="25" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="24">
         <v>195</v>
       </c>
@@ -17410,11 +19682,17 @@
         <v>357</v>
       </c>
       <c r="C197" s="18"/>
-      <c r="D197" s="25" t="s">
+      <c r="D197" s="109" t="s">
+        <v>713</v>
+      </c>
+      <c r="E197" s="109" t="s">
+        <v>864</v>
+      </c>
+      <c r="F197" s="25" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="24">
         <v>196</v>
       </c>
@@ -17422,19 +19700,29 @@
         <v>358</v>
       </c>
       <c r="C198" s="18"/>
-      <c r="D198" s="25" t="s">
+      <c r="D198" s="109" t="s">
+        <v>714</v>
+      </c>
+      <c r="E198" s="109" t="s">
+        <v>865</v>
+      </c>
+      <c r="F198" s="25" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="27">
         <v>197</v>
       </c>
-      <c r="B199" s="9"/>
-      <c r="C199" s="18"/>
-      <c r="D199" s="25"/>
-    </row>
-    <row r="200" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B199" s="106" t="s">
+        <v>569</v>
+      </c>
+      <c r="C199" s="107"/>
+      <c r="D199" s="107"/>
+      <c r="E199" s="107"/>
+      <c r="F199" s="108"/>
+    </row>
+    <row r="200" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="24">
         <v>198</v>
       </c>
@@ -17442,105 +19730,139 @@
         <v>359</v>
       </c>
       <c r="C200" s="18"/>
-      <c r="D200" s="25" t="s">
+      <c r="D200" s="109" t="s">
+        <v>715</v>
+      </c>
+      <c r="E200" s="109" t="s">
+        <v>866</v>
+      </c>
+      <c r="F200" s="25" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="27">
         <v>199</v>
       </c>
       <c r="B201" s="82" t="s">
-        <v>552</v>
+        <v>568</v>
       </c>
       <c r="C201" s="83"/>
-      <c r="D201" s="84"/>
-    </row>
-    <row r="202" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D201" s="83"/>
+      <c r="E201" s="83"/>
+      <c r="F201" s="84"/>
+    </row>
+    <row r="202" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="27">
         <v>200</v>
       </c>
       <c r="B202" s="85"/>
       <c r="C202" s="86"/>
-      <c r="D202" s="87"/>
-    </row>
-    <row r="203" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D202" s="86"/>
+      <c r="E202" s="86"/>
+      <c r="F202" s="87"/>
+    </row>
+    <row r="203" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="27">
         <v>201</v>
       </c>
       <c r="B203" s="85"/>
       <c r="C203" s="86"/>
-      <c r="D203" s="87"/>
-    </row>
-    <row r="204" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D203" s="86"/>
+      <c r="E203" s="86"/>
+      <c r="F203" s="87"/>
+    </row>
+    <row r="204" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="27">
         <v>202</v>
       </c>
       <c r="B204" s="85"/>
       <c r="C204" s="86"/>
-      <c r="D204" s="87"/>
-    </row>
-    <row r="205" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D204" s="86"/>
+      <c r="E204" s="86"/>
+      <c r="F204" s="87"/>
+    </row>
+    <row r="205" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="27">
         <v>203</v>
       </c>
       <c r="B205" s="85"/>
       <c r="C205" s="86"/>
-      <c r="D205" s="87"/>
-    </row>
-    <row r="206" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D205" s="86"/>
+      <c r="E205" s="86"/>
+      <c r="F205" s="87"/>
+    </row>
+    <row r="206" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="27">
         <v>204</v>
       </c>
       <c r="B206" s="85"/>
       <c r="C206" s="86"/>
-      <c r="D206" s="87"/>
-    </row>
-    <row r="207" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D206" s="86"/>
+      <c r="E206" s="86"/>
+      <c r="F206" s="87"/>
+    </row>
+    <row r="207" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="27">
         <v>205</v>
       </c>
       <c r="B207" s="85"/>
       <c r="C207" s="86"/>
-      <c r="D207" s="87"/>
-    </row>
-    <row r="208" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D207" s="86"/>
+      <c r="E207" s="86"/>
+      <c r="F207" s="87"/>
+    </row>
+    <row r="208" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="27">
         <v>206</v>
       </c>
       <c r="B208" s="85"/>
       <c r="C208" s="86"/>
-      <c r="D208" s="87"/>
-    </row>
-    <row r="209" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D208" s="86"/>
+      <c r="E208" s="86"/>
+      <c r="F208" s="87"/>
+    </row>
+    <row r="209" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="27">
         <v>207</v>
       </c>
       <c r="B209" s="85"/>
       <c r="C209" s="86"/>
-      <c r="D209" s="87"/>
-    </row>
-    <row r="210" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D209" s="86"/>
+      <c r="E209" s="86"/>
+      <c r="F209" s="87"/>
+    </row>
+    <row r="210" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="27">
         <v>208</v>
       </c>
       <c r="B210" s="103"/>
       <c r="C210" s="104"/>
-      <c r="D210" s="105"/>
-    </row>
-    <row r="211" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D210" s="104"/>
+      <c r="E210" s="104"/>
+      <c r="F210" s="105"/>
+    </row>
+    <row r="211" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="24">
         <v>209</v>
       </c>
       <c r="B211" s="19" t="s">
         <v>360</v>
       </c>
-      <c r="C211" s="18"/>
-      <c r="D211" s="25" t="s">
+      <c r="C211" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D211" s="109" t="s">
+        <v>716</v>
+      </c>
+      <c r="E211" s="109" t="s">
+        <v>867</v>
+      </c>
+      <c r="F211" s="25" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="24">
         <v>210</v>
       </c>
@@ -17548,11 +19870,15 @@
         <v>361</v>
       </c>
       <c r="C212" s="18"/>
-      <c r="D212" s="25" t="s">
+      <c r="D212" s="109" t="s">
+        <v>717</v>
+      </c>
+      <c r="E212" s="109"/>
+      <c r="F212" s="25" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="24">
         <v>211</v>
       </c>
@@ -17560,11 +19886,17 @@
         <v>389</v>
       </c>
       <c r="C213" s="18"/>
-      <c r="D213" s="25" t="s">
+      <c r="D213" s="109" t="s">
+        <v>718</v>
+      </c>
+      <c r="E213" s="109" t="s">
+        <v>868</v>
+      </c>
+      <c r="F213" s="25" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="27">
         <v>212</v>
       </c>
@@ -17572,77 +19904,97 @@
         <v>552</v>
       </c>
       <c r="C214" s="83"/>
-      <c r="D214" s="84"/>
-    </row>
-    <row r="215" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D214" s="83"/>
+      <c r="E214" s="83"/>
+      <c r="F214" s="84"/>
+    </row>
+    <row r="215" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="27">
         <v>213</v>
       </c>
       <c r="B215" s="85"/>
       <c r="C215" s="86"/>
-      <c r="D215" s="87"/>
-    </row>
-    <row r="216" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D215" s="86"/>
+      <c r="E215" s="86"/>
+      <c r="F215" s="87"/>
+    </row>
+    <row r="216" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="27">
         <v>214</v>
       </c>
       <c r="B216" s="85"/>
       <c r="C216" s="86"/>
-      <c r="D216" s="87"/>
-    </row>
-    <row r="217" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D216" s="86"/>
+      <c r="E216" s="86"/>
+      <c r="F216" s="87"/>
+    </row>
+    <row r="217" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="27">
         <v>215</v>
       </c>
       <c r="B217" s="85"/>
       <c r="C217" s="86"/>
-      <c r="D217" s="87"/>
-    </row>
-    <row r="218" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D217" s="86"/>
+      <c r="E217" s="86"/>
+      <c r="F217" s="87"/>
+    </row>
+    <row r="218" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="27">
         <v>216</v>
       </c>
       <c r="B218" s="85"/>
       <c r="C218" s="86"/>
-      <c r="D218" s="87"/>
-    </row>
-    <row r="219" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D218" s="86"/>
+      <c r="E218" s="86"/>
+      <c r="F218" s="87"/>
+    </row>
+    <row r="219" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="27">
         <v>217</v>
       </c>
       <c r="B219" s="85"/>
       <c r="C219" s="86"/>
-      <c r="D219" s="87"/>
-    </row>
-    <row r="220" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D219" s="86"/>
+      <c r="E219" s="86"/>
+      <c r="F219" s="87"/>
+    </row>
+    <row r="220" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="27">
         <v>218</v>
       </c>
       <c r="B220" s="85"/>
       <c r="C220" s="86"/>
-      <c r="D220" s="87"/>
-    </row>
-    <row r="221" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D220" s="86"/>
+      <c r="E220" s="86"/>
+      <c r="F220" s="87"/>
+    </row>
+    <row r="221" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="27">
         <v>219</v>
       </c>
       <c r="B221" s="85"/>
       <c r="C221" s="86"/>
-      <c r="D221" s="87"/>
-    </row>
-    <row r="222" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D221" s="86"/>
+      <c r="E221" s="86"/>
+      <c r="F221" s="87"/>
+    </row>
+    <row r="222" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="24">
         <v>220</v>
       </c>
       <c r="B222" s="19" t="s">
         <v>390</v>
       </c>
-      <c r="C222" s="18"/>
-      <c r="D222" s="25" t="s">
+      <c r="C222" s="118" t="s">
+        <v>583</v>
+      </c>
+      <c r="D222" s="119"/>
+      <c r="E222" s="120"/>
+      <c r="F222" s="25" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="24">
         <v>221</v>
       </c>
@@ -17650,11 +20002,17 @@
         <v>362</v>
       </c>
       <c r="C223" s="18"/>
-      <c r="D223" s="25" t="s">
+      <c r="D223" s="109" t="s">
+        <v>719</v>
+      </c>
+      <c r="E223" s="109" t="s">
+        <v>805</v>
+      </c>
+      <c r="F223" s="25" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="24">
         <v>222</v>
       </c>
@@ -17662,11 +20020,17 @@
         <v>363</v>
       </c>
       <c r="C224" s="18"/>
-      <c r="D224" s="25" t="s">
+      <c r="D224" s="109" t="s">
+        <v>720</v>
+      </c>
+      <c r="E224" s="109" t="s">
+        <v>806</v>
+      </c>
+      <c r="F224" s="25" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A225" s="28">
         <v>223</v>
       </c>
@@ -17676,50 +20040,84 @@
       <c r="C225" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="D225" s="31" t="s">
+      <c r="D225" s="110" t="s">
+        <v>721</v>
+      </c>
+      <c r="E225" s="110" t="s">
+        <v>807</v>
+      </c>
+      <c r="F225" s="31" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="226" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DiISL+l4KwZq+eZOZQ9JCO9SohaLMFCtyHf7sb24ufqKM9EtsXaMqIHdHUou2mgb4Dn5KzSAhQq5ZCku2DI/9A==" saltValue="fvTx86JsjFZJnPE9/OsL0g==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="11">
-    <mergeCell ref="B214:D221"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I5"/>
-    <mergeCell ref="B98:D103"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B130:D135"/>
-    <mergeCell ref="B157:D157"/>
-    <mergeCell ref="B166:D177"/>
-    <mergeCell ref="B201:D210"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="25">
+    <mergeCell ref="C222:E222"/>
+    <mergeCell ref="C104:E106"/>
+    <mergeCell ref="C113:E114"/>
+    <mergeCell ref="C129:E129"/>
+    <mergeCell ref="C155:E156"/>
+    <mergeCell ref="C158:E158"/>
+    <mergeCell ref="C26:E27"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C51:E53"/>
+    <mergeCell ref="C79:E85"/>
+    <mergeCell ref="B214:F221"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H4:K5"/>
+    <mergeCell ref="B98:F103"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B130:F135"/>
+    <mergeCell ref="B157:F157"/>
+    <mergeCell ref="B166:F177"/>
+    <mergeCell ref="B201:F210"/>
+    <mergeCell ref="B199:F199"/>
+    <mergeCell ref="C10:E11"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C21:E22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Yes">
+  <conditionalFormatting sqref="C3 C10 C21 C26 C15 C49 C51 C79 C104 C113 C129 C155 C158 C222">
+    <cfRule type="containsText" dxfId="5" priority="24" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Yes">
+  <conditionalFormatting sqref="C2:E2 D3:E9">
+    <cfRule type="containsText" dxfId="4" priority="23" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5 C7 C9 C11 C13 C15 C17 C19 C21 C23 C25 C27 C29 C31 C33 C35 C37 C39 C41 C43 C45 C47 C49 C51 C53 C55 C57 C59 C61 C63 C65 C67 C69 C71 C73 C75 C77 C79 C81 C83 C85 C87 C89 C91 C93 C95 C97 C105 C107 C109 C111 C113 C115 C117 C119 C121 C123 C125 C127 C129 C137 C139 C141 C143 C145 C147 C149 C151 C153 C155 C159 C161 C163 C165 C179 C181 C183 C185 C187 C189 C191 C193 C195 C197 C199 C211 C213 C223 C225">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Yes">
+  <conditionalFormatting sqref="C5 C7 C9 C13 D19:E19 C23:E23 C25:E25 C29:E29 C31:E31 C35:E35 C37:E37 C41:E41 C47 C55:E55 C63 C65 C67 C69 C71:E71 C73:E73 C75:E75 C87:E87 C107:E107 C109:E109 C111:E111 C115:E115 C117:E117 C119:E119 C123:E123 C125:E125 C127:E127 C137:E137 C147 C149 C151 C153:E153 C159:E159 C161:E161 C163:E163 C179:E179 C211:E211 C213:E213 C223:E223 C225:E225 C33:E33 D46 D48 D64 D66 D68 D146 D148 D150 C39:E39 C43:E43 C45:E45 E47 C77:E77 C57:E57 C59:E59 C61:E61 E63 E65 E67 E69 C89:E89 C91:E91 C93:E93 C95:E95 C97:E97 C121:E121 C139:E139 C141:E141 C143:E143 C145:E145 E147 E149 E151 C165:E165 C181:E181 C183:E183 C185:E185 C187:E187 C189:E189 C191:E191 C193:E193 C195:E195 C197:E197">
+    <cfRule type="containsText" dxfId="3" priority="22" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4 C6 C8 C10 C12 C14 C16 C18 C20 C22 C24 C26 C28 C30 C32 C34 C36 C38 C40 C42 C44 C46 C48 C52 C54 C56 C58 C60 C62 C64 C66 C68 C70 C72 C74 C76 C78 C80 C82 C84 C86 C88 C90 C92 C94 C96 C106 C108 C110 C112 C114 C116 C118 C120 C122 C124 C126 C128 C136 C138 C140 C142 C144 C146 C148 C150 C152 C154 C156 C158 C160 C162 C164 C178 C180 C182 C184 C186 C188 C190 C192 C194 C196 C198 C200 C212 C222 C224 C104">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Yes">
+  <conditionalFormatting sqref="C4 C6 C8 C12:E12 C16:E16 C20:E20 C24:E24 C28:E28 C30:E30 C32:E32 C34:E34 C36:E36 C42:E42 C46 C48 C54:E54 C64 C66 C68 C70:E70 C72:E72 C74:E74 C78:E78 C86:E86 C108:E108 C110:E110 C112:E112 C116:E116 C118:E118 C122:E122 C126:E126 C128:E128 C136:E136 C146 C148 C150 C152:E152 C154:E154 C160:E160 C162:E162 C178:E178 C200:E200 C212:E212 C224:E224 D17:E18 D13:E13 D47 D63 D65 D67 D69 D147 D149 D151 C14:E14 C38:E38 C40:E40 C44:E44 E46 E48 C76:E76 C56:E56 C58:E58 C60:E60 C62:E62 E64 E66 E68 C88:E88 C90:E90 C92:E92 C94:E94 C96:E96 C120:E120 C124:E124 C138:E138 C140:E140 C142:E142 C144:E144 E146 E148 E150 C164:E164 C180:E180 C182:E182 C184:E184 C186:E186 C188:E188 C190:E190 C192:E192 C194:E194 C196:E196 C198:E198 C17:C19">
+    <cfRule type="containsText" dxfId="2" priority="21" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C49 C51:C97 C104:C129 C136:C156 C158:C165 C178:C200 C222:C225 C211:C213">
+  <conditionalFormatting sqref="C2:F2 E4 E6 E8">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28:C48 C86:C97 C115:C128 C136:C154 C200 C159:C165 C211:C213 C178:C198 C2:C9 C223:C225 C23:C25 C12:C14 C54:C78 C107:C112 C16:C20">
       <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E31">
+      <formula1>"CanIsrWakeup_0func,ISR_INTP0_Handler"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E32">
+      <formula1>"CanIsrWakeup_1func,ISR_INTP1_Handler"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E33">
+      <formula1>"CanIsrWakeup_2func,ISR_INTP2_Handler"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Pin100.xlsx
+++ b/Pin100.xlsx
@@ -455,7 +455,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2604" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2606" uniqueCount="869">
   <si>
     <t>Pin</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -16349,8 +16349,8 @@
   <dimension ref="A1:K226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C211" sqref="C211"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -17261,7 +17261,9 @@
       <c r="B48" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="C48" s="18"/>
+      <c r="C48" s="18" t="s">
+        <v>119</v>
+      </c>
       <c r="D48" s="109" t="s">
         <v>610</v>
       </c>
@@ -18961,7 +18963,9 @@
       <c r="B151" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="C151" s="18"/>
+      <c r="C151" s="18" t="s">
+        <v>119</v>
+      </c>
       <c r="D151" s="109" t="s">
         <v>683</v>
       </c>

--- a/Pin100.xlsx
+++ b/Pin100.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\GEN_RH850_F1L\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\McuCode\GEN_RH850_F1L\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="14970" windowHeight="7515" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="14970" windowHeight="7515"/>
   </bookViews>
   <sheets>
     <sheet name="pinmux配置" sheetId="1" r:id="rId1"/>
@@ -4529,6 +4529,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4555,6 +4566,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4584,33 +4604,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4658,6 +4651,24 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4675,17 +4686,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4727,118 +4727,8 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="5">
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -5187,9 +5077,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T302"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H84" sqref="H84"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5264,11 +5154,11 @@
       <c r="P1" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="R1" s="71" t="s">
+      <c r="R1" s="77" t="s">
         <v>563</v>
       </c>
-      <c r="S1" s="72"/>
-      <c r="T1" s="73"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="79"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="37">
@@ -5319,9 +5209,9 @@
       <c r="P2" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="R2" s="74"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="76"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="82"/>
     </row>
     <row r="3" spans="1:20" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A3" s="24">
@@ -5357,10 +5247,10 @@
       <c r="R3" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="S3" s="77" t="s">
+      <c r="S3" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="T3" s="78"/>
+      <c r="T3" s="84"/>
     </row>
     <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="24">
@@ -5393,7 +5283,7 @@
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="39"/>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="67" t="s">
         <v>137</v>
       </c>
       <c r="S4" s="12" t="s">
@@ -5436,7 +5326,7 @@
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="39"/>
-      <c r="R5" s="64"/>
+      <c r="R5" s="67"/>
       <c r="S5" s="12" t="s">
         <v>139</v>
       </c>
@@ -5480,10 +5370,10 @@
       <c r="R6" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="S6" s="69" t="s">
+      <c r="S6" s="75" t="s">
         <v>142</v>
       </c>
-      <c r="T6" s="70"/>
+      <c r="T6" s="76"/>
     </row>
     <row r="7" spans="1:20" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A7" s="24">
@@ -5537,10 +5427,10 @@
       <c r="R7" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="S7" s="69" t="s">
+      <c r="S7" s="75" t="s">
         <v>144</v>
       </c>
-      <c r="T7" s="70"/>
+      <c r="T7" s="76"/>
     </row>
     <row r="8" spans="1:20" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A8" s="24">
@@ -5594,10 +5484,10 @@
       <c r="R8" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="S8" s="69" t="s">
+      <c r="S8" s="75" t="s">
         <v>146</v>
       </c>
-      <c r="T8" s="70"/>
+      <c r="T8" s="76"/>
     </row>
     <row r="9" spans="1:20" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A9" s="24">
@@ -5635,10 +5525,10 @@
       <c r="R9" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="S9" s="69" t="s">
+      <c r="S9" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="T9" s="70"/>
+      <c r="T9" s="76"/>
     </row>
     <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="24">
@@ -5669,7 +5559,7 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="39"/>
-      <c r="R10" s="64" t="s">
+      <c r="R10" s="67" t="s">
         <v>149</v>
       </c>
       <c r="S10" s="12" t="s">
@@ -5728,7 +5618,7 @@
       <c r="P11" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="R11" s="64"/>
+      <c r="R11" s="67"/>
       <c r="S11" s="12" t="s">
         <v>151</v>
       </c>
@@ -5772,10 +5662,10 @@
       <c r="R12" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="S12" s="69" t="s">
+      <c r="S12" s="75" t="s">
         <v>154</v>
       </c>
-      <c r="T12" s="70"/>
+      <c r="T12" s="76"/>
     </row>
     <row r="13" spans="1:20" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A13" s="24">
@@ -5894,7 +5784,7 @@
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="39"/>
-      <c r="R15" s="64" t="s">
+      <c r="R15" s="67" t="s">
         <v>160</v>
       </c>
       <c r="S15" s="12" t="s">
@@ -5935,7 +5825,7 @@
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="39"/>
-      <c r="R16" s="64"/>
+      <c r="R16" s="67"/>
       <c r="S16" s="12" t="s">
         <v>163</v>
       </c>
@@ -5976,7 +5866,7 @@
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="39"/>
-      <c r="R17" s="64" t="s">
+      <c r="R17" s="67" t="s">
         <v>165</v>
       </c>
       <c r="S17" s="12" t="s">
@@ -6015,7 +5905,7 @@
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="39"/>
-      <c r="R18" s="64"/>
+      <c r="R18" s="67"/>
       <c r="S18" s="12" t="s">
         <v>163</v>
       </c>
@@ -6072,7 +5962,7 @@
       <c r="P19" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="R19" s="64" t="s">
+      <c r="R19" s="67" t="s">
         <v>168</v>
       </c>
       <c r="S19" s="12" t="s">
@@ -6113,7 +6003,7 @@
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="39"/>
-      <c r="R20" s="64"/>
+      <c r="R20" s="67"/>
       <c r="S20" s="12" t="s">
         <v>163</v>
       </c>
@@ -6150,7 +6040,7 @@
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="39"/>
-      <c r="R21" s="64" t="s">
+      <c r="R21" s="67" t="s">
         <v>172</v>
       </c>
       <c r="S21" s="12" t="s">
@@ -6189,7 +6079,7 @@
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="39"/>
-      <c r="R22" s="60"/>
+      <c r="R22" s="63"/>
       <c r="S22" s="13" t="s">
         <v>163</v>
       </c>
@@ -6226,10 +6116,10 @@
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
       <c r="P23" s="39"/>
-      <c r="R23" s="60" t="s">
+      <c r="R23" s="63" t="s">
         <v>175</v>
       </c>
-      <c r="S23" s="63" t="s">
+      <c r="S23" s="66" t="s">
         <v>161</v>
       </c>
       <c r="T23" s="51" t="s">
@@ -6265,8 +6155,8 @@
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
       <c r="P24" s="39"/>
-      <c r="R24" s="61"/>
-      <c r="S24" s="63"/>
+      <c r="R24" s="64"/>
+      <c r="S24" s="66"/>
       <c r="T24" s="52" t="s">
         <v>177</v>
       </c>
@@ -6300,8 +6190,8 @@
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="39"/>
-      <c r="R25" s="61"/>
-      <c r="S25" s="63" t="s">
+      <c r="R25" s="64"/>
+      <c r="S25" s="66" t="s">
         <v>178</v>
       </c>
       <c r="T25" s="51" t="s">
@@ -6337,8 +6227,8 @@
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
       <c r="P26" s="39"/>
-      <c r="R26" s="62"/>
-      <c r="S26" s="63"/>
+      <c r="R26" s="65"/>
+      <c r="S26" s="66"/>
       <c r="T26" s="52" t="s">
         <v>180</v>
       </c>
@@ -6372,7 +6262,7 @@
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="39"/>
-      <c r="R27" s="64" t="s">
+      <c r="R27" s="67" t="s">
         <v>181</v>
       </c>
       <c r="S27" s="14" t="s">
@@ -6413,7 +6303,7 @@
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
       <c r="P28" s="39"/>
-      <c r="R28" s="64"/>
+      <c r="R28" s="67"/>
       <c r="S28" s="14" t="s">
         <v>178</v>
       </c>
@@ -6450,7 +6340,7 @@
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
       <c r="P29" s="39"/>
-      <c r="R29" s="64" t="s">
+      <c r="R29" s="67" t="s">
         <v>185</v>
       </c>
       <c r="S29" s="14" t="s">
@@ -6509,7 +6399,7 @@
       <c r="P30" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="R30" s="81"/>
+      <c r="R30" s="74"/>
       <c r="S30" s="53" t="s">
         <v>178</v>
       </c>
@@ -6616,10 +6506,10 @@
       <c r="P32" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="R32" s="79" t="s">
+      <c r="R32" s="72" t="s">
         <v>192</v>
       </c>
-      <c r="S32" s="80"/>
+      <c r="S32" s="73"/>
     </row>
     <row r="33" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="27">
@@ -6886,10 +6776,10 @@
       <c r="P37" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="R37" s="65" t="s">
+      <c r="R37" s="68" t="s">
         <v>565</v>
       </c>
-      <c r="S37" s="66"/>
+      <c r="S37" s="69"/>
     </row>
     <row r="38" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="24">
@@ -6920,8 +6810,8 @@
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
       <c r="P38" s="39"/>
-      <c r="R38" s="67"/>
-      <c r="S38" s="68"/>
+      <c r="R38" s="70"/>
+      <c r="S38" s="71"/>
     </row>
     <row r="39" spans="1:19" ht="17.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A39" s="24">
@@ -16348,9 +16238,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K226"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B213" sqref="B213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -16374,21 +16264,21 @@
       <c r="C1" s="22" t="s">
         <v>366</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="62" t="s">
         <v>722</v>
       </c>
-      <c r="E1" s="111" t="s">
+      <c r="E1" s="62" t="s">
         <v>733</v>
       </c>
       <c r="F1" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="H1" s="88" t="s">
+      <c r="H1" s="85" t="s">
         <v>560</v>
       </c>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="90"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="87"/>
     </row>
     <row r="2" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="24">
@@ -16400,21 +16290,21 @@
       <c r="C2" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="109" t="s">
+      <c r="D2" s="60" t="s">
         <v>570</v>
       </c>
-      <c r="E2" s="109" t="s">
+      <c r="E2" s="60" t="s">
         <v>723</v>
       </c>
       <c r="F2" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="H2" s="91" t="s">
+      <c r="H2" s="88" t="s">
         <v>561</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="93"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="90"/>
     </row>
     <row r="3" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="24">
@@ -16426,21 +16316,21 @@
       <c r="C3" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="109" t="s">
+      <c r="D3" s="60" t="s">
         <v>582</v>
       </c>
-      <c r="E3" s="109" t="s">
+      <c r="E3" s="60" t="s">
         <v>729</v>
       </c>
       <c r="F3" s="25" t="s">
         <v>392</v>
       </c>
-      <c r="H3" s="94" t="s">
+      <c r="H3" s="91" t="s">
         <v>562</v>
       </c>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="96"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="93"/>
     </row>
     <row r="4" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="24">
@@ -16452,21 +16342,21 @@
       <c r="C4" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="109" t="s">
+      <c r="D4" s="60" t="s">
         <v>571</v>
       </c>
-      <c r="E4" s="109" t="s">
+      <c r="E4" s="60" t="s">
         <v>724</v>
       </c>
       <c r="F4" s="25" t="s">
         <v>394</v>
       </c>
-      <c r="H4" s="97" t="s">
+      <c r="H4" s="94" t="s">
         <v>564</v>
       </c>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="99"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="96"/>
     </row>
     <row r="5" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="24">
@@ -16478,19 +16368,19 @@
       <c r="C5" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="60" t="s">
         <v>572</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="60" t="s">
         <v>725</v>
       </c>
       <c r="F5" s="25" t="s">
         <v>395</v>
       </c>
-      <c r="H5" s="100"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="102"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="99"/>
     </row>
     <row r="6" spans="1:11" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A6" s="24">
@@ -16502,10 +16392,10 @@
       <c r="C6" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="109" t="s">
+      <c r="D6" s="60" t="s">
         <v>573</v>
       </c>
-      <c r="E6" s="109" t="s">
+      <c r="E6" s="60" t="s">
         <v>726</v>
       </c>
       <c r="F6" s="25" t="s">
@@ -16522,10 +16412,10 @@
       <c r="C7" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="109" t="s">
+      <c r="D7" s="60" t="s">
         <v>574</v>
       </c>
-      <c r="E7" s="109" t="s">
+      <c r="E7" s="60" t="s">
         <v>727</v>
       </c>
       <c r="F7" s="25" t="s">
@@ -16542,10 +16432,10 @@
       <c r="C8" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="109" t="s">
+      <c r="D8" s="60" t="s">
         <v>575</v>
       </c>
-      <c r="E8" s="109" t="s">
+      <c r="E8" s="60" t="s">
         <v>799</v>
       </c>
       <c r="F8" s="25" t="s">
@@ -16562,10 +16452,10 @@
       <c r="C9" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D9" s="109" t="s">
+      <c r="D9" s="60" t="s">
         <v>576</v>
       </c>
-      <c r="E9" s="109" t="s">
+      <c r="E9" s="60" t="s">
         <v>728</v>
       </c>
       <c r="F9" s="25" t="s">
@@ -16612,10 +16502,10 @@
       <c r="C12" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="109" t="s">
+      <c r="D12" s="60" t="s">
         <v>577</v>
       </c>
-      <c r="E12" s="109" t="s">
+      <c r="E12" s="60" t="s">
         <v>730</v>
       </c>
       <c r="F12" s="25" t="s">
@@ -16632,10 +16522,10 @@
       <c r="C13" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D13" s="109" t="s">
+      <c r="D13" s="60" t="s">
         <v>578</v>
       </c>
-      <c r="E13" s="109" t="s">
+      <c r="E13" s="60" t="s">
         <v>731</v>
       </c>
       <c r="F13" s="25" t="s">
@@ -16652,10 +16542,10 @@
       <c r="C14" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="109" t="s">
+      <c r="D14" s="60" t="s">
         <v>579</v>
       </c>
-      <c r="E14" s="109" t="s">
+      <c r="E14" s="60" t="s">
         <v>732</v>
       </c>
       <c r="F14" s="25" t="s">
@@ -16688,10 +16578,10 @@
       <c r="C16" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D16" s="109" t="s">
+      <c r="D16" s="60" t="s">
         <v>584</v>
       </c>
-      <c r="E16" s="109" t="s">
+      <c r="E16" s="60" t="s">
         <v>734</v>
       </c>
       <c r="F16" s="26" t="s">
@@ -16708,10 +16598,10 @@
       <c r="C17" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="109" t="s">
+      <c r="D17" s="60" t="s">
         <v>585</v>
       </c>
-      <c r="E17" s="109" t="s">
+      <c r="E17" s="60" t="s">
         <v>735</v>
       </c>
       <c r="F17" s="26" t="s">
@@ -16728,10 +16618,10 @@
       <c r="C18" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D18" s="109" t="s">
+      <c r="D18" s="60" t="s">
         <v>586</v>
       </c>
-      <c r="E18" s="109" t="s">
+      <c r="E18" s="60" t="s">
         <v>736</v>
       </c>
       <c r="F18" s="26" t="s">
@@ -16748,10 +16638,10 @@
       <c r="C19" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D19" s="109" t="s">
+      <c r="D19" s="60" t="s">
         <v>587</v>
       </c>
-      <c r="E19" s="109"/>
+      <c r="E19" s="60"/>
       <c r="F19" s="26" t="s">
         <v>408</v>
       </c>
@@ -16766,10 +16656,10 @@
       <c r="C20" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D20" s="109" t="s">
+      <c r="D20" s="60" t="s">
         <v>588</v>
       </c>
-      <c r="E20" s="109" t="s">
+      <c r="E20" s="60" t="s">
         <v>738</v>
       </c>
       <c r="F20" s="25" t="s">
@@ -16814,10 +16704,10 @@
         <v>226</v>
       </c>
       <c r="C23" s="18"/>
-      <c r="D23" s="109" t="s">
+      <c r="D23" s="60" t="s">
         <v>589</v>
       </c>
-      <c r="E23" s="109" t="s">
+      <c r="E23" s="60" t="s">
         <v>740</v>
       </c>
       <c r="F23" s="26" t="s">
@@ -16832,10 +16722,10 @@
         <v>372</v>
       </c>
       <c r="C24" s="18"/>
-      <c r="D24" s="109" t="s">
+      <c r="D24" s="60" t="s">
         <v>590</v>
       </c>
-      <c r="E24" s="109" t="s">
+      <c r="E24" s="60" t="s">
         <v>741</v>
       </c>
       <c r="F24" s="26" t="s">
@@ -16850,10 +16740,10 @@
         <v>227</v>
       </c>
       <c r="C25" s="18"/>
-      <c r="D25" s="109" t="s">
+      <c r="D25" s="60" t="s">
         <v>591</v>
       </c>
-      <c r="E25" s="109" t="s">
+      <c r="E25" s="60" t="s">
         <v>742</v>
       </c>
       <c r="F25" s="26" t="s">
@@ -16898,10 +16788,10 @@
         <v>230</v>
       </c>
       <c r="C28" s="18"/>
-      <c r="D28" s="109" t="s">
+      <c r="D28" s="60" t="s">
         <v>592</v>
       </c>
-      <c r="E28" s="109" t="s">
+      <c r="E28" s="60" t="s">
         <v>743</v>
       </c>
       <c r="F28" s="26" t="s">
@@ -16916,10 +16806,10 @@
         <v>231</v>
       </c>
       <c r="C29" s="18"/>
-      <c r="D29" s="109" t="s">
+      <c r="D29" s="60" t="s">
         <v>593</v>
       </c>
-      <c r="E29" s="109" t="s">
+      <c r="E29" s="60" t="s">
         <v>744</v>
       </c>
       <c r="F29" s="26" t="s">
@@ -16934,10 +16824,10 @@
         <v>232</v>
       </c>
       <c r="C30" s="18"/>
-      <c r="D30" s="109" t="s">
+      <c r="D30" s="60" t="s">
         <v>594</v>
       </c>
-      <c r="E30" s="109" t="s">
+      <c r="E30" s="60" t="s">
         <v>745</v>
       </c>
       <c r="F30" s="26" t="s">
@@ -16952,10 +16842,10 @@
         <v>233</v>
       </c>
       <c r="C31" s="18"/>
-      <c r="D31" s="109" t="s">
+      <c r="D31" s="60" t="s">
         <v>595</v>
       </c>
-      <c r="E31" s="109" t="s">
+      <c r="E31" s="60" t="s">
         <v>737</v>
       </c>
       <c r="F31" s="26" t="s">
@@ -16970,10 +16860,10 @@
         <v>234</v>
       </c>
       <c r="C32" s="18"/>
-      <c r="D32" s="109" t="s">
+      <c r="D32" s="60" t="s">
         <v>596</v>
       </c>
-      <c r="E32" s="109" t="s">
+      <c r="E32" s="60" t="s">
         <v>739</v>
       </c>
       <c r="F32" s="25" t="s">
@@ -16988,10 +16878,10 @@
         <v>373</v>
       </c>
       <c r="C33" s="18"/>
-      <c r="D33" s="109" t="s">
+      <c r="D33" s="60" t="s">
         <v>597</v>
       </c>
-      <c r="E33" s="109" t="s">
+      <c r="E33" s="60" t="s">
         <v>747</v>
       </c>
       <c r="F33" s="25" t="s">
@@ -17006,10 +16896,10 @@
         <v>235</v>
       </c>
       <c r="C34" s="18"/>
-      <c r="D34" s="109" t="s">
+      <c r="D34" s="60" t="s">
         <v>598</v>
       </c>
-      <c r="E34" s="109" t="s">
+      <c r="E34" s="60" t="s">
         <v>748</v>
       </c>
       <c r="F34" s="25" t="s">
@@ -17024,10 +16914,10 @@
         <v>236</v>
       </c>
       <c r="C35" s="18"/>
-      <c r="D35" s="109" t="s">
+      <c r="D35" s="60" t="s">
         <v>599</v>
       </c>
-      <c r="E35" s="109" t="s">
+      <c r="E35" s="60" t="s">
         <v>749</v>
       </c>
       <c r="F35" s="25" t="s">
@@ -17042,10 +16932,10 @@
         <v>237</v>
       </c>
       <c r="C36" s="18"/>
-      <c r="D36" s="109" t="s">
+      <c r="D36" s="60" t="s">
         <v>600</v>
       </c>
-      <c r="E36" s="109" t="s">
+      <c r="E36" s="60" t="s">
         <v>750</v>
       </c>
       <c r="F36" s="25" t="s">
@@ -17060,10 +16950,10 @@
         <v>238</v>
       </c>
       <c r="C37" s="18"/>
-      <c r="D37" s="109" t="s">
+      <c r="D37" s="60" t="s">
         <v>601</v>
       </c>
-      <c r="E37" s="109" t="s">
+      <c r="E37" s="60" t="s">
         <v>751</v>
       </c>
       <c r="F37" s="25" t="s">
@@ -17078,10 +16968,10 @@
         <v>239</v>
       </c>
       <c r="C38" s="18"/>
-      <c r="D38" s="109" t="s">
+      <c r="D38" s="60" t="s">
         <v>602</v>
       </c>
-      <c r="E38" s="109" t="s">
+      <c r="E38" s="60" t="s">
         <v>746</v>
       </c>
       <c r="F38" s="25" t="s">
@@ -17096,10 +16986,10 @@
         <v>240</v>
       </c>
       <c r="C39" s="18"/>
-      <c r="D39" s="109" t="s">
+      <c r="D39" s="60" t="s">
         <v>603</v>
       </c>
-      <c r="E39" s="109" t="s">
+      <c r="E39" s="60" t="s">
         <v>752</v>
       </c>
       <c r="F39" s="25" t="s">
@@ -17114,10 +17004,10 @@
         <v>241</v>
       </c>
       <c r="C40" s="18"/>
-      <c r="D40" s="109" t="s">
+      <c r="D40" s="60" t="s">
         <v>604</v>
       </c>
-      <c r="E40" s="109" t="s">
+      <c r="E40" s="60" t="s">
         <v>753</v>
       </c>
       <c r="F40" s="25" t="s">
@@ -17134,10 +17024,10 @@
       <c r="C41" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D41" s="109" t="s">
+      <c r="D41" s="60" t="s">
         <v>605</v>
       </c>
-      <c r="E41" s="109" t="s">
+      <c r="E41" s="60" t="s">
         <v>754</v>
       </c>
       <c r="F41" s="25" t="s">
@@ -17152,10 +17042,10 @@
         <v>374</v>
       </c>
       <c r="C42" s="18"/>
-      <c r="D42" s="109" t="s">
+      <c r="D42" s="60" t="s">
         <v>606</v>
       </c>
-      <c r="E42" s="109" t="s">
+      <c r="E42" s="60" t="s">
         <v>761</v>
       </c>
       <c r="F42" s="25" t="s">
@@ -17170,10 +17060,10 @@
         <v>243</v>
       </c>
       <c r="C43" s="18"/>
-      <c r="D43" s="109" t="s">
+      <c r="D43" s="60" t="s">
         <v>580</v>
       </c>
-      <c r="E43" s="109" t="s">
+      <c r="E43" s="60" t="s">
         <v>755</v>
       </c>
       <c r="F43" s="25" t="s">
@@ -17188,10 +17078,10 @@
         <v>244</v>
       </c>
       <c r="C44" s="18"/>
-      <c r="D44" s="109" t="s">
+      <c r="D44" s="60" t="s">
         <v>581</v>
       </c>
-      <c r="E44" s="109" t="s">
+      <c r="E44" s="60" t="s">
         <v>756</v>
       </c>
       <c r="F44" s="25" t="s">
@@ -17206,10 +17096,10 @@
         <v>245</v>
       </c>
       <c r="C45" s="18"/>
-      <c r="D45" s="109" t="s">
+      <c r="D45" s="60" t="s">
         <v>607</v>
       </c>
-      <c r="E45" s="109" t="s">
+      <c r="E45" s="60" t="s">
         <v>757</v>
       </c>
       <c r="F45" s="25" t="s">
@@ -17226,10 +17116,10 @@
       <c r="C46" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D46" s="109" t="s">
+      <c r="D46" s="60" t="s">
         <v>608</v>
       </c>
-      <c r="E46" s="109" t="s">
+      <c r="E46" s="60" t="s">
         <v>758</v>
       </c>
       <c r="F46" s="25" t="s">
@@ -17244,10 +17134,10 @@
         <v>247</v>
       </c>
       <c r="C47" s="18"/>
-      <c r="D47" s="109" t="s">
+      <c r="D47" s="60" t="s">
         <v>609</v>
       </c>
-      <c r="E47" s="109" t="s">
+      <c r="E47" s="60" t="s">
         <v>759</v>
       </c>
       <c r="F47" s="25" t="s">
@@ -17264,10 +17154,10 @@
       <c r="C48" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D48" s="109" t="s">
+      <c r="D48" s="60" t="s">
         <v>610</v>
       </c>
-      <c r="E48" s="109" t="s">
+      <c r="E48" s="60" t="s">
         <v>760</v>
       </c>
       <c r="F48" s="25" t="s">
@@ -17294,13 +17184,13 @@
       <c r="A50" s="27">
         <v>48</v>
       </c>
-      <c r="B50" s="106" t="s">
+      <c r="B50" s="109" t="s">
         <v>433</v>
       </c>
-      <c r="C50" s="107"/>
-      <c r="D50" s="107"/>
-      <c r="E50" s="107"/>
-      <c r="F50" s="108"/>
+      <c r="C50" s="110"/>
+      <c r="D50" s="110"/>
+      <c r="E50" s="110"/>
+      <c r="F50" s="111"/>
     </row>
     <row r="51" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="24">
@@ -17354,10 +17244,10 @@
         <v>252</v>
       </c>
       <c r="C54" s="18"/>
-      <c r="D54" s="109" t="s">
+      <c r="D54" s="60" t="s">
         <v>611</v>
       </c>
-      <c r="E54" s="109" t="s">
+      <c r="E54" s="60" t="s">
         <v>773</v>
       </c>
       <c r="F54" s="25" t="s">
@@ -17372,10 +17262,10 @@
         <v>253</v>
       </c>
       <c r="C55" s="18"/>
-      <c r="D55" s="109" t="s">
+      <c r="D55" s="60" t="s">
         <v>620</v>
       </c>
-      <c r="E55" s="109" t="s">
+      <c r="E55" s="60" t="s">
         <v>774</v>
       </c>
       <c r="F55" s="25" t="s">
@@ -17390,10 +17280,10 @@
         <v>254</v>
       </c>
       <c r="C56" s="18"/>
-      <c r="D56" s="109" t="s">
+      <c r="D56" s="60" t="s">
         <v>612</v>
       </c>
-      <c r="E56" s="109" t="s">
+      <c r="E56" s="60" t="s">
         <v>775</v>
       </c>
       <c r="F56" s="25" t="s">
@@ -17408,10 +17298,10 @@
         <v>255</v>
       </c>
       <c r="C57" s="18"/>
-      <c r="D57" s="109" t="s">
+      <c r="D57" s="60" t="s">
         <v>613</v>
       </c>
-      <c r="E57" s="109" t="s">
+      <c r="E57" s="60" t="s">
         <v>776</v>
       </c>
       <c r="F57" s="25" t="s">
@@ -17426,10 +17316,10 @@
         <v>256</v>
       </c>
       <c r="C58" s="18"/>
-      <c r="D58" s="109" t="s">
+      <c r="D58" s="60" t="s">
         <v>614</v>
       </c>
-      <c r="E58" s="109" t="s">
+      <c r="E58" s="60" t="s">
         <v>777</v>
       </c>
       <c r="F58" s="25" t="s">
@@ -17444,10 +17334,10 @@
         <v>257</v>
       </c>
       <c r="C59" s="18"/>
-      <c r="D59" s="109" t="s">
+      <c r="D59" s="60" t="s">
         <v>615</v>
       </c>
-      <c r="E59" s="109" t="s">
+      <c r="E59" s="60" t="s">
         <v>778</v>
       </c>
       <c r="F59" s="25" t="s">
@@ -17462,10 +17352,10 @@
         <v>376</v>
       </c>
       <c r="C60" s="18"/>
-      <c r="D60" s="109" t="s">
+      <c r="D60" s="60" t="s">
         <v>616</v>
       </c>
-      <c r="E60" s="109" t="s">
+      <c r="E60" s="60" t="s">
         <v>779</v>
       </c>
       <c r="F60" s="25" t="s">
@@ -17480,10 +17370,10 @@
         <v>258</v>
       </c>
       <c r="C61" s="18"/>
-      <c r="D61" s="109" t="s">
+      <c r="D61" s="60" t="s">
         <v>617</v>
       </c>
-      <c r="E61" s="109" t="s">
+      <c r="E61" s="60" t="s">
         <v>780</v>
       </c>
       <c r="F61" s="25" t="s">
@@ -17498,10 +17388,10 @@
         <v>259</v>
       </c>
       <c r="C62" s="18"/>
-      <c r="D62" s="109" t="s">
+      <c r="D62" s="60" t="s">
         <v>618</v>
       </c>
-      <c r="E62" s="109" t="s">
+      <c r="E62" s="60" t="s">
         <v>781</v>
       </c>
       <c r="F62" s="25" t="s">
@@ -17516,10 +17406,10 @@
         <v>260</v>
       </c>
       <c r="C63" s="18"/>
-      <c r="D63" s="109" t="s">
+      <c r="D63" s="60" t="s">
         <v>619</v>
       </c>
-      <c r="E63" s="109" t="s">
+      <c r="E63" s="60" t="s">
         <v>782</v>
       </c>
       <c r="F63" s="25" t="s">
@@ -17534,10 +17424,10 @@
         <v>261</v>
       </c>
       <c r="C64" s="18"/>
-      <c r="D64" s="109" t="s">
+      <c r="D64" s="60" t="s">
         <v>621</v>
       </c>
-      <c r="E64" s="109" t="s">
+      <c r="E64" s="60" t="s">
         <v>783</v>
       </c>
       <c r="F64" s="25" t="s">
@@ -17554,10 +17444,10 @@
       <c r="C65" s="18" t="s">
         <v>567</v>
       </c>
-      <c r="D65" s="109" t="s">
+      <c r="D65" s="60" t="s">
         <v>622</v>
       </c>
-      <c r="E65" s="109" t="s">
+      <c r="E65" s="60" t="s">
         <v>784</v>
       </c>
       <c r="F65" s="25" t="s">
@@ -17572,10 +17462,10 @@
         <v>263</v>
       </c>
       <c r="C66" s="18"/>
-      <c r="D66" s="109" t="s">
+      <c r="D66" s="60" t="s">
         <v>623</v>
       </c>
-      <c r="E66" s="109" t="s">
+      <c r="E66" s="60" t="s">
         <v>785</v>
       </c>
       <c r="F66" s="25" t="s">
@@ -17590,10 +17480,10 @@
         <v>264</v>
       </c>
       <c r="C67" s="18"/>
-      <c r="D67" s="109" t="s">
+      <c r="D67" s="60" t="s">
         <v>624</v>
       </c>
-      <c r="E67" s="109" t="s">
+      <c r="E67" s="60" t="s">
         <v>786</v>
       </c>
       <c r="F67" s="25" t="s">
@@ -17608,10 +17498,10 @@
         <v>265</v>
       </c>
       <c r="C68" s="18"/>
-      <c r="D68" s="109" t="s">
+      <c r="D68" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="E68" s="109" t="s">
+      <c r="E68" s="60" t="s">
         <v>787</v>
       </c>
       <c r="F68" s="25" t="s">
@@ -17626,10 +17516,10 @@
         <v>377</v>
       </c>
       <c r="C69" s="18"/>
-      <c r="D69" s="109" t="s">
+      <c r="D69" s="60" t="s">
         <v>626</v>
       </c>
-      <c r="E69" s="109" t="s">
+      <c r="E69" s="60" t="s">
         <v>788</v>
       </c>
       <c r="F69" s="25" t="s">
@@ -17644,10 +17534,10 @@
         <v>266</v>
       </c>
       <c r="C70" s="18"/>
-      <c r="D70" s="109" t="s">
+      <c r="D70" s="60" t="s">
         <v>627</v>
       </c>
-      <c r="E70" s="109" t="s">
+      <c r="E70" s="60" t="s">
         <v>762</v>
       </c>
       <c r="F70" s="25" t="s">
@@ -17662,10 +17552,10 @@
         <v>267</v>
       </c>
       <c r="C71" s="18"/>
-      <c r="D71" s="109" t="s">
+      <c r="D71" s="60" t="s">
         <v>628</v>
       </c>
-      <c r="E71" s="109" t="s">
+      <c r="E71" s="60" t="s">
         <v>763</v>
       </c>
       <c r="F71" s="25" t="s">
@@ -17680,10 +17570,10 @@
         <v>268</v>
       </c>
       <c r="C72" s="18"/>
-      <c r="D72" s="109" t="s">
+      <c r="D72" s="60" t="s">
         <v>629</v>
       </c>
-      <c r="E72" s="109" t="s">
+      <c r="E72" s="60" t="s">
         <v>764</v>
       </c>
       <c r="F72" s="25" t="s">
@@ -17698,10 +17588,10 @@
         <v>269</v>
       </c>
       <c r="C73" s="18"/>
-      <c r="D73" s="109" t="s">
+      <c r="D73" s="60" t="s">
         <v>630</v>
       </c>
-      <c r="E73" s="109" t="s">
+      <c r="E73" s="60" t="s">
         <v>765</v>
       </c>
       <c r="F73" s="25" t="s">
@@ -17716,10 +17606,10 @@
         <v>270</v>
       </c>
       <c r="C74" s="18"/>
-      <c r="D74" s="109" t="s">
+      <c r="D74" s="60" t="s">
         <v>631</v>
       </c>
-      <c r="E74" s="109" t="s">
+      <c r="E74" s="60" t="s">
         <v>768</v>
       </c>
       <c r="F74" s="25" t="s">
@@ -17734,10 +17624,10 @@
         <v>271</v>
       </c>
       <c r="C75" s="18"/>
-      <c r="D75" s="109" t="s">
+      <c r="D75" s="60" t="s">
         <v>632</v>
       </c>
-      <c r="E75" s="109" t="s">
+      <c r="E75" s="60" t="s">
         <v>769</v>
       </c>
       <c r="F75" s="25" t="s">
@@ -17752,10 +17642,10 @@
         <v>272</v>
       </c>
       <c r="C76" s="18"/>
-      <c r="D76" s="109" t="s">
+      <c r="D76" s="60" t="s">
         <v>633</v>
       </c>
-      <c r="E76" s="109" t="s">
+      <c r="E76" s="60" t="s">
         <v>766</v>
       </c>
       <c r="F76" s="25" t="s">
@@ -17770,10 +17660,10 @@
         <v>273</v>
       </c>
       <c r="C77" s="18"/>
-      <c r="D77" s="109" t="s">
+      <c r="D77" s="60" t="s">
         <v>634</v>
       </c>
-      <c r="E77" s="109" t="s">
+      <c r="E77" s="60" t="s">
         <v>767</v>
       </c>
       <c r="F77" s="25" t="s">
@@ -17788,10 +17678,10 @@
         <v>378</v>
       </c>
       <c r="C78" s="18"/>
-      <c r="D78" s="109" t="s">
+      <c r="D78" s="60" t="s">
         <v>635</v>
       </c>
-      <c r="E78" s="109" t="s">
+      <c r="E78" s="60" t="s">
         <v>770</v>
       </c>
       <c r="F78" s="25" t="s">
@@ -17906,10 +17796,10 @@
         <v>281</v>
       </c>
       <c r="C86" s="18"/>
-      <c r="D86" s="109" t="s">
+      <c r="D86" s="60" t="s">
         <v>636</v>
       </c>
-      <c r="E86" s="109" t="s">
+      <c r="E86" s="60" t="s">
         <v>789</v>
       </c>
       <c r="F86" s="26" t="s">
@@ -17924,10 +17814,10 @@
         <v>379</v>
       </c>
       <c r="C87" s="18"/>
-      <c r="D87" s="109" t="s">
+      <c r="D87" s="60" t="s">
         <v>643</v>
       </c>
-      <c r="E87" s="109" t="s">
+      <c r="E87" s="60" t="s">
         <v>792</v>
       </c>
       <c r="F87" s="26" t="s">
@@ -17942,10 +17832,10 @@
         <v>282</v>
       </c>
       <c r="C88" s="18"/>
-      <c r="D88" s="109" t="s">
+      <c r="D88" s="60" t="s">
         <v>637</v>
       </c>
-      <c r="E88" s="109" t="s">
+      <c r="E88" s="60" t="s">
         <v>771</v>
       </c>
       <c r="F88" s="26" t="s">
@@ -17960,10 +17850,10 @@
         <v>283</v>
       </c>
       <c r="C89" s="18"/>
-      <c r="D89" s="109" t="s">
+      <c r="D89" s="60" t="s">
         <v>638</v>
       </c>
-      <c r="E89" s="109" t="s">
+      <c r="E89" s="60" t="s">
         <v>772</v>
       </c>
       <c r="F89" s="26" t="s">
@@ -17978,10 +17868,10 @@
         <v>284</v>
       </c>
       <c r="C90" s="18"/>
-      <c r="D90" s="109" t="s">
+      <c r="D90" s="60" t="s">
         <v>644</v>
       </c>
-      <c r="E90" s="109" t="s">
+      <c r="E90" s="60" t="s">
         <v>790</v>
       </c>
       <c r="F90" s="26" t="s">
@@ -17996,10 +17886,10 @@
         <v>285</v>
       </c>
       <c r="C91" s="18"/>
-      <c r="D91" s="109" t="s">
+      <c r="D91" s="60" t="s">
         <v>645</v>
       </c>
-      <c r="E91" s="109" t="s">
+      <c r="E91" s="60" t="s">
         <v>791</v>
       </c>
       <c r="F91" s="26" t="s">
@@ -18014,10 +17904,10 @@
         <v>286</v>
       </c>
       <c r="C92" s="18"/>
-      <c r="D92" s="109" t="s">
+      <c r="D92" s="60" t="s">
         <v>646</v>
       </c>
-      <c r="E92" s="109" t="s">
+      <c r="E92" s="60" t="s">
         <v>793</v>
       </c>
       <c r="F92" s="26" t="s">
@@ -18032,10 +17922,10 @@
         <v>287</v>
       </c>
       <c r="C93" s="18"/>
-      <c r="D93" s="109" t="s">
+      <c r="D93" s="60" t="s">
         <v>647</v>
       </c>
-      <c r="E93" s="109" t="s">
+      <c r="E93" s="60" t="s">
         <v>794</v>
       </c>
       <c r="F93" s="26" t="s">
@@ -18050,10 +17940,10 @@
         <v>288</v>
       </c>
       <c r="C94" s="18"/>
-      <c r="D94" s="109" t="s">
+      <c r="D94" s="60" t="s">
         <v>639</v>
       </c>
-      <c r="E94" s="109" t="s">
+      <c r="E94" s="60" t="s">
         <v>795</v>
       </c>
       <c r="F94" s="26" t="s">
@@ -18068,10 +17958,10 @@
         <v>289</v>
       </c>
       <c r="C95" s="18"/>
-      <c r="D95" s="109" t="s">
+      <c r="D95" s="60" t="s">
         <v>640</v>
       </c>
-      <c r="E95" s="109" t="s">
+      <c r="E95" s="60" t="s">
         <v>796</v>
       </c>
       <c r="F95" s="26" t="s">
@@ -18086,10 +17976,10 @@
         <v>380</v>
       </c>
       <c r="C96" s="18"/>
-      <c r="D96" s="109" t="s">
+      <c r="D96" s="60" t="s">
         <v>641</v>
       </c>
-      <c r="E96" s="109" t="s">
+      <c r="E96" s="60" t="s">
         <v>797</v>
       </c>
       <c r="F96" s="26" t="s">
@@ -18104,10 +17994,10 @@
         <v>290</v>
       </c>
       <c r="C97" s="18"/>
-      <c r="D97" s="109" t="s">
+      <c r="D97" s="60" t="s">
         <v>642</v>
       </c>
-      <c r="E97" s="109" t="s">
+      <c r="E97" s="60" t="s">
         <v>798</v>
       </c>
       <c r="F97" s="26" t="s">
@@ -18118,63 +18008,63 @@
       <c r="A98" s="27">
         <v>96</v>
       </c>
-      <c r="B98" s="82" t="s">
+      <c r="B98" s="100" t="s">
         <v>433</v>
       </c>
-      <c r="C98" s="83"/>
-      <c r="D98" s="83"/>
-      <c r="E98" s="83"/>
-      <c r="F98" s="84"/>
+      <c r="C98" s="101"/>
+      <c r="D98" s="101"/>
+      <c r="E98" s="101"/>
+      <c r="F98" s="102"/>
     </row>
     <row r="99" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="27">
         <v>97</v>
       </c>
-      <c r="B99" s="85"/>
-      <c r="C99" s="86"/>
-      <c r="D99" s="86"/>
-      <c r="E99" s="86"/>
-      <c r="F99" s="87"/>
+      <c r="B99" s="103"/>
+      <c r="C99" s="104"/>
+      <c r="D99" s="104"/>
+      <c r="E99" s="104"/>
+      <c r="F99" s="105"/>
     </row>
     <row r="100" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="27">
         <v>98</v>
       </c>
-      <c r="B100" s="85"/>
-      <c r="C100" s="86"/>
-      <c r="D100" s="86"/>
-      <c r="E100" s="86"/>
-      <c r="F100" s="87"/>
+      <c r="B100" s="103"/>
+      <c r="C100" s="104"/>
+      <c r="D100" s="104"/>
+      <c r="E100" s="104"/>
+      <c r="F100" s="105"/>
     </row>
     <row r="101" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="27">
         <v>99</v>
       </c>
-      <c r="B101" s="85"/>
-      <c r="C101" s="86"/>
-      <c r="D101" s="86"/>
-      <c r="E101" s="86"/>
-      <c r="F101" s="87"/>
+      <c r="B101" s="103"/>
+      <c r="C101" s="104"/>
+      <c r="D101" s="104"/>
+      <c r="E101" s="104"/>
+      <c r="F101" s="105"/>
     </row>
     <row r="102" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="27">
         <v>100</v>
       </c>
-      <c r="B102" s="85"/>
-      <c r="C102" s="86"/>
-      <c r="D102" s="86"/>
-      <c r="E102" s="86"/>
-      <c r="F102" s="87"/>
+      <c r="B102" s="103"/>
+      <c r="C102" s="104"/>
+      <c r="D102" s="104"/>
+      <c r="E102" s="104"/>
+      <c r="F102" s="105"/>
     </row>
     <row r="103" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="27">
         <v>101</v>
       </c>
-      <c r="B103" s="103"/>
-      <c r="C103" s="104"/>
-      <c r="D103" s="104"/>
-      <c r="E103" s="104"/>
-      <c r="F103" s="105"/>
+      <c r="B103" s="106"/>
+      <c r="C103" s="107"/>
+      <c r="D103" s="107"/>
+      <c r="E103" s="107"/>
+      <c r="F103" s="108"/>
     </row>
     <row r="104" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="24">
@@ -18228,10 +18118,10 @@
         <v>293</v>
       </c>
       <c r="C107" s="18"/>
-      <c r="D107" s="109" t="s">
+      <c r="D107" s="60" t="s">
         <v>648</v>
       </c>
-      <c r="E107" s="109" t="s">
+      <c r="E107" s="60" t="s">
         <v>800</v>
       </c>
       <c r="F107" s="26" t="s">
@@ -18246,10 +18136,10 @@
         <v>294</v>
       </c>
       <c r="C108" s="18"/>
-      <c r="D108" s="109" t="s">
+      <c r="D108" s="60" t="s">
         <v>649</v>
       </c>
-      <c r="E108" s="109"/>
+      <c r="E108" s="60"/>
       <c r="F108" s="26" t="s">
         <v>485</v>
       </c>
@@ -18262,10 +18152,10 @@
         <v>295</v>
       </c>
       <c r="C109" s="18"/>
-      <c r="D109" s="109" t="s">
+      <c r="D109" s="60" t="s">
         <v>650</v>
       </c>
-      <c r="E109" s="109" t="s">
+      <c r="E109" s="60" t="s">
         <v>801</v>
       </c>
       <c r="F109" s="25" t="s">
@@ -18280,10 +18170,10 @@
         <v>296</v>
       </c>
       <c r="C110" s="18"/>
-      <c r="D110" s="109" t="s">
+      <c r="D110" s="60" t="s">
         <v>651</v>
       </c>
-      <c r="E110" s="109" t="s">
+      <c r="E110" s="60" t="s">
         <v>802</v>
       </c>
       <c r="F110" s="25" t="s">
@@ -18298,10 +18188,10 @@
         <v>297</v>
       </c>
       <c r="C111" s="18"/>
-      <c r="D111" s="109" t="s">
+      <c r="D111" s="60" t="s">
         <v>652</v>
       </c>
-      <c r="E111" s="109" t="s">
+      <c r="E111" s="60" t="s">
         <v>803</v>
       </c>
       <c r="F111" s="25" t="s">
@@ -18316,10 +18206,10 @@
         <v>298</v>
       </c>
       <c r="C112" s="18"/>
-      <c r="D112" s="109" t="s">
+      <c r="D112" s="60" t="s">
         <v>653</v>
       </c>
-      <c r="E112" s="109" t="s">
+      <c r="E112" s="60" t="s">
         <v>804</v>
       </c>
       <c r="F112" s="25" t="s">
@@ -18364,10 +18254,10 @@
         <v>300</v>
       </c>
       <c r="C115" s="18"/>
-      <c r="D115" s="109" t="s">
+      <c r="D115" s="60" t="s">
         <v>654</v>
       </c>
-      <c r="E115" s="109" t="s">
+      <c r="E115" s="60" t="s">
         <v>805</v>
       </c>
       <c r="F115" s="25" t="s">
@@ -18382,10 +18272,10 @@
         <v>301</v>
       </c>
       <c r="C116" s="18"/>
-      <c r="D116" s="109" t="s">
+      <c r="D116" s="60" t="s">
         <v>655</v>
       </c>
-      <c r="E116" s="109" t="s">
+      <c r="E116" s="60" t="s">
         <v>806</v>
       </c>
       <c r="F116" s="25" t="s">
@@ -18400,10 +18290,10 @@
         <v>302</v>
       </c>
       <c r="C117" s="18"/>
-      <c r="D117" s="109" t="s">
+      <c r="D117" s="60" t="s">
         <v>656</v>
       </c>
-      <c r="E117" s="109" t="s">
+      <c r="E117" s="60" t="s">
         <v>807</v>
       </c>
       <c r="F117" s="25" t="s">
@@ -18418,10 +18308,10 @@
         <v>303</v>
       </c>
       <c r="C118" s="18"/>
-      <c r="D118" s="109" t="s">
+      <c r="D118" s="60" t="s">
         <v>657</v>
       </c>
-      <c r="E118" s="109" t="s">
+      <c r="E118" s="60" t="s">
         <v>808</v>
       </c>
       <c r="F118" s="25" t="s">
@@ -18436,10 +18326,10 @@
         <v>304</v>
       </c>
       <c r="C119" s="18"/>
-      <c r="D119" s="109" t="s">
+      <c r="D119" s="60" t="s">
         <v>658</v>
       </c>
-      <c r="E119" s="109" t="s">
+      <c r="E119" s="60" t="s">
         <v>812</v>
       </c>
       <c r="F119" s="25" t="s">
@@ -18454,10 +18344,10 @@
         <v>305</v>
       </c>
       <c r="C120" s="18"/>
-      <c r="D120" s="109" t="s">
+      <c r="D120" s="60" t="s">
         <v>659</v>
       </c>
-      <c r="E120" s="109" t="s">
+      <c r="E120" s="60" t="s">
         <v>809</v>
       </c>
       <c r="F120" s="25" t="s">
@@ -18472,10 +18362,10 @@
         <v>306</v>
       </c>
       <c r="C121" s="18"/>
-      <c r="D121" s="109" t="s">
+      <c r="D121" s="60" t="s">
         <v>660</v>
       </c>
-      <c r="E121" s="109" t="s">
+      <c r="E121" s="60" t="s">
         <v>810</v>
       </c>
       <c r="F121" s="25" t="s">
@@ -18490,10 +18380,10 @@
         <v>307</v>
       </c>
       <c r="C122" s="18"/>
-      <c r="D122" s="109" t="s">
+      <c r="D122" s="60" t="s">
         <v>661</v>
       </c>
-      <c r="E122" s="109" t="s">
+      <c r="E122" s="60" t="s">
         <v>813</v>
       </c>
       <c r="F122" s="25" t="s">
@@ -18508,10 +18398,10 @@
         <v>383</v>
       </c>
       <c r="C123" s="18"/>
-      <c r="D123" s="109" t="s">
+      <c r="D123" s="60" t="s">
         <v>663</v>
       </c>
-      <c r="E123" s="109" t="s">
+      <c r="E123" s="60" t="s">
         <v>814</v>
       </c>
       <c r="F123" s="25" t="s">
@@ -18526,10 +18416,10 @@
         <v>308</v>
       </c>
       <c r="C124" s="18"/>
-      <c r="D124" s="109" t="s">
+      <c r="D124" s="60" t="s">
         <v>662</v>
       </c>
-      <c r="E124" s="109" t="s">
+      <c r="E124" s="60" t="s">
         <v>811</v>
       </c>
       <c r="F124" s="25" t="s">
@@ -18544,10 +18434,10 @@
         <v>309</v>
       </c>
       <c r="C125" s="18"/>
-      <c r="D125" s="109" t="s">
+      <c r="D125" s="60" t="s">
         <v>664</v>
       </c>
-      <c r="E125" s="109" t="s">
+      <c r="E125" s="60" t="s">
         <v>815</v>
       </c>
       <c r="F125" s="25" t="s">
@@ -18562,10 +18452,10 @@
         <v>310</v>
       </c>
       <c r="C126" s="18"/>
-      <c r="D126" s="109" t="s">
+      <c r="D126" s="60" t="s">
         <v>665</v>
       </c>
-      <c r="E126" s="109" t="s">
+      <c r="E126" s="60" t="s">
         <v>816</v>
       </c>
       <c r="F126" s="25" t="s">
@@ -18580,10 +18470,10 @@
         <v>311</v>
       </c>
       <c r="C127" s="18"/>
-      <c r="D127" s="109" t="s">
+      <c r="D127" s="60" t="s">
         <v>666</v>
       </c>
-      <c r="E127" s="109" t="s">
+      <c r="E127" s="60" t="s">
         <v>817</v>
       </c>
       <c r="F127" s="25" t="s">
@@ -18598,10 +18488,10 @@
         <v>312</v>
       </c>
       <c r="C128" s="18"/>
-      <c r="D128" s="109" t="s">
+      <c r="D128" s="60" t="s">
         <v>667</v>
       </c>
-      <c r="E128" s="109" t="s">
+      <c r="E128" s="60" t="s">
         <v>818</v>
       </c>
       <c r="F128" s="25" t="s">
@@ -18628,63 +18518,63 @@
       <c r="A130" s="27">
         <v>128</v>
       </c>
-      <c r="B130" s="82" t="s">
+      <c r="B130" s="100" t="s">
         <v>433</v>
       </c>
-      <c r="C130" s="83"/>
-      <c r="D130" s="83"/>
-      <c r="E130" s="83"/>
-      <c r="F130" s="84"/>
+      <c r="C130" s="101"/>
+      <c r="D130" s="101"/>
+      <c r="E130" s="101"/>
+      <c r="F130" s="102"/>
     </row>
     <row r="131" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="27">
         <v>129</v>
       </c>
-      <c r="B131" s="85"/>
-      <c r="C131" s="86"/>
-      <c r="D131" s="86"/>
-      <c r="E131" s="86"/>
-      <c r="F131" s="87"/>
+      <c r="B131" s="103"/>
+      <c r="C131" s="104"/>
+      <c r="D131" s="104"/>
+      <c r="E131" s="104"/>
+      <c r="F131" s="105"/>
     </row>
     <row r="132" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="27">
         <v>130</v>
       </c>
-      <c r="B132" s="85"/>
-      <c r="C132" s="86"/>
-      <c r="D132" s="86"/>
-      <c r="E132" s="86"/>
-      <c r="F132" s="87"/>
+      <c r="B132" s="103"/>
+      <c r="C132" s="104"/>
+      <c r="D132" s="104"/>
+      <c r="E132" s="104"/>
+      <c r="F132" s="105"/>
     </row>
     <row r="133" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="27">
         <v>131</v>
       </c>
-      <c r="B133" s="85"/>
-      <c r="C133" s="86"/>
-      <c r="D133" s="86"/>
-      <c r="E133" s="86"/>
-      <c r="F133" s="87"/>
+      <c r="B133" s="103"/>
+      <c r="C133" s="104"/>
+      <c r="D133" s="104"/>
+      <c r="E133" s="104"/>
+      <c r="F133" s="105"/>
     </row>
     <row r="134" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="27">
         <v>132</v>
       </c>
-      <c r="B134" s="85"/>
-      <c r="C134" s="86"/>
-      <c r="D134" s="86"/>
-      <c r="E134" s="86"/>
-      <c r="F134" s="87"/>
+      <c r="B134" s="103"/>
+      <c r="C134" s="104"/>
+      <c r="D134" s="104"/>
+      <c r="E134" s="104"/>
+      <c r="F134" s="105"/>
     </row>
     <row r="135" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="27">
         <v>133</v>
       </c>
-      <c r="B135" s="103"/>
-      <c r="C135" s="104"/>
-      <c r="D135" s="104"/>
-      <c r="E135" s="104"/>
-      <c r="F135" s="105"/>
+      <c r="B135" s="106"/>
+      <c r="C135" s="107"/>
+      <c r="D135" s="107"/>
+      <c r="E135" s="107"/>
+      <c r="F135" s="108"/>
     </row>
     <row r="136" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="24">
@@ -18694,10 +18584,10 @@
         <v>314</v>
       </c>
       <c r="C136" s="18"/>
-      <c r="D136" s="109" t="s">
+      <c r="D136" s="60" t="s">
         <v>668</v>
       </c>
-      <c r="E136" s="109" t="s">
+      <c r="E136" s="60" t="s">
         <v>819</v>
       </c>
       <c r="F136" s="25" t="s">
@@ -18712,10 +18602,10 @@
         <v>315</v>
       </c>
       <c r="C137" s="18"/>
-      <c r="D137" s="109" t="s">
+      <c r="D137" s="60" t="s">
         <v>674</v>
       </c>
-      <c r="E137" s="109" t="s">
+      <c r="E137" s="60" t="s">
         <v>830</v>
       </c>
       <c r="F137" s="25" t="s">
@@ -18730,10 +18620,10 @@
         <v>316</v>
       </c>
       <c r="C138" s="18"/>
-      <c r="D138" s="109" t="s">
+      <c r="D138" s="60" t="s">
         <v>669</v>
       </c>
-      <c r="E138" s="109" t="s">
+      <c r="E138" s="60" t="s">
         <v>820</v>
       </c>
       <c r="F138" s="25" t="s">
@@ -18748,10 +18638,10 @@
         <v>317</v>
       </c>
       <c r="C139" s="18"/>
-      <c r="D139" s="109" t="s">
+      <c r="D139" s="60" t="s">
         <v>675</v>
       </c>
-      <c r="E139" s="109" t="s">
+      <c r="E139" s="60" t="s">
         <v>821</v>
       </c>
       <c r="F139" s="25" t="s">
@@ -18766,10 +18656,10 @@
         <v>318</v>
       </c>
       <c r="C140" s="18"/>
-      <c r="D140" s="109" t="s">
+      <c r="D140" s="60" t="s">
         <v>670</v>
       </c>
-      <c r="E140" s="109" t="s">
+      <c r="E140" s="60" t="s">
         <v>822</v>
       </c>
       <c r="F140" s="25" t="s">
@@ -18784,10 +18674,10 @@
         <v>384</v>
       </c>
       <c r="C141" s="18"/>
-      <c r="D141" s="109" t="s">
+      <c r="D141" s="60" t="s">
         <v>676</v>
       </c>
-      <c r="E141" s="109" t="s">
+      <c r="E141" s="60" t="s">
         <v>823</v>
       </c>
       <c r="F141" s="25" t="s">
@@ -18802,10 +18692,10 @@
         <v>319</v>
       </c>
       <c r="C142" s="18"/>
-      <c r="D142" s="109" t="s">
+      <c r="D142" s="60" t="s">
         <v>671</v>
       </c>
-      <c r="E142" s="109" t="s">
+      <c r="E142" s="60" t="s">
         <v>824</v>
       </c>
       <c r="F142" s="25" t="s">
@@ -18820,10 +18710,10 @@
         <v>320</v>
       </c>
       <c r="C143" s="18"/>
-      <c r="D143" s="109" t="s">
+      <c r="D143" s="60" t="s">
         <v>677</v>
       </c>
-      <c r="E143" s="109" t="s">
+      <c r="E143" s="60" t="s">
         <v>825</v>
       </c>
       <c r="F143" s="25" t="s">
@@ -18838,10 +18728,10 @@
         <v>321</v>
       </c>
       <c r="C144" s="18"/>
-      <c r="D144" s="109" t="s">
+      <c r="D144" s="60" t="s">
         <v>672</v>
       </c>
-      <c r="E144" s="109" t="s">
+      <c r="E144" s="60" t="s">
         <v>826</v>
       </c>
       <c r="F144" s="25" t="s">
@@ -18856,10 +18746,10 @@
         <v>322</v>
       </c>
       <c r="C145" s="18"/>
-      <c r="D145" s="109" t="s">
+      <c r="D145" s="60" t="s">
         <v>678</v>
       </c>
-      <c r="E145" s="109" t="s">
+      <c r="E145" s="60" t="s">
         <v>827</v>
       </c>
       <c r="F145" s="25" t="s">
@@ -18874,10 +18764,10 @@
         <v>323</v>
       </c>
       <c r="C146" s="18"/>
-      <c r="D146" s="109" t="s">
+      <c r="D146" s="60" t="s">
         <v>673</v>
       </c>
-      <c r="E146" s="109" t="s">
+      <c r="E146" s="60" t="s">
         <v>828</v>
       </c>
       <c r="F146" s="25" t="s">
@@ -18892,10 +18782,10 @@
         <v>324</v>
       </c>
       <c r="C147" s="18"/>
-      <c r="D147" s="109" t="s">
+      <c r="D147" s="60" t="s">
         <v>679</v>
       </c>
-      <c r="E147" s="109" t="s">
+      <c r="E147" s="60" t="s">
         <v>829</v>
       </c>
       <c r="F147" s="25" t="s">
@@ -18910,10 +18800,10 @@
         <v>325</v>
       </c>
       <c r="C148" s="18"/>
-      <c r="D148" s="109" t="s">
+      <c r="D148" s="60" t="s">
         <v>680</v>
       </c>
-      <c r="E148" s="109" t="s">
+      <c r="E148" s="60" t="s">
         <v>831</v>
       </c>
       <c r="F148" s="25" t="s">
@@ -18928,10 +18818,10 @@
         <v>326</v>
       </c>
       <c r="C149" s="18"/>
-      <c r="D149" s="109" t="s">
+      <c r="D149" s="60" t="s">
         <v>681</v>
       </c>
-      <c r="E149" s="109" t="s">
+      <c r="E149" s="60" t="s">
         <v>832</v>
       </c>
       <c r="F149" s="25" t="s">
@@ -18946,10 +18836,10 @@
         <v>385</v>
       </c>
       <c r="C150" s="18"/>
-      <c r="D150" s="109" t="s">
+      <c r="D150" s="60" t="s">
         <v>682</v>
       </c>
-      <c r="E150" s="109" t="s">
+      <c r="E150" s="60" t="s">
         <v>833</v>
       </c>
       <c r="F150" s="25" t="s">
@@ -18966,10 +18856,10 @@
       <c r="C151" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D151" s="109" t="s">
+      <c r="D151" s="60" t="s">
         <v>683</v>
       </c>
-      <c r="E151" s="109" t="s">
+      <c r="E151" s="60" t="s">
         <v>834</v>
       </c>
       <c r="F151" s="25" t="s">
@@ -18984,10 +18874,10 @@
         <v>328</v>
       </c>
       <c r="C152" s="18"/>
-      <c r="D152" s="109" t="s">
+      <c r="D152" s="60" t="s">
         <v>684</v>
       </c>
-      <c r="E152" s="109" t="s">
+      <c r="E152" s="60" t="s">
         <v>835</v>
       </c>
       <c r="F152" s="25" t="s">
@@ -19002,10 +18892,10 @@
         <v>329</v>
       </c>
       <c r="C153" s="18"/>
-      <c r="D153" s="109" t="s">
+      <c r="D153" s="60" t="s">
         <v>685</v>
       </c>
-      <c r="E153" s="109" t="s">
+      <c r="E153" s="60" t="s">
         <v>836</v>
       </c>
       <c r="F153" s="25" t="s">
@@ -19020,10 +18910,10 @@
         <v>330</v>
       </c>
       <c r="C154" s="18"/>
-      <c r="D154" s="109" t="s">
+      <c r="D154" s="60" t="s">
         <v>686</v>
       </c>
-      <c r="E154" s="109" t="s">
+      <c r="E154" s="60" t="s">
         <v>837</v>
       </c>
       <c r="F154" s="25" t="s">
@@ -19064,13 +18954,13 @@
       <c r="A157" s="27">
         <v>155</v>
       </c>
-      <c r="B157" s="106" t="s">
+      <c r="B157" s="109" t="s">
         <v>433</v>
       </c>
-      <c r="C157" s="107"/>
-      <c r="D157" s="107"/>
-      <c r="E157" s="107"/>
-      <c r="F157" s="108"/>
+      <c r="C157" s="110"/>
+      <c r="D157" s="110"/>
+      <c r="E157" s="110"/>
+      <c r="F157" s="111"/>
     </row>
     <row r="158" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="24">
@@ -19096,10 +18986,10 @@
         <v>386</v>
       </c>
       <c r="C159" s="18"/>
-      <c r="D159" s="109" t="s">
+      <c r="D159" s="60" t="s">
         <v>687</v>
       </c>
-      <c r="E159" s="109" t="s">
+      <c r="E159" s="60" t="s">
         <v>838</v>
       </c>
       <c r="F159" s="25" t="s">
@@ -19114,10 +19004,10 @@
         <v>334</v>
       </c>
       <c r="C160" s="18"/>
-      <c r="D160" s="109" t="s">
+      <c r="D160" s="60" t="s">
         <v>688</v>
       </c>
-      <c r="E160" s="109" t="s">
+      <c r="E160" s="60" t="s">
         <v>839</v>
       </c>
       <c r="F160" s="25" t="s">
@@ -19132,10 +19022,10 @@
         <v>335</v>
       </c>
       <c r="C161" s="18"/>
-      <c r="D161" s="109" t="s">
+      <c r="D161" s="60" t="s">
         <v>689</v>
       </c>
-      <c r="E161" s="109" t="s">
+      <c r="E161" s="60" t="s">
         <v>840</v>
       </c>
       <c r="F161" s="25" t="s">
@@ -19150,10 +19040,10 @@
         <v>336</v>
       </c>
       <c r="C162" s="18"/>
-      <c r="D162" s="109" t="s">
+      <c r="D162" s="60" t="s">
         <v>690</v>
       </c>
-      <c r="E162" s="109" t="s">
+      <c r="E162" s="60" t="s">
         <v>841</v>
       </c>
       <c r="F162" s="25" t="s">
@@ -19168,10 +19058,10 @@
         <v>337</v>
       </c>
       <c r="C163" s="18"/>
-      <c r="D163" s="109" t="s">
+      <c r="D163" s="60" t="s">
         <v>691</v>
       </c>
-      <c r="E163" s="109" t="s">
+      <c r="E163" s="60" t="s">
         <v>842</v>
       </c>
       <c r="F163" s="25" t="s">
@@ -19186,10 +19076,10 @@
         <v>338</v>
       </c>
       <c r="C164" s="18"/>
-      <c r="D164" s="109" t="s">
+      <c r="D164" s="60" t="s">
         <v>692</v>
       </c>
-      <c r="E164" s="109" t="s">
+      <c r="E164" s="60" t="s">
         <v>843</v>
       </c>
       <c r="F164" s="25" t="s">
@@ -19204,10 +19094,10 @@
         <v>339</v>
       </c>
       <c r="C165" s="18"/>
-      <c r="D165" s="109" t="s">
+      <c r="D165" s="60" t="s">
         <v>693</v>
       </c>
-      <c r="E165" s="109" t="s">
+      <c r="E165" s="60" t="s">
         <v>844</v>
       </c>
       <c r="F165" s="25" t="s">
@@ -19218,123 +19108,123 @@
       <c r="A166" s="27">
         <v>164</v>
       </c>
-      <c r="B166" s="82" t="s">
+      <c r="B166" s="100" t="s">
         <v>433</v>
       </c>
-      <c r="C166" s="83"/>
-      <c r="D166" s="83"/>
-      <c r="E166" s="83"/>
-      <c r="F166" s="84"/>
+      <c r="C166" s="101"/>
+      <c r="D166" s="101"/>
+      <c r="E166" s="101"/>
+      <c r="F166" s="102"/>
     </row>
     <row r="167" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="27">
         <v>165</v>
       </c>
-      <c r="B167" s="85"/>
-      <c r="C167" s="86"/>
-      <c r="D167" s="86"/>
-      <c r="E167" s="86"/>
-      <c r="F167" s="87"/>
+      <c r="B167" s="103"/>
+      <c r="C167" s="104"/>
+      <c r="D167" s="104"/>
+      <c r="E167" s="104"/>
+      <c r="F167" s="105"/>
     </row>
     <row r="168" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="27">
         <v>166</v>
       </c>
-      <c r="B168" s="85"/>
-      <c r="C168" s="86"/>
-      <c r="D168" s="86"/>
-      <c r="E168" s="86"/>
-      <c r="F168" s="87"/>
+      <c r="B168" s="103"/>
+      <c r="C168" s="104"/>
+      <c r="D168" s="104"/>
+      <c r="E168" s="104"/>
+      <c r="F168" s="105"/>
     </row>
     <row r="169" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="27">
         <v>167</v>
       </c>
-      <c r="B169" s="85"/>
-      <c r="C169" s="86"/>
-      <c r="D169" s="86"/>
-      <c r="E169" s="86"/>
-      <c r="F169" s="87"/>
+      <c r="B169" s="103"/>
+      <c r="C169" s="104"/>
+      <c r="D169" s="104"/>
+      <c r="E169" s="104"/>
+      <c r="F169" s="105"/>
     </row>
     <row r="170" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="27">
         <v>168</v>
       </c>
-      <c r="B170" s="85"/>
-      <c r="C170" s="86"/>
-      <c r="D170" s="86"/>
-      <c r="E170" s="86"/>
-      <c r="F170" s="87"/>
+      <c r="B170" s="103"/>
+      <c r="C170" s="104"/>
+      <c r="D170" s="104"/>
+      <c r="E170" s="104"/>
+      <c r="F170" s="105"/>
     </row>
     <row r="171" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="27">
         <v>169</v>
       </c>
-      <c r="B171" s="85"/>
-      <c r="C171" s="86"/>
-      <c r="D171" s="86"/>
-      <c r="E171" s="86"/>
-      <c r="F171" s="87"/>
+      <c r="B171" s="103"/>
+      <c r="C171" s="104"/>
+      <c r="D171" s="104"/>
+      <c r="E171" s="104"/>
+      <c r="F171" s="105"/>
     </row>
     <row r="172" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="27">
         <v>170</v>
       </c>
-      <c r="B172" s="85"/>
-      <c r="C172" s="86"/>
-      <c r="D172" s="86"/>
-      <c r="E172" s="86"/>
-      <c r="F172" s="87"/>
+      <c r="B172" s="103"/>
+      <c r="C172" s="104"/>
+      <c r="D172" s="104"/>
+      <c r="E172" s="104"/>
+      <c r="F172" s="105"/>
     </row>
     <row r="173" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="27">
         <v>171</v>
       </c>
-      <c r="B173" s="85"/>
-      <c r="C173" s="86"/>
-      <c r="D173" s="86"/>
-      <c r="E173" s="86"/>
-      <c r="F173" s="87"/>
+      <c r="B173" s="103"/>
+      <c r="C173" s="104"/>
+      <c r="D173" s="104"/>
+      <c r="E173" s="104"/>
+      <c r="F173" s="105"/>
     </row>
     <row r="174" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="27">
         <v>172</v>
       </c>
-      <c r="B174" s="85"/>
-      <c r="C174" s="86"/>
-      <c r="D174" s="86"/>
-      <c r="E174" s="86"/>
-      <c r="F174" s="87"/>
+      <c r="B174" s="103"/>
+      <c r="C174" s="104"/>
+      <c r="D174" s="104"/>
+      <c r="E174" s="104"/>
+      <c r="F174" s="105"/>
     </row>
     <row r="175" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="27">
         <v>173</v>
       </c>
-      <c r="B175" s="85"/>
-      <c r="C175" s="86"/>
-      <c r="D175" s="86"/>
-      <c r="E175" s="86"/>
-      <c r="F175" s="87"/>
+      <c r="B175" s="103"/>
+      <c r="C175" s="104"/>
+      <c r="D175" s="104"/>
+      <c r="E175" s="104"/>
+      <c r="F175" s="105"/>
     </row>
     <row r="176" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="27">
         <v>174</v>
       </c>
-      <c r="B176" s="85"/>
-      <c r="C176" s="86"/>
-      <c r="D176" s="86"/>
-      <c r="E176" s="86"/>
-      <c r="F176" s="87"/>
+      <c r="B176" s="103"/>
+      <c r="C176" s="104"/>
+      <c r="D176" s="104"/>
+      <c r="E176" s="104"/>
+      <c r="F176" s="105"/>
     </row>
     <row r="177" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="27">
         <v>175</v>
       </c>
-      <c r="B177" s="103"/>
-      <c r="C177" s="104"/>
-      <c r="D177" s="104"/>
-      <c r="E177" s="104"/>
-      <c r="F177" s="105"/>
+      <c r="B177" s="106"/>
+      <c r="C177" s="107"/>
+      <c r="D177" s="107"/>
+      <c r="E177" s="107"/>
+      <c r="F177" s="108"/>
     </row>
     <row r="178" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="24">
@@ -19344,10 +19234,10 @@
         <v>340</v>
       </c>
       <c r="C178" s="18"/>
-      <c r="D178" s="109" t="s">
+      <c r="D178" s="60" t="s">
         <v>694</v>
       </c>
-      <c r="E178" s="109" t="s">
+      <c r="E178" s="60" t="s">
         <v>845</v>
       </c>
       <c r="F178" s="25" t="s">
@@ -19362,10 +19252,10 @@
         <v>341</v>
       </c>
       <c r="C179" s="18"/>
-      <c r="D179" s="109" t="s">
+      <c r="D179" s="60" t="s">
         <v>700</v>
       </c>
-      <c r="E179" s="109" t="s">
+      <c r="E179" s="60" t="s">
         <v>856</v>
       </c>
       <c r="F179" s="25" t="s">
@@ -19380,10 +19270,10 @@
         <v>342</v>
       </c>
       <c r="C180" s="18"/>
-      <c r="D180" s="109" t="s">
+      <c r="D180" s="60" t="s">
         <v>708</v>
       </c>
-      <c r="E180" s="109" t="s">
+      <c r="E180" s="60" t="s">
         <v>857</v>
       </c>
       <c r="F180" s="25" t="s">
@@ -19398,10 +19288,10 @@
         <v>343</v>
       </c>
       <c r="C181" s="18"/>
-      <c r="D181" s="109" t="s">
+      <c r="D181" s="60" t="s">
         <v>709</v>
       </c>
-      <c r="E181" s="109" t="s">
+      <c r="E181" s="60" t="s">
         <v>846</v>
       </c>
       <c r="F181" s="25" t="s">
@@ -19416,10 +19306,10 @@
         <v>344</v>
       </c>
       <c r="C182" s="18"/>
-      <c r="D182" s="109" t="s">
+      <c r="D182" s="60" t="s">
         <v>695</v>
       </c>
-      <c r="E182" s="109" t="s">
+      <c r="E182" s="60" t="s">
         <v>847</v>
       </c>
       <c r="F182" s="25" t="s">
@@ -19434,10 +19324,10 @@
         <v>345</v>
       </c>
       <c r="C183" s="18"/>
-      <c r="D183" s="109" t="s">
+      <c r="D183" s="60" t="s">
         <v>711</v>
       </c>
-      <c r="E183" s="109" t="s">
+      <c r="E183" s="60" t="s">
         <v>848</v>
       </c>
       <c r="F183" s="25" t="s">
@@ -19452,10 +19342,10 @@
         <v>346</v>
       </c>
       <c r="C184" s="18"/>
-      <c r="D184" s="109" t="s">
+      <c r="D184" s="60" t="s">
         <v>712</v>
       </c>
-      <c r="E184" s="109" t="s">
+      <c r="E184" s="60" t="s">
         <v>858</v>
       </c>
       <c r="F184" s="25" t="s">
@@ -19470,10 +19360,10 @@
         <v>347</v>
       </c>
       <c r="C185" s="18"/>
-      <c r="D185" s="109" t="s">
+      <c r="D185" s="60" t="s">
         <v>696</v>
       </c>
-      <c r="E185" s="109" t="s">
+      <c r="E185" s="60" t="s">
         <v>859</v>
       </c>
       <c r="F185" s="25" t="s">
@@ -19488,10 +19378,10 @@
         <v>387</v>
       </c>
       <c r="C186" s="18"/>
-      <c r="D186" s="109" t="s">
+      <c r="D186" s="60" t="s">
         <v>697</v>
       </c>
-      <c r="E186" s="109" t="s">
+      <c r="E186" s="60" t="s">
         <v>849</v>
       </c>
       <c r="F186" s="25" t="s">
@@ -19506,10 +19396,10 @@
         <v>348</v>
       </c>
       <c r="C187" s="18"/>
-      <c r="D187" s="109" t="s">
+      <c r="D187" s="60" t="s">
         <v>698</v>
       </c>
-      <c r="E187" s="109" t="s">
+      <c r="E187" s="60" t="s">
         <v>850</v>
       </c>
       <c r="F187" s="25" t="s">
@@ -19524,10 +19414,10 @@
         <v>349</v>
       </c>
       <c r="C188" s="18"/>
-      <c r="D188" s="109" t="s">
+      <c r="D188" s="60" t="s">
         <v>699</v>
       </c>
-      <c r="E188" s="109" t="s">
+      <c r="E188" s="60" t="s">
         <v>851</v>
       </c>
       <c r="F188" s="25" t="s">
@@ -19542,10 +19432,10 @@
         <v>350</v>
       </c>
       <c r="C189" s="18"/>
-      <c r="D189" s="109" t="s">
+      <c r="D189" s="60" t="s">
         <v>701</v>
       </c>
-      <c r="E189" s="109" t="s">
+      <c r="E189" s="60" t="s">
         <v>852</v>
       </c>
       <c r="F189" s="25" t="s">
@@ -19560,10 +19450,10 @@
         <v>351</v>
       </c>
       <c r="C190" s="18"/>
-      <c r="D190" s="109" t="s">
+      <c r="D190" s="60" t="s">
         <v>702</v>
       </c>
-      <c r="E190" s="109" t="s">
+      <c r="E190" s="60" t="s">
         <v>853</v>
       </c>
       <c r="F190" s="25" t="s">
@@ -19578,10 +19468,10 @@
         <v>352</v>
       </c>
       <c r="C191" s="18"/>
-      <c r="D191" s="109" t="s">
+      <c r="D191" s="60" t="s">
         <v>703</v>
       </c>
-      <c r="E191" s="109" t="s">
+      <c r="E191" s="60" t="s">
         <v>854</v>
       </c>
       <c r="F191" s="25" t="s">
@@ -19596,10 +19486,10 @@
         <v>353</v>
       </c>
       <c r="C192" s="18"/>
-      <c r="D192" s="109" t="s">
+      <c r="D192" s="60" t="s">
         <v>704</v>
       </c>
-      <c r="E192" s="109" t="s">
+      <c r="E192" s="60" t="s">
         <v>855</v>
       </c>
       <c r="F192" s="25" t="s">
@@ -19614,10 +19504,10 @@
         <v>354</v>
       </c>
       <c r="C193" s="18"/>
-      <c r="D193" s="109" t="s">
+      <c r="D193" s="60" t="s">
         <v>705</v>
       </c>
-      <c r="E193" s="109" t="s">
+      <c r="E193" s="60" t="s">
         <v>860</v>
       </c>
       <c r="F193" s="25" t="s">
@@ -19632,10 +19522,10 @@
         <v>355</v>
       </c>
       <c r="C194" s="18"/>
-      <c r="D194" s="109" t="s">
+      <c r="D194" s="60" t="s">
         <v>706</v>
       </c>
-      <c r="E194" s="109" t="s">
+      <c r="E194" s="60" t="s">
         <v>861</v>
       </c>
       <c r="F194" s="25" t="s">
@@ -19650,10 +19540,10 @@
         <v>388</v>
       </c>
       <c r="C195" s="18"/>
-      <c r="D195" s="109" t="s">
+      <c r="D195" s="60" t="s">
         <v>707</v>
       </c>
-      <c r="E195" s="109" t="s">
+      <c r="E195" s="60" t="s">
         <v>862</v>
       </c>
       <c r="F195" s="25" t="s">
@@ -19668,10 +19558,10 @@
         <v>356</v>
       </c>
       <c r="C196" s="18"/>
-      <c r="D196" s="109" t="s">
+      <c r="D196" s="60" t="s">
         <v>710</v>
       </c>
-      <c r="E196" s="109" t="s">
+      <c r="E196" s="60" t="s">
         <v>863</v>
       </c>
       <c r="F196" s="25" t="s">
@@ -19686,10 +19576,10 @@
         <v>357</v>
       </c>
       <c r="C197" s="18"/>
-      <c r="D197" s="109" t="s">
+      <c r="D197" s="60" t="s">
         <v>713</v>
       </c>
-      <c r="E197" s="109" t="s">
+      <c r="E197" s="60" t="s">
         <v>864</v>
       </c>
       <c r="F197" s="25" t="s">
@@ -19704,10 +19594,10 @@
         <v>358</v>
       </c>
       <c r="C198" s="18"/>
-      <c r="D198" s="109" t="s">
+      <c r="D198" s="60" t="s">
         <v>714</v>
       </c>
-      <c r="E198" s="109" t="s">
+      <c r="E198" s="60" t="s">
         <v>865</v>
       </c>
       <c r="F198" s="25" t="s">
@@ -19718,13 +19608,13 @@
       <c r="A199" s="27">
         <v>197</v>
       </c>
-      <c r="B199" s="106" t="s">
+      <c r="B199" s="109" t="s">
         <v>569</v>
       </c>
-      <c r="C199" s="107"/>
-      <c r="D199" s="107"/>
-      <c r="E199" s="107"/>
-      <c r="F199" s="108"/>
+      <c r="C199" s="110"/>
+      <c r="D199" s="110"/>
+      <c r="E199" s="110"/>
+      <c r="F199" s="111"/>
     </row>
     <row r="200" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="24">
@@ -19734,10 +19624,10 @@
         <v>359</v>
       </c>
       <c r="C200" s="18"/>
-      <c r="D200" s="109" t="s">
+      <c r="D200" s="60" t="s">
         <v>715</v>
       </c>
-      <c r="E200" s="109" t="s">
+      <c r="E200" s="60" t="s">
         <v>866</v>
       </c>
       <c r="F200" s="25" t="s">
@@ -19748,103 +19638,103 @@
       <c r="A201" s="27">
         <v>199</v>
       </c>
-      <c r="B201" s="82" t="s">
+      <c r="B201" s="100" t="s">
         <v>568</v>
       </c>
-      <c r="C201" s="83"/>
-      <c r="D201" s="83"/>
-      <c r="E201" s="83"/>
-      <c r="F201" s="84"/>
+      <c r="C201" s="101"/>
+      <c r="D201" s="101"/>
+      <c r="E201" s="101"/>
+      <c r="F201" s="102"/>
     </row>
     <row r="202" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="27">
         <v>200</v>
       </c>
-      <c r="B202" s="85"/>
-      <c r="C202" s="86"/>
-      <c r="D202" s="86"/>
-      <c r="E202" s="86"/>
-      <c r="F202" s="87"/>
+      <c r="B202" s="103"/>
+      <c r="C202" s="104"/>
+      <c r="D202" s="104"/>
+      <c r="E202" s="104"/>
+      <c r="F202" s="105"/>
     </row>
     <row r="203" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="27">
         <v>201</v>
       </c>
-      <c r="B203" s="85"/>
-      <c r="C203" s="86"/>
-      <c r="D203" s="86"/>
-      <c r="E203" s="86"/>
-      <c r="F203" s="87"/>
+      <c r="B203" s="103"/>
+      <c r="C203" s="104"/>
+      <c r="D203" s="104"/>
+      <c r="E203" s="104"/>
+      <c r="F203" s="105"/>
     </row>
     <row r="204" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="27">
         <v>202</v>
       </c>
-      <c r="B204" s="85"/>
-      <c r="C204" s="86"/>
-      <c r="D204" s="86"/>
-      <c r="E204" s="86"/>
-      <c r="F204" s="87"/>
+      <c r="B204" s="103"/>
+      <c r="C204" s="104"/>
+      <c r="D204" s="104"/>
+      <c r="E204" s="104"/>
+      <c r="F204" s="105"/>
     </row>
     <row r="205" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="27">
         <v>203</v>
       </c>
-      <c r="B205" s="85"/>
-      <c r="C205" s="86"/>
-      <c r="D205" s="86"/>
-      <c r="E205" s="86"/>
-      <c r="F205" s="87"/>
+      <c r="B205" s="103"/>
+      <c r="C205" s="104"/>
+      <c r="D205" s="104"/>
+      <c r="E205" s="104"/>
+      <c r="F205" s="105"/>
     </row>
     <row r="206" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="27">
         <v>204</v>
       </c>
-      <c r="B206" s="85"/>
-      <c r="C206" s="86"/>
-      <c r="D206" s="86"/>
-      <c r="E206" s="86"/>
-      <c r="F206" s="87"/>
+      <c r="B206" s="103"/>
+      <c r="C206" s="104"/>
+      <c r="D206" s="104"/>
+      <c r="E206" s="104"/>
+      <c r="F206" s="105"/>
     </row>
     <row r="207" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="27">
         <v>205</v>
       </c>
-      <c r="B207" s="85"/>
-      <c r="C207" s="86"/>
-      <c r="D207" s="86"/>
-      <c r="E207" s="86"/>
-      <c r="F207" s="87"/>
+      <c r="B207" s="103"/>
+      <c r="C207" s="104"/>
+      <c r="D207" s="104"/>
+      <c r="E207" s="104"/>
+      <c r="F207" s="105"/>
     </row>
     <row r="208" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="27">
         <v>206</v>
       </c>
-      <c r="B208" s="85"/>
-      <c r="C208" s="86"/>
-      <c r="D208" s="86"/>
-      <c r="E208" s="86"/>
-      <c r="F208" s="87"/>
+      <c r="B208" s="103"/>
+      <c r="C208" s="104"/>
+      <c r="D208" s="104"/>
+      <c r="E208" s="104"/>
+      <c r="F208" s="105"/>
     </row>
     <row r="209" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="27">
         <v>207</v>
       </c>
-      <c r="B209" s="85"/>
-      <c r="C209" s="86"/>
-      <c r="D209" s="86"/>
-      <c r="E209" s="86"/>
-      <c r="F209" s="87"/>
+      <c r="B209" s="103"/>
+      <c r="C209" s="104"/>
+      <c r="D209" s="104"/>
+      <c r="E209" s="104"/>
+      <c r="F209" s="105"/>
     </row>
     <row r="210" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="27">
         <v>208</v>
       </c>
-      <c r="B210" s="103"/>
-      <c r="C210" s="104"/>
-      <c r="D210" s="104"/>
-      <c r="E210" s="104"/>
-      <c r="F210" s="105"/>
+      <c r="B210" s="106"/>
+      <c r="C210" s="107"/>
+      <c r="D210" s="107"/>
+      <c r="E210" s="107"/>
+      <c r="F210" s="108"/>
     </row>
     <row r="211" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="24">
@@ -19856,10 +19746,10 @@
       <c r="C211" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D211" s="109" t="s">
+      <c r="D211" s="60" t="s">
         <v>716</v>
       </c>
-      <c r="E211" s="109" t="s">
+      <c r="E211" s="60" t="s">
         <v>867</v>
       </c>
       <c r="F211" s="25" t="s">
@@ -19874,10 +19764,10 @@
         <v>361</v>
       </c>
       <c r="C212" s="18"/>
-      <c r="D212" s="109" t="s">
+      <c r="D212" s="60" t="s">
         <v>717</v>
       </c>
-      <c r="E212" s="109"/>
+      <c r="E212" s="60"/>
       <c r="F212" s="25" t="s">
         <v>554</v>
       </c>
@@ -19890,10 +19780,10 @@
         <v>389</v>
       </c>
       <c r="C213" s="18"/>
-      <c r="D213" s="109" t="s">
+      <c r="D213" s="60" t="s">
         <v>718</v>
       </c>
-      <c r="E213" s="109" t="s">
+      <c r="E213" s="60" t="s">
         <v>868</v>
       </c>
       <c r="F213" s="25" t="s">
@@ -19904,83 +19794,83 @@
       <c r="A214" s="27">
         <v>212</v>
       </c>
-      <c r="B214" s="82" t="s">
+      <c r="B214" s="100" t="s">
         <v>552</v>
       </c>
-      <c r="C214" s="83"/>
-      <c r="D214" s="83"/>
-      <c r="E214" s="83"/>
-      <c r="F214" s="84"/>
+      <c r="C214" s="101"/>
+      <c r="D214" s="101"/>
+      <c r="E214" s="101"/>
+      <c r="F214" s="102"/>
     </row>
     <row r="215" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="27">
         <v>213</v>
       </c>
-      <c r="B215" s="85"/>
-      <c r="C215" s="86"/>
-      <c r="D215" s="86"/>
-      <c r="E215" s="86"/>
-      <c r="F215" s="87"/>
+      <c r="B215" s="103"/>
+      <c r="C215" s="104"/>
+      <c r="D215" s="104"/>
+      <c r="E215" s="104"/>
+      <c r="F215" s="105"/>
     </row>
     <row r="216" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="27">
         <v>214</v>
       </c>
-      <c r="B216" s="85"/>
-      <c r="C216" s="86"/>
-      <c r="D216" s="86"/>
-      <c r="E216" s="86"/>
-      <c r="F216" s="87"/>
+      <c r="B216" s="103"/>
+      <c r="C216" s="104"/>
+      <c r="D216" s="104"/>
+      <c r="E216" s="104"/>
+      <c r="F216" s="105"/>
     </row>
     <row r="217" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="27">
         <v>215</v>
       </c>
-      <c r="B217" s="85"/>
-      <c r="C217" s="86"/>
-      <c r="D217" s="86"/>
-      <c r="E217" s="86"/>
-      <c r="F217" s="87"/>
+      <c r="B217" s="103"/>
+      <c r="C217" s="104"/>
+      <c r="D217" s="104"/>
+      <c r="E217" s="104"/>
+      <c r="F217" s="105"/>
     </row>
     <row r="218" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="27">
         <v>216</v>
       </c>
-      <c r="B218" s="85"/>
-      <c r="C218" s="86"/>
-      <c r="D218" s="86"/>
-      <c r="E218" s="86"/>
-      <c r="F218" s="87"/>
+      <c r="B218" s="103"/>
+      <c r="C218" s="104"/>
+      <c r="D218" s="104"/>
+      <c r="E218" s="104"/>
+      <c r="F218" s="105"/>
     </row>
     <row r="219" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="27">
         <v>217</v>
       </c>
-      <c r="B219" s="85"/>
-      <c r="C219" s="86"/>
-      <c r="D219" s="86"/>
-      <c r="E219" s="86"/>
-      <c r="F219" s="87"/>
+      <c r="B219" s="103"/>
+      <c r="C219" s="104"/>
+      <c r="D219" s="104"/>
+      <c r="E219" s="104"/>
+      <c r="F219" s="105"/>
     </row>
     <row r="220" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="27">
         <v>218</v>
       </c>
-      <c r="B220" s="85"/>
-      <c r="C220" s="86"/>
-      <c r="D220" s="86"/>
-      <c r="E220" s="86"/>
-      <c r="F220" s="87"/>
+      <c r="B220" s="103"/>
+      <c r="C220" s="104"/>
+      <c r="D220" s="104"/>
+      <c r="E220" s="104"/>
+      <c r="F220" s="105"/>
     </row>
     <row r="221" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="27">
         <v>219</v>
       </c>
-      <c r="B221" s="85"/>
-      <c r="C221" s="86"/>
-      <c r="D221" s="86"/>
-      <c r="E221" s="86"/>
-      <c r="F221" s="87"/>
+      <c r="B221" s="103"/>
+      <c r="C221" s="104"/>
+      <c r="D221" s="104"/>
+      <c r="E221" s="104"/>
+      <c r="F221" s="105"/>
     </row>
     <row r="222" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="24">
@@ -20006,10 +19896,10 @@
         <v>362</v>
       </c>
       <c r="C223" s="18"/>
-      <c r="D223" s="109" t="s">
+      <c r="D223" s="60" t="s">
         <v>719</v>
       </c>
-      <c r="E223" s="109" t="s">
+      <c r="E223" s="60" t="s">
         <v>805</v>
       </c>
       <c r="F223" s="25" t="s">
@@ -20024,10 +19914,10 @@
         <v>363</v>
       </c>
       <c r="C224" s="18"/>
-      <c r="D224" s="109" t="s">
+      <c r="D224" s="60" t="s">
         <v>720</v>
       </c>
-      <c r="E224" s="109" t="s">
+      <c r="E224" s="60" t="s">
         <v>806</v>
       </c>
       <c r="F224" s="25" t="s">
@@ -20044,10 +19934,10 @@
       <c r="C225" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="D225" s="110" t="s">
+      <c r="D225" s="61" t="s">
         <v>721</v>
       </c>
-      <c r="E225" s="110" t="s">
+      <c r="E225" s="61" t="s">
         <v>807</v>
       </c>
       <c r="F225" s="31" t="s">
@@ -20064,49 +19954,49 @@
     <mergeCell ref="C129:E129"/>
     <mergeCell ref="C155:E156"/>
     <mergeCell ref="C158:E158"/>
-    <mergeCell ref="C26:E27"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C51:E53"/>
-    <mergeCell ref="C79:E85"/>
     <mergeCell ref="B214:F221"/>
+    <mergeCell ref="B130:F135"/>
+    <mergeCell ref="B157:F157"/>
+    <mergeCell ref="B166:F177"/>
+    <mergeCell ref="B201:F210"/>
+    <mergeCell ref="B199:F199"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="H3:K3"/>
     <mergeCell ref="H4:K5"/>
     <mergeCell ref="B98:F103"/>
     <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B130:F135"/>
-    <mergeCell ref="B157:F157"/>
-    <mergeCell ref="B166:F177"/>
-    <mergeCell ref="B201:F210"/>
-    <mergeCell ref="B199:F199"/>
     <mergeCell ref="C10:E11"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C21:E22"/>
+    <mergeCell ref="C26:E27"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C51:E53"/>
+    <mergeCell ref="C79:E85"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C3 C10 C21 C26 C15 C49 C51 C79 C104 C113 C129 C155 C158 C222">
-    <cfRule type="containsText" dxfId="5" priority="24" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="4" priority="24" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:E2 D3:E9">
-    <cfRule type="containsText" dxfId="4" priority="23" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="3" priority="23" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5 C7 C9 C13 D19:E19 C23:E23 C25:E25 C29:E29 C31:E31 C35:E35 C37:E37 C41:E41 C47 C55:E55 C63 C65 C67 C69 C71:E71 C73:E73 C75:E75 C87:E87 C107:E107 C109:E109 C111:E111 C115:E115 C117:E117 C119:E119 C123:E123 C125:E125 C127:E127 C137:E137 C147 C149 C151 C153:E153 C159:E159 C161:E161 C163:E163 C179:E179 C211:E211 C213:E213 C223:E223 C225:E225 C33:E33 D46 D48 D64 D66 D68 D146 D148 D150 C39:E39 C43:E43 C45:E45 E47 C77:E77 C57:E57 C59:E59 C61:E61 E63 E65 E67 E69 C89:E89 C91:E91 C93:E93 C95:E95 C97:E97 C121:E121 C139:E139 C141:E141 C143:E143 C145:E145 E147 E149 E151 C165:E165 C181:E181 C183:E183 C185:E185 C187:E187 C189:E189 C191:E191 C193:E193 C195:E195 C197:E197">
-    <cfRule type="containsText" dxfId="3" priority="22" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="2" priority="22" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4 C6 C8 C12:E12 C16:E16 C20:E20 C24:E24 C28:E28 C30:E30 C32:E32 C34:E34 C36:E36 C42:E42 C46 C48 C54:E54 C64 C66 C68 C70:E70 C72:E72 C74:E74 C78:E78 C86:E86 C108:E108 C110:E110 C112:E112 C116:E116 C118:E118 C122:E122 C126:E126 C128:E128 C136:E136 C146 C148 C150 C152:E152 C154:E154 C160:E160 C162:E162 C178:E178 C200:E200 C212:E212 C224:E224 D17:E18 D13:E13 D47 D63 D65 D67 D69 D147 D149 D151 C14:E14 C38:E38 C40:E40 C44:E44 E46 E48 C76:E76 C56:E56 C58:E58 C60:E60 C62:E62 E64 E66 E68 C88:E88 C90:E90 C92:E92 C94:E94 C96:E96 C120:E120 C124:E124 C138:E138 C140:E140 C142:E142 C144:E144 E146 E148 E150 C164:E164 C180:E180 C182:E182 C184:E184 C186:E186 C188:E188 C190:E190 C192:E192 C194:E194 C196:E196 C198:E198 C17:C19">
-    <cfRule type="containsText" dxfId="2" priority="21" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="1" priority="21" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:F2 E4 E6 E8">
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Pin100.xlsx
+++ b/Pin100.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\McuCode\GEN_RH850_F1L\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="14970" windowHeight="7515"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="14970" windowHeight="7515" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="pinmux配置" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pinmux配置!$A$1:$P$301</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -29,7 +24,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -159,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -185,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -211,7 +206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -227,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -254,7 +249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -282,7 +277,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -310,7 +305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -346,7 +341,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -372,7 +367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -398,7 +393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -424,7 +419,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -455,7 +450,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2606" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2606" uniqueCount="872">
   <si>
     <t>Pin</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3193,218 +3188,212 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ISR_TAUD0I1func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_TAUD0I5func</t>
+  </si>
+  <si>
+    <t>ISR_TAUD0I7func</t>
+  </si>
+  <si>
+    <t>ISR_TAUD0I9func</t>
+  </si>
+  <si>
+    <t>ISR_TAUD0I11func</t>
+  </si>
+  <si>
+    <t>ISR_TAUD0I13func</t>
+  </si>
+  <si>
+    <t>ISR_TAUD0I15func</t>
+  </si>
+  <si>
+    <t>ISR_TAUD0I3func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_IIC0RIfunc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_IIC0TIfunc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_IIC0TEIfunc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_IIC0EEfunc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_TAUJ0I2func</t>
+  </si>
+  <si>
+    <t>ISR_TAUJ0I3func</t>
+  </si>
+  <si>
+    <t>ISR_TAUJ0I0func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_TAUJ0I1func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_OSTM0func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_PWGA2func</t>
+  </si>
+  <si>
+    <t>ISR_PWGA3func</t>
+  </si>
+  <si>
+    <t>ISR_DMA0func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_DMA1func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_DMA2func</t>
+  </si>
+  <si>
+    <t>ISR_DMA3func</t>
+  </si>
+  <si>
+    <t>ISR_DMA4func</t>
+  </si>
+  <si>
+    <t>ISR_DMA5func</t>
+  </si>
+  <si>
+    <t>ISR_DMA6func</t>
+  </si>
+  <si>
+    <t>ISR_DMA7func</t>
+  </si>
+  <si>
+    <t>ISR_DMA8func</t>
+  </si>
+  <si>
+    <t>ISR_DMA9func</t>
+  </si>
+  <si>
+    <t>ISR_DMA10func</t>
+  </si>
+  <si>
+    <t>ISR_DMA11func</t>
+  </si>
+  <si>
+    <t>ISR_DMA12func</t>
+  </si>
+  <si>
+    <t>ISR_DMA13func</t>
+  </si>
+  <si>
+    <t>ISR_DMA14func</t>
+  </si>
+  <si>
+    <t>ISR_DMA15func</t>
+  </si>
+  <si>
+    <t>ISR_PWGA0func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_PWGA4func</t>
+  </si>
+  <si>
+    <t>ISR_PWGA5func</t>
+  </si>
+  <si>
+    <t>ISR_PWGA1func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_PWGA6func</t>
+  </si>
+  <si>
+    <t>ISR_PWGA7func</t>
+  </si>
+  <si>
+    <t>ISR_PWGA8func</t>
+  </si>
+  <si>
+    <t>ISR_PWGA9func</t>
+  </si>
+  <si>
+    <t>ISR_PWGA10func</t>
+  </si>
+  <si>
+    <t>ISR_PWGA11func</t>
+  </si>
+  <si>
+    <t>ISR_TAUD0I12func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanIsrStatus_1func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanIsrTx_1func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSIH1_Rx_handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSIH1_Tx_handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSIH1_Error_handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART1_Tx_Handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART1_Rx_Handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART1_Error_Handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_PWGA20func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_PWGA22func</t>
+  </si>
+  <si>
+    <t>ISR_PWGA23func</t>
+  </si>
+  <si>
+    <t>ISR_INTP8func</t>
+  </si>
+  <si>
+    <t>ISR_PWGA21func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ISR_INTP6func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ISR_INTP7func</t>
-  </si>
-  <si>
-    <t>ISR_TAUD0I1func</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISR_TAUD0I5func</t>
-  </si>
-  <si>
-    <t>ISR_TAUD0I7func</t>
-  </si>
-  <si>
-    <t>ISR_TAUD0I9func</t>
-  </si>
-  <si>
-    <t>ISR_TAUD0I11func</t>
-  </si>
-  <si>
-    <t>ISR_TAUD0I13func</t>
-  </si>
-  <si>
-    <t>ISR_TAUD0I15func</t>
-  </si>
-  <si>
-    <t>ISR_TAUD0I3func</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISR_IIC0RIfunc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISR_IIC0TIfunc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISR_IIC0TEIfunc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISR_IIC0EEfunc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISR_TAUJ0I2func</t>
-  </si>
-  <si>
-    <t>ISR_TAUJ0I3func</t>
-  </si>
-  <si>
-    <t>ISR_TAUJ0I0func</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISR_TAUJ0I1func</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISR_OSTM0func</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISR_PWGA2func</t>
-  </si>
-  <si>
-    <t>ISR_PWGA3func</t>
-  </si>
-  <si>
-    <t>ISR_DMA0func</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISR_DMA1func</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISR_DMA2func</t>
-  </si>
-  <si>
-    <t>ISR_DMA3func</t>
-  </si>
-  <si>
-    <t>ISR_DMA4func</t>
-  </si>
-  <si>
-    <t>ISR_DMA5func</t>
-  </si>
-  <si>
-    <t>ISR_DMA6func</t>
-  </si>
-  <si>
-    <t>ISR_DMA7func</t>
-  </si>
-  <si>
-    <t>ISR_DMA8func</t>
-  </si>
-  <si>
-    <t>ISR_DMA9func</t>
-  </si>
-  <si>
-    <t>ISR_DMA10func</t>
-  </si>
-  <si>
-    <t>ISR_DMA11func</t>
-  </si>
-  <si>
-    <t>ISR_DMA12func</t>
-  </si>
-  <si>
-    <t>ISR_DMA13func</t>
-  </si>
-  <si>
-    <t>ISR_DMA14func</t>
-  </si>
-  <si>
-    <t>ISR_DMA15func</t>
-  </si>
-  <si>
-    <t>ISR_PWGA0func</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISR_PWGA4func</t>
-  </si>
-  <si>
-    <t>ISR_PWGA5func</t>
-  </si>
-  <si>
-    <t>ISR_PWGA1func</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISR_PWGA6func</t>
-  </si>
-  <si>
-    <t>ISR_PWGA7func</t>
-  </si>
-  <si>
-    <t>ISR_PWGA8func</t>
-  </si>
-  <si>
-    <t>ISR_PWGA9func</t>
-  </si>
-  <si>
-    <t>ISR_PWGA10func</t>
-  </si>
-  <si>
-    <t>ISR_PWGA11func</t>
-  </si>
-  <si>
-    <t>ISR_TAUD0I12func</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CanIsrStatus_1func</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CanIsrTx_1func</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSIH1_Rx_handler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSIH1_Tx_handler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSIH1_Error_handler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UART1_Tx_Handler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UART1_Rx_Handler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UART1_Error_Handler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISR_PWGA20func</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISR_PWGA22func</t>
-  </si>
-  <si>
-    <t>ISR_PWGA23func</t>
-  </si>
-  <si>
-    <t>ISR_INTP8func</t>
-  </si>
-  <si>
-    <t>ISR_PWGA21func</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISR_INTP6func</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISR_INTP7func</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3586,6 +3575,26 @@
   </si>
   <si>
     <t>CanIsrTx_2func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_INTP10func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR_INTP11func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART3_Tx_Handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART3_Rx_Handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART3_Error_Handler</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4540,40 +4549,10 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4604,6 +4583,108 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4650,78 +4731,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4789,7 +4798,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4831,7 +4840,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4866,7 +4875,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5077,8 +5086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T302"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -5154,11 +5163,11 @@
       <c r="P1" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="R1" s="77" t="s">
+      <c r="R1" s="67" t="s">
         <v>563</v>
       </c>
-      <c r="S1" s="78"/>
-      <c r="T1" s="79"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="69"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="37">
@@ -5209,9 +5218,9 @@
       <c r="P2" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="82"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="72"/>
     </row>
     <row r="3" spans="1:20" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A3" s="24">
@@ -5247,10 +5256,10 @@
       <c r="R3" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="S3" s="83" t="s">
+      <c r="S3" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="T3" s="84"/>
+      <c r="T3" s="74"/>
     </row>
     <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="24">
@@ -5283,7 +5292,7 @@
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="39"/>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="63" t="s">
         <v>137</v>
       </c>
       <c r="S4" s="12" t="s">
@@ -5326,7 +5335,7 @@
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="39"/>
-      <c r="R5" s="67"/>
+      <c r="R5" s="63"/>
       <c r="S5" s="12" t="s">
         <v>139</v>
       </c>
@@ -5370,10 +5379,10 @@
       <c r="R6" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="S6" s="75" t="s">
+      <c r="S6" s="65" t="s">
         <v>142</v>
       </c>
-      <c r="T6" s="76"/>
+      <c r="T6" s="66"/>
     </row>
     <row r="7" spans="1:20" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A7" s="24">
@@ -5427,10 +5436,10 @@
       <c r="R7" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="S7" s="75" t="s">
+      <c r="S7" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="T7" s="76"/>
+      <c r="T7" s="66"/>
     </row>
     <row r="8" spans="1:20" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A8" s="24">
@@ -5484,10 +5493,10 @@
       <c r="R8" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="S8" s="75" t="s">
+      <c r="S8" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="T8" s="76"/>
+      <c r="T8" s="66"/>
     </row>
     <row r="9" spans="1:20" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A9" s="24">
@@ -5525,10 +5534,10 @@
       <c r="R9" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="S9" s="75" t="s">
+      <c r="S9" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="T9" s="76"/>
+      <c r="T9" s="66"/>
     </row>
     <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="24">
@@ -5559,7 +5568,7 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="39"/>
-      <c r="R10" s="67" t="s">
+      <c r="R10" s="63" t="s">
         <v>149</v>
       </c>
       <c r="S10" s="12" t="s">
@@ -5618,7 +5627,7 @@
       <c r="P11" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="R11" s="67"/>
+      <c r="R11" s="63"/>
       <c r="S11" s="12" t="s">
         <v>151</v>
       </c>
@@ -5662,10 +5671,10 @@
       <c r="R12" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="S12" s="75" t="s">
+      <c r="S12" s="65" t="s">
         <v>154</v>
       </c>
-      <c r="T12" s="76"/>
+      <c r="T12" s="66"/>
     </row>
     <row r="13" spans="1:20" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A13" s="24">
@@ -5784,7 +5793,7 @@
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="39"/>
-      <c r="R15" s="67" t="s">
+      <c r="R15" s="63" t="s">
         <v>160</v>
       </c>
       <c r="S15" s="12" t="s">
@@ -5825,7 +5834,7 @@
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="39"/>
-      <c r="R16" s="67"/>
+      <c r="R16" s="63"/>
       <c r="S16" s="12" t="s">
         <v>163</v>
       </c>
@@ -5866,7 +5875,7 @@
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="39"/>
-      <c r="R17" s="67" t="s">
+      <c r="R17" s="63" t="s">
         <v>165</v>
       </c>
       <c r="S17" s="12" t="s">
@@ -5905,7 +5914,7 @@
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="39"/>
-      <c r="R18" s="67"/>
+      <c r="R18" s="63"/>
       <c r="S18" s="12" t="s">
         <v>163</v>
       </c>
@@ -5962,7 +5971,7 @@
       <c r="P19" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="R19" s="67" t="s">
+      <c r="R19" s="63" t="s">
         <v>168</v>
       </c>
       <c r="S19" s="12" t="s">
@@ -6003,7 +6012,7 @@
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="39"/>
-      <c r="R20" s="67"/>
+      <c r="R20" s="63"/>
       <c r="S20" s="12" t="s">
         <v>163</v>
       </c>
@@ -6040,7 +6049,7 @@
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="39"/>
-      <c r="R21" s="67" t="s">
+      <c r="R21" s="63" t="s">
         <v>172</v>
       </c>
       <c r="S21" s="12" t="s">
@@ -6079,7 +6088,7 @@
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="39"/>
-      <c r="R22" s="63"/>
+      <c r="R22" s="64"/>
       <c r="S22" s="13" t="s">
         <v>163</v>
       </c>
@@ -6116,10 +6125,10 @@
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
       <c r="P23" s="39"/>
-      <c r="R23" s="63" t="s">
+      <c r="R23" s="64" t="s">
         <v>175</v>
       </c>
-      <c r="S23" s="66" t="s">
+      <c r="S23" s="77" t="s">
         <v>161</v>
       </c>
       <c r="T23" s="51" t="s">
@@ -6155,8 +6164,8 @@
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
       <c r="P24" s="39"/>
-      <c r="R24" s="64"/>
-      <c r="S24" s="66"/>
+      <c r="R24" s="75"/>
+      <c r="S24" s="77"/>
       <c r="T24" s="52" t="s">
         <v>177</v>
       </c>
@@ -6190,8 +6199,8 @@
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="39"/>
-      <c r="R25" s="64"/>
-      <c r="S25" s="66" t="s">
+      <c r="R25" s="75"/>
+      <c r="S25" s="77" t="s">
         <v>178</v>
       </c>
       <c r="T25" s="51" t="s">
@@ -6227,8 +6236,8 @@
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
       <c r="P26" s="39"/>
-      <c r="R26" s="65"/>
-      <c r="S26" s="66"/>
+      <c r="R26" s="76"/>
+      <c r="S26" s="77"/>
       <c r="T26" s="52" t="s">
         <v>180</v>
       </c>
@@ -6262,7 +6271,7 @@
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="39"/>
-      <c r="R27" s="67" t="s">
+      <c r="R27" s="63" t="s">
         <v>181</v>
       </c>
       <c r="S27" s="14" t="s">
@@ -6303,7 +6312,7 @@
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
       <c r="P28" s="39"/>
-      <c r="R28" s="67"/>
+      <c r="R28" s="63"/>
       <c r="S28" s="14" t="s">
         <v>178</v>
       </c>
@@ -6340,7 +6349,7 @@
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
       <c r="P29" s="39"/>
-      <c r="R29" s="67" t="s">
+      <c r="R29" s="63" t="s">
         <v>185</v>
       </c>
       <c r="S29" s="14" t="s">
@@ -6399,7 +6408,7 @@
       <c r="P30" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="R30" s="74"/>
+      <c r="R30" s="84"/>
       <c r="S30" s="53" t="s">
         <v>178</v>
       </c>
@@ -6506,10 +6515,10 @@
       <c r="P32" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="R32" s="72" t="s">
+      <c r="R32" s="82" t="s">
         <v>192</v>
       </c>
-      <c r="S32" s="73"/>
+      <c r="S32" s="83"/>
     </row>
     <row r="33" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="27">
@@ -6776,10 +6785,10 @@
       <c r="P37" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="R37" s="68" t="s">
+      <c r="R37" s="78" t="s">
         <v>565</v>
       </c>
-      <c r="S37" s="69"/>
+      <c r="S37" s="79"/>
     </row>
     <row r="38" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="24">
@@ -6810,8 +6819,8 @@
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
       <c r="P38" s="39"/>
-      <c r="R38" s="70"/>
-      <c r="S38" s="71"/>
+      <c r="R38" s="80"/>
+      <c r="S38" s="81"/>
     </row>
     <row r="39" spans="1:19" ht="17.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A39" s="24">
@@ -15994,6 +16003,19 @@
   <sheetProtection algorithmName="SHA-512" hashValue="9iKcavKJ7bXa2VAXjnQktA7bMIa0L+ozlYV01ValeWFg/EGf+5wj1snCiPjUkrGoeuoMsiLxPW4Cunz4U5jV4A==" saltValue="ziT6rR81fzZhA4TygKZN8w==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A1:P301"/>
   <mergeCells count="20">
+    <mergeCell ref="R23:R26"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="R37:S38"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="R1:T2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
     <mergeCell ref="R19:R20"/>
     <mergeCell ref="R21:R22"/>
     <mergeCell ref="S9:T9"/>
@@ -16001,19 +16023,6 @@
     <mergeCell ref="S12:T12"/>
     <mergeCell ref="R15:R16"/>
     <mergeCell ref="R17:R18"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="R1:T2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="R23:R26"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="R37:S38"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="R29:R30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="70">
@@ -16238,9 +16247,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K226"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B213" sqref="B213"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E225" sqref="E225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -16273,12 +16282,12 @@
       <c r="F1" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="109" t="s">
         <v>560</v>
       </c>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="87"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="111"/>
     </row>
     <row r="2" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="24">
@@ -16299,12 +16308,12 @@
       <c r="F2" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="H2" s="88" t="s">
+      <c r="H2" s="112" t="s">
         <v>561</v>
       </c>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="90"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="114"/>
     </row>
     <row r="3" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="24">
@@ -16325,12 +16334,12 @@
       <c r="F3" s="25" t="s">
         <v>392</v>
       </c>
-      <c r="H3" s="91" t="s">
+      <c r="H3" s="115" t="s">
         <v>562</v>
       </c>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="93"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="117"/>
     </row>
     <row r="4" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="24">
@@ -16351,12 +16360,12 @@
       <c r="F4" s="25" t="s">
         <v>394</v>
       </c>
-      <c r="H4" s="94" t="s">
+      <c r="H4" s="118" t="s">
         <v>564</v>
       </c>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="96"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="120"/>
     </row>
     <row r="5" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="24">
@@ -16377,10 +16386,10 @@
       <c r="F5" s="25" t="s">
         <v>395</v>
       </c>
-      <c r="H5" s="97"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="99"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="123"/>
     </row>
     <row r="6" spans="1:11" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A6" s="24">
@@ -16436,7 +16445,7 @@
         <v>575</v>
       </c>
       <c r="E8" s="60" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>397</v>
@@ -16469,11 +16478,11 @@
       <c r="B10" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="C10" s="112" t="s">
+      <c r="C10" s="88" t="s">
         <v>583</v>
       </c>
-      <c r="D10" s="113"/>
-      <c r="E10" s="114"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="90"/>
       <c r="F10" s="25" t="s">
         <v>399</v>
       </c>
@@ -16485,9 +16494,9 @@
       <c r="B11" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="C11" s="115"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="117"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="96"/>
       <c r="F11" s="25" t="s">
         <v>400</v>
       </c>
@@ -16559,11 +16568,11 @@
       <c r="B15" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="C15" s="118" t="s">
+      <c r="C15" s="85" t="s">
         <v>583</v>
       </c>
-      <c r="D15" s="119"/>
-      <c r="E15" s="120"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="87"/>
       <c r="F15" s="26" t="s">
         <v>404</v>
       </c>
@@ -16673,11 +16682,11 @@
       <c r="B21" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="C21" s="112" t="s">
+      <c r="C21" s="88" t="s">
         <v>583</v>
       </c>
-      <c r="D21" s="113"/>
-      <c r="E21" s="114"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="90"/>
       <c r="F21" s="26" t="s">
         <v>410</v>
       </c>
@@ -16689,9 +16698,9 @@
       <c r="B22" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="96"/>
       <c r="F22" s="26" t="s">
         <v>411</v>
       </c>
@@ -16757,11 +16766,11 @@
       <c r="B26" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="C26" s="112" t="s">
+      <c r="C26" s="88" t="s">
         <v>583</v>
       </c>
-      <c r="D26" s="113"/>
-      <c r="E26" s="114"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="90"/>
       <c r="F26" s="26" t="s">
         <v>415</v>
       </c>
@@ -16773,9 +16782,9 @@
       <c r="B27" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="C27" s="115"/>
-      <c r="D27" s="116"/>
-      <c r="E27" s="117"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="96"/>
       <c r="F27" s="26" t="s">
         <v>416</v>
       </c>
@@ -16990,7 +16999,7 @@
         <v>603</v>
       </c>
       <c r="E39" s="60" t="s">
-        <v>752</v>
+        <v>867</v>
       </c>
       <c r="F39" s="25" t="s">
         <v>421</v>
@@ -17008,7 +17017,7 @@
         <v>604</v>
       </c>
       <c r="E40" s="60" t="s">
-        <v>753</v>
+        <v>868</v>
       </c>
       <c r="F40" s="25" t="s">
         <v>421</v>
@@ -17028,7 +17037,7 @@
         <v>605</v>
       </c>
       <c r="E41" s="60" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="F41" s="25" t="s">
         <v>424</v>
@@ -17046,7 +17055,7 @@
         <v>606</v>
       </c>
       <c r="E42" s="60" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="F42" s="25" t="s">
         <v>425</v>
@@ -17064,7 +17073,7 @@
         <v>580</v>
       </c>
       <c r="E43" s="60" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F43" s="25" t="s">
         <v>426</v>
@@ -17082,7 +17091,7 @@
         <v>581</v>
       </c>
       <c r="E44" s="60" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F44" s="25" t="s">
         <v>427</v>
@@ -17100,7 +17109,7 @@
         <v>607</v>
       </c>
       <c r="E45" s="60" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F45" s="25" t="s">
         <v>428</v>
@@ -17120,7 +17129,7 @@
         <v>608</v>
       </c>
       <c r="E46" s="60" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F46" s="25" t="s">
         <v>429</v>
@@ -17138,7 +17147,7 @@
         <v>609</v>
       </c>
       <c r="E47" s="60" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F47" s="25" t="s">
         <v>430</v>
@@ -17158,7 +17167,7 @@
         <v>610</v>
       </c>
       <c r="E48" s="60" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F48" s="25" t="s">
         <v>431</v>
@@ -17171,11 +17180,11 @@
       <c r="B49" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="C49" s="118" t="s">
+      <c r="C49" s="85" t="s">
         <v>583</v>
       </c>
-      <c r="D49" s="119"/>
-      <c r="E49" s="120"/>
+      <c r="D49" s="86"/>
+      <c r="E49" s="87"/>
       <c r="F49" s="25" t="s">
         <v>432</v>
       </c>
@@ -17184,13 +17193,13 @@
       <c r="A50" s="27">
         <v>48</v>
       </c>
-      <c r="B50" s="109" t="s">
+      <c r="B50" s="106" t="s">
         <v>433</v>
       </c>
-      <c r="C50" s="110"/>
-      <c r="D50" s="110"/>
-      <c r="E50" s="110"/>
-      <c r="F50" s="111"/>
+      <c r="C50" s="107"/>
+      <c r="D50" s="107"/>
+      <c r="E50" s="107"/>
+      <c r="F50" s="108"/>
     </row>
     <row r="51" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="24">
@@ -17199,11 +17208,11 @@
       <c r="B51" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="C51" s="112" t="s">
+      <c r="C51" s="88" t="s">
         <v>583</v>
       </c>
-      <c r="D51" s="113"/>
-      <c r="E51" s="114"/>
+      <c r="D51" s="89"/>
+      <c r="E51" s="90"/>
       <c r="F51" s="25" t="s">
         <v>434</v>
       </c>
@@ -17215,9 +17224,9 @@
       <c r="B52" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="C52" s="121"/>
-      <c r="D52" s="122"/>
-      <c r="E52" s="123"/>
+      <c r="C52" s="91"/>
+      <c r="D52" s="92"/>
+      <c r="E52" s="93"/>
       <c r="F52" s="25" t="s">
         <v>435</v>
       </c>
@@ -17229,9 +17238,9 @@
       <c r="B53" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="C53" s="115"/>
-      <c r="D53" s="116"/>
-      <c r="E53" s="117"/>
+      <c r="C53" s="94"/>
+      <c r="D53" s="95"/>
+      <c r="E53" s="96"/>
       <c r="F53" s="25" t="s">
         <v>436</v>
       </c>
@@ -17248,7 +17257,7 @@
         <v>611</v>
       </c>
       <c r="E54" s="60" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="F54" s="25" t="s">
         <v>437</v>
@@ -17266,7 +17275,7 @@
         <v>620</v>
       </c>
       <c r="E55" s="60" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F55" s="25" t="s">
         <v>438</v>
@@ -17284,7 +17293,7 @@
         <v>612</v>
       </c>
       <c r="E56" s="60" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="F56" s="25" t="s">
         <v>439</v>
@@ -17302,7 +17311,7 @@
         <v>613</v>
       </c>
       <c r="E57" s="60" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F57" s="25" t="s">
         <v>440</v>
@@ -17320,7 +17329,7 @@
         <v>614</v>
       </c>
       <c r="E58" s="60" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F58" s="25" t="s">
         <v>441</v>
@@ -17338,7 +17347,7 @@
         <v>615</v>
       </c>
       <c r="E59" s="60" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="F59" s="25" t="s">
         <v>442</v>
@@ -17356,7 +17365,7 @@
         <v>616</v>
       </c>
       <c r="E60" s="60" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="F60" s="25" t="s">
         <v>443</v>
@@ -17374,7 +17383,7 @@
         <v>617</v>
       </c>
       <c r="E61" s="60" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="F61" s="25" t="s">
         <v>444</v>
@@ -17392,7 +17401,7 @@
         <v>618</v>
       </c>
       <c r="E62" s="60" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F62" s="25" t="s">
         <v>445</v>
@@ -17410,7 +17419,7 @@
         <v>619</v>
       </c>
       <c r="E63" s="60" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="F63" s="25" t="s">
         <v>446</v>
@@ -17428,7 +17437,7 @@
         <v>621</v>
       </c>
       <c r="E64" s="60" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="F64" s="25" t="s">
         <v>447</v>
@@ -17448,7 +17457,7 @@
         <v>622</v>
       </c>
       <c r="E65" s="60" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="F65" s="25" t="s">
         <v>448</v>
@@ -17466,7 +17475,7 @@
         <v>623</v>
       </c>
       <c r="E66" s="60" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F66" s="25" t="s">
         <v>449</v>
@@ -17484,7 +17493,7 @@
         <v>624</v>
       </c>
       <c r="E67" s="60" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F67" s="25" t="s">
         <v>450</v>
@@ -17502,7 +17511,7 @@
         <v>625</v>
       </c>
       <c r="E68" s="60" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F68" s="25" t="s">
         <v>451</v>
@@ -17520,7 +17529,7 @@
         <v>626</v>
       </c>
       <c r="E69" s="60" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="F69" s="25" t="s">
         <v>452</v>
@@ -17538,7 +17547,7 @@
         <v>627</v>
       </c>
       <c r="E70" s="60" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F70" s="25" t="s">
         <v>453</v>
@@ -17556,7 +17565,7 @@
         <v>628</v>
       </c>
       <c r="E71" s="60" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F71" s="25" t="s">
         <v>454</v>
@@ -17574,7 +17583,7 @@
         <v>629</v>
       </c>
       <c r="E72" s="60" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F72" s="25" t="s">
         <v>455</v>
@@ -17592,7 +17601,7 @@
         <v>630</v>
       </c>
       <c r="E73" s="60" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F73" s="25" t="s">
         <v>456</v>
@@ -17610,7 +17619,7 @@
         <v>631</v>
       </c>
       <c r="E74" s="60" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F74" s="25" t="s">
         <v>457</v>
@@ -17628,7 +17637,7 @@
         <v>632</v>
       </c>
       <c r="E75" s="60" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="F75" s="25" t="s">
         <v>458</v>
@@ -17646,7 +17655,7 @@
         <v>633</v>
       </c>
       <c r="E76" s="60" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F76" s="25" t="s">
         <v>459</v>
@@ -17664,7 +17673,7 @@
         <v>634</v>
       </c>
       <c r="E77" s="60" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F77" s="25" t="s">
         <v>460</v>
@@ -17682,7 +17691,7 @@
         <v>635</v>
       </c>
       <c r="E78" s="60" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F78" s="25" t="s">
         <v>461</v>
@@ -17695,11 +17704,11 @@
       <c r="B79" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="C79" s="112" t="s">
+      <c r="C79" s="88" t="s">
         <v>583</v>
       </c>
-      <c r="D79" s="113"/>
-      <c r="E79" s="114"/>
+      <c r="D79" s="89"/>
+      <c r="E79" s="90"/>
       <c r="F79" s="25" t="s">
         <v>462</v>
       </c>
@@ -17711,9 +17720,9 @@
       <c r="B80" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="C80" s="121"/>
-      <c r="D80" s="122"/>
-      <c r="E80" s="123"/>
+      <c r="C80" s="91"/>
+      <c r="D80" s="92"/>
+      <c r="E80" s="93"/>
       <c r="F80" s="25" t="s">
         <v>463</v>
       </c>
@@ -17725,9 +17734,9 @@
       <c r="B81" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="C81" s="121"/>
-      <c r="D81" s="122"/>
-      <c r="E81" s="123"/>
+      <c r="C81" s="91"/>
+      <c r="D81" s="92"/>
+      <c r="E81" s="93"/>
       <c r="F81" s="26" t="s">
         <v>464</v>
       </c>
@@ -17739,9 +17748,9 @@
       <c r="B82" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="C82" s="121"/>
-      <c r="D82" s="122"/>
-      <c r="E82" s="123"/>
+      <c r="C82" s="91"/>
+      <c r="D82" s="92"/>
+      <c r="E82" s="93"/>
       <c r="F82" s="26" t="s">
         <v>465</v>
       </c>
@@ -17753,9 +17762,9 @@
       <c r="B83" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="C83" s="121"/>
-      <c r="D83" s="122"/>
-      <c r="E83" s="123"/>
+      <c r="C83" s="91"/>
+      <c r="D83" s="92"/>
+      <c r="E83" s="93"/>
       <c r="F83" s="26" t="s">
         <v>466</v>
       </c>
@@ -17767,9 +17776,9 @@
       <c r="B84" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="C84" s="121"/>
-      <c r="D84" s="122"/>
-      <c r="E84" s="123"/>
+      <c r="C84" s="91"/>
+      <c r="D84" s="92"/>
+      <c r="E84" s="93"/>
       <c r="F84" s="26" t="s">
         <v>467</v>
       </c>
@@ -17781,9 +17790,9 @@
       <c r="B85" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="C85" s="115"/>
-      <c r="D85" s="116"/>
-      <c r="E85" s="117"/>
+      <c r="C85" s="94"/>
+      <c r="D85" s="95"/>
+      <c r="E85" s="96"/>
       <c r="F85" s="26" t="s">
         <v>468</v>
       </c>
@@ -17800,7 +17809,7 @@
         <v>636</v>
       </c>
       <c r="E86" s="60" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F86" s="26" t="s">
         <v>469</v>
@@ -17818,7 +17827,7 @@
         <v>643</v>
       </c>
       <c r="E87" s="60" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="F87" s="26" t="s">
         <v>470</v>
@@ -17836,7 +17845,7 @@
         <v>637</v>
       </c>
       <c r="E88" s="60" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F88" s="26" t="s">
         <v>471</v>
@@ -17854,7 +17863,7 @@
         <v>638</v>
       </c>
       <c r="E89" s="60" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F89" s="26" t="s">
         <v>472</v>
@@ -17872,7 +17881,7 @@
         <v>644</v>
       </c>
       <c r="E90" s="60" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F90" s="26" t="s">
         <v>473</v>
@@ -17890,7 +17899,7 @@
         <v>645</v>
       </c>
       <c r="E91" s="60" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="F91" s="26" t="s">
         <v>474</v>
@@ -17908,7 +17917,7 @@
         <v>646</v>
       </c>
       <c r="E92" s="60" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="F92" s="26" t="s">
         <v>475</v>
@@ -17926,7 +17935,7 @@
         <v>647</v>
       </c>
       <c r="E93" s="60" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="F93" s="26" t="s">
         <v>476</v>
@@ -17944,7 +17953,7 @@
         <v>639</v>
       </c>
       <c r="E94" s="60" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F94" s="26" t="s">
         <v>477</v>
@@ -17962,7 +17971,7 @@
         <v>640</v>
       </c>
       <c r="E95" s="60" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="F95" s="26" t="s">
         <v>478</v>
@@ -17980,7 +17989,7 @@
         <v>641</v>
       </c>
       <c r="E96" s="60" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F96" s="26" t="s">
         <v>479</v>
@@ -17998,7 +18007,7 @@
         <v>642</v>
       </c>
       <c r="E97" s="60" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="F97" s="26" t="s">
         <v>480</v>
@@ -18008,63 +18017,63 @@
       <c r="A98" s="27">
         <v>96</v>
       </c>
-      <c r="B98" s="100" t="s">
+      <c r="B98" s="97" t="s">
         <v>433</v>
       </c>
-      <c r="C98" s="101"/>
-      <c r="D98" s="101"/>
-      <c r="E98" s="101"/>
-      <c r="F98" s="102"/>
+      <c r="C98" s="98"/>
+      <c r="D98" s="98"/>
+      <c r="E98" s="98"/>
+      <c r="F98" s="99"/>
     </row>
     <row r="99" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="27">
         <v>97</v>
       </c>
-      <c r="B99" s="103"/>
-      <c r="C99" s="104"/>
-      <c r="D99" s="104"/>
-      <c r="E99" s="104"/>
-      <c r="F99" s="105"/>
+      <c r="B99" s="100"/>
+      <c r="C99" s="101"/>
+      <c r="D99" s="101"/>
+      <c r="E99" s="101"/>
+      <c r="F99" s="102"/>
     </row>
     <row r="100" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="27">
         <v>98</v>
       </c>
-      <c r="B100" s="103"/>
-      <c r="C100" s="104"/>
-      <c r="D100" s="104"/>
-      <c r="E100" s="104"/>
-      <c r="F100" s="105"/>
+      <c r="B100" s="100"/>
+      <c r="C100" s="101"/>
+      <c r="D100" s="101"/>
+      <c r="E100" s="101"/>
+      <c r="F100" s="102"/>
     </row>
     <row r="101" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="27">
         <v>99</v>
       </c>
-      <c r="B101" s="103"/>
-      <c r="C101" s="104"/>
-      <c r="D101" s="104"/>
-      <c r="E101" s="104"/>
-      <c r="F101" s="105"/>
+      <c r="B101" s="100"/>
+      <c r="C101" s="101"/>
+      <c r="D101" s="101"/>
+      <c r="E101" s="101"/>
+      <c r="F101" s="102"/>
     </row>
     <row r="102" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="27">
         <v>100</v>
       </c>
-      <c r="B102" s="103"/>
-      <c r="C102" s="104"/>
-      <c r="D102" s="104"/>
-      <c r="E102" s="104"/>
-      <c r="F102" s="105"/>
+      <c r="B102" s="100"/>
+      <c r="C102" s="101"/>
+      <c r="D102" s="101"/>
+      <c r="E102" s="101"/>
+      <c r="F102" s="102"/>
     </row>
     <row r="103" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="27">
         <v>101</v>
       </c>
-      <c r="B103" s="106"/>
-      <c r="C103" s="107"/>
-      <c r="D103" s="107"/>
-      <c r="E103" s="107"/>
-      <c r="F103" s="108"/>
+      <c r="B103" s="103"/>
+      <c r="C103" s="104"/>
+      <c r="D103" s="104"/>
+      <c r="E103" s="104"/>
+      <c r="F103" s="105"/>
     </row>
     <row r="104" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="24">
@@ -18073,11 +18082,11 @@
       <c r="B104" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="C104" s="112" t="s">
+      <c r="C104" s="88" t="s">
         <v>583</v>
       </c>
-      <c r="D104" s="113"/>
-      <c r="E104" s="114"/>
+      <c r="D104" s="89"/>
+      <c r="E104" s="90"/>
       <c r="F104" s="26" t="s">
         <v>481</v>
       </c>
@@ -18089,9 +18098,9 @@
       <c r="B105" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="C105" s="121"/>
-      <c r="D105" s="122"/>
-      <c r="E105" s="123"/>
+      <c r="C105" s="91"/>
+      <c r="D105" s="92"/>
+      <c r="E105" s="93"/>
       <c r="F105" s="26" t="s">
         <v>482</v>
       </c>
@@ -18103,9 +18112,9 @@
       <c r="B106" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="C106" s="115"/>
-      <c r="D106" s="116"/>
-      <c r="E106" s="117"/>
+      <c r="C106" s="94"/>
+      <c r="D106" s="95"/>
+      <c r="E106" s="96"/>
       <c r="F106" s="26" t="s">
         <v>483</v>
       </c>
@@ -18122,7 +18131,7 @@
         <v>648</v>
       </c>
       <c r="E107" s="60" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="F107" s="26" t="s">
         <v>484</v>
@@ -18156,7 +18165,7 @@
         <v>650</v>
       </c>
       <c r="E109" s="60" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F109" s="25" t="s">
         <v>486</v>
@@ -18174,7 +18183,7 @@
         <v>651</v>
       </c>
       <c r="E110" s="60" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="F110" s="25" t="s">
         <v>487</v>
@@ -18192,7 +18201,7 @@
         <v>652</v>
       </c>
       <c r="E111" s="60" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="F111" s="25" t="s">
         <v>488</v>
@@ -18210,7 +18219,7 @@
         <v>653</v>
       </c>
       <c r="E112" s="60" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="F112" s="25" t="s">
         <v>489</v>
@@ -18223,11 +18232,11 @@
       <c r="B113" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="C113" s="112" t="s">
+      <c r="C113" s="88" t="s">
         <v>583</v>
       </c>
-      <c r="D113" s="113"/>
-      <c r="E113" s="114"/>
+      <c r="D113" s="89"/>
+      <c r="E113" s="90"/>
       <c r="F113" s="25" t="s">
         <v>490</v>
       </c>
@@ -18239,9 +18248,9 @@
       <c r="B114" s="19" t="s">
         <v>382</v>
       </c>
-      <c r="C114" s="115"/>
-      <c r="D114" s="116"/>
-      <c r="E114" s="117"/>
+      <c r="C114" s="94"/>
+      <c r="D114" s="95"/>
+      <c r="E114" s="96"/>
       <c r="F114" s="25" t="s">
         <v>491</v>
       </c>
@@ -18258,7 +18267,7 @@
         <v>654</v>
       </c>
       <c r="E115" s="60" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="F115" s="25" t="s">
         <v>492</v>
@@ -18276,7 +18285,7 @@
         <v>655</v>
       </c>
       <c r="E116" s="60" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F116" s="25" t="s">
         <v>493</v>
@@ -18294,7 +18303,7 @@
         <v>656</v>
       </c>
       <c r="E117" s="60" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="F117" s="25" t="s">
         <v>494</v>
@@ -18312,7 +18321,7 @@
         <v>657</v>
       </c>
       <c r="E118" s="60" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="F118" s="25" t="s">
         <v>495</v>
@@ -18330,7 +18339,7 @@
         <v>658</v>
       </c>
       <c r="E119" s="60" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="F119" s="25" t="s">
         <v>496</v>
@@ -18348,7 +18357,7 @@
         <v>659</v>
       </c>
       <c r="E120" s="60" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F120" s="25" t="s">
         <v>497</v>
@@ -18366,7 +18375,7 @@
         <v>660</v>
       </c>
       <c r="E121" s="60" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F121" s="25" t="s">
         <v>498</v>
@@ -18384,7 +18393,7 @@
         <v>661</v>
       </c>
       <c r="E122" s="60" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F122" s="25" t="s">
         <v>420</v>
@@ -18402,7 +18411,7 @@
         <v>663</v>
       </c>
       <c r="E123" s="60" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F123" s="25" t="s">
         <v>420</v>
@@ -18420,7 +18429,7 @@
         <v>662</v>
       </c>
       <c r="E124" s="60" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="F124" s="25" t="s">
         <v>420</v>
@@ -18438,7 +18447,7 @@
         <v>664</v>
       </c>
       <c r="E125" s="60" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F125" s="25" t="s">
         <v>420</v>
@@ -18456,7 +18465,7 @@
         <v>665</v>
       </c>
       <c r="E126" s="60" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F126" s="25" t="s">
         <v>499</v>
@@ -18474,7 +18483,7 @@
         <v>666</v>
       </c>
       <c r="E127" s="60" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="F127" s="25" t="s">
         <v>500</v>
@@ -18492,7 +18501,7 @@
         <v>667</v>
       </c>
       <c r="E128" s="60" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="F128" s="25" t="s">
         <v>501</v>
@@ -18505,11 +18514,11 @@
       <c r="B129" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="C129" s="118" t="s">
+      <c r="C129" s="85" t="s">
         <v>583</v>
       </c>
-      <c r="D129" s="119"/>
-      <c r="E129" s="120"/>
+      <c r="D129" s="86"/>
+      <c r="E129" s="87"/>
       <c r="F129" s="25" t="s">
         <v>502</v>
       </c>
@@ -18518,63 +18527,63 @@
       <c r="A130" s="27">
         <v>128</v>
       </c>
-      <c r="B130" s="100" t="s">
+      <c r="B130" s="97" t="s">
         <v>433</v>
       </c>
-      <c r="C130" s="101"/>
-      <c r="D130" s="101"/>
-      <c r="E130" s="101"/>
-      <c r="F130" s="102"/>
+      <c r="C130" s="98"/>
+      <c r="D130" s="98"/>
+      <c r="E130" s="98"/>
+      <c r="F130" s="99"/>
     </row>
     <row r="131" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="27">
         <v>129</v>
       </c>
-      <c r="B131" s="103"/>
-      <c r="C131" s="104"/>
-      <c r="D131" s="104"/>
-      <c r="E131" s="104"/>
-      <c r="F131" s="105"/>
+      <c r="B131" s="100"/>
+      <c r="C131" s="101"/>
+      <c r="D131" s="101"/>
+      <c r="E131" s="101"/>
+      <c r="F131" s="102"/>
     </row>
     <row r="132" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="27">
         <v>130</v>
       </c>
-      <c r="B132" s="103"/>
-      <c r="C132" s="104"/>
-      <c r="D132" s="104"/>
-      <c r="E132" s="104"/>
-      <c r="F132" s="105"/>
+      <c r="B132" s="100"/>
+      <c r="C132" s="101"/>
+      <c r="D132" s="101"/>
+      <c r="E132" s="101"/>
+      <c r="F132" s="102"/>
     </row>
     <row r="133" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="27">
         <v>131</v>
       </c>
-      <c r="B133" s="103"/>
-      <c r="C133" s="104"/>
-      <c r="D133" s="104"/>
-      <c r="E133" s="104"/>
-      <c r="F133" s="105"/>
+      <c r="B133" s="100"/>
+      <c r="C133" s="101"/>
+      <c r="D133" s="101"/>
+      <c r="E133" s="101"/>
+      <c r="F133" s="102"/>
     </row>
     <row r="134" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="27">
         <v>132</v>
       </c>
-      <c r="B134" s="103"/>
-      <c r="C134" s="104"/>
-      <c r="D134" s="104"/>
-      <c r="E134" s="104"/>
-      <c r="F134" s="105"/>
+      <c r="B134" s="100"/>
+      <c r="C134" s="101"/>
+      <c r="D134" s="101"/>
+      <c r="E134" s="101"/>
+      <c r="F134" s="102"/>
     </row>
     <row r="135" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="27">
         <v>133</v>
       </c>
-      <c r="B135" s="106"/>
-      <c r="C135" s="107"/>
-      <c r="D135" s="107"/>
-      <c r="E135" s="107"/>
-      <c r="F135" s="108"/>
+      <c r="B135" s="103"/>
+      <c r="C135" s="104"/>
+      <c r="D135" s="104"/>
+      <c r="E135" s="104"/>
+      <c r="F135" s="105"/>
     </row>
     <row r="136" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="24">
@@ -18588,7 +18597,7 @@
         <v>668</v>
       </c>
       <c r="E136" s="60" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="F136" s="25" t="s">
         <v>503</v>
@@ -18606,7 +18615,7 @@
         <v>674</v>
       </c>
       <c r="E137" s="60" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="F137" s="25" t="s">
         <v>504</v>
@@ -18624,7 +18633,7 @@
         <v>669</v>
       </c>
       <c r="E138" s="60" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="F138" s="25" t="s">
         <v>505</v>
@@ -18642,7 +18651,7 @@
         <v>675</v>
       </c>
       <c r="E139" s="60" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="F139" s="25" t="s">
         <v>506</v>
@@ -18660,7 +18669,7 @@
         <v>670</v>
       </c>
       <c r="E140" s="60" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="F140" s="25" t="s">
         <v>507</v>
@@ -18678,7 +18687,7 @@
         <v>676</v>
       </c>
       <c r="E141" s="60" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="F141" s="25" t="s">
         <v>508</v>
@@ -18696,7 +18705,7 @@
         <v>671</v>
       </c>
       <c r="E142" s="60" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="F142" s="25" t="s">
         <v>509</v>
@@ -18714,7 +18723,7 @@
         <v>677</v>
       </c>
       <c r="E143" s="60" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F143" s="25" t="s">
         <v>510</v>
@@ -18732,7 +18741,7 @@
         <v>672</v>
       </c>
       <c r="E144" s="60" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="F144" s="25" t="s">
         <v>511</v>
@@ -18750,7 +18759,7 @@
         <v>678</v>
       </c>
       <c r="E145" s="60" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F145" s="25" t="s">
         <v>512</v>
@@ -18768,7 +18777,7 @@
         <v>673</v>
       </c>
       <c r="E146" s="60" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="F146" s="25" t="s">
         <v>513</v>
@@ -18786,7 +18795,7 @@
         <v>679</v>
       </c>
       <c r="E147" s="60" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="F147" s="25" t="s">
         <v>514</v>
@@ -18804,7 +18813,7 @@
         <v>680</v>
       </c>
       <c r="E148" s="60" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="F148" s="25" t="s">
         <v>515</v>
@@ -18822,7 +18831,7 @@
         <v>681</v>
       </c>
       <c r="E149" s="60" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="F149" s="25" t="s">
         <v>516</v>
@@ -18840,7 +18849,7 @@
         <v>682</v>
       </c>
       <c r="E150" s="60" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F150" s="25" t="s">
         <v>517</v>
@@ -18860,7 +18869,7 @@
         <v>683</v>
       </c>
       <c r="E151" s="60" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="F151" s="25" t="s">
         <v>518</v>
@@ -18878,7 +18887,7 @@
         <v>684</v>
       </c>
       <c r="E152" s="60" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F152" s="25" t="s">
         <v>393</v>
@@ -18896,7 +18905,7 @@
         <v>685</v>
       </c>
       <c r="E153" s="60" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="F153" s="25" t="s">
         <v>519</v>
@@ -18914,7 +18923,7 @@
         <v>686</v>
       </c>
       <c r="E154" s="60" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F154" s="25" t="s">
         <v>520</v>
@@ -18927,11 +18936,11 @@
       <c r="B155" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="C155" s="112" t="s">
+      <c r="C155" s="88" t="s">
         <v>583</v>
       </c>
-      <c r="D155" s="113"/>
-      <c r="E155" s="114"/>
+      <c r="D155" s="89"/>
+      <c r="E155" s="90"/>
       <c r="F155" s="25" t="s">
         <v>521</v>
       </c>
@@ -18943,9 +18952,9 @@
       <c r="B156" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="C156" s="115"/>
-      <c r="D156" s="116"/>
-      <c r="E156" s="117"/>
+      <c r="C156" s="94"/>
+      <c r="D156" s="95"/>
+      <c r="E156" s="96"/>
       <c r="F156" s="25" t="s">
         <v>522</v>
       </c>
@@ -18954,13 +18963,13 @@
       <c r="A157" s="27">
         <v>155</v>
       </c>
-      <c r="B157" s="109" t="s">
+      <c r="B157" s="106" t="s">
         <v>433</v>
       </c>
-      <c r="C157" s="110"/>
-      <c r="D157" s="110"/>
-      <c r="E157" s="110"/>
-      <c r="F157" s="111"/>
+      <c r="C157" s="107"/>
+      <c r="D157" s="107"/>
+      <c r="E157" s="107"/>
+      <c r="F157" s="108"/>
     </row>
     <row r="158" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="24">
@@ -18969,11 +18978,11 @@
       <c r="B158" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="C158" s="118" t="s">
+      <c r="C158" s="85" t="s">
         <v>583</v>
       </c>
-      <c r="D158" s="119"/>
-      <c r="E158" s="120"/>
+      <c r="D158" s="86"/>
+      <c r="E158" s="87"/>
       <c r="F158" s="25" t="s">
         <v>523</v>
       </c>
@@ -18990,7 +18999,7 @@
         <v>687</v>
       </c>
       <c r="E159" s="60" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="F159" s="25" t="s">
         <v>524</v>
@@ -19008,7 +19017,7 @@
         <v>688</v>
       </c>
       <c r="E160" s="60" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="F160" s="25" t="s">
         <v>525</v>
@@ -19026,7 +19035,7 @@
         <v>689</v>
       </c>
       <c r="E161" s="60" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="F161" s="25" t="s">
         <v>526</v>
@@ -19044,7 +19053,7 @@
         <v>690</v>
       </c>
       <c r="E162" s="60" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="F162" s="25" t="s">
         <v>527</v>
@@ -19062,7 +19071,7 @@
         <v>691</v>
       </c>
       <c r="E163" s="60" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="F163" s="25" t="s">
         <v>528</v>
@@ -19080,7 +19089,7 @@
         <v>692</v>
       </c>
       <c r="E164" s="60" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F164" s="25" t="s">
         <v>529</v>
@@ -19098,7 +19107,7 @@
         <v>693</v>
       </c>
       <c r="E165" s="60" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="F165" s="25" t="s">
         <v>530</v>
@@ -19108,123 +19117,123 @@
       <c r="A166" s="27">
         <v>164</v>
       </c>
-      <c r="B166" s="100" t="s">
+      <c r="B166" s="97" t="s">
         <v>433</v>
       </c>
-      <c r="C166" s="101"/>
-      <c r="D166" s="101"/>
-      <c r="E166" s="101"/>
-      <c r="F166" s="102"/>
+      <c r="C166" s="98"/>
+      <c r="D166" s="98"/>
+      <c r="E166" s="98"/>
+      <c r="F166" s="99"/>
     </row>
     <row r="167" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="27">
         <v>165</v>
       </c>
-      <c r="B167" s="103"/>
-      <c r="C167" s="104"/>
-      <c r="D167" s="104"/>
-      <c r="E167" s="104"/>
-      <c r="F167" s="105"/>
+      <c r="B167" s="100"/>
+      <c r="C167" s="101"/>
+      <c r="D167" s="101"/>
+      <c r="E167" s="101"/>
+      <c r="F167" s="102"/>
     </row>
     <row r="168" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="27">
         <v>166</v>
       </c>
-      <c r="B168" s="103"/>
-      <c r="C168" s="104"/>
-      <c r="D168" s="104"/>
-      <c r="E168" s="104"/>
-      <c r="F168" s="105"/>
+      <c r="B168" s="100"/>
+      <c r="C168" s="101"/>
+      <c r="D168" s="101"/>
+      <c r="E168" s="101"/>
+      <c r="F168" s="102"/>
     </row>
     <row r="169" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="27">
         <v>167</v>
       </c>
-      <c r="B169" s="103"/>
-      <c r="C169" s="104"/>
-      <c r="D169" s="104"/>
-      <c r="E169" s="104"/>
-      <c r="F169" s="105"/>
+      <c r="B169" s="100"/>
+      <c r="C169" s="101"/>
+      <c r="D169" s="101"/>
+      <c r="E169" s="101"/>
+      <c r="F169" s="102"/>
     </row>
     <row r="170" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="27">
         <v>168</v>
       </c>
-      <c r="B170" s="103"/>
-      <c r="C170" s="104"/>
-      <c r="D170" s="104"/>
-      <c r="E170" s="104"/>
-      <c r="F170" s="105"/>
+      <c r="B170" s="100"/>
+      <c r="C170" s="101"/>
+      <c r="D170" s="101"/>
+      <c r="E170" s="101"/>
+      <c r="F170" s="102"/>
     </row>
     <row r="171" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="27">
         <v>169</v>
       </c>
-      <c r="B171" s="103"/>
-      <c r="C171" s="104"/>
-      <c r="D171" s="104"/>
-      <c r="E171" s="104"/>
-      <c r="F171" s="105"/>
+      <c r="B171" s="100"/>
+      <c r="C171" s="101"/>
+      <c r="D171" s="101"/>
+      <c r="E171" s="101"/>
+      <c r="F171" s="102"/>
     </row>
     <row r="172" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="27">
         <v>170</v>
       </c>
-      <c r="B172" s="103"/>
-      <c r="C172" s="104"/>
-      <c r="D172" s="104"/>
-      <c r="E172" s="104"/>
-      <c r="F172" s="105"/>
+      <c r="B172" s="100"/>
+      <c r="C172" s="101"/>
+      <c r="D172" s="101"/>
+      <c r="E172" s="101"/>
+      <c r="F172" s="102"/>
     </row>
     <row r="173" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="27">
         <v>171</v>
       </c>
-      <c r="B173" s="103"/>
-      <c r="C173" s="104"/>
-      <c r="D173" s="104"/>
-      <c r="E173" s="104"/>
-      <c r="F173" s="105"/>
+      <c r="B173" s="100"/>
+      <c r="C173" s="101"/>
+      <c r="D173" s="101"/>
+      <c r="E173" s="101"/>
+      <c r="F173" s="102"/>
     </row>
     <row r="174" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="27">
         <v>172</v>
       </c>
-      <c r="B174" s="103"/>
-      <c r="C174" s="104"/>
-      <c r="D174" s="104"/>
-      <c r="E174" s="104"/>
-      <c r="F174" s="105"/>
+      <c r="B174" s="100"/>
+      <c r="C174" s="101"/>
+      <c r="D174" s="101"/>
+      <c r="E174" s="101"/>
+      <c r="F174" s="102"/>
     </row>
     <row r="175" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="27">
         <v>173</v>
       </c>
-      <c r="B175" s="103"/>
-      <c r="C175" s="104"/>
-      <c r="D175" s="104"/>
-      <c r="E175" s="104"/>
-      <c r="F175" s="105"/>
+      <c r="B175" s="100"/>
+      <c r="C175" s="101"/>
+      <c r="D175" s="101"/>
+      <c r="E175" s="101"/>
+      <c r="F175" s="102"/>
     </row>
     <row r="176" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="27">
         <v>174</v>
       </c>
-      <c r="B176" s="103"/>
-      <c r="C176" s="104"/>
-      <c r="D176" s="104"/>
-      <c r="E176" s="104"/>
-      <c r="F176" s="105"/>
+      <c r="B176" s="100"/>
+      <c r="C176" s="101"/>
+      <c r="D176" s="101"/>
+      <c r="E176" s="101"/>
+      <c r="F176" s="102"/>
     </row>
     <row r="177" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="27">
         <v>175</v>
       </c>
-      <c r="B177" s="106"/>
-      <c r="C177" s="107"/>
-      <c r="D177" s="107"/>
-      <c r="E177" s="107"/>
-      <c r="F177" s="108"/>
+      <c r="B177" s="103"/>
+      <c r="C177" s="104"/>
+      <c r="D177" s="104"/>
+      <c r="E177" s="104"/>
+      <c r="F177" s="105"/>
     </row>
     <row r="178" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="24">
@@ -19238,7 +19247,7 @@
         <v>694</v>
       </c>
       <c r="E178" s="60" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F178" s="25" t="s">
         <v>531</v>
@@ -19256,7 +19265,7 @@
         <v>700</v>
       </c>
       <c r="E179" s="60" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="F179" s="25" t="s">
         <v>532</v>
@@ -19274,7 +19283,7 @@
         <v>708</v>
       </c>
       <c r="E180" s="60" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="F180" s="25" t="s">
         <v>533</v>
@@ -19292,7 +19301,7 @@
         <v>709</v>
       </c>
       <c r="E181" s="60" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="F181" s="25" t="s">
         <v>534</v>
@@ -19310,7 +19319,7 @@
         <v>695</v>
       </c>
       <c r="E182" s="60" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="F182" s="25" t="s">
         <v>535</v>
@@ -19328,7 +19337,7 @@
         <v>711</v>
       </c>
       <c r="E183" s="60" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="F183" s="25" t="s">
         <v>536</v>
@@ -19346,7 +19355,7 @@
         <v>712</v>
       </c>
       <c r="E184" s="60" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="F184" s="25" t="s">
         <v>537</v>
@@ -19364,7 +19373,7 @@
         <v>696</v>
       </c>
       <c r="E185" s="60" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="F185" s="25" t="s">
         <v>538</v>
@@ -19382,7 +19391,7 @@
         <v>697</v>
       </c>
       <c r="E186" s="60" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F186" s="25" t="s">
         <v>539</v>
@@ -19400,7 +19409,7 @@
         <v>698</v>
       </c>
       <c r="E187" s="60" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="F187" s="25" t="s">
         <v>540</v>
@@ -19418,7 +19427,7 @@
         <v>699</v>
       </c>
       <c r="E188" s="60" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F188" s="25" t="s">
         <v>541</v>
@@ -19436,7 +19445,7 @@
         <v>701</v>
       </c>
       <c r="E189" s="60" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="F189" s="25" t="s">
         <v>542</v>
@@ -19454,7 +19463,7 @@
         <v>702</v>
       </c>
       <c r="E190" s="60" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F190" s="25" t="s">
         <v>543</v>
@@ -19472,7 +19481,7 @@
         <v>703</v>
       </c>
       <c r="E191" s="60" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="F191" s="25" t="s">
         <v>544</v>
@@ -19490,7 +19499,7 @@
         <v>704</v>
       </c>
       <c r="E192" s="60" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="F192" s="25" t="s">
         <v>545</v>
@@ -19508,7 +19517,7 @@
         <v>705</v>
       </c>
       <c r="E193" s="60" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="F193" s="25" t="s">
         <v>546</v>
@@ -19526,7 +19535,7 @@
         <v>706</v>
       </c>
       <c r="E194" s="60" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="F194" s="25" t="s">
         <v>547</v>
@@ -19544,7 +19553,7 @@
         <v>707</v>
       </c>
       <c r="E195" s="60" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="F195" s="25" t="s">
         <v>548</v>
@@ -19562,7 +19571,7 @@
         <v>710</v>
       </c>
       <c r="E196" s="60" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F196" s="25" t="s">
         <v>549</v>
@@ -19580,7 +19589,7 @@
         <v>713</v>
       </c>
       <c r="E197" s="60" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F197" s="25" t="s">
         <v>550</v>
@@ -19598,7 +19607,7 @@
         <v>714</v>
       </c>
       <c r="E198" s="60" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F198" s="25" t="s">
         <v>551</v>
@@ -19608,13 +19617,13 @@
       <c r="A199" s="27">
         <v>197</v>
       </c>
-      <c r="B199" s="109" t="s">
+      <c r="B199" s="106" t="s">
         <v>569</v>
       </c>
-      <c r="C199" s="110"/>
-      <c r="D199" s="110"/>
-      <c r="E199" s="110"/>
-      <c r="F199" s="111"/>
+      <c r="C199" s="107"/>
+      <c r="D199" s="107"/>
+      <c r="E199" s="107"/>
+      <c r="F199" s="108"/>
     </row>
     <row r="200" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="24">
@@ -19628,7 +19637,7 @@
         <v>715</v>
       </c>
       <c r="E200" s="60" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="F200" s="25" t="s">
         <v>420</v>
@@ -19638,103 +19647,103 @@
       <c r="A201" s="27">
         <v>199</v>
       </c>
-      <c r="B201" s="100" t="s">
+      <c r="B201" s="97" t="s">
         <v>568</v>
       </c>
-      <c r="C201" s="101"/>
-      <c r="D201" s="101"/>
-      <c r="E201" s="101"/>
-      <c r="F201" s="102"/>
+      <c r="C201" s="98"/>
+      <c r="D201" s="98"/>
+      <c r="E201" s="98"/>
+      <c r="F201" s="99"/>
     </row>
     <row r="202" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="27">
         <v>200</v>
       </c>
-      <c r="B202" s="103"/>
-      <c r="C202" s="104"/>
-      <c r="D202" s="104"/>
-      <c r="E202" s="104"/>
-      <c r="F202" s="105"/>
+      <c r="B202" s="100"/>
+      <c r="C202" s="101"/>
+      <c r="D202" s="101"/>
+      <c r="E202" s="101"/>
+      <c r="F202" s="102"/>
     </row>
     <row r="203" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="27">
         <v>201</v>
       </c>
-      <c r="B203" s="103"/>
-      <c r="C203" s="104"/>
-      <c r="D203" s="104"/>
-      <c r="E203" s="104"/>
-      <c r="F203" s="105"/>
+      <c r="B203" s="100"/>
+      <c r="C203" s="101"/>
+      <c r="D203" s="101"/>
+      <c r="E203" s="101"/>
+      <c r="F203" s="102"/>
     </row>
     <row r="204" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="27">
         <v>202</v>
       </c>
-      <c r="B204" s="103"/>
-      <c r="C204" s="104"/>
-      <c r="D204" s="104"/>
-      <c r="E204" s="104"/>
-      <c r="F204" s="105"/>
+      <c r="B204" s="100"/>
+      <c r="C204" s="101"/>
+      <c r="D204" s="101"/>
+      <c r="E204" s="101"/>
+      <c r="F204" s="102"/>
     </row>
     <row r="205" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="27">
         <v>203</v>
       </c>
-      <c r="B205" s="103"/>
-      <c r="C205" s="104"/>
-      <c r="D205" s="104"/>
-      <c r="E205" s="104"/>
-      <c r="F205" s="105"/>
+      <c r="B205" s="100"/>
+      <c r="C205" s="101"/>
+      <c r="D205" s="101"/>
+      <c r="E205" s="101"/>
+      <c r="F205" s="102"/>
     </row>
     <row r="206" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="27">
         <v>204</v>
       </c>
-      <c r="B206" s="103"/>
-      <c r="C206" s="104"/>
-      <c r="D206" s="104"/>
-      <c r="E206" s="104"/>
-      <c r="F206" s="105"/>
+      <c r="B206" s="100"/>
+      <c r="C206" s="101"/>
+      <c r="D206" s="101"/>
+      <c r="E206" s="101"/>
+      <c r="F206" s="102"/>
     </row>
     <row r="207" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="27">
         <v>205</v>
       </c>
-      <c r="B207" s="103"/>
-      <c r="C207" s="104"/>
-      <c r="D207" s="104"/>
-      <c r="E207" s="104"/>
-      <c r="F207" s="105"/>
+      <c r="B207" s="100"/>
+      <c r="C207" s="101"/>
+      <c r="D207" s="101"/>
+      <c r="E207" s="101"/>
+      <c r="F207" s="102"/>
     </row>
     <row r="208" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="27">
         <v>206</v>
       </c>
-      <c r="B208" s="103"/>
-      <c r="C208" s="104"/>
-      <c r="D208" s="104"/>
-      <c r="E208" s="104"/>
-      <c r="F208" s="105"/>
+      <c r="B208" s="100"/>
+      <c r="C208" s="101"/>
+      <c r="D208" s="101"/>
+      <c r="E208" s="101"/>
+      <c r="F208" s="102"/>
     </row>
     <row r="209" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="27">
         <v>207</v>
       </c>
-      <c r="B209" s="103"/>
-      <c r="C209" s="104"/>
-      <c r="D209" s="104"/>
-      <c r="E209" s="104"/>
-      <c r="F209" s="105"/>
+      <c r="B209" s="100"/>
+      <c r="C209" s="101"/>
+      <c r="D209" s="101"/>
+      <c r="E209" s="101"/>
+      <c r="F209" s="102"/>
     </row>
     <row r="210" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="27">
         <v>208</v>
       </c>
-      <c r="B210" s="106"/>
-      <c r="C210" s="107"/>
-      <c r="D210" s="107"/>
-      <c r="E210" s="107"/>
-      <c r="F210" s="108"/>
+      <c r="B210" s="103"/>
+      <c r="C210" s="104"/>
+      <c r="D210" s="104"/>
+      <c r="E210" s="104"/>
+      <c r="F210" s="105"/>
     </row>
     <row r="211" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="24">
@@ -19750,7 +19759,7 @@
         <v>716</v>
       </c>
       <c r="E211" s="60" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F211" s="25" t="s">
         <v>553</v>
@@ -19784,7 +19793,7 @@
         <v>718</v>
       </c>
       <c r="E213" s="60" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="F213" s="25" t="s">
         <v>555</v>
@@ -19794,83 +19803,83 @@
       <c r="A214" s="27">
         <v>212</v>
       </c>
-      <c r="B214" s="100" t="s">
+      <c r="B214" s="97" t="s">
         <v>552</v>
       </c>
-      <c r="C214" s="101"/>
-      <c r="D214" s="101"/>
-      <c r="E214" s="101"/>
-      <c r="F214" s="102"/>
+      <c r="C214" s="98"/>
+      <c r="D214" s="98"/>
+      <c r="E214" s="98"/>
+      <c r="F214" s="99"/>
     </row>
     <row r="215" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="27">
         <v>213</v>
       </c>
-      <c r="B215" s="103"/>
-      <c r="C215" s="104"/>
-      <c r="D215" s="104"/>
-      <c r="E215" s="104"/>
-      <c r="F215" s="105"/>
+      <c r="B215" s="100"/>
+      <c r="C215" s="101"/>
+      <c r="D215" s="101"/>
+      <c r="E215" s="101"/>
+      <c r="F215" s="102"/>
     </row>
     <row r="216" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="27">
         <v>214</v>
       </c>
-      <c r="B216" s="103"/>
-      <c r="C216" s="104"/>
-      <c r="D216" s="104"/>
-      <c r="E216" s="104"/>
-      <c r="F216" s="105"/>
+      <c r="B216" s="100"/>
+      <c r="C216" s="101"/>
+      <c r="D216" s="101"/>
+      <c r="E216" s="101"/>
+      <c r="F216" s="102"/>
     </row>
     <row r="217" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="27">
         <v>215</v>
       </c>
-      <c r="B217" s="103"/>
-      <c r="C217" s="104"/>
-      <c r="D217" s="104"/>
-      <c r="E217" s="104"/>
-      <c r="F217" s="105"/>
+      <c r="B217" s="100"/>
+      <c r="C217" s="101"/>
+      <c r="D217" s="101"/>
+      <c r="E217" s="101"/>
+      <c r="F217" s="102"/>
     </row>
     <row r="218" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="27">
         <v>216</v>
       </c>
-      <c r="B218" s="103"/>
-      <c r="C218" s="104"/>
-      <c r="D218" s="104"/>
-      <c r="E218" s="104"/>
-      <c r="F218" s="105"/>
+      <c r="B218" s="100"/>
+      <c r="C218" s="101"/>
+      <c r="D218" s="101"/>
+      <c r="E218" s="101"/>
+      <c r="F218" s="102"/>
     </row>
     <row r="219" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="27">
         <v>217</v>
       </c>
-      <c r="B219" s="103"/>
-      <c r="C219" s="104"/>
-      <c r="D219" s="104"/>
-      <c r="E219" s="104"/>
-      <c r="F219" s="105"/>
+      <c r="B219" s="100"/>
+      <c r="C219" s="101"/>
+      <c r="D219" s="101"/>
+      <c r="E219" s="101"/>
+      <c r="F219" s="102"/>
     </row>
     <row r="220" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="27">
         <v>218</v>
       </c>
-      <c r="B220" s="103"/>
-      <c r="C220" s="104"/>
-      <c r="D220" s="104"/>
-      <c r="E220" s="104"/>
-      <c r="F220" s="105"/>
+      <c r="B220" s="100"/>
+      <c r="C220" s="101"/>
+      <c r="D220" s="101"/>
+      <c r="E220" s="101"/>
+      <c r="F220" s="102"/>
     </row>
     <row r="221" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="27">
         <v>219</v>
       </c>
-      <c r="B221" s="103"/>
-      <c r="C221" s="104"/>
-      <c r="D221" s="104"/>
-      <c r="E221" s="104"/>
-      <c r="F221" s="105"/>
+      <c r="B221" s="100"/>
+      <c r="C221" s="101"/>
+      <c r="D221" s="101"/>
+      <c r="E221" s="101"/>
+      <c r="F221" s="102"/>
     </row>
     <row r="222" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="24">
@@ -19879,11 +19888,11 @@
       <c r="B222" s="19" t="s">
         <v>390</v>
       </c>
-      <c r="C222" s="118" t="s">
+      <c r="C222" s="85" t="s">
         <v>583</v>
       </c>
-      <c r="D222" s="119"/>
-      <c r="E222" s="120"/>
+      <c r="D222" s="86"/>
+      <c r="E222" s="87"/>
       <c r="F222" s="25" t="s">
         <v>556</v>
       </c>
@@ -19900,7 +19909,7 @@
         <v>719</v>
       </c>
       <c r="E223" s="60" t="s">
-        <v>805</v>
+        <v>869</v>
       </c>
       <c r="F223" s="25" t="s">
         <v>557</v>
@@ -19918,7 +19927,7 @@
         <v>720</v>
       </c>
       <c r="E224" s="60" t="s">
-        <v>806</v>
+        <v>870</v>
       </c>
       <c r="F224" s="25" t="s">
         <v>558</v>
@@ -19938,7 +19947,7 @@
         <v>721</v>
       </c>
       <c r="E225" s="61" t="s">
-        <v>807</v>
+        <v>871</v>
       </c>
       <c r="F225" s="31" t="s">
         <v>559</v>
@@ -19948,18 +19957,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="25">
-    <mergeCell ref="C222:E222"/>
-    <mergeCell ref="C104:E106"/>
-    <mergeCell ref="C113:E114"/>
-    <mergeCell ref="C129:E129"/>
-    <mergeCell ref="C155:E156"/>
-    <mergeCell ref="C158:E158"/>
-    <mergeCell ref="B214:F221"/>
-    <mergeCell ref="B130:F135"/>
-    <mergeCell ref="B157:F157"/>
-    <mergeCell ref="B166:F177"/>
-    <mergeCell ref="B201:F210"/>
-    <mergeCell ref="B199:F199"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="H3:K3"/>
@@ -19973,6 +19970,18 @@
     <mergeCell ref="C49:E49"/>
     <mergeCell ref="C51:E53"/>
     <mergeCell ref="C79:E85"/>
+    <mergeCell ref="C222:E222"/>
+    <mergeCell ref="C104:E106"/>
+    <mergeCell ref="C113:E114"/>
+    <mergeCell ref="C129:E129"/>
+    <mergeCell ref="C155:E156"/>
+    <mergeCell ref="C158:E158"/>
+    <mergeCell ref="B214:F221"/>
+    <mergeCell ref="B130:F135"/>
+    <mergeCell ref="B157:F157"/>
+    <mergeCell ref="B166:F177"/>
+    <mergeCell ref="B201:F210"/>
+    <mergeCell ref="B199:F199"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C3 C10 C21 C26 C15 C49 C51 C79 C104 C113 C129 C155 C158 C222">

--- a/Pin100.xlsx
+++ b/Pin100.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\McuCode\GEN_RH850_F1L\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="14970" windowHeight="7515"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="14970" windowHeight="7455" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="pinmux配置" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pinmux配置!$A$1:$P$301</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -29,7 +24,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -159,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -185,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -211,7 +206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -227,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -254,7 +249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -282,7 +277,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -310,7 +305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -346,7 +341,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -372,7 +367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -398,7 +393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -424,7 +419,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -455,7 +450,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2606" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2621" uniqueCount="871">
   <si>
     <t>Pin</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3586,6 +3581,14 @@
   </si>
   <si>
     <t>CanIsrTx_2func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART1_Rx_Handler</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3765,7 +3768,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -4301,17 +4304,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -4320,22 +4312,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4540,40 +4523,10 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4604,6 +4557,90 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4651,83 +4688,311 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="35">
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4789,7 +5054,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4831,7 +5096,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4866,7 +5131,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5077,16 +5342,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T302"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C265" sqref="C265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="16.875" style="2" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="15"/>
     <col min="6" max="6" width="9.75" customWidth="1"/>
     <col min="7" max="7" width="14.125" style="1" customWidth="1"/>
@@ -5154,11 +5419,11 @@
       <c r="P1" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="R1" s="77" t="s">
+      <c r="R1" s="67" t="s">
         <v>563</v>
       </c>
-      <c r="S1" s="78"/>
-      <c r="T1" s="79"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="69"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="37">
@@ -5209,9 +5474,9 @@
       <c r="P2" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="82"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="72"/>
     </row>
     <row r="3" spans="1:20" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A3" s="24">
@@ -5247,10 +5512,10 @@
       <c r="R3" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="S3" s="83" t="s">
+      <c r="S3" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="T3" s="84"/>
+      <c r="T3" s="74"/>
     </row>
     <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="24">
@@ -5283,7 +5548,7 @@
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="39"/>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="63" t="s">
         <v>137</v>
       </c>
       <c r="S4" s="12" t="s">
@@ -5326,7 +5591,7 @@
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="39"/>
-      <c r="R5" s="67"/>
+      <c r="R5" s="63"/>
       <c r="S5" s="12" t="s">
         <v>139</v>
       </c>
@@ -5370,10 +5635,10 @@
       <c r="R6" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="S6" s="75" t="s">
+      <c r="S6" s="65" t="s">
         <v>142</v>
       </c>
-      <c r="T6" s="76"/>
+      <c r="T6" s="66"/>
     </row>
     <row r="7" spans="1:20" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A7" s="24">
@@ -5427,10 +5692,10 @@
       <c r="R7" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="S7" s="75" t="s">
+      <c r="S7" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="T7" s="76"/>
+      <c r="T7" s="66"/>
     </row>
     <row r="8" spans="1:20" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A8" s="24">
@@ -5484,10 +5749,10 @@
       <c r="R8" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="S8" s="75" t="s">
+      <c r="S8" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="T8" s="76"/>
+      <c r="T8" s="66"/>
     </row>
     <row r="9" spans="1:20" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A9" s="24">
@@ -5525,10 +5790,10 @@
       <c r="R9" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="S9" s="75" t="s">
+      <c r="S9" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="T9" s="76"/>
+      <c r="T9" s="66"/>
     </row>
     <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="24">
@@ -5559,7 +5824,7 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="39"/>
-      <c r="R10" s="67" t="s">
+      <c r="R10" s="63" t="s">
         <v>149</v>
       </c>
       <c r="S10" s="12" t="s">
@@ -5618,7 +5883,7 @@
       <c r="P11" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="R11" s="67"/>
+      <c r="R11" s="63"/>
       <c r="S11" s="12" t="s">
         <v>151</v>
       </c>
@@ -5662,10 +5927,10 @@
       <c r="R12" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="S12" s="75" t="s">
+      <c r="S12" s="65" t="s">
         <v>154</v>
       </c>
-      <c r="T12" s="76"/>
+      <c r="T12" s="66"/>
     </row>
     <row r="13" spans="1:20" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A13" s="24">
@@ -5784,7 +6049,7 @@
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="39"/>
-      <c r="R15" s="67" t="s">
+      <c r="R15" s="63" t="s">
         <v>160</v>
       </c>
       <c r="S15" s="12" t="s">
@@ -5825,7 +6090,7 @@
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="39"/>
-      <c r="R16" s="67"/>
+      <c r="R16" s="63"/>
       <c r="S16" s="12" t="s">
         <v>163</v>
       </c>
@@ -5866,7 +6131,7 @@
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="39"/>
-      <c r="R17" s="67" t="s">
+      <c r="R17" s="63" t="s">
         <v>165</v>
       </c>
       <c r="S17" s="12" t="s">
@@ -5905,7 +6170,7 @@
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="39"/>
-      <c r="R18" s="67"/>
+      <c r="R18" s="63"/>
       <c r="S18" s="12" t="s">
         <v>163</v>
       </c>
@@ -5962,7 +6227,7 @@
       <c r="P19" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="R19" s="67" t="s">
+      <c r="R19" s="63" t="s">
         <v>168</v>
       </c>
       <c r="S19" s="12" t="s">
@@ -6003,7 +6268,7 @@
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="39"/>
-      <c r="R20" s="67"/>
+      <c r="R20" s="63"/>
       <c r="S20" s="12" t="s">
         <v>163</v>
       </c>
@@ -6040,7 +6305,7 @@
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="39"/>
-      <c r="R21" s="67" t="s">
+      <c r="R21" s="63" t="s">
         <v>172</v>
       </c>
       <c r="S21" s="12" t="s">
@@ -6079,7 +6344,7 @@
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="39"/>
-      <c r="R22" s="63"/>
+      <c r="R22" s="64"/>
       <c r="S22" s="13" t="s">
         <v>163</v>
       </c>
@@ -6116,10 +6381,10 @@
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
       <c r="P23" s="39"/>
-      <c r="R23" s="63" t="s">
+      <c r="R23" s="64" t="s">
         <v>175</v>
       </c>
-      <c r="S23" s="66" t="s">
+      <c r="S23" s="77" t="s">
         <v>161</v>
       </c>
       <c r="T23" s="51" t="s">
@@ -6134,7 +6399,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D24" s="8">
         <v>5</v>
@@ -6155,8 +6420,8 @@
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
       <c r="P24" s="39"/>
-      <c r="R24" s="64"/>
-      <c r="S24" s="66"/>
+      <c r="R24" s="75"/>
+      <c r="S24" s="77"/>
       <c r="T24" s="52" t="s">
         <v>177</v>
       </c>
@@ -6169,7 +6434,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D25" s="8">
         <v>4</v>
@@ -6190,8 +6455,8 @@
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="39"/>
-      <c r="R25" s="64"/>
-      <c r="S25" s="66" t="s">
+      <c r="R25" s="75"/>
+      <c r="S25" s="77" t="s">
         <v>178</v>
       </c>
       <c r="T25" s="51" t="s">
@@ -6206,7 +6471,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D26" s="8">
         <v>3</v>
@@ -6227,8 +6492,8 @@
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
       <c r="P26" s="39"/>
-      <c r="R26" s="65"/>
-      <c r="S26" s="66"/>
+      <c r="R26" s="76"/>
+      <c r="S26" s="77"/>
       <c r="T26" s="52" t="s">
         <v>180</v>
       </c>
@@ -6241,7 +6506,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D27" s="8">
         <v>2</v>
@@ -6262,7 +6527,7 @@
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="39"/>
-      <c r="R27" s="67" t="s">
+      <c r="R27" s="63" t="s">
         <v>181</v>
       </c>
       <c r="S27" s="14" t="s">
@@ -6280,7 +6545,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D28" s="8">
         <v>1</v>
@@ -6303,7 +6568,7 @@
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
       <c r="P28" s="39"/>
-      <c r="R28" s="67"/>
+      <c r="R28" s="63"/>
       <c r="S28" s="14" t="s">
         <v>178</v>
       </c>
@@ -6319,7 +6584,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D29" s="8">
         <v>0</v>
@@ -6340,7 +6605,7 @@
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
       <c r="P29" s="39"/>
-      <c r="R29" s="67" t="s">
+      <c r="R29" s="63" t="s">
         <v>185</v>
       </c>
       <c r="S29" s="14" t="s">
@@ -6399,7 +6664,7 @@
       <c r="P30" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="R30" s="74"/>
+      <c r="R30" s="84"/>
       <c r="S30" s="53" t="s">
         <v>178</v>
       </c>
@@ -6506,10 +6771,10 @@
       <c r="P32" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="R32" s="72" t="s">
+      <c r="R32" s="82" t="s">
         <v>192</v>
       </c>
-      <c r="S32" s="73"/>
+      <c r="S32" s="83"/>
     </row>
     <row r="33" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="27">
@@ -6776,10 +7041,10 @@
       <c r="P37" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="R37" s="68" t="s">
+      <c r="R37" s="78" t="s">
         <v>565</v>
       </c>
-      <c r="S37" s="69"/>
+      <c r="S37" s="79"/>
     </row>
     <row r="38" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="24">
@@ -6810,8 +7075,8 @@
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
       <c r="P38" s="39"/>
-      <c r="R38" s="70"/>
-      <c r="S38" s="71"/>
+      <c r="R38" s="80"/>
+      <c r="S38" s="81"/>
     </row>
     <row r="39" spans="1:19" ht="17.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A39" s="24">
@@ -7373,7 +7638,7 @@
         <v>52</v>
       </c>
       <c r="C54" s="8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D54" s="8">
         <v>15</v>
@@ -7407,7 +7672,7 @@
         <v>53</v>
       </c>
       <c r="C55" s="8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D55" s="8">
         <v>14</v>
@@ -7441,7 +7706,7 @@
         <v>54</v>
       </c>
       <c r="C56" s="8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D56" s="8">
         <v>13</v>
@@ -7475,7 +7740,7 @@
         <v>55</v>
       </c>
       <c r="C57" s="8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D57" s="8">
         <v>12</v>
@@ -7509,7 +7774,7 @@
         <v>56</v>
       </c>
       <c r="C58" s="8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D58" s="8">
         <v>11</v>
@@ -7543,7 +7808,7 @@
         <v>57</v>
       </c>
       <c r="C59" s="8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D59" s="8">
         <v>10</v>
@@ -7577,7 +7842,7 @@
         <v>58</v>
       </c>
       <c r="C60" s="8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D60" s="8">
         <v>9</v>
@@ -7611,7 +7876,7 @@
         <v>59</v>
       </c>
       <c r="C61" s="8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D61" s="8">
         <v>8</v>
@@ -7645,7 +7910,7 @@
         <v>60</v>
       </c>
       <c r="C62" s="8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D62" s="8">
         <v>7</v>
@@ -7679,7 +7944,7 @@
         <v>61</v>
       </c>
       <c r="C63" s="8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D63" s="8">
         <v>6</v>
@@ -7713,7 +7978,7 @@
         <v>62</v>
       </c>
       <c r="C64" s="8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D64" s="8">
         <v>5</v>
@@ -7747,7 +8012,7 @@
         <v>63</v>
       </c>
       <c r="C65" s="8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D65" s="8">
         <v>4</v>
@@ -7781,7 +8046,7 @@
         <v>64</v>
       </c>
       <c r="C66" s="8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D66" s="8">
         <v>3</v>
@@ -7815,7 +8080,7 @@
         <v>65</v>
       </c>
       <c r="C67" s="8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D67" s="8">
         <v>2</v>
@@ -7849,7 +8114,7 @@
         <v>66</v>
       </c>
       <c r="C68" s="8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D68" s="8">
         <v>1</v>
@@ -7883,7 +8148,7 @@
         <v>67</v>
       </c>
       <c r="C69" s="8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D69" s="8">
         <v>0</v>
@@ -8321,7 +8586,7 @@
         <v>194</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>194</v>
+        <v>869</v>
       </c>
       <c r="J80" s="3" t="s">
         <v>194</v>
@@ -9749,7 +10014,7 @@
         <v>23</v>
       </c>
       <c r="C124" s="10">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D124" s="10">
         <v>5</v>
@@ -9779,7 +10044,7 @@
         <v>24</v>
       </c>
       <c r="C125" s="10">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D125" s="10">
         <v>4</v>
@@ -9809,7 +10074,7 @@
         <v>25</v>
       </c>
       <c r="C126" s="10">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D126" s="10">
         <v>3</v>
@@ -9839,7 +10104,7 @@
         <v>26</v>
       </c>
       <c r="C127" s="10">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D127" s="10">
         <v>2</v>
@@ -9869,7 +10134,7 @@
         <v>27</v>
       </c>
       <c r="C128" s="10">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D128" s="10">
         <v>1</v>
@@ -9899,7 +10164,7 @@
         <v>28</v>
       </c>
       <c r="C129" s="10">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D129" s="10">
         <v>0</v>
@@ -10889,7 +11154,7 @@
         <v>52</v>
       </c>
       <c r="C154" s="10">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D154" s="10">
         <v>15</v>
@@ -10923,7 +11188,7 @@
         <v>53</v>
       </c>
       <c r="C155" s="10">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D155" s="10">
         <v>14</v>
@@ -10957,7 +11222,7 @@
         <v>54</v>
       </c>
       <c r="C156" s="10">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D156" s="10">
         <v>13</v>
@@ -10991,7 +11256,7 @@
         <v>55</v>
       </c>
       <c r="C157" s="10">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D157" s="10">
         <v>12</v>
@@ -11025,7 +11290,7 @@
         <v>56</v>
       </c>
       <c r="C158" s="10">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D158" s="10">
         <v>11</v>
@@ -11059,7 +11324,7 @@
         <v>57</v>
       </c>
       <c r="C159" s="10">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D159" s="10">
         <v>10</v>
@@ -11093,7 +11358,7 @@
         <v>58</v>
       </c>
       <c r="C160" s="10">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D160" s="10">
         <v>9</v>
@@ -11127,7 +11392,7 @@
         <v>59</v>
       </c>
       <c r="C161" s="10">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D161" s="10">
         <v>8</v>
@@ -11161,7 +11426,7 @@
         <v>60</v>
       </c>
       <c r="C162" s="10">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D162" s="10">
         <v>7</v>
@@ -11195,7 +11460,7 @@
         <v>61</v>
       </c>
       <c r="C163" s="10">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D163" s="10">
         <v>6</v>
@@ -11229,7 +11494,7 @@
         <v>62</v>
       </c>
       <c r="C164" s="10">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D164" s="10">
         <v>5</v>
@@ -11263,7 +11528,7 @@
         <v>63</v>
       </c>
       <c r="C165" s="10">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D165" s="10">
         <v>4</v>
@@ -11297,7 +11562,7 @@
         <v>64</v>
       </c>
       <c r="C166" s="10">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D166" s="10">
         <v>3</v>
@@ -11331,7 +11596,7 @@
         <v>65</v>
       </c>
       <c r="C167" s="10">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D167" s="10">
         <v>2</v>
@@ -11365,7 +11630,7 @@
         <v>66</v>
       </c>
       <c r="C168" s="10">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D168" s="10">
         <v>1</v>
@@ -11399,7 +11664,7 @@
         <v>67</v>
       </c>
       <c r="C169" s="10">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D169" s="10">
         <v>0</v>
@@ -13233,7 +13498,7 @@
         <v>23</v>
       </c>
       <c r="C224" s="11">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D224" s="11">
         <v>5</v>
@@ -13263,7 +13528,7 @@
         <v>24</v>
       </c>
       <c r="C225" s="11">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D225" s="11">
         <v>4</v>
@@ -13293,7 +13558,7 @@
         <v>25</v>
       </c>
       <c r="C226" s="11">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D226" s="11">
         <v>3</v>
@@ -13323,7 +13588,7 @@
         <v>26</v>
       </c>
       <c r="C227" s="11">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D227" s="11">
         <v>2</v>
@@ -13353,7 +13618,7 @@
         <v>27</v>
       </c>
       <c r="C228" s="11">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D228" s="11">
         <v>1</v>
@@ -13383,7 +13648,7 @@
         <v>28</v>
       </c>
       <c r="C229" s="11">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D229" s="11">
         <v>0</v>
@@ -14353,7 +14618,7 @@
         <v>52</v>
       </c>
       <c r="C254" s="11">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D254" s="11">
         <v>15</v>
@@ -14387,7 +14652,7 @@
         <v>53</v>
       </c>
       <c r="C255" s="11">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D255" s="11">
         <v>14</v>
@@ -14421,7 +14686,7 @@
         <v>54</v>
       </c>
       <c r="C256" s="11">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D256" s="11">
         <v>13</v>
@@ -14455,7 +14720,7 @@
         <v>55</v>
       </c>
       <c r="C257" s="11">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D257" s="11">
         <v>12</v>
@@ -14489,7 +14754,7 @@
         <v>56</v>
       </c>
       <c r="C258" s="11">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D258" s="11">
         <v>11</v>
@@ -14523,7 +14788,7 @@
         <v>57</v>
       </c>
       <c r="C259" s="11">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D259" s="11">
         <v>10</v>
@@ -14557,7 +14822,7 @@
         <v>58</v>
       </c>
       <c r="C260" s="11">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D260" s="11">
         <v>9</v>
@@ -14591,7 +14856,7 @@
         <v>59</v>
       </c>
       <c r="C261" s="11">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D261" s="11">
         <v>8</v>
@@ -14625,7 +14890,7 @@
         <v>60</v>
       </c>
       <c r="C262" s="11">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D262" s="11">
         <v>7</v>
@@ -14659,7 +14924,7 @@
         <v>61</v>
       </c>
       <c r="C263" s="11">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D263" s="11">
         <v>6</v>
@@ -14693,7 +14958,7 @@
         <v>62</v>
       </c>
       <c r="C264" s="11">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D264" s="11">
         <v>5</v>
@@ -14727,7 +14992,7 @@
         <v>63</v>
       </c>
       <c r="C265" s="11">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D265" s="11">
         <v>4</v>
@@ -14761,7 +15026,7 @@
         <v>64</v>
       </c>
       <c r="C266" s="11">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D266" s="11">
         <v>3</v>
@@ -14795,7 +15060,7 @@
         <v>65</v>
       </c>
       <c r="C267" s="11">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D267" s="11">
         <v>2</v>
@@ -14829,7 +15094,7 @@
         <v>66</v>
       </c>
       <c r="C268" s="11">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D268" s="11">
         <v>1</v>
@@ -14863,7 +15128,7 @@
         <v>67</v>
       </c>
       <c r="C269" s="11">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D269" s="11">
         <v>0</v>
@@ -15991,9 +16256,22 @@
     </row>
     <row r="302" spans="1:16" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9iKcavKJ7bXa2VAXjnQktA7bMIa0L+ozlYV01ValeWFg/EGf+5wj1snCiPjUkrGoeuoMsiLxPW4Cunz4U5jV4A==" saltValue="ziT6rR81fzZhA4TygKZN8w==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A1:P301"/>
   <mergeCells count="20">
+    <mergeCell ref="R23:R26"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="R37:S38"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="R1:T2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
     <mergeCell ref="R19:R20"/>
     <mergeCell ref="R21:R22"/>
     <mergeCell ref="S9:T9"/>
@@ -16001,19 +16279,6 @@
     <mergeCell ref="S12:T12"/>
     <mergeCell ref="R15:R16"/>
     <mergeCell ref="R17:R18"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="R1:T2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="R23:R26"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="R37:S38"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="R29:R30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="70">
@@ -16238,9 +16503,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K226"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B213" sqref="B213"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -16273,12 +16538,12 @@
       <c r="F1" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="103" t="s">
         <v>560</v>
       </c>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="87"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="105"/>
     </row>
     <row r="2" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="24">
@@ -16299,12 +16564,12 @@
       <c r="F2" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="H2" s="88" t="s">
+      <c r="H2" s="106" t="s">
         <v>561</v>
       </c>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="90"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="108"/>
     </row>
     <row r="3" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="24">
@@ -16325,12 +16590,12 @@
       <c r="F3" s="25" t="s">
         <v>392</v>
       </c>
-      <c r="H3" s="91" t="s">
+      <c r="H3" s="109" t="s">
         <v>562</v>
       </c>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="93"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="111"/>
     </row>
     <row r="4" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="24">
@@ -16351,12 +16616,12 @@
       <c r="F4" s="25" t="s">
         <v>394</v>
       </c>
-      <c r="H4" s="94" t="s">
+      <c r="H4" s="112" t="s">
         <v>564</v>
       </c>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="96"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="113"/>
+      <c r="K4" s="114"/>
     </row>
     <row r="5" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="24">
@@ -16377,10 +16642,10 @@
       <c r="F5" s="25" t="s">
         <v>395</v>
       </c>
-      <c r="H5" s="97"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="99"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="117"/>
     </row>
     <row r="6" spans="1:11" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A6" s="24">
@@ -16469,11 +16734,11 @@
       <c r="B10" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="C10" s="112" t="s">
+      <c r="C10" s="88" t="s">
         <v>583</v>
       </c>
-      <c r="D10" s="113"/>
-      <c r="E10" s="114"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="90"/>
       <c r="F10" s="25" t="s">
         <v>399</v>
       </c>
@@ -16485,9 +16750,11 @@
       <c r="B11" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="C11" s="115"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="117"/>
+      <c r="C11" s="88" t="s">
+        <v>583</v>
+      </c>
+      <c r="D11" s="89"/>
+      <c r="E11" s="90"/>
       <c r="F11" s="25" t="s">
         <v>400</v>
       </c>
@@ -16559,11 +16826,11 @@
       <c r="B15" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="C15" s="118" t="s">
+      <c r="C15" s="85" t="s">
         <v>583</v>
       </c>
-      <c r="D15" s="119"/>
-      <c r="E15" s="120"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="87"/>
       <c r="F15" s="26" t="s">
         <v>404</v>
       </c>
@@ -16673,11 +16940,11 @@
       <c r="B21" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="C21" s="112" t="s">
+      <c r="C21" s="88" t="s">
         <v>583</v>
       </c>
-      <c r="D21" s="113"/>
-      <c r="E21" s="114"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="90"/>
       <c r="F21" s="26" t="s">
         <v>410</v>
       </c>
@@ -16689,9 +16956,11 @@
       <c r="B22" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
+      <c r="C22" s="88" t="s">
+        <v>583</v>
+      </c>
+      <c r="D22" s="89"/>
+      <c r="E22" s="90"/>
       <c r="F22" s="26" t="s">
         <v>411</v>
       </c>
@@ -16757,11 +17026,11 @@
       <c r="B26" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="C26" s="112" t="s">
+      <c r="C26" s="88" t="s">
         <v>583</v>
       </c>
-      <c r="D26" s="113"/>
-      <c r="E26" s="114"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="90"/>
       <c r="F26" s="26" t="s">
         <v>415</v>
       </c>
@@ -16773,9 +17042,11 @@
       <c r="B27" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="C27" s="115"/>
-      <c r="D27" s="116"/>
-      <c r="E27" s="117"/>
+      <c r="C27" s="88" t="s">
+        <v>583</v>
+      </c>
+      <c r="D27" s="89"/>
+      <c r="E27" s="90"/>
       <c r="F27" s="26" t="s">
         <v>416</v>
       </c>
@@ -17171,11 +17442,11 @@
       <c r="B49" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="C49" s="118" t="s">
+      <c r="C49" s="85" t="s">
         <v>583</v>
       </c>
-      <c r="D49" s="119"/>
-      <c r="E49" s="120"/>
+      <c r="D49" s="86"/>
+      <c r="E49" s="87"/>
       <c r="F49" s="25" t="s">
         <v>432</v>
       </c>
@@ -17184,13 +17455,13 @@
       <c r="A50" s="27">
         <v>48</v>
       </c>
-      <c r="B50" s="109" t="s">
+      <c r="B50" s="100" t="s">
         <v>433</v>
       </c>
-      <c r="C50" s="110"/>
-      <c r="D50" s="110"/>
-      <c r="E50" s="110"/>
-      <c r="F50" s="111"/>
+      <c r="C50" s="101"/>
+      <c r="D50" s="101"/>
+      <c r="E50" s="101"/>
+      <c r="F50" s="102"/>
     </row>
     <row r="51" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="24">
@@ -17199,11 +17470,11 @@
       <c r="B51" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="C51" s="112" t="s">
+      <c r="C51" s="88" t="s">
         <v>583</v>
       </c>
-      <c r="D51" s="113"/>
-      <c r="E51" s="114"/>
+      <c r="D51" s="89"/>
+      <c r="E51" s="90"/>
       <c r="F51" s="25" t="s">
         <v>434</v>
       </c>
@@ -17215,9 +17486,11 @@
       <c r="B52" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="C52" s="121"/>
-      <c r="D52" s="122"/>
-      <c r="E52" s="123"/>
+      <c r="C52" s="88" t="s">
+        <v>583</v>
+      </c>
+      <c r="D52" s="89"/>
+      <c r="E52" s="90"/>
       <c r="F52" s="25" t="s">
         <v>435</v>
       </c>
@@ -17229,9 +17502,11 @@
       <c r="B53" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="C53" s="115"/>
-      <c r="D53" s="116"/>
-      <c r="E53" s="117"/>
+      <c r="C53" s="88" t="s">
+        <v>583</v>
+      </c>
+      <c r="D53" s="89"/>
+      <c r="E53" s="90"/>
       <c r="F53" s="25" t="s">
         <v>436</v>
       </c>
@@ -17695,11 +17970,11 @@
       <c r="B79" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="C79" s="112" t="s">
+      <c r="C79" s="88" t="s">
         <v>583</v>
       </c>
-      <c r="D79" s="113"/>
-      <c r="E79" s="114"/>
+      <c r="D79" s="89"/>
+      <c r="E79" s="90"/>
       <c r="F79" s="25" t="s">
         <v>462</v>
       </c>
@@ -17711,9 +17986,11 @@
       <c r="B80" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="C80" s="121"/>
-      <c r="D80" s="122"/>
-      <c r="E80" s="123"/>
+      <c r="C80" s="88" t="s">
+        <v>583</v>
+      </c>
+      <c r="D80" s="89"/>
+      <c r="E80" s="90"/>
       <c r="F80" s="25" t="s">
         <v>463</v>
       </c>
@@ -17725,9 +18002,11 @@
       <c r="B81" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="C81" s="121"/>
-      <c r="D81" s="122"/>
-      <c r="E81" s="123"/>
+      <c r="C81" s="88" t="s">
+        <v>583</v>
+      </c>
+      <c r="D81" s="89"/>
+      <c r="E81" s="90"/>
       <c r="F81" s="26" t="s">
         <v>464</v>
       </c>
@@ -17739,9 +18018,11 @@
       <c r="B82" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="C82" s="121"/>
-      <c r="D82" s="122"/>
-      <c r="E82" s="123"/>
+      <c r="C82" s="88" t="s">
+        <v>583</v>
+      </c>
+      <c r="D82" s="89"/>
+      <c r="E82" s="90"/>
       <c r="F82" s="26" t="s">
         <v>465</v>
       </c>
@@ -17753,9 +18034,11 @@
       <c r="B83" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="C83" s="121"/>
-      <c r="D83" s="122"/>
-      <c r="E83" s="123"/>
+      <c r="C83" s="88" t="s">
+        <v>583</v>
+      </c>
+      <c r="D83" s="89"/>
+      <c r="E83" s="90"/>
       <c r="F83" s="26" t="s">
         <v>466</v>
       </c>
@@ -17767,9 +18050,11 @@
       <c r="B84" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="C84" s="121"/>
-      <c r="D84" s="122"/>
-      <c r="E84" s="123"/>
+      <c r="C84" s="88" t="s">
+        <v>583</v>
+      </c>
+      <c r="D84" s="89"/>
+      <c r="E84" s="90"/>
       <c r="F84" s="26" t="s">
         <v>467</v>
       </c>
@@ -17781,9 +18066,11 @@
       <c r="B85" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="C85" s="115"/>
-      <c r="D85" s="116"/>
-      <c r="E85" s="117"/>
+      <c r="C85" s="88" t="s">
+        <v>583</v>
+      </c>
+      <c r="D85" s="89"/>
+      <c r="E85" s="90"/>
       <c r="F85" s="26" t="s">
         <v>468</v>
       </c>
@@ -18008,63 +18295,63 @@
       <c r="A98" s="27">
         <v>96</v>
       </c>
-      <c r="B98" s="100" t="s">
+      <c r="B98" s="91" t="s">
         <v>433</v>
       </c>
-      <c r="C98" s="101"/>
-      <c r="D98" s="101"/>
-      <c r="E98" s="101"/>
-      <c r="F98" s="102"/>
+      <c r="C98" s="92"/>
+      <c r="D98" s="92"/>
+      <c r="E98" s="92"/>
+      <c r="F98" s="93"/>
     </row>
     <row r="99" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="27">
         <v>97</v>
       </c>
-      <c r="B99" s="103"/>
-      <c r="C99" s="104"/>
-      <c r="D99" s="104"/>
-      <c r="E99" s="104"/>
-      <c r="F99" s="105"/>
+      <c r="B99" s="94"/>
+      <c r="C99" s="95"/>
+      <c r="D99" s="95"/>
+      <c r="E99" s="95"/>
+      <c r="F99" s="96"/>
     </row>
     <row r="100" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="27">
         <v>98</v>
       </c>
-      <c r="B100" s="103"/>
-      <c r="C100" s="104"/>
-      <c r="D100" s="104"/>
-      <c r="E100" s="104"/>
-      <c r="F100" s="105"/>
+      <c r="B100" s="94"/>
+      <c r="C100" s="95"/>
+      <c r="D100" s="95"/>
+      <c r="E100" s="95"/>
+      <c r="F100" s="96"/>
     </row>
     <row r="101" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="27">
         <v>99</v>
       </c>
-      <c r="B101" s="103"/>
-      <c r="C101" s="104"/>
-      <c r="D101" s="104"/>
-      <c r="E101" s="104"/>
-      <c r="F101" s="105"/>
+      <c r="B101" s="94"/>
+      <c r="C101" s="95"/>
+      <c r="D101" s="95"/>
+      <c r="E101" s="95"/>
+      <c r="F101" s="96"/>
     </row>
     <row r="102" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="27">
         <v>100</v>
       </c>
-      <c r="B102" s="103"/>
-      <c r="C102" s="104"/>
-      <c r="D102" s="104"/>
-      <c r="E102" s="104"/>
-      <c r="F102" s="105"/>
+      <c r="B102" s="94"/>
+      <c r="C102" s="95"/>
+      <c r="D102" s="95"/>
+      <c r="E102" s="95"/>
+      <c r="F102" s="96"/>
     </row>
     <row r="103" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="27">
         <v>101</v>
       </c>
-      <c r="B103" s="106"/>
-      <c r="C103" s="107"/>
-      <c r="D103" s="107"/>
-      <c r="E103" s="107"/>
-      <c r="F103" s="108"/>
+      <c r="B103" s="97"/>
+      <c r="C103" s="98"/>
+      <c r="D103" s="98"/>
+      <c r="E103" s="98"/>
+      <c r="F103" s="99"/>
     </row>
     <row r="104" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="24">
@@ -18073,11 +18360,11 @@
       <c r="B104" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="C104" s="112" t="s">
+      <c r="C104" s="88" t="s">
         <v>583</v>
       </c>
-      <c r="D104" s="113"/>
-      <c r="E104" s="114"/>
+      <c r="D104" s="89"/>
+      <c r="E104" s="90"/>
       <c r="F104" s="26" t="s">
         <v>481</v>
       </c>
@@ -18089,9 +18376,11 @@
       <c r="B105" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="C105" s="121"/>
-      <c r="D105" s="122"/>
-      <c r="E105" s="123"/>
+      <c r="C105" s="88" t="s">
+        <v>583</v>
+      </c>
+      <c r="D105" s="89"/>
+      <c r="E105" s="90"/>
       <c r="F105" s="26" t="s">
         <v>482</v>
       </c>
@@ -18103,9 +18392,11 @@
       <c r="B106" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="C106" s="115"/>
-      <c r="D106" s="116"/>
-      <c r="E106" s="117"/>
+      <c r="C106" s="88" t="s">
+        <v>583</v>
+      </c>
+      <c r="D106" s="89"/>
+      <c r="E106" s="90"/>
       <c r="F106" s="26" t="s">
         <v>483</v>
       </c>
@@ -18223,11 +18514,11 @@
       <c r="B113" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="C113" s="112" t="s">
+      <c r="C113" s="88" t="s">
         <v>583</v>
       </c>
-      <c r="D113" s="113"/>
-      <c r="E113" s="114"/>
+      <c r="D113" s="89"/>
+      <c r="E113" s="90"/>
       <c r="F113" s="25" t="s">
         <v>490</v>
       </c>
@@ -18239,9 +18530,11 @@
       <c r="B114" s="19" t="s">
         <v>382</v>
       </c>
-      <c r="C114" s="115"/>
-      <c r="D114" s="116"/>
-      <c r="E114" s="117"/>
+      <c r="C114" s="88" t="s">
+        <v>583</v>
+      </c>
+      <c r="D114" s="89"/>
+      <c r="E114" s="90"/>
       <c r="F114" s="25" t="s">
         <v>491</v>
       </c>
@@ -18505,11 +18798,11 @@
       <c r="B129" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="C129" s="118" t="s">
+      <c r="C129" s="85" t="s">
         <v>583</v>
       </c>
-      <c r="D129" s="119"/>
-      <c r="E129" s="120"/>
+      <c r="D129" s="86"/>
+      <c r="E129" s="87"/>
       <c r="F129" s="25" t="s">
         <v>502</v>
       </c>
@@ -18518,63 +18811,63 @@
       <c r="A130" s="27">
         <v>128</v>
       </c>
-      <c r="B130" s="100" t="s">
+      <c r="B130" s="91" t="s">
         <v>433</v>
       </c>
-      <c r="C130" s="101"/>
-      <c r="D130" s="101"/>
-      <c r="E130" s="101"/>
-      <c r="F130" s="102"/>
+      <c r="C130" s="92"/>
+      <c r="D130" s="92"/>
+      <c r="E130" s="92"/>
+      <c r="F130" s="93"/>
     </row>
     <row r="131" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="27">
         <v>129</v>
       </c>
-      <c r="B131" s="103"/>
-      <c r="C131" s="104"/>
-      <c r="D131" s="104"/>
-      <c r="E131" s="104"/>
-      <c r="F131" s="105"/>
+      <c r="B131" s="94"/>
+      <c r="C131" s="95"/>
+      <c r="D131" s="95"/>
+      <c r="E131" s="95"/>
+      <c r="F131" s="96"/>
     </row>
     <row r="132" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="27">
         <v>130</v>
       </c>
-      <c r="B132" s="103"/>
-      <c r="C132" s="104"/>
-      <c r="D132" s="104"/>
-      <c r="E132" s="104"/>
-      <c r="F132" s="105"/>
+      <c r="B132" s="94"/>
+      <c r="C132" s="95"/>
+      <c r="D132" s="95"/>
+      <c r="E132" s="95"/>
+      <c r="F132" s="96"/>
     </row>
     <row r="133" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="27">
         <v>131</v>
       </c>
-      <c r="B133" s="103"/>
-      <c r="C133" s="104"/>
-      <c r="D133" s="104"/>
-      <c r="E133" s="104"/>
-      <c r="F133" s="105"/>
+      <c r="B133" s="94"/>
+      <c r="C133" s="95"/>
+      <c r="D133" s="95"/>
+      <c r="E133" s="95"/>
+      <c r="F133" s="96"/>
     </row>
     <row r="134" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="27">
         <v>132</v>
       </c>
-      <c r="B134" s="103"/>
-      <c r="C134" s="104"/>
-      <c r="D134" s="104"/>
-      <c r="E134" s="104"/>
-      <c r="F134" s="105"/>
+      <c r="B134" s="94"/>
+      <c r="C134" s="95"/>
+      <c r="D134" s="95"/>
+      <c r="E134" s="95"/>
+      <c r="F134" s="96"/>
     </row>
     <row r="135" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="27">
         <v>133</v>
       </c>
-      <c r="B135" s="106"/>
-      <c r="C135" s="107"/>
-      <c r="D135" s="107"/>
-      <c r="E135" s="107"/>
-      <c r="F135" s="108"/>
+      <c r="B135" s="97"/>
+      <c r="C135" s="98"/>
+      <c r="D135" s="98"/>
+      <c r="E135" s="98"/>
+      <c r="F135" s="99"/>
     </row>
     <row r="136" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="24">
@@ -18927,11 +19220,11 @@
       <c r="B155" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="C155" s="112" t="s">
+      <c r="C155" s="88" t="s">
         <v>583</v>
       </c>
-      <c r="D155" s="113"/>
-      <c r="E155" s="114"/>
+      <c r="D155" s="89"/>
+      <c r="E155" s="90"/>
       <c r="F155" s="25" t="s">
         <v>521</v>
       </c>
@@ -18943,9 +19236,11 @@
       <c r="B156" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="C156" s="115"/>
-      <c r="D156" s="116"/>
-      <c r="E156" s="117"/>
+      <c r="C156" s="88" t="s">
+        <v>583</v>
+      </c>
+      <c r="D156" s="89"/>
+      <c r="E156" s="90"/>
       <c r="F156" s="25" t="s">
         <v>522</v>
       </c>
@@ -18954,13 +19249,13 @@
       <c r="A157" s="27">
         <v>155</v>
       </c>
-      <c r="B157" s="109" t="s">
+      <c r="B157" s="100" t="s">
         <v>433</v>
       </c>
-      <c r="C157" s="110"/>
-      <c r="D157" s="110"/>
-      <c r="E157" s="110"/>
-      <c r="F157" s="111"/>
+      <c r="C157" s="101"/>
+      <c r="D157" s="101"/>
+      <c r="E157" s="101"/>
+      <c r="F157" s="102"/>
     </row>
     <row r="158" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="24">
@@ -18969,11 +19264,11 @@
       <c r="B158" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="C158" s="118" t="s">
+      <c r="C158" s="85" t="s">
         <v>583</v>
       </c>
-      <c r="D158" s="119"/>
-      <c r="E158" s="120"/>
+      <c r="D158" s="86"/>
+      <c r="E158" s="87"/>
       <c r="F158" s="25" t="s">
         <v>523</v>
       </c>
@@ -19108,123 +19403,123 @@
       <c r="A166" s="27">
         <v>164</v>
       </c>
-      <c r="B166" s="100" t="s">
+      <c r="B166" s="91" t="s">
         <v>433</v>
       </c>
-      <c r="C166" s="101"/>
-      <c r="D166" s="101"/>
-      <c r="E166" s="101"/>
-      <c r="F166" s="102"/>
+      <c r="C166" s="92"/>
+      <c r="D166" s="92"/>
+      <c r="E166" s="92"/>
+      <c r="F166" s="93"/>
     </row>
     <row r="167" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="27">
         <v>165</v>
       </c>
-      <c r="B167" s="103"/>
-      <c r="C167" s="104"/>
-      <c r="D167" s="104"/>
-      <c r="E167" s="104"/>
-      <c r="F167" s="105"/>
+      <c r="B167" s="94"/>
+      <c r="C167" s="95"/>
+      <c r="D167" s="95"/>
+      <c r="E167" s="95"/>
+      <c r="F167" s="96"/>
     </row>
     <row r="168" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="27">
         <v>166</v>
       </c>
-      <c r="B168" s="103"/>
-      <c r="C168" s="104"/>
-      <c r="D168" s="104"/>
-      <c r="E168" s="104"/>
-      <c r="F168" s="105"/>
+      <c r="B168" s="94"/>
+      <c r="C168" s="95"/>
+      <c r="D168" s="95"/>
+      <c r="E168" s="95"/>
+      <c r="F168" s="96"/>
     </row>
     <row r="169" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="27">
         <v>167</v>
       </c>
-      <c r="B169" s="103"/>
-      <c r="C169" s="104"/>
-      <c r="D169" s="104"/>
-      <c r="E169" s="104"/>
-      <c r="F169" s="105"/>
+      <c r="B169" s="94"/>
+      <c r="C169" s="95"/>
+      <c r="D169" s="95"/>
+      <c r="E169" s="95"/>
+      <c r="F169" s="96"/>
     </row>
     <row r="170" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="27">
         <v>168</v>
       </c>
-      <c r="B170" s="103"/>
-      <c r="C170" s="104"/>
-      <c r="D170" s="104"/>
-      <c r="E170" s="104"/>
-      <c r="F170" s="105"/>
+      <c r="B170" s="94"/>
+      <c r="C170" s="95"/>
+      <c r="D170" s="95"/>
+      <c r="E170" s="95"/>
+      <c r="F170" s="96"/>
     </row>
     <row r="171" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="27">
         <v>169</v>
       </c>
-      <c r="B171" s="103"/>
-      <c r="C171" s="104"/>
-      <c r="D171" s="104"/>
-      <c r="E171" s="104"/>
-      <c r="F171" s="105"/>
+      <c r="B171" s="94"/>
+      <c r="C171" s="95"/>
+      <c r="D171" s="95"/>
+      <c r="E171" s="95"/>
+      <c r="F171" s="96"/>
     </row>
     <row r="172" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="27">
         <v>170</v>
       </c>
-      <c r="B172" s="103"/>
-      <c r="C172" s="104"/>
-      <c r="D172" s="104"/>
-      <c r="E172" s="104"/>
-      <c r="F172" s="105"/>
+      <c r="B172" s="94"/>
+      <c r="C172" s="95"/>
+      <c r="D172" s="95"/>
+      <c r="E172" s="95"/>
+      <c r="F172" s="96"/>
     </row>
     <row r="173" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="27">
         <v>171</v>
       </c>
-      <c r="B173" s="103"/>
-      <c r="C173" s="104"/>
-      <c r="D173" s="104"/>
-      <c r="E173" s="104"/>
-      <c r="F173" s="105"/>
+      <c r="B173" s="94"/>
+      <c r="C173" s="95"/>
+      <c r="D173" s="95"/>
+      <c r="E173" s="95"/>
+      <c r="F173" s="96"/>
     </row>
     <row r="174" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="27">
         <v>172</v>
       </c>
-      <c r="B174" s="103"/>
-      <c r="C174" s="104"/>
-      <c r="D174" s="104"/>
-      <c r="E174" s="104"/>
-      <c r="F174" s="105"/>
+      <c r="B174" s="94"/>
+      <c r="C174" s="95"/>
+      <c r="D174" s="95"/>
+      <c r="E174" s="95"/>
+      <c r="F174" s="96"/>
     </row>
     <row r="175" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="27">
         <v>173</v>
       </c>
-      <c r="B175" s="103"/>
-      <c r="C175" s="104"/>
-      <c r="D175" s="104"/>
-      <c r="E175" s="104"/>
-      <c r="F175" s="105"/>
+      <c r="B175" s="94"/>
+      <c r="C175" s="95"/>
+      <c r="D175" s="95"/>
+      <c r="E175" s="95"/>
+      <c r="F175" s="96"/>
     </row>
     <row r="176" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="27">
         <v>174</v>
       </c>
-      <c r="B176" s="103"/>
-      <c r="C176" s="104"/>
-      <c r="D176" s="104"/>
-      <c r="E176" s="104"/>
-      <c r="F176" s="105"/>
+      <c r="B176" s="94"/>
+      <c r="C176" s="95"/>
+      <c r="D176" s="95"/>
+      <c r="E176" s="95"/>
+      <c r="F176" s="96"/>
     </row>
     <row r="177" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="27">
         <v>175</v>
       </c>
-      <c r="B177" s="106"/>
-      <c r="C177" s="107"/>
-      <c r="D177" s="107"/>
-      <c r="E177" s="107"/>
-      <c r="F177" s="108"/>
+      <c r="B177" s="97"/>
+      <c r="C177" s="98"/>
+      <c r="D177" s="98"/>
+      <c r="E177" s="98"/>
+      <c r="F177" s="99"/>
     </row>
     <row r="178" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="24">
@@ -19608,13 +19903,13 @@
       <c r="A199" s="27">
         <v>197</v>
       </c>
-      <c r="B199" s="109" t="s">
+      <c r="B199" s="100" t="s">
         <v>569</v>
       </c>
-      <c r="C199" s="110"/>
-      <c r="D199" s="110"/>
-      <c r="E199" s="110"/>
-      <c r="F199" s="111"/>
+      <c r="C199" s="101"/>
+      <c r="D199" s="101"/>
+      <c r="E199" s="101"/>
+      <c r="F199" s="102"/>
     </row>
     <row r="200" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="24">
@@ -19638,103 +19933,103 @@
       <c r="A201" s="27">
         <v>199</v>
       </c>
-      <c r="B201" s="100" t="s">
+      <c r="B201" s="91" t="s">
         <v>568</v>
       </c>
-      <c r="C201" s="101"/>
-      <c r="D201" s="101"/>
-      <c r="E201" s="101"/>
-      <c r="F201" s="102"/>
+      <c r="C201" s="92"/>
+      <c r="D201" s="92"/>
+      <c r="E201" s="92"/>
+      <c r="F201" s="93"/>
     </row>
     <row r="202" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="27">
         <v>200</v>
       </c>
-      <c r="B202" s="103"/>
-      <c r="C202" s="104"/>
-      <c r="D202" s="104"/>
-      <c r="E202" s="104"/>
-      <c r="F202" s="105"/>
+      <c r="B202" s="94"/>
+      <c r="C202" s="95"/>
+      <c r="D202" s="95"/>
+      <c r="E202" s="95"/>
+      <c r="F202" s="96"/>
     </row>
     <row r="203" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="27">
         <v>201</v>
       </c>
-      <c r="B203" s="103"/>
-      <c r="C203" s="104"/>
-      <c r="D203" s="104"/>
-      <c r="E203" s="104"/>
-      <c r="F203" s="105"/>
+      <c r="B203" s="94"/>
+      <c r="C203" s="95"/>
+      <c r="D203" s="95"/>
+      <c r="E203" s="95"/>
+      <c r="F203" s="96"/>
     </row>
     <row r="204" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="27">
         <v>202</v>
       </c>
-      <c r="B204" s="103"/>
-      <c r="C204" s="104"/>
-      <c r="D204" s="104"/>
-      <c r="E204" s="104"/>
-      <c r="F204" s="105"/>
+      <c r="B204" s="94"/>
+      <c r="C204" s="95"/>
+      <c r="D204" s="95"/>
+      <c r="E204" s="95"/>
+      <c r="F204" s="96"/>
     </row>
     <row r="205" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="27">
         <v>203</v>
       </c>
-      <c r="B205" s="103"/>
-      <c r="C205" s="104"/>
-      <c r="D205" s="104"/>
-      <c r="E205" s="104"/>
-      <c r="F205" s="105"/>
+      <c r="B205" s="94"/>
+      <c r="C205" s="95"/>
+      <c r="D205" s="95"/>
+      <c r="E205" s="95"/>
+      <c r="F205" s="96"/>
     </row>
     <row r="206" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="27">
         <v>204</v>
       </c>
-      <c r="B206" s="103"/>
-      <c r="C206" s="104"/>
-      <c r="D206" s="104"/>
-      <c r="E206" s="104"/>
-      <c r="F206" s="105"/>
+      <c r="B206" s="94"/>
+      <c r="C206" s="95"/>
+      <c r="D206" s="95"/>
+      <c r="E206" s="95"/>
+      <c r="F206" s="96"/>
     </row>
     <row r="207" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="27">
         <v>205</v>
       </c>
-      <c r="B207" s="103"/>
-      <c r="C207" s="104"/>
-      <c r="D207" s="104"/>
-      <c r="E207" s="104"/>
-      <c r="F207" s="105"/>
+      <c r="B207" s="94"/>
+      <c r="C207" s="95"/>
+      <c r="D207" s="95"/>
+      <c r="E207" s="95"/>
+      <c r="F207" s="96"/>
     </row>
     <row r="208" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="27">
         <v>206</v>
       </c>
-      <c r="B208" s="103"/>
-      <c r="C208" s="104"/>
-      <c r="D208" s="104"/>
-      <c r="E208" s="104"/>
-      <c r="F208" s="105"/>
+      <c r="B208" s="94"/>
+      <c r="C208" s="95"/>
+      <c r="D208" s="95"/>
+      <c r="E208" s="95"/>
+      <c r="F208" s="96"/>
     </row>
     <row r="209" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="27">
         <v>207</v>
       </c>
-      <c r="B209" s="103"/>
-      <c r="C209" s="104"/>
-      <c r="D209" s="104"/>
-      <c r="E209" s="104"/>
-      <c r="F209" s="105"/>
+      <c r="B209" s="94"/>
+      <c r="C209" s="95"/>
+      <c r="D209" s="95"/>
+      <c r="E209" s="95"/>
+      <c r="F209" s="96"/>
     </row>
     <row r="210" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="27">
         <v>208</v>
       </c>
-      <c r="B210" s="106"/>
-      <c r="C210" s="107"/>
-      <c r="D210" s="107"/>
-      <c r="E210" s="107"/>
-      <c r="F210" s="108"/>
+      <c r="B210" s="97"/>
+      <c r="C210" s="98"/>
+      <c r="D210" s="98"/>
+      <c r="E210" s="98"/>
+      <c r="F210" s="99"/>
     </row>
     <row r="211" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="24">
@@ -19794,83 +20089,83 @@
       <c r="A214" s="27">
         <v>212</v>
       </c>
-      <c r="B214" s="100" t="s">
+      <c r="B214" s="91" t="s">
         <v>552</v>
       </c>
-      <c r="C214" s="101"/>
-      <c r="D214" s="101"/>
-      <c r="E214" s="101"/>
-      <c r="F214" s="102"/>
+      <c r="C214" s="92"/>
+      <c r="D214" s="92"/>
+      <c r="E214" s="92"/>
+      <c r="F214" s="93"/>
     </row>
     <row r="215" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="27">
         <v>213</v>
       </c>
-      <c r="B215" s="103"/>
-      <c r="C215" s="104"/>
-      <c r="D215" s="104"/>
-      <c r="E215" s="104"/>
-      <c r="F215" s="105"/>
+      <c r="B215" s="94"/>
+      <c r="C215" s="95"/>
+      <c r="D215" s="95"/>
+      <c r="E215" s="95"/>
+      <c r="F215" s="96"/>
     </row>
     <row r="216" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="27">
         <v>214</v>
       </c>
-      <c r="B216" s="103"/>
-      <c r="C216" s="104"/>
-      <c r="D216" s="104"/>
-      <c r="E216" s="104"/>
-      <c r="F216" s="105"/>
+      <c r="B216" s="94"/>
+      <c r="C216" s="95"/>
+      <c r="D216" s="95"/>
+      <c r="E216" s="95"/>
+      <c r="F216" s="96"/>
     </row>
     <row r="217" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="27">
         <v>215</v>
       </c>
-      <c r="B217" s="103"/>
-      <c r="C217" s="104"/>
-      <c r="D217" s="104"/>
-      <c r="E217" s="104"/>
-      <c r="F217" s="105"/>
+      <c r="B217" s="94"/>
+      <c r="C217" s="95"/>
+      <c r="D217" s="95"/>
+      <c r="E217" s="95"/>
+      <c r="F217" s="96"/>
     </row>
     <row r="218" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="27">
         <v>216</v>
       </c>
-      <c r="B218" s="103"/>
-      <c r="C218" s="104"/>
-      <c r="D218" s="104"/>
-      <c r="E218" s="104"/>
-      <c r="F218" s="105"/>
+      <c r="B218" s="94"/>
+      <c r="C218" s="95"/>
+      <c r="D218" s="95"/>
+      <c r="E218" s="95"/>
+      <c r="F218" s="96"/>
     </row>
     <row r="219" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="27">
         <v>217</v>
       </c>
-      <c r="B219" s="103"/>
-      <c r="C219" s="104"/>
-      <c r="D219" s="104"/>
-      <c r="E219" s="104"/>
-      <c r="F219" s="105"/>
+      <c r="B219" s="94"/>
+      <c r="C219" s="95"/>
+      <c r="D219" s="95"/>
+      <c r="E219" s="95"/>
+      <c r="F219" s="96"/>
     </row>
     <row r="220" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="27">
         <v>218</v>
       </c>
-      <c r="B220" s="103"/>
-      <c r="C220" s="104"/>
-      <c r="D220" s="104"/>
-      <c r="E220" s="104"/>
-      <c r="F220" s="105"/>
+      <c r="B220" s="94"/>
+      <c r="C220" s="95"/>
+      <c r="D220" s="95"/>
+      <c r="E220" s="95"/>
+      <c r="F220" s="96"/>
     </row>
     <row r="221" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="27">
         <v>219</v>
       </c>
-      <c r="B221" s="103"/>
-      <c r="C221" s="104"/>
-      <c r="D221" s="104"/>
-      <c r="E221" s="104"/>
-      <c r="F221" s="105"/>
+      <c r="B221" s="94"/>
+      <c r="C221" s="95"/>
+      <c r="D221" s="95"/>
+      <c r="E221" s="95"/>
+      <c r="F221" s="96"/>
     </row>
     <row r="222" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="24">
@@ -19879,11 +20174,11 @@
       <c r="B222" s="19" t="s">
         <v>390</v>
       </c>
-      <c r="C222" s="118" t="s">
+      <c r="C222" s="85" t="s">
         <v>583</v>
       </c>
-      <c r="D222" s="119"/>
-      <c r="E222" s="120"/>
+      <c r="D222" s="86"/>
+      <c r="E222" s="87"/>
       <c r="F222" s="25" t="s">
         <v>556</v>
       </c>
@@ -19918,7 +20213,7 @@
         <v>720</v>
       </c>
       <c r="E224" s="60" t="s">
-        <v>806</v>
+        <v>870</v>
       </c>
       <c r="F224" s="25" t="s">
         <v>558</v>
@@ -19947,12 +20242,36 @@
     <row r="226" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="25">
+  <mergeCells count="40">
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C104:E104"/>
+    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H4:K5"/>
+    <mergeCell ref="B98:F103"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
     <mergeCell ref="C222:E222"/>
-    <mergeCell ref="C104:E106"/>
-    <mergeCell ref="C113:E114"/>
     <mergeCell ref="C129:E129"/>
-    <mergeCell ref="C155:E156"/>
     <mergeCell ref="C158:E158"/>
     <mergeCell ref="B214:F221"/>
     <mergeCell ref="B130:F135"/>
@@ -19960,44 +20279,110 @@
     <mergeCell ref="B166:F177"/>
     <mergeCell ref="B201:F210"/>
     <mergeCell ref="B199:F199"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H4:K5"/>
-    <mergeCell ref="B98:F103"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="C10:E11"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C21:E22"/>
-    <mergeCell ref="C26:E27"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C51:E53"/>
-    <mergeCell ref="C79:E85"/>
+    <mergeCell ref="C155:E155"/>
+    <mergeCell ref="C156:E156"/>
+    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="C114:E114"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C3 C10 C21 C26 C15 C49 C51 C79 C104 C113 C129 C155 C158 C222">
-    <cfRule type="containsText" dxfId="4" priority="24" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="34" priority="39" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:E2 D3:E9">
-    <cfRule type="containsText" dxfId="3" priority="23" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="33" priority="38" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5 C7 C9 C13 D19:E19 C23:E23 C25:E25 C29:E29 C31:E31 C35:E35 C37:E37 C41:E41 C47 C55:E55 C63 C65 C67 C69 C71:E71 C73:E73 C75:E75 C87:E87 C107:E107 C109:E109 C111:E111 C115:E115 C117:E117 C119:E119 C123:E123 C125:E125 C127:E127 C137:E137 C147 C149 C151 C153:E153 C159:E159 C161:E161 C163:E163 C179:E179 C211:E211 C213:E213 C223:E223 C225:E225 C33:E33 D46 D48 D64 D66 D68 D146 D148 D150 C39:E39 C43:E43 C45:E45 E47 C77:E77 C57:E57 C59:E59 C61:E61 E63 E65 E67 E69 C89:E89 C91:E91 C93:E93 C95:E95 C97:E97 C121:E121 C139:E139 C141:E141 C143:E143 C145:E145 E147 E149 E151 C165:E165 C181:E181 C183:E183 C185:E185 C187:E187 C189:E189 C191:E191 C193:E193 C195:E195 C197:E197">
-    <cfRule type="containsText" dxfId="2" priority="22" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="32" priority="37" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4 C6 C8 C12:E12 C16:E16 C20:E20 C24:E24 C28:E28 C30:E30 C32:E32 C34:E34 C36:E36 C42:E42 C46 C48 C54:E54 C64 C66 C68 C70:E70 C72:E72 C74:E74 C78:E78 C86:E86 C108:E108 C110:E110 C112:E112 C116:E116 C118:E118 C122:E122 C126:E126 C128:E128 C136:E136 C146 C148 C150 C152:E152 C154:E154 C160:E160 C162:E162 C178:E178 C200:E200 C212:E212 C224:E224 D17:E18 D13:E13 D47 D63 D65 D67 D69 D147 D149 D151 C14:E14 C38:E38 C40:E40 C44:E44 E46 E48 C76:E76 C56:E56 C58:E58 C60:E60 C62:E62 E64 E66 E68 C88:E88 C90:E90 C92:E92 C94:E94 C96:E96 C120:E120 C124:E124 C138:E138 C140:E140 C142:E142 C144:E144 E146 E148 E150 C164:E164 C180:E180 C182:E182 C184:E184 C186:E186 C188:E188 C190:E190 C192:E192 C194:E194 C196:E196 C198:E198 C17:C19">
-    <cfRule type="containsText" dxfId="1" priority="21" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="31" priority="36" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:F2 E4 E6 E8">
-    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="30" priority="20" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C156">
+    <cfRule type="containsText" dxfId="29" priority="15" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C156)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C114">
+    <cfRule type="containsText" dxfId="27" priority="14" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C114)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C105">
+    <cfRule type="containsText" dxfId="25" priority="13" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C105)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C106">
+    <cfRule type="containsText" dxfId="23" priority="12" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C106)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C80">
+    <cfRule type="containsText" dxfId="21" priority="11" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C80)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C81">
+    <cfRule type="containsText" dxfId="19" priority="10" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C81)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82">
+    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C82)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C83">
+    <cfRule type="containsText" dxfId="15" priority="8" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C83)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C84">
+    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C84)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C85">
+    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C85)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53">
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -20024,7 +20409,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
